--- a/xlsx/historical_items.xlsx
+++ b/xlsx/historical_items.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_k\Desktop\ken_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_k\work_stuff\historical-transportation-map\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C97BCD8-D5F8-45AC-9FD6-C39E8574F4BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2F564D-1303-46F6-87E0-28DBB18C4F4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{171EF181-1F3C-7A42-9B63-D835B687641B}"/>
   </bookViews>
@@ -501,7 +501,7 @@
     <t>year</t>
   </si>
   <si>
-    <t xml:space="preserve">text </t>
+    <t>text</t>
   </si>
 </sst>
 </file>
@@ -887,9 +887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8479D0E-E3F6-DA41-AEC9-2CE4981D9A6E}">
   <dimension ref="A1:B160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>

--- a/xlsx/historical_items.xlsx
+++ b/xlsx/historical_items.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_k\work_stuff\historical-transportation-map\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2F564D-1303-46F6-87E0-28DBB18C4F4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAF0541-4287-4D34-8DFA-EF247C4F9EB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{171EF181-1F3C-7A42-9B63-D835B687641B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="366">
   <si>
     <t>The U.S. capital is moved from Philadelphia to Washington, DC.</t>
   </si>
@@ -57,12 +57,6 @@
     <t>Robert Fulton patents steamboat.</t>
   </si>
   <si>
-    <t>Allardyce Barclay begins a bet of walking 1 mile every hour for 1,000 hours. Each hour he walked a mile round trip from his home.</t>
-  </si>
-  <si>
-    <t>1st US steamboat to a make an ocean voyage leaves NY for Philadelphia.</t>
-  </si>
-  <si>
     <t>The first steam-powered ferry service between New York City and Hoboken, New Jersey.</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
     <t>First commercially successful self-propelled engine on land was Mathew Murray's Salamanca on Middleton Railway using toothed wheels and rail.</t>
   </si>
   <si>
-    <t>1st US raw cotton-to-cloth mill founded in Waltham, Massachusetts.</t>
-  </si>
-  <si>
     <t>"Star Spangled Banner" published as a song, lyrics by Francis Scott Key, tune by John Stafford Smith.</t>
   </si>
   <si>
@@ -93,12 +84,6 @@
     <t>Denis Johnson invents kick scooter.</t>
   </si>
   <si>
-    <t>1st bicycles (swift walkers) in US introduced in NYC.</t>
-  </si>
-  <si>
-    <t>1st ship sails through the Erie Canal from Rome, New York to Utica, New York.</t>
-  </si>
-  <si>
     <t>Antarctica sighted by US Navy Captain Nathaniel B. Palmer.</t>
   </si>
   <si>
@@ -108,12 +93,6 @@
     <t>First ground is broken at Allenburg for the building of the original Welland Canal, Ontario, Canada.</t>
   </si>
   <si>
-    <t>George Stephenson's "Locomotion No. 1" becomes the 1st steam locomotive to carry passengers on a public rail line, the Stockton and Darlington Railway in England.</t>
-  </si>
-  <si>
-    <t>1st steamboat to navigate the Mississippi River arrives at Fort Snelling.</t>
-  </si>
-  <si>
     <t>James Weddell reaches the South Pole.</t>
   </si>
   <si>
@@ -123,12 +102,6 @@
     <t>The Menai Suspension Bridge, considered the world's first modern suspension bridge, connecting the Isle of Anglesey to the north West coast of Wales is opened.</t>
   </si>
   <si>
-    <t>1st commercial railroad in US, Baltimore &amp; Ohio (B&amp;O) chartered</t>
-  </si>
-  <si>
-    <t>1st US swimming school opens (Boston, Massachusetts).</t>
-  </si>
-  <si>
     <t>Bolton and Leigh Railway opens to freight traffic.</t>
   </si>
   <si>
@@ -138,42 +111,18 @@
     <t>Delaware River &amp; Chesapeake Bay Canal formally opens.</t>
   </si>
   <si>
-    <t>1st stone arch railroad bridge in US dedicated, Baltimore.</t>
-  </si>
-  <si>
-    <t>1st US Railroad Station opens (Baltimore).</t>
-  </si>
-  <si>
-    <t>1st railroad timetable published in newspaper (Baltimore American).</t>
-  </si>
-  <si>
     <t>First passenger to be killed by a railway train (William Huskisson, England).</t>
   </si>
   <si>
     <t>Oliver Wendell Holmes writes poem "Old Ironsides" as tribute to the 18th-century USS Constitution.</t>
   </si>
   <si>
-    <t>1st practical US coal-burning locomotive makes 1st trial run in Pennsylvania.</t>
-  </si>
-  <si>
     <t>London Bridge opens to traffic.</t>
   </si>
   <si>
     <t>Erie Canal closes for entire month due to cold weather.</t>
   </si>
   <si>
-    <t>1st railroad accident in US, Granite Railway, Quincy, Massachusetts, kills 1.</t>
-  </si>
-  <si>
-    <t>1st streetcar railway in America starts operating in New York City with 12 cent fare.</t>
-  </si>
-  <si>
-    <t>Boston Academy of Music, 1st US music school, established.</t>
-  </si>
-  <si>
-    <t>1st railroad tunnel in US completed, in Pennsylvania.</t>
-  </si>
-  <si>
     <t>St Etienne-Lyons railway opens in France.</t>
   </si>
   <si>
@@ -189,9 +138,6 @@
     <t>The first electric locomotive built in 1837 was a battery locomotive. It was built by chemist Robert Davidson of Aberdeen in Scotland, and it was powered by galvanic cells (batteries).</t>
   </si>
   <si>
-    <t>Euston railway station opens in London as the terminus of the London and Birmingham Railway (L&amp;BR), the city's 1st intercity railway station.</t>
-  </si>
-  <si>
     <t>Steam shovel patented by William Otis, Philadelphia.</t>
   </si>
   <si>
@@ -213,9 +159,6 @@
     <t>Isambard Kingdom Brunel's SS Great Western, the first purpose-built transatlantic steamship, inaugurates the first regular transatlantic steamship service.</t>
   </si>
   <si>
-    <t>1st US wire suspension bridge for general traffic opens in Pennsylvania.</t>
-  </si>
-  <si>
     <t>The first wagon train to California, with sixty-nine adults and several children, leave from Independence, Missouri.</t>
   </si>
   <si>
@@ -243,9 +186,6 @@
     <t>New Haven Railroad opens.</t>
   </si>
   <si>
-    <t>1st passenger train service to Peekskill, New York (New Haven Railroad).</t>
-  </si>
-  <si>
     <t>California becomes 31th state of the Union.</t>
   </si>
   <si>
@@ -258,45 +198,21 @@
     <t>Elisha Otis invents the safety elevator.</t>
   </si>
   <si>
-    <t>Completion of Grand Trunk Line, trains begin running over 1st North American railroad between Portland, Maine and Montreal</t>
-  </si>
-  <si>
-    <t>1st round-the-world trip by yacht (Cornelius Vanderbilt).</t>
-  </si>
-  <si>
     <t>The first bridge over the Mississippi River opens in what is now Minneapolis, Minnesota.</t>
   </si>
   <si>
-    <t>1st train crosses 1st US railway suspension bridge, Niagara Falls.</t>
-  </si>
-  <si>
-    <t>1st train crosses Mississippi River's 1st bridge, from Rock Island, Illinois to Davenport, Iowa.</t>
-  </si>
-  <si>
-    <t>1st park land purchased by a US city, Worcester, Massachusetts.</t>
-  </si>
-  <si>
-    <t>Georgia becomes 1st state to regulate railroads.</t>
-  </si>
-  <si>
     <t>The first elevator is installed by Elisha Otis on Broadway in New York City.</t>
   </si>
   <si>
     <t>The first transatlantic cable is completed.</t>
   </si>
   <si>
-    <t>Streetcar patented (E A Gardner of Philadelphia).</t>
-  </si>
-  <si>
     <t>Minnesota becomes 32th state of the Union.</t>
   </si>
   <si>
     <t>Oregon becomes 33th state of the Union.</t>
   </si>
   <si>
-    <t>1st Pullman sleeping car in service.</t>
-  </si>
-  <si>
     <t>Gaston Planté invented the lead–acid rechargeable battery</t>
   </si>
   <si>
@@ -309,42 +225,21 @@
     <t>Steam elevator patented by Elisha Otis.</t>
   </si>
   <si>
-    <t>1st underground railway opens in London.</t>
-  </si>
-  <si>
     <t>West Virginia becomes 35th state of the Union.</t>
   </si>
   <si>
     <t>Nevada becomes 36th state of the Union.</t>
   </si>
   <si>
-    <t>The first narrow gauge mainline railway in the world opens at Grandchester, Australia.</t>
-  </si>
-  <si>
-    <t>Work begins on 1st US underwater highway tunnel in Chicago.</t>
-  </si>
-  <si>
     <t>Nebraska becomes 37th state of the Union.</t>
   </si>
   <si>
-    <t>1st US elevated railroad begins service, NYC.</t>
-  </si>
-  <si>
     <t>The first traffic lights are installed outside the Palace of Westminster in London.</t>
   </si>
   <si>
     <t>Boston University is chartered by the Commonwealth of Massachusetts</t>
   </si>
   <si>
-    <t>Golden Spike driven, completing the 1st US Transcontinental Railroad at Promontory Summit, Utah and connecting the Central Pacific Railroad with the Union Pacific.</t>
-  </si>
-  <si>
-    <t>1st trans-US rail service begins.</t>
-  </si>
-  <si>
-    <t>1st cable car patented, by Andrew Smith Hallidie in the US.</t>
-  </si>
-  <si>
     <t>US engineer George Brayton patents an internal combustion engine.</t>
   </si>
   <si>
@@ -354,9 +249,6 @@
     <t>Regular Cable Car service begins on Clay Street, San Francisco.</t>
   </si>
   <si>
-    <t>1st recorded dam disaster in US (Williamsburg, Massachusetts).</t>
-  </si>
-  <si>
     <t>World's first electric tram line operated in Sestroretsk near Saint Petersburg, Russia.</t>
   </si>
   <si>
@@ -366,21 +258,9 @@
     <t>An express train called the Transcontinental Express arrives in San Francisco, California, via the First Transcontinental Railroad only 83 hours and 39 minutes after having left New York City.</t>
   </si>
   <si>
-    <t>1st cantilever bridge in US completed, Harrodsburg, Kentucky.</t>
-  </si>
-  <si>
-    <t>1st female telephone operator starts work (Emma Nutt in Boston).</t>
-  </si>
-  <si>
-    <t>1st mobile home (horse drawn) used in a journey from London &amp; Cyprus.</t>
-  </si>
-  <si>
     <t>The construction of the Panama Canal begins.</t>
   </si>
   <si>
-    <t>World's 1st electric tram enters service in Lichterfelder (near Berlin).</t>
-  </si>
-  <si>
     <t>The "Elektromote" - forerunner of the trolleybus - is tested by Werner von Siemens in Berlin.</t>
   </si>
   <si>
@@ -393,9 +273,6 @@
     <t>The railroads of the Southern United States convert 11,000 miles of track from a five foot rail gauge to standard gauge.</t>
   </si>
   <si>
-    <t>Thomas Stevens is 1st man to bicycle around the world (San Francisco to San Francisco).</t>
-  </si>
-  <si>
     <t>Scottish vet John Boyd Dunlop patents pneumatic bicycle tyre.</t>
   </si>
   <si>
@@ -420,18 +297,12 @@
     <t>Electric self-starter for automobile patented.</t>
   </si>
   <si>
-    <t>San Francisco Bay City Club opens 1st US bicycle race track, made of wood.</t>
-  </si>
-  <si>
     <t>Hildebrand &amp; Wolfmüller became the first motorcycle available to the public for purchase.</t>
   </si>
   <si>
     <t>Charles Duryea patents a gas-driven automobile.</t>
   </si>
   <si>
-    <t>America's 1st auto race organised in Chicago, Frank Duryea wins averaging 7 MPH.</t>
-  </si>
-  <si>
     <t>Utah becomes 45th state of the Union.</t>
   </si>
   <si>
@@ -496,6 +367,756 @@
   </si>
   <si>
     <t>Alessandro Volta invinted the electric battery.</t>
+  </si>
+  <si>
+    <t>The first Boston Marathon is run with fifteen runners, won by John McDermott.</t>
+  </si>
+  <si>
+    <t>The era of the subway begins when the first underground public transportation in North America opens in Boston, Massachusetts.</t>
+  </si>
+  <si>
+    <t>Winton Motor Carriage Company publishes the first known automobile ad in Scientific American using the headline “dispense with a horse.”</t>
+  </si>
+  <si>
+    <t>Rudolf Diesel of Germany obtains patent for his internal combustion engine, later known as the diesel engine</t>
+  </si>
+  <si>
+    <t>Ferdinand von Zeppelin builds the first successful airship.</t>
+  </si>
+  <si>
+    <t>New York City breaks ground for a new underground "Rapid Transit Railroad" that would link Manhattan and Brooklyn.</t>
+  </si>
+  <si>
+    <t>World's longest railroad tunnel (Simplon) linking Italy and Switzerland opens.</t>
+  </si>
+  <si>
+    <t>Santos-Dumont proves airship manoeuverable by circling Eiffel Tower.</t>
+  </si>
+  <si>
+    <t>American Automobile Association (AAA) founded in Chicago.</t>
+  </si>
+  <si>
+    <t>Orville Wright and Wilbur Wright – Fly the first motor-driven airplane.</t>
+  </si>
+  <si>
+    <t>New bicycle race "Tour de France" announced.</t>
+  </si>
+  <si>
+    <t>The first non-experimental trolleybus system was a seasonal municipal line installed near Nantasket Beach, Hull, Massachusetts.</t>
+  </si>
+  <si>
+    <t>After 13 years, the 4,607-mile Trans-Siberian railway is completed.</t>
+  </si>
+  <si>
+    <t>First section of New York subway - Lower Manhattan to Broadway Harlem, opened by Interborough Rapid Transit (IRT), fare one nickel.</t>
+  </si>
+  <si>
+    <t>Early hydrofoil used by Enrico Forlanini.</t>
+  </si>
+  <si>
+    <t>Oklahoma becomes 46th state of the Union.</t>
+  </si>
+  <si>
+    <t>Taxis begin running in NYC.</t>
+  </si>
+  <si>
+    <t>First US steamboat to a make an ocean voyage leaves NY for Philadelphia.</t>
+  </si>
+  <si>
+    <t>First US raw cotton-to-cloth mill founded in Waltham, Massachusetts.</t>
+  </si>
+  <si>
+    <t>First bicycles (swift walkers) in US introduced in NYC.</t>
+  </si>
+  <si>
+    <t>First ship sails through the Erie Canal from Rome, New York to Utica, New York.</t>
+  </si>
+  <si>
+    <t>First steamboat to navigate the Mississippi River arrives at Fort Snelling.</t>
+  </si>
+  <si>
+    <t>George Stephenson's "Locomotion No. 1" becomes the First steam locomotive to carry passengers on a public rail line, the Stockton and Darlington Railway in England.</t>
+  </si>
+  <si>
+    <t>First commercial railroad in US, Baltimore &amp; Ohio (B&amp;O) chartered</t>
+  </si>
+  <si>
+    <t>First US swimming school opens (Boston, Massachusetts).</t>
+  </si>
+  <si>
+    <t>First stone arch railroad bridge in US dedicated, Baltimore.</t>
+  </si>
+  <si>
+    <t>First US Railroad Station opens (Baltimore).</t>
+  </si>
+  <si>
+    <t>First railroad timetable published in newspaper (Baltimore American).</t>
+  </si>
+  <si>
+    <t>First practical US coal-burning locomotive makes First trial run in Pennsylvania.</t>
+  </si>
+  <si>
+    <t>First streetcar railway in America starts operating in New York City with 12 cent fare.</t>
+  </si>
+  <si>
+    <t>Boston Academy of Music, First US music school, established.</t>
+  </si>
+  <si>
+    <t>First railroad tunnel in US completed, in Pennsylvania.</t>
+  </si>
+  <si>
+    <t>Euston railway station opens in London as the terminus of the London and Birmingham Railway (L&amp;BR), the city's First intercity railway station.</t>
+  </si>
+  <si>
+    <t>First US wire suspension bridge for general traffic opens in Pennsylvania.</t>
+  </si>
+  <si>
+    <t>First passenger train service to Peekskill, New York (New Haven Railroad).</t>
+  </si>
+  <si>
+    <t>Completion of Grand Trunk Line, trains begin running over First North American railroad between Portland, Maine and Montreal</t>
+  </si>
+  <si>
+    <t>First round-the-world trip by yacht (Cornelius Vanderbilt).</t>
+  </si>
+  <si>
+    <t>First park land purchased by a US city, Worcester, Massachusetts.</t>
+  </si>
+  <si>
+    <t>First train crosses First US railway suspension bridge, Niagara Falls.</t>
+  </si>
+  <si>
+    <t>First train crosses Mississippi River's First bridge, from Rock Island, Illinois to Davenport, Iowa.</t>
+  </si>
+  <si>
+    <t>Georgia becomes First state to regulate railroads.</t>
+  </si>
+  <si>
+    <t>First Pullman sleeping car in service.</t>
+  </si>
+  <si>
+    <t>First underground railway opens in London.</t>
+  </si>
+  <si>
+    <t>Work begins on First US underwater highway tunnel in Chicago.</t>
+  </si>
+  <si>
+    <t>First US elevated railroad begins service, NYC.</t>
+  </si>
+  <si>
+    <t>Golden Spike driven, completing the First US Transcontinental Railroad at Promontory Summit, Utah and connecting the Central Pacific Railroad with the Union Pacific.</t>
+  </si>
+  <si>
+    <t>First trans-US rail service begins.</t>
+  </si>
+  <si>
+    <t>First cable car patented, by Andrew Smith Hallidie in the US.</t>
+  </si>
+  <si>
+    <t>First recorded dam disaster in US (Williamsburg, Massachusetts).</t>
+  </si>
+  <si>
+    <t>First cantilever bridge in US completed, Harrodsburg, Kentucky.</t>
+  </si>
+  <si>
+    <t>First female telephone operator starts work (Emma Nutt in Boston).</t>
+  </si>
+  <si>
+    <t>First mobile home (horse drawn) used in a journey from London &amp; Cyprus.</t>
+  </si>
+  <si>
+    <t>World's First electric tram enters service in Lichterfelder (near Berlin).</t>
+  </si>
+  <si>
+    <t>Thomas Stevens is First man to bicycle around the world (San Francisco to San Francisco).</t>
+  </si>
+  <si>
+    <t>San Francisco Bay City Club opens First US bicycle race track, made of wood.</t>
+  </si>
+  <si>
+    <t>America's First auto race organised in Chicago, Frank Duryea wins averaging 7 MPH.</t>
+  </si>
+  <si>
+    <t>First automobile to exceed 100 mph (161 kph), A G MacDonald, Daytona Beach.</t>
+  </si>
+  <si>
+    <t>First railroad accident in US, Granite Railway, Quincy, Massachusetts, kills one.</t>
+  </si>
+  <si>
+    <t>Allardyce Barclay begins a bet of walking one mile every hour for 1,000 hours. Each hour he walked a mile round trip from his home.</t>
+  </si>
+  <si>
+    <t>Streetcar patented (E. A. Gardner of Philadelphia).</t>
+  </si>
+  <si>
+    <t>First mass produced automobile- Henry Ford develops the assembly line method of automobile manufacturing with the introduction of the Ford Model T.</t>
+  </si>
+  <si>
+    <t>First tunnel under Hudson River (railway tunnel) opens.</t>
+  </si>
+  <si>
+    <t>First passenger flight in an airplane.</t>
+  </si>
+  <si>
+    <t>First subway car with side doors goes into service (NYC).</t>
+  </si>
+  <si>
+    <t>First seaplane takes off from water at Martinques France (Henri Fabre).</t>
+  </si>
+  <si>
+    <t>First transcontinental airplane flight, NY-Pasadena in 82 hrs 4 min.</t>
+  </si>
+  <si>
+    <t>Selandia launched – First ocean-going, diesel engine-driven ship.</t>
+  </si>
+  <si>
+    <t>New Mexico becomes 47th state of the Union.</t>
+  </si>
+  <si>
+    <t>Arizona becomes 48th state of the Union.</t>
+  </si>
+  <si>
+    <t>RMS Titanic sets sail from Southampton, England for her maiden (and final) voyage.</t>
+  </si>
+  <si>
+    <t>Grand Central Terminal, the world's largest rail terminal, opens in New York City.</t>
+  </si>
+  <si>
+    <t>Lincoln Highway opens as 1st paved coast-to-coast highway.</t>
+  </si>
+  <si>
+    <t>Panama Canal opens.</t>
+  </si>
+  <si>
+    <t>Motorized scooter invented.</t>
+  </si>
+  <si>
+    <t>The Luftkissengleitboot Hovercraft – First hovering vehicle was created by Dagobert Müller. It could only travel on water.</t>
+  </si>
+  <si>
+    <t>Articulated trams, invented and first used by the Boston Elevated Railway.</t>
+  </si>
+  <si>
+    <t>US Congress passes Federal Aid Road Act.</t>
+  </si>
+  <si>
+    <t>US declares war on Germany, enters World War I.</t>
+  </si>
+  <si>
+    <t>U.S. Civil War begins.</t>
+  </si>
+  <si>
+    <t>U.S. Civil War ends.</t>
+  </si>
+  <si>
+    <t>Wordl War ends.</t>
+  </si>
+  <si>
+    <t>First scheduled passenger service by airplane (Paris-London).</t>
+  </si>
+  <si>
+    <t>First transcontinental airmail flight from New York to San Francisco.</t>
+  </si>
+  <si>
+    <t>First US helium-filled dirigible makes 1st flight.</t>
+  </si>
+  <si>
+    <t>Creation of the USSR formally proclaimed in Moscow.</t>
+  </si>
+  <si>
+    <t>First nonstop north American transcontinental flight (NY-San Diego) completed.</t>
+  </si>
+  <si>
+    <t>First aerial refueling.</t>
+  </si>
+  <si>
+    <t>ZR-1 (biggest active dirigible) flies over NY's tallest skyscraper, Woolworth Tower.</t>
+  </si>
+  <si>
+    <t>First US diesel electric locomotive enters service, Bronx, NY.</t>
+  </si>
+  <si>
+    <t>First road with a depressed trough (Texas) opens to traffic.</t>
+  </si>
+  <si>
+    <t>Robert Goddard launches the first liquid-fueled rocket.</t>
+  </si>
+  <si>
+    <t>U.S. Route 66 is established from Chicago, Illinois to Santa Monica, California 2,448 miles (3,940 km).</t>
+  </si>
+  <si>
+    <t>New York - New Jersey Holland Tunnel, 1st twin-tube underwater auto tunnel, opens.</t>
+  </si>
+  <si>
+    <t>Amelia Earhart becomes the first woman to fly over the Atlantic Ocean.</t>
+  </si>
+  <si>
+    <t>Wall Street Stock Market crashes triggering the "Great Depression.</t>
+  </si>
+  <si>
+    <t>First red &amp; green traffic lights installed in Manhattan, NYC.</t>
+  </si>
+  <si>
+    <t>Congress appropriates $50,000 for Inter-American highway.</t>
+  </si>
+  <si>
+    <t>First air-conditioned train installed-B&amp;O Railroad.</t>
+  </si>
+  <si>
+    <t>First air-conditioned ship (Mariposa) launched.</t>
+  </si>
+  <si>
+    <t>The first electric golf cart was custom-made, but did not gain widespread acceptance.</t>
+  </si>
+  <si>
+    <t>The highest continuous paved road in the United States, the Trail Ridge Road in Rocky Mountain National Park, Colorado, is opened to traffic.</t>
+  </si>
+  <si>
+    <t>Amelia Earhart becomes the first woman to fly solo and nonstop across the Atlantic.</t>
+  </si>
+  <si>
+    <t>First flight of all-metal Boeing 247.</t>
+  </si>
+  <si>
+    <t>Golden Gate Bridge groundbreaking ceremony held at Crissy Field.</t>
+  </si>
+  <si>
+    <t>US Highway planning surveys nationwide authorized.</t>
+  </si>
+  <si>
+    <t>First flight of the DC-3, one of the most significant transport aircraft in the history of aviation.</t>
+  </si>
+  <si>
+    <t>First automatic parking meter in the United States is installed in Oklahoma City, Oklahoma.</t>
+  </si>
+  <si>
+    <t>First bicycle traffic court in America established, Racine, Wisconsin.</t>
+  </si>
+  <si>
+    <t>The Santa Fe Railroad inaugurates the all-Pullman Super Chief passenger train service between Chicago, Illinois and Los Angeles, California.</t>
+  </si>
+  <si>
+    <t>LA Railway Co starts using PCC streetcars.</t>
+  </si>
+  <si>
+    <t>German airship Hindenburg explodes in flames at Lakehurst, New Jersey.</t>
+  </si>
+  <si>
+    <t>The Golden Gate Bridge opens.</t>
+  </si>
+  <si>
+    <t>Appalachian Trail is formally completed, traversing 2,000 miles and 14 US States, Georgia to Maine.</t>
+  </si>
+  <si>
+    <t>Douglas "Wrong Way" Corrigan arrives in Ireland after a 28 hours flight, supposedly left NY flying for California.</t>
+  </si>
+  <si>
+    <t>First jet engine powered aircraft, the Heinkel He 178, takes flight.</t>
+  </si>
+  <si>
+    <t>Lake Washington (Seattle) Floating bridge dedicated.</t>
+  </si>
+  <si>
+    <t>Pennsylvania Turnpike, pioneer toll thruway, opens.</t>
+  </si>
+  <si>
+    <t>First fully articulated bus Isotta Fraschini TS40.</t>
+  </si>
+  <si>
+    <t>The first Jeep is produced.</t>
+  </si>
+  <si>
+    <t>Imperial Japanese Navy with 353 planes attack the US fleet at Pearl Harbor Naval Base, Hawaii, killing 2,403 people.</t>
+  </si>
+  <si>
+    <t>Daylight Savings War Time goes into effect in US.</t>
+  </si>
+  <si>
+    <t>Alaska highway completed.</t>
+  </si>
+  <si>
+    <t>Traffic cone invented.</t>
+  </si>
+  <si>
+    <t>World War II rages.</t>
+  </si>
+  <si>
+    <t>World War II ends.</t>
+  </si>
+  <si>
+    <t>First commercially designed helicopter tested, Bridgeport, Connecticut.</t>
+  </si>
+  <si>
+    <t>First transcontinental round-trip flight in 1-day, California-Maryland.</t>
+  </si>
+  <si>
+    <t>First mobile long-distance car-to-car telephone conversation.</t>
+  </si>
+  <si>
+    <t>Chuck Yeager in the Bell X1 completes the first supersonic manned flight.</t>
+  </si>
+  <si>
+    <t>Maine Turnpike opens to traffic.</t>
+  </si>
+  <si>
+    <t>First radio-controlled airplane flown.</t>
+  </si>
+  <si>
+    <t>Gas turbine-electric locomotive demonstrated at Erie, Pennsylvania.</t>
+  </si>
+  <si>
+    <t>First jet-propelled airline (De Havilland Comet) flies.</t>
+  </si>
+  <si>
+    <t>Brooklyn Battery Tunnel opens in NYC.</t>
+  </si>
+  <si>
+    <t>Golden Gate Bridge closes due to high winds.</t>
+  </si>
+  <si>
+    <t>de Havilland Comet first commercial jet air liner.</t>
+  </si>
+  <si>
+    <t>First west-to-east jet transatlantic nonstop flight</t>
+  </si>
+  <si>
+    <t>Chevrolet unveils V-8 engine.</t>
+  </si>
+  <si>
+    <t>First commercial jet transport plane built in US tested (Boeing 707).</t>
+  </si>
+  <si>
+    <t>First automobile seat belt legislation enacted (Illinois).</t>
+  </si>
+  <si>
+    <t>First nuclear-powered vessel, USS Nautilus, a submarine, is launched.</t>
+  </si>
+  <si>
+    <t>Interstate highway system begins with the signing of the Federal-Aid Highway Act.</t>
+  </si>
+  <si>
+    <t>Sputnik 1 – First artificial satellite to be launched into orbit.</t>
+  </si>
+  <si>
+    <t>Ford Motor Co. introduces Edsel.</t>
+  </si>
+  <si>
+    <t>First appearance of "In God We Trust" on U.S. paper currency.</t>
+  </si>
+  <si>
+    <t>First airplane flight exceeding 1200 hours, lands, Dallas TX.</t>
+  </si>
+  <si>
+    <t>Alaska becomes 49th state of the Union.</t>
+  </si>
+  <si>
+    <t>Hawaii becomes 50th state of the Union.</t>
+  </si>
+  <si>
+    <t>The St. Lawrence Seaway is opened along the Canada and United States.</t>
+  </si>
+  <si>
+    <t>Europe's first "moving pavement" (travelator), opens at Bank station on the London Underground.</t>
+  </si>
+  <si>
+    <t>The first U.S. manned sub-orbital space flight is completed with Commander Alan B. Shepard Jr.</t>
+  </si>
+  <si>
+    <t>The Cuban Missile Crises.</t>
+  </si>
+  <si>
+    <t>John Glenn becomes the 1st American to orbit the Earth, aboard Friendship 7.</t>
+  </si>
+  <si>
+    <t>Massachusetts Institute of Technology sends TV signal by satellite for 1st time: California to Massachusetts.</t>
+  </si>
+  <si>
+    <t>LA ends streetcar service after 90 years.</t>
+  </si>
+  <si>
+    <t>France &amp; Great-Britain sign accord over building channel tunnel.</t>
+  </si>
+  <si>
+    <t>First driverless trains run on London Underground.</t>
+  </si>
+  <si>
+    <t>First ground station-to-aircraft radio communication via satellite.</t>
+  </si>
+  <si>
+    <t>Gemini 8 launched with Armstrong &amp; Scott, aborted after 6.5 orbits.</t>
+  </si>
+  <si>
+    <t>Sheila Scott completes 1st round-the-world solo flight by a woman.</t>
+  </si>
+  <si>
+    <t>Carl Sagan turns 1 billion seconds old.</t>
+  </si>
+  <si>
+    <t>A fire in the Apollo 1 Command Module kills astronauts Gus Grissom, Ed White and Roger B. Chaffee during a launch rehearsal.</t>
+  </si>
+  <si>
+    <t>First air conditioned NYC subway car (R-38 on the F line).</t>
+  </si>
+  <si>
+    <t>Sweden switches to driving on the right hand side.</t>
+  </si>
+  <si>
+    <t>The formal end of steam traction in the North East of England by British Railways.</t>
+  </si>
+  <si>
+    <t>Ferdinand Bracke bicycles world record time (48,093 km).</t>
+  </si>
+  <si>
+    <t>Supersonic airliner prototype "Concorde" 1st shown (France).</t>
+  </si>
+  <si>
+    <t>Space hopper (childs toy) invented.</t>
+  </si>
+  <si>
+    <t>First Boeing 747 rolls out.</t>
+  </si>
+  <si>
+    <t>Golden Gate Bridge charges tolls only for southbound cars.</t>
+  </si>
+  <si>
+    <t>Apollo 8: First manned Moon voyage launched with Frank Borman, Jim Lovell and William Anders.</t>
+  </si>
+  <si>
+    <t>First flight of the Boeing 747.</t>
+  </si>
+  <si>
+    <t>Apollo 11 launched, carrying 1st men to land on Moon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apollo 13 launched to Moon; unable to land, returns in 6 days.</t>
+  </si>
+  <si>
+    <t>Salyut 1, first space station, launched by Soviet Union.</t>
+  </si>
+  <si>
+    <t>Amtrak Railroad begins operation.</t>
+  </si>
+  <si>
+    <t>First flight of the Goodyear blimp.</t>
+  </si>
+  <si>
+    <t>The Bosphorus Bridge in Istanbul, Turkey is completed, connecting the continents of Europe and Asia over the Bosporus for the first time.</t>
+  </si>
+  <si>
+    <t>In response to the 1973 energy crisis, daylight saving time commences nearly four months early in the United States.</t>
+  </si>
+  <si>
+    <t>BART begins regular transbay service.</t>
+  </si>
+  <si>
+    <t>West Virginia-Morgantown PRT, first Personal Rapid Transit system to be installed.</t>
+  </si>
+  <si>
+    <t>Apollo 18 and Soyuz 19 make 1st US/USSR linkup in space.</t>
+  </si>
+  <si>
+    <t>The Viking 1 &amp; 2 space probes successfully land on Mars.</t>
+  </si>
+  <si>
+    <t>Longest non-stop passenger airflight (Sydney to San Francisco 13h 14m).</t>
+  </si>
+  <si>
+    <t>The first semi-automated car was developed in 1977, by Japan's Tsukuba Mechanical Engineering Laboratory.</t>
+  </si>
+  <si>
+    <t>Space Shuttle Enterprise takes its maiden flight affixed atop a Boeing 747 Shuttle Aircraft Carrier.</t>
+  </si>
+  <si>
+    <t>Final European scheduled run of the Orient Express (after 94 years).</t>
+  </si>
+  <si>
+    <t>Orient Express opens.</t>
+  </si>
+  <si>
+    <t>US Railway Post Office final train run (NY to Washington, D.C.).</t>
+  </si>
+  <si>
+    <t>Voyager 1 (US) launched toward fly-by of Jupiter, Saturn.</t>
+  </si>
+  <si>
+    <t>Pioneer 11 transmits images of Saturn and its rings.</t>
+  </si>
+  <si>
+    <t>US Skylab enters atmosphere over Australia and disintegrates.</t>
+  </si>
+  <si>
+    <t>Skylab was the first United States space station, launched by NASA.</t>
+  </si>
+  <si>
+    <t>Voyager 1 space probe discovers 15th moon of Saturn.</t>
+  </si>
+  <si>
+    <t>Maiden flight of the Space Shuttle.</t>
+  </si>
+  <si>
+    <t>The first fully Automated guideway transit driverless people mover train technology introduced on Port Island Line, Japan.</t>
+  </si>
+  <si>
+    <t>Concorde makes the world's first commercial passenger-carrying supersonic flight.</t>
+  </si>
+  <si>
+    <t>First non-stop trans-North American balloon flight departs Fort Baker, California. Maxie Anderson and son Kristian pilot the Kitty Hawk for five days.</t>
+  </si>
+  <si>
+    <t>Waterfront streetcar begins operating in Seattle.</t>
+  </si>
+  <si>
+    <t>Manhattan, NY institutes bus-only lanes.</t>
+  </si>
+  <si>
+    <t>Streetcars stop running on Market St, San Francisco after 122 years of service.</t>
+  </si>
+  <si>
+    <t>San Francisco cable cars cease operations for 2 years of repairs.</t>
+  </si>
+  <si>
+    <t>First Automated guideway transit driverless metro, Véhicule Automatique Léger introduced in Lille Metro, France.</t>
+  </si>
+  <si>
+    <t>First commercial maglev, albeit low-speed opens in Birmingham.</t>
+  </si>
+  <si>
+    <t>US government orders air bags or seat belts would be required in cars by 1989.</t>
+  </si>
+  <si>
+    <t>Sinclair C5, the first mass-produced electric battery velomobile launched.</t>
+  </si>
+  <si>
+    <t>The Challenger Space Shuttle explodes after lift off at Cape Canaveral, Florida, killing seven people, including Christa McAuliffe, a New Hampshire school teacher.</t>
+  </si>
+  <si>
+    <t>Chunnel announced (railroad tunnel under English Channel).</t>
+  </si>
+  <si>
+    <t>Voyager, piloted by Dick Rutan &amp; Jeana Yeager, takes off from Edwards AFB, California on 1st non-stop, non-refueled flight around the world.</t>
+  </si>
+  <si>
+    <t>Two men became 1st hot-air balloon travelers to cross Atlantic.</t>
+  </si>
+  <si>
+    <t>United Airlines Boeing 747SP, circles world in 36h 54m 15s.</t>
+  </si>
+  <si>
+    <t>Boston's worst traffic jam in 30 years. (Jul 27)</t>
+  </si>
+  <si>
+    <t>Union Station reopens in Washington, D.C.</t>
+  </si>
+  <si>
+    <t>NYC Subway system adds new stations (Z line).</t>
+  </si>
+  <si>
+    <t>Last graffiti covered NYC subway car retired.</t>
+  </si>
+  <si>
+    <t>Longest Cab Ride Ever: 14,000 miles costs $16,000!</t>
+  </si>
+  <si>
+    <t>NASA  Voyager 2's discovered three more moons of Neptune and  two rings.</t>
+  </si>
+  <si>
+    <t>ADtranz low floor tram world's first completely low-floor tram introduced.</t>
+  </si>
+  <si>
+    <t>The Intermodal Surface Transportation Efficiency Act posed a major change to transportation planning and policy, as the first U.S. federal legislation in the post-Interstate Highway System era.</t>
+  </si>
+  <si>
+    <t>Key bus route progam of the (MBTA) rolled out. The Key bus routes are 15 routes that have high ridership and higher frequency.</t>
+  </si>
+  <si>
+    <t>The CharlieCard debutes. It is a contactless smart card on which the passenger loads fares. It replaces the metal token.</t>
+  </si>
+  <si>
+    <t>Covid pandemic.</t>
+  </si>
+  <si>
+    <t>Channel Tunnel opens.</t>
+  </si>
+  <si>
+    <t>First Maglev train prototypes are tested in Japan.</t>
+  </si>
+  <si>
+    <t>Honda Raccoon Compo, first folding electric bicycle in Japan.</t>
+  </si>
+  <si>
+    <t>Trikke (wiggle scooter) invented.</t>
+  </si>
+  <si>
+    <t>US space probe Ulyssus completes 2nd passage behind Sun.</t>
+  </si>
+  <si>
+    <t>Segway PT self-balancing personal transport was launched by inventor Dean Kamen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> First commercial high speed Maglev train starts operation between Shanghai and its airport.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tesla Roadster, first mass production lithium-ion battery electric car.</t>
+  </si>
+  <si>
+    <t>First mass produced hydrogen fuel cell car, Toyota Mirai.</t>
+  </si>
+  <si>
+    <t>Conventional rail world speed record of 443.0 km/h (275.3 mph) attained by the JR Central "300X" six-car train between Kyoto and Maibara on the Tokaido Shinkansen.</t>
+  </si>
+  <si>
+    <t>Amtrak extends electric train operation on the Northeast Corridor from New Haven to Boston South Station.</t>
+  </si>
+  <si>
+    <t>Concorde makes last passenger flight.</t>
+  </si>
+  <si>
+    <t>The Downeaster, a passenger train operated by Amtrak, begins regularly scheduled passenger service between Boston, Massachusetts and Portland, Maine.</t>
+  </si>
+  <si>
+    <t>The Girard Avenue Trolley in Philadelphia recommences service after thirteen years of bus substitution.</t>
+  </si>
+  <si>
+    <t>Construction begins on the Second Avenue Subway in New York City between 63rd and 105th streets, a resumption of a decades-long project with existing segments elsewhere.</t>
+  </si>
+  <si>
+    <t>Sound Transit Central Link light rail line in Seattle, Washington opens, utilizing the Downtown Seattle Transit Tunnel.</t>
+  </si>
+  <si>
+    <t>ULTra (rapid transit), the first modern commercial Personal Rapid Transit system to be installed. Started operations at Heathrow Airport.</t>
+  </si>
+  <si>
+    <t>Brookhaven Rail Terminal opened on Long Island, New York.</t>
+  </si>
+  <si>
+    <t>The first phase of Los Angeles County Metropolitan Transportation Authority Expo Line opens for service.</t>
+  </si>
+  <si>
+    <t>New Orleans Regional Transit Authority Loyola Avenue Streetcar Line opened.</t>
+  </si>
+  <si>
+    <t>Opening of the Green Line light rail service in Minneapolis–Saint Paul, Minnesota.</t>
+  </si>
+  <si>
+    <t>Opening of the MAX Orange Line in Portland, Oregon, United States.</t>
+  </si>
+  <si>
+    <t>Opening of the B Line commuter rail system in Denver, Colorado.</t>
+  </si>
+  <si>
+    <t>Opening of Detroit's QLINE.</t>
+  </si>
+  <si>
+    <t>Autonomous Rail Rapid Transit opened in China.</t>
+  </si>
+  <si>
+    <t>The Washington Metro Silver Line extended to Ashburn station via Washington Dulles International Airport.</t>
+  </si>
+  <si>
+    <t>The first segment of the Southern California Rapid Transit District Red Line subway opens in Los Angeles.</t>
+  </si>
+  <si>
+    <t>Southern California's Metrolink opens.</t>
   </si>
   <si>
     <t>year</t>
@@ -885,9 +1506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8479D0E-E3F6-DA41-AEC9-2CE4981D9A6E}">
-  <dimension ref="A1:B160"/>
+  <dimension ref="A1:B367"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -897,10 +1520,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>157</v>
+        <v>364</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>158</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -916,7 +1539,7 @@
         <v>1800</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -924,7 +1547,7 @@
         <v>1801</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -932,7 +1555,7 @@
         <v>1801</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -940,7 +1563,7 @@
         <v>1802</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -948,7 +1571,7 @@
         <v>1803</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -956,7 +1579,7 @@
         <v>1803</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1012,7 +1635,7 @@
         <v>1807</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1036,7 +1659,7 @@
         <v>1807</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1044,7 +1667,7 @@
         <v>1808</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1052,7 +1675,7 @@
         <v>1809</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1068,7 +1691,7 @@
         <v>1809</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1076,7 +1699,7 @@
         <v>1810</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1084,7 +1707,7 @@
         <v>1811</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1092,7 +1715,7 @@
         <v>1812</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1100,7 +1723,7 @@
         <v>1812</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1108,7 +1731,7 @@
         <v>1812</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1116,7 +1739,7 @@
         <v>1813</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1124,7 +1747,7 @@
         <v>1814</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1132,7 +1755,7 @@
         <v>1814</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1140,7 +1763,7 @@
         <v>1815</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1148,7 +1771,7 @@
         <v>1816</v>
       </c>
       <c r="B32" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1164,7 +1787,7 @@
         <v>1817</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1172,7 +1795,7 @@
         <v>1817</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1180,7 +1803,7 @@
         <v>1818</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1188,7 +1811,7 @@
         <v>1818</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1196,7 +1819,7 @@
         <v>1819</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1204,7 +1827,7 @@
         <v>1819</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1212,7 +1835,7 @@
         <v>1819</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1220,7 +1843,7 @@
         <v>1819</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1228,7 +1851,7 @@
         <v>1819</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1236,7 +1859,7 @@
         <v>1820</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1244,7 +1867,7 @@
         <v>1820</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1252,7 +1875,7 @@
         <v>1821</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1260,7 +1883,7 @@
         <v>1822</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1268,7 +1891,7 @@
         <v>1823</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1276,7 +1899,7 @@
         <v>1823</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1284,7 +1907,7 @@
         <v>1824</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1292,7 +1915,7 @@
         <v>1825</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1300,7 +1923,7 @@
         <v>1825</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1308,7 +1931,7 @@
         <v>1826</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1316,7 +1939,7 @@
         <v>1827</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1324,7 +1947,7 @@
         <v>1827</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1332,7 +1955,7 @@
         <v>1828</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1340,7 +1963,7 @@
         <v>1828</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1348,7 +1971,7 @@
         <v>1829</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1356,7 +1979,7 @@
         <v>1829</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1364,7 +1987,7 @@
         <v>1830</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1372,7 +1995,7 @@
         <v>1830</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1380,7 +2003,7 @@
         <v>1830</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1388,7 +2011,7 @@
         <v>1830</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1396,7 +2019,7 @@
         <v>1831</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1404,7 +2027,7 @@
         <v>1831</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1412,7 +2035,7 @@
         <v>1831</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1420,7 +2043,7 @@
         <v>1832</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1428,7 +2051,7 @@
         <v>1832</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1436,7 +2059,7 @@
         <v>1833</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1444,7 +2067,7 @@
         <v>1834</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1452,7 +2075,7 @@
         <v>1835</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1460,7 +2083,7 @@
         <v>1836</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1468,7 +2091,7 @@
         <v>1837</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1476,7 +2099,7 @@
         <v>1837</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1484,7 +2107,7 @@
         <v>1837</v>
       </c>
       <c r="B74" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1492,7 +2115,7 @@
         <v>1837</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1500,7 +2123,7 @@
         <v>1838</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1508,7 +2131,7 @@
         <v>1839</v>
       </c>
       <c r="B77" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1516,7 +2139,7 @@
         <v>1839</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1524,7 +2147,7 @@
         <v>1840</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1532,7 +2155,7 @@
         <v>1841</v>
       </c>
       <c r="B80" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1540,7 +2163,7 @@
         <v>1842</v>
       </c>
       <c r="B81" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1548,7 +2171,7 @@
         <v>1843</v>
       </c>
       <c r="B82" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1556,7 +2179,7 @@
         <v>1844</v>
       </c>
       <c r="B83" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1564,7 +2187,7 @@
         <v>1845</v>
       </c>
       <c r="B84" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1572,7 +2195,7 @@
         <v>1845</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1580,7 +2203,7 @@
         <v>1845</v>
       </c>
       <c r="B86" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1588,7 +2211,7 @@
         <v>1846</v>
       </c>
       <c r="B87" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1596,7 +2219,7 @@
         <v>1847</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1604,7 +2227,7 @@
         <v>1848</v>
       </c>
       <c r="B89" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1612,7 +2235,7 @@
         <v>1848</v>
       </c>
       <c r="B90" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1620,7 +2243,7 @@
         <v>1849</v>
       </c>
       <c r="B91" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1628,7 +2251,7 @@
         <v>1850</v>
       </c>
       <c r="B92" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1636,7 +2259,7 @@
         <v>1851</v>
       </c>
       <c r="B93" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1644,7 +2267,7 @@
         <v>1852</v>
       </c>
       <c r="B94" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1652,7 +2275,7 @@
         <v>1852</v>
       </c>
       <c r="B95" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1660,7 +2283,7 @@
         <v>1853</v>
       </c>
       <c r="B96" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1668,7 +2291,7 @@
         <v>1853</v>
       </c>
       <c r="B97" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1676,7 +2299,7 @@
         <v>1854</v>
       </c>
       <c r="B98" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1684,7 +2307,7 @@
         <v>1855</v>
       </c>
       <c r="B99" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1692,7 +2315,7 @@
         <v>1855</v>
       </c>
       <c r="B100" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1700,7 +2323,7 @@
         <v>1855</v>
       </c>
       <c r="B101" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1708,7 +2331,7 @@
         <v>1856</v>
       </c>
       <c r="B102" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1716,7 +2339,7 @@
         <v>1857</v>
       </c>
       <c r="B103" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1724,7 +2347,7 @@
         <v>1858</v>
       </c>
       <c r="B104" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1732,7 +2355,7 @@
         <v>1858</v>
       </c>
       <c r="B105" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1740,7 +2363,7 @@
         <v>1858</v>
       </c>
       <c r="B106" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1748,7 +2371,7 @@
         <v>1859</v>
       </c>
       <c r="B107" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1756,7 +2379,7 @@
         <v>1859</v>
       </c>
       <c r="B108" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1764,7 +2387,7 @@
         <v>1859</v>
       </c>
       <c r="B109" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1772,7 +2395,7 @@
         <v>1860</v>
       </c>
       <c r="B110" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1780,7 +2403,7 @@
         <v>1861</v>
       </c>
       <c r="B111" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1788,23 +2411,23 @@
         <v>1861</v>
       </c>
       <c r="B112" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B113" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B114" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1812,39 +2435,39 @@
         <v>1863</v>
       </c>
       <c r="B115" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B116" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B117" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B118" t="s">
-        <v>98</v>
+        <v>193</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B119" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1852,15 +2475,15 @@
         <v>1867</v>
       </c>
       <c r="B120" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B121" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1868,15 +2491,15 @@
         <v>1868</v>
       </c>
       <c r="B122" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B123" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1884,31 +2507,31 @@
         <v>1869</v>
       </c>
       <c r="B124" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B125" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B126" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B127" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1916,47 +2539,47 @@
         <v>1872</v>
       </c>
       <c r="B128" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B129" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B130" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B131" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B132" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B133" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1964,111 +2587,111 @@
         <v>1877</v>
       </c>
       <c r="B134" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B135" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B136" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B137" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B138" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B139" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B140" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B141" t="s">
-        <v>138</v>
+        <v>301</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="B142" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="B143" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="B144" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="B145" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="B146" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B147" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -2076,7 +2699,7 @@
         <v>1889</v>
       </c>
       <c r="B148" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -2084,55 +2707,55 @@
         <v>1889</v>
       </c>
       <c r="B149" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B150" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B151" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B152" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="B153" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="B154" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B155" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -2140,39 +2763,1695 @@
         <v>1893</v>
       </c>
       <c r="B156" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B157" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="B158" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B159" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
+        <v>1895</v>
+      </c>
+      <c r="B160" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>1895</v>
+      </c>
+      <c r="B161" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
         <v>1896</v>
       </c>
-      <c r="B160" t="s">
-        <v>135</v>
+      <c r="B162" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>1897</v>
+      </c>
+      <c r="B163" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>1897</v>
+      </c>
+      <c r="B164" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>1898</v>
+      </c>
+      <c r="B165" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>1898</v>
+      </c>
+      <c r="B166" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>1899</v>
+      </c>
+      <c r="B167" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>1900</v>
+      </c>
+      <c r="B168" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>1900</v>
+      </c>
+      <c r="B169" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>1901</v>
+      </c>
+      <c r="B170" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>1902</v>
+      </c>
+      <c r="B171" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>1903</v>
+      </c>
+      <c r="B172" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>1903</v>
+      </c>
+      <c r="B173" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>1904</v>
+      </c>
+      <c r="B174" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>1904</v>
+      </c>
+      <c r="B175" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>1904</v>
+      </c>
+      <c r="B176" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>1905</v>
+      </c>
+      <c r="B177" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>1906</v>
+      </c>
+      <c r="B178" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>1907</v>
+      </c>
+      <c r="B179" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>1907</v>
+      </c>
+      <c r="B180" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>1908</v>
+      </c>
+      <c r="B181" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>1908</v>
+      </c>
+      <c r="B182" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>1908</v>
+      </c>
+      <c r="B183" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>1909</v>
+      </c>
+      <c r="B184" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>1910</v>
+      </c>
+      <c r="B185" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>1911</v>
+      </c>
+      <c r="B186" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>1911</v>
+      </c>
+      <c r="B187" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>1912</v>
+      </c>
+      <c r="B188" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>1912</v>
+      </c>
+      <c r="B189" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>1912</v>
+      </c>
+      <c r="B190" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>1912</v>
+      </c>
+      <c r="B191" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>1913</v>
+      </c>
+      <c r="B192" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>1913</v>
+      </c>
+      <c r="B193" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>1914</v>
+      </c>
+      <c r="B194" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>1915</v>
+      </c>
+      <c r="B195" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>1915</v>
+      </c>
+      <c r="B196" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>1916</v>
+      </c>
+      <c r="B197" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>1917</v>
+      </c>
+      <c r="B198" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>1918</v>
+      </c>
+      <c r="B199" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>1919</v>
+      </c>
+      <c r="B200" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>1920</v>
+      </c>
+      <c r="B201" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>1921</v>
+      </c>
+      <c r="B202" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>1922</v>
+      </c>
+      <c r="B203" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>1923</v>
+      </c>
+      <c r="B204" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>1923</v>
+      </c>
+      <c r="B205" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>1923</v>
+      </c>
+      <c r="B206" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>1924</v>
+      </c>
+      <c r="B207" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>1925</v>
+      </c>
+      <c r="B208" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>1926</v>
+      </c>
+      <c r="B209" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>1926</v>
+      </c>
+      <c r="B210" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>1927</v>
+      </c>
+      <c r="B211" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>1928</v>
+      </c>
+      <c r="B212" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>1929</v>
+      </c>
+      <c r="B213" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>1930</v>
+      </c>
+      <c r="B214" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>1930</v>
+      </c>
+      <c r="B215" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>1931</v>
+      </c>
+      <c r="B216" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>1931</v>
+      </c>
+      <c r="B217" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>1932</v>
+      </c>
+      <c r="B218" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>1932</v>
+      </c>
+      <c r="B219" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>1932</v>
+      </c>
+      <c r="B220" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>1933</v>
+      </c>
+      <c r="B221" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>1933</v>
+      </c>
+      <c r="B222" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>1934</v>
+      </c>
+      <c r="B223" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>1935</v>
+      </c>
+      <c r="B224" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>1935</v>
+      </c>
+      <c r="B225" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>1936</v>
+      </c>
+      <c r="B226" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>1936</v>
+      </c>
+      <c r="B227" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>1937</v>
+      </c>
+      <c r="B228" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>1937</v>
+      </c>
+      <c r="B229" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>1937</v>
+      </c>
+      <c r="B230" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>1937</v>
+      </c>
+      <c r="B231" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>1938</v>
+      </c>
+      <c r="B232" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>1939</v>
+      </c>
+      <c r="B233" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>1940</v>
+      </c>
+      <c r="B234" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>1940</v>
+      </c>
+      <c r="B235" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>1940</v>
+      </c>
+      <c r="B236" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>1941</v>
+      </c>
+      <c r="B237" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>1941</v>
+      </c>
+      <c r="B238" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>1942</v>
+      </c>
+      <c r="B239" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>1942</v>
+      </c>
+      <c r="B240" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>1943</v>
+      </c>
+      <c r="B241" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>1944</v>
+      </c>
+      <c r="B242" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>1945</v>
+      </c>
+      <c r="B243" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>1946</v>
+      </c>
+      <c r="B244" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>1946</v>
+      </c>
+      <c r="B245" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>1946</v>
+      </c>
+      <c r="B246" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>1947</v>
+      </c>
+      <c r="B247" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>1947</v>
+      </c>
+      <c r="B248" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>1948</v>
+      </c>
+      <c r="B249" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>1949</v>
+      </c>
+      <c r="B250" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>1949</v>
+      </c>
+      <c r="B251" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>1950</v>
+      </c>
+      <c r="B252" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>1951</v>
+      </c>
+      <c r="B253" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>1952</v>
+      </c>
+      <c r="B254" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>1953</v>
+      </c>
+      <c r="B255" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>1954</v>
+      </c>
+      <c r="B256" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>1954</v>
+      </c>
+      <c r="B257" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>1955</v>
+      </c>
+      <c r="B258" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>1955</v>
+      </c>
+      <c r="B259" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>1956</v>
+      </c>
+      <c r="B260" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>1957</v>
+      </c>
+      <c r="B261" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>1957</v>
+      </c>
+      <c r="B262" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>1957</v>
+      </c>
+      <c r="B263" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>1958</v>
+      </c>
+      <c r="B264" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>1959</v>
+      </c>
+      <c r="B265" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>1959</v>
+      </c>
+      <c r="B266" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>1959</v>
+      </c>
+      <c r="B267" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>1960</v>
+      </c>
+      <c r="B268" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>1961</v>
+      </c>
+      <c r="B269" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>1962</v>
+      </c>
+      <c r="B270" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>1962</v>
+      </c>
+      <c r="B271" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>1962</v>
+      </c>
+      <c r="B272" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>1963</v>
+      </c>
+      <c r="B273" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>1964</v>
+      </c>
+      <c r="B274" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>1964</v>
+      </c>
+      <c r="B275" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>1965</v>
+      </c>
+      <c r="B276" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>1966</v>
+      </c>
+      <c r="B277" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>1966</v>
+      </c>
+      <c r="B278" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>1966</v>
+      </c>
+      <c r="B279" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>1967</v>
+      </c>
+      <c r="B280" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>1967</v>
+      </c>
+      <c r="B281" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>1967</v>
+      </c>
+      <c r="B282" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>1967</v>
+      </c>
+      <c r="B283" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>1967</v>
+      </c>
+      <c r="B284" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>1967</v>
+      </c>
+      <c r="B285" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>1968</v>
+      </c>
+      <c r="B286" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>1968</v>
+      </c>
+      <c r="B287" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>1968</v>
+      </c>
+      <c r="B288" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>1968</v>
+      </c>
+      <c r="B289" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>1969</v>
+      </c>
+      <c r="B290" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>1969</v>
+      </c>
+      <c r="B291" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>1970</v>
+      </c>
+      <c r="B292" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>1971</v>
+      </c>
+      <c r="B293" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>1971</v>
+      </c>
+      <c r="B294" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>1972</v>
+      </c>
+      <c r="B295" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>1973</v>
+      </c>
+      <c r="B296" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>1973</v>
+      </c>
+      <c r="B297" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>1974</v>
+      </c>
+      <c r="B298" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>1974</v>
+      </c>
+      <c r="B299" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>1975</v>
+      </c>
+      <c r="B300" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>1975</v>
+      </c>
+      <c r="B301" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>1976</v>
+      </c>
+      <c r="B302" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>1976</v>
+      </c>
+      <c r="B303" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>1976</v>
+      </c>
+      <c r="B304" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>1977</v>
+      </c>
+      <c r="B305" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>1977</v>
+      </c>
+      <c r="B306" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>1977</v>
+      </c>
+      <c r="B307" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>1977</v>
+      </c>
+      <c r="B308" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>1977</v>
+      </c>
+      <c r="B309" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>1978</v>
+      </c>
+      <c r="B310" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>1979</v>
+      </c>
+      <c r="B311" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>1980</v>
+      </c>
+      <c r="B312" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>1980</v>
+      </c>
+      <c r="B313" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>1981</v>
+      </c>
+      <c r="B314" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>1981</v>
+      </c>
+      <c r="B315" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>1982</v>
+      </c>
+      <c r="B316" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>1982</v>
+      </c>
+      <c r="B317" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>1982</v>
+      </c>
+      <c r="B318" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>1982</v>
+      </c>
+      <c r="B319" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>1983</v>
+      </c>
+      <c r="B320" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>1984</v>
+      </c>
+      <c r="B321" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>1984</v>
+      </c>
+      <c r="B322" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>1985</v>
+      </c>
+      <c r="B323" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>1986</v>
+      </c>
+      <c r="B324" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>1986</v>
+      </c>
+      <c r="B325" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>1986</v>
+      </c>
+      <c r="B326" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>1987</v>
+      </c>
+      <c r="B327" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>1988</v>
+      </c>
+      <c r="B328" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>1988</v>
+      </c>
+      <c r="B329" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>1988</v>
+      </c>
+      <c r="B330" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>1988</v>
+      </c>
+      <c r="B331" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>1989</v>
+      </c>
+      <c r="B332" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>1989</v>
+      </c>
+      <c r="B333" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>1989</v>
+      </c>
+      <c r="B334" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>1990</v>
+      </c>
+      <c r="B335" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>1991</v>
+      </c>
+      <c r="B336" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>1992</v>
+      </c>
+      <c r="B337" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>1993</v>
+      </c>
+      <c r="B338" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>1994</v>
+      </c>
+      <c r="B339" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>1995</v>
+      </c>
+      <c r="B340" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>1996</v>
+      </c>
+      <c r="B341" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>1997</v>
+      </c>
+      <c r="B342" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>1998</v>
+      </c>
+      <c r="B343" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>1999</v>
+      </c>
+      <c r="B344" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B345" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B346" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B347" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B348" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B349" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B350" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B351" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B352" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B353" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B354" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B355" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B356" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B357" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B358" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B359" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B360" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B361" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B362" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B363" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B364" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B365" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B366" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B367" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/historical_items.xlsx
+++ b/xlsx/historical_items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kend/Documents/General Maps/Time Line/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_k\work_stuff\historical-transportation-map\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE8543E-8B60-434F-9827-E682D6190E52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACE0C2C-497D-447F-A175-206732BB0878}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{171EF181-1F3C-7A42-9B63-D835B687641B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{171EF181-1F3C-7A42-9B63-D835B687641B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="643">
   <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
     <t>The U.S. capital is moved from Philadelphia to Washington, DC.</t>
   </si>
   <si>
@@ -1954,6 +1948,12 @@
   </si>
   <si>
     <t>Two men became first hot-air balloon travelers to cross Atlantic.</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
 </sst>
 </file>
@@ -2342,5158 +2342,5158 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8479D0E-E3F6-DA41-AEC9-2CE4981D9A6E}">
   <dimension ref="A1:B643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A539" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B554" sqref="B554"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="134.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="2" max="2" width="134.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1800</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1800</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1800</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1800</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1800</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1801</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1801</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1801</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1802</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>1802</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>1803</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>1803</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>1803</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1803</v>
       </c>
       <c r="B15" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1803</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1803</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1804</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1804</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1804</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1804</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1805</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1805</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1805</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1805</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1806</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1806</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1806</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1807</v>
       </c>
       <c r="B29" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1807</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1807</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1807</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1807</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1808</v>
       </c>
       <c r="B34" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1808</v>
       </c>
       <c r="B35" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1808</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1809</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1809</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1809</v>
       </c>
       <c r="B39" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1810</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1811</v>
       </c>
       <c r="B41" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1811</v>
       </c>
       <c r="B42" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1811</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1812</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1812</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1812</v>
       </c>
       <c r="B46" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1812</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1813</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1814</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1814</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1815</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1816</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1817</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1817</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1817</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1818</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1818</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1819</v>
       </c>
       <c r="B58" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1819</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1819</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1819</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1819</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1819</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1820</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1820</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1821</v>
       </c>
       <c r="B66" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1821</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1822</v>
       </c>
       <c r="B68" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>1822</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1823</v>
       </c>
       <c r="B70" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1823</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1823</v>
       </c>
       <c r="B72" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>1824</v>
       </c>
       <c r="B73" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>1824</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>1825</v>
       </c>
       <c r="B75" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>1825</v>
       </c>
       <c r="B76" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>1825</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>1826</v>
       </c>
       <c r="B78" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>1826</v>
       </c>
       <c r="B79" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>1827</v>
       </c>
       <c r="B80" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>1827</v>
       </c>
       <c r="B81" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>1828</v>
       </c>
       <c r="B82" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>1828</v>
       </c>
       <c r="B83" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>1828</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>1829</v>
       </c>
       <c r="B85" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>1829</v>
       </c>
       <c r="B86" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1829</v>
       </c>
       <c r="B87" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>1830</v>
       </c>
       <c r="B88" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>1830</v>
       </c>
       <c r="B89" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>1830</v>
       </c>
       <c r="B90" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>1830</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>1830</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>1830</v>
       </c>
       <c r="B93" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>1831</v>
       </c>
       <c r="B94" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>1831</v>
       </c>
       <c r="B95" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>1831</v>
       </c>
       <c r="B96" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>1831</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>1831</v>
       </c>
       <c r="B98" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>1831</v>
       </c>
       <c r="B99" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>1831</v>
       </c>
       <c r="B100" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>1831</v>
       </c>
       <c r="B101" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>1832</v>
       </c>
       <c r="B102" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>1832</v>
       </c>
       <c r="B103" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>1833</v>
       </c>
       <c r="B104" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>1833</v>
       </c>
       <c r="B105" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>1833</v>
       </c>
       <c r="B106" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>1834</v>
       </c>
       <c r="B107" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>1834</v>
       </c>
       <c r="B108" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>1834</v>
       </c>
       <c r="B109" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>1835</v>
       </c>
       <c r="B110" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>1835</v>
       </c>
       <c r="B111" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>1835</v>
       </c>
       <c r="B112" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>1835</v>
       </c>
       <c r="B113" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>1836</v>
       </c>
       <c r="B114" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>1836</v>
       </c>
       <c r="B115" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>1836</v>
       </c>
       <c r="B116" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>1836</v>
       </c>
       <c r="B117" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>1837</v>
       </c>
       <c r="B118" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>1837</v>
       </c>
       <c r="B119" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>1837</v>
       </c>
       <c r="B120" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>1837</v>
       </c>
       <c r="B121" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>1837</v>
       </c>
       <c r="B122" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>1837</v>
       </c>
       <c r="B123" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>1838</v>
       </c>
       <c r="B124" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>1838</v>
       </c>
       <c r="B125" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>1838</v>
       </c>
       <c r="B126" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>1839</v>
       </c>
       <c r="B127" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>1839</v>
       </c>
       <c r="B128" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>1839</v>
       </c>
       <c r="B129" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>1839</v>
       </c>
       <c r="B130" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>1839</v>
       </c>
       <c r="B131" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>1839</v>
       </c>
       <c r="B132" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>1840</v>
       </c>
       <c r="B133" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>1841</v>
       </c>
       <c r="B134" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>1841</v>
       </c>
       <c r="B135" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>1841</v>
       </c>
       <c r="B136" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>1842</v>
       </c>
       <c r="B137" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>1842</v>
       </c>
       <c r="B138" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>1843</v>
       </c>
       <c r="B139" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>1843</v>
       </c>
       <c r="B140" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>1843</v>
       </c>
       <c r="B141" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>1844</v>
       </c>
       <c r="B142" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>1844</v>
       </c>
       <c r="B143" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>1845</v>
       </c>
       <c r="B144" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>1845</v>
       </c>
       <c r="B145" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>1845</v>
       </c>
       <c r="B146" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>1846</v>
       </c>
       <c r="B147" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>1846</v>
       </c>
       <c r="B148" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>1846</v>
       </c>
       <c r="B149" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>1846</v>
       </c>
       <c r="B150" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>1846</v>
       </c>
       <c r="B151" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>1847</v>
       </c>
       <c r="B152" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>1847</v>
       </c>
       <c r="B153" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>1848</v>
       </c>
       <c r="B154" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>1848</v>
       </c>
       <c r="B155" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>1848</v>
       </c>
       <c r="B156" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>1848</v>
       </c>
       <c r="B157" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>1848</v>
       </c>
       <c r="B158" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>1849</v>
       </c>
       <c r="B159" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>1850</v>
       </c>
       <c r="B160" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>1850</v>
       </c>
       <c r="B161" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>1850</v>
       </c>
       <c r="B162" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>1851</v>
       </c>
       <c r="B163" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>1851</v>
       </c>
       <c r="B164" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>1852</v>
       </c>
       <c r="B165" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>1852</v>
       </c>
       <c r="B166" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>1853</v>
       </c>
       <c r="B167" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>1853</v>
       </c>
       <c r="B168" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>1853</v>
       </c>
       <c r="B169" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>1854</v>
       </c>
       <c r="B170" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>1854</v>
       </c>
       <c r="B171" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>1854</v>
       </c>
       <c r="B172" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>1854</v>
       </c>
       <c r="B173" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>1854</v>
       </c>
       <c r="B174" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>1854</v>
       </c>
       <c r="B175" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>1855</v>
       </c>
       <c r="B176" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>1855</v>
       </c>
       <c r="B177" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>1855</v>
       </c>
       <c r="B178" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>1855</v>
       </c>
       <c r="B179" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>1856</v>
       </c>
       <c r="B180" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>1856</v>
       </c>
       <c r="B181" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>1857</v>
       </c>
       <c r="B182" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>1858</v>
       </c>
       <c r="B183" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>1858</v>
       </c>
       <c r="B184" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>1858</v>
       </c>
       <c r="B185" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>1858</v>
       </c>
       <c r="B186" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>1859</v>
       </c>
       <c r="B187" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>1859</v>
       </c>
       <c r="B188" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>1859</v>
       </c>
       <c r="B189" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>1860</v>
       </c>
       <c r="B190" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>1860</v>
       </c>
       <c r="B191" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>1861</v>
       </c>
       <c r="B192" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>1861</v>
       </c>
       <c r="B193" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>1861</v>
       </c>
       <c r="B194" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>1862</v>
       </c>
       <c r="B195" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>1863</v>
       </c>
       <c r="B196" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>1863</v>
       </c>
       <c r="B197" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>1863</v>
       </c>
       <c r="B198" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>1864</v>
       </c>
       <c r="B199" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>1864</v>
       </c>
       <c r="B200" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>1865</v>
       </c>
       <c r="B201" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>1865</v>
       </c>
       <c r="B202" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>1866</v>
       </c>
       <c r="B203" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>1866</v>
       </c>
       <c r="B204" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>1867</v>
       </c>
       <c r="B205" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>1867</v>
       </c>
       <c r="B206" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>1868</v>
       </c>
       <c r="B207" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>1868</v>
       </c>
       <c r="B208" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>1869</v>
       </c>
       <c r="B209" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>1869</v>
       </c>
       <c r="B210" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>1870</v>
       </c>
       <c r="B211" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>1870</v>
       </c>
       <c r="B212" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>1871</v>
       </c>
       <c r="B213" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>1871</v>
       </c>
       <c r="B214" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>1872</v>
       </c>
       <c r="B215" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>1872</v>
       </c>
       <c r="B216" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>1873</v>
       </c>
       <c r="B217" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>1873</v>
       </c>
       <c r="B218" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>1874</v>
       </c>
       <c r="B219" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>1874</v>
       </c>
       <c r="B220" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>1875</v>
       </c>
       <c r="B221" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>1875</v>
       </c>
       <c r="B222" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>1876</v>
       </c>
       <c r="B223" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>1876</v>
       </c>
       <c r="B224" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>1877</v>
       </c>
       <c r="B225" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>1877</v>
       </c>
       <c r="B226" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>1878</v>
       </c>
       <c r="B227" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>1878</v>
       </c>
       <c r="B228" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>1879</v>
       </c>
       <c r="B229" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>1879</v>
       </c>
       <c r="B230" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>1880</v>
       </c>
       <c r="B231" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>1881</v>
       </c>
       <c r="B232" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>1881</v>
       </c>
       <c r="B233" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>1882</v>
       </c>
       <c r="B234" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>1882</v>
       </c>
       <c r="B235" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>1883</v>
       </c>
       <c r="B236" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>1883</v>
       </c>
       <c r="B237" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>1884</v>
       </c>
       <c r="B238" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>1885</v>
       </c>
       <c r="B239" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>1885</v>
       </c>
       <c r="B240" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>1886</v>
       </c>
       <c r="B241" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>1886</v>
       </c>
       <c r="B242" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>1887</v>
       </c>
       <c r="B243" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>1887</v>
       </c>
       <c r="B244" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>1888</v>
       </c>
       <c r="B245" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>1888</v>
       </c>
       <c r="B246" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>1889</v>
       </c>
       <c r="B247" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>1889</v>
       </c>
       <c r="B248" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>1889</v>
       </c>
       <c r="B249" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>1889</v>
       </c>
       <c r="B250" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>1890</v>
       </c>
       <c r="B251" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>1890</v>
       </c>
       <c r="B252" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>1890</v>
       </c>
       <c r="B253" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>1891</v>
       </c>
       <c r="B254" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>1891</v>
       </c>
       <c r="B255" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>1892</v>
       </c>
       <c r="B256" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>1892</v>
       </c>
       <c r="B257" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>1893</v>
       </c>
       <c r="B258" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>1893</v>
       </c>
       <c r="B259" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>1893</v>
       </c>
       <c r="B260" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>1893</v>
       </c>
       <c r="B261" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>1893</v>
       </c>
       <c r="B262" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>1894</v>
       </c>
       <c r="B263" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>1894</v>
       </c>
       <c r="B264" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>1895</v>
       </c>
       <c r="B265" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>1895</v>
       </c>
       <c r="B266" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>1895</v>
       </c>
       <c r="B267" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>1895</v>
       </c>
       <c r="B268" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>1896</v>
       </c>
       <c r="B269" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>1896</v>
       </c>
       <c r="B270" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>1896</v>
       </c>
       <c r="B271" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>1897</v>
       </c>
       <c r="B272" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>1897</v>
       </c>
       <c r="B273" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>1897</v>
       </c>
       <c r="B274" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>1898</v>
       </c>
       <c r="B275" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>1898</v>
       </c>
       <c r="B276" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>1899</v>
       </c>
       <c r="B277" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>1899</v>
       </c>
       <c r="B278" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>1899</v>
       </c>
       <c r="B279" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>1899</v>
       </c>
       <c r="B280" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>1900</v>
       </c>
       <c r="B281" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>1900</v>
       </c>
       <c r="B282" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>1900</v>
       </c>
       <c r="B283" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>1901</v>
       </c>
       <c r="B284" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>1901</v>
       </c>
       <c r="B285" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>1902</v>
       </c>
       <c r="B286" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>1902</v>
       </c>
       <c r="B287" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>1903</v>
       </c>
       <c r="B288" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>1903</v>
       </c>
       <c r="B289" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>1903</v>
       </c>
       <c r="B290" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>1904</v>
       </c>
       <c r="B291" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>1904</v>
       </c>
       <c r="B292" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>1904</v>
       </c>
       <c r="B293" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>1904</v>
       </c>
       <c r="B294" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>1905</v>
       </c>
       <c r="B295" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>1905</v>
       </c>
       <c r="B296" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>1906</v>
       </c>
       <c r="B297" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>1906</v>
       </c>
       <c r="B298" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>1906</v>
       </c>
       <c r="B299" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>1907</v>
       </c>
       <c r="B300" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>1907</v>
       </c>
       <c r="B301" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>1907</v>
       </c>
       <c r="B302" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>1908</v>
       </c>
       <c r="B303" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>1908</v>
       </c>
       <c r="B304" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>1908</v>
       </c>
       <c r="B305" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>1908</v>
       </c>
       <c r="B306" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>1909</v>
       </c>
       <c r="B307" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>1909</v>
       </c>
       <c r="B308" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>1909</v>
       </c>
       <c r="B309" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>1910</v>
       </c>
       <c r="B310" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>1910</v>
       </c>
       <c r="B311" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>1911</v>
       </c>
       <c r="B312" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>1911</v>
       </c>
       <c r="B313" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>1911</v>
       </c>
       <c r="B314" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>1912</v>
       </c>
       <c r="B315" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>1912</v>
       </c>
       <c r="B316" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>1912</v>
       </c>
       <c r="B317" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>1912</v>
       </c>
       <c r="B318" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>1912</v>
       </c>
       <c r="B319" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>1913</v>
       </c>
       <c r="B320" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>1913</v>
       </c>
       <c r="B321" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>1913</v>
       </c>
       <c r="B322" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>1914</v>
       </c>
       <c r="B323" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>1914</v>
       </c>
       <c r="B324" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>1914</v>
       </c>
       <c r="B325" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>1915</v>
       </c>
       <c r="B326" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>1915</v>
       </c>
       <c r="B327" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>1915</v>
       </c>
       <c r="B328" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>1916</v>
       </c>
       <c r="B329" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>1916</v>
       </c>
       <c r="B330" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>1916</v>
       </c>
       <c r="B331" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>1917</v>
       </c>
       <c r="B332" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>1917</v>
       </c>
       <c r="B333" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>1918</v>
       </c>
       <c r="B334" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>1918</v>
       </c>
       <c r="B335" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>1919</v>
       </c>
       <c r="B336" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>1919</v>
       </c>
       <c r="B337" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>1920</v>
       </c>
       <c r="B338" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>1920</v>
       </c>
       <c r="B339" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>1921</v>
       </c>
       <c r="B340" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>1921</v>
       </c>
       <c r="B341" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>1922</v>
       </c>
       <c r="B342" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>1922</v>
       </c>
       <c r="B343" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>1923</v>
       </c>
       <c r="B344" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>1923</v>
       </c>
       <c r="B345" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>1923</v>
       </c>
       <c r="B346" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>1924</v>
       </c>
       <c r="B347" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>1924</v>
       </c>
       <c r="B348" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>1924</v>
       </c>
       <c r="B349" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>1924</v>
       </c>
       <c r="B350" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>1925</v>
       </c>
       <c r="B351" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>1925</v>
       </c>
       <c r="B352" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>1926</v>
       </c>
       <c r="B353" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>1926</v>
       </c>
       <c r="B354" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>1926</v>
       </c>
       <c r="B355" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>1927</v>
       </c>
       <c r="B356" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>1927</v>
       </c>
       <c r="B357" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>1928</v>
       </c>
       <c r="B358" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>1928</v>
       </c>
       <c r="B359" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>1929</v>
       </c>
       <c r="B360" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>1929</v>
       </c>
       <c r="B361" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>1930</v>
       </c>
       <c r="B362" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>1930</v>
       </c>
       <c r="B363" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>1930</v>
       </c>
       <c r="B364" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>1931</v>
       </c>
       <c r="B365" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>1931</v>
       </c>
       <c r="B366" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>1931</v>
       </c>
       <c r="B367" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>1932</v>
       </c>
       <c r="B368" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>1932</v>
       </c>
       <c r="B369" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>1932</v>
       </c>
       <c r="B370" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>1933</v>
       </c>
       <c r="B371" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>1933</v>
       </c>
       <c r="B372" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>1933</v>
       </c>
       <c r="B373" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>1934</v>
       </c>
       <c r="B374" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>1934</v>
       </c>
       <c r="B375" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>1935</v>
       </c>
       <c r="B376" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>1935</v>
       </c>
       <c r="B377" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>1935</v>
       </c>
       <c r="B378" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>1935</v>
       </c>
       <c r="B379" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>1936</v>
       </c>
       <c r="B380" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>1936</v>
       </c>
       <c r="B381" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>1937</v>
       </c>
       <c r="B382" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>1937</v>
       </c>
       <c r="B383" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>1937</v>
       </c>
       <c r="B384" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>1937</v>
       </c>
       <c r="B385" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>1938</v>
       </c>
       <c r="B386" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>1938</v>
       </c>
       <c r="B387" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>1939</v>
       </c>
       <c r="B388" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>1939</v>
       </c>
       <c r="B389" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>1940</v>
       </c>
       <c r="B390" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>1940</v>
       </c>
       <c r="B391" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>1940</v>
       </c>
       <c r="B392" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>1940</v>
       </c>
       <c r="B393" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>1941</v>
       </c>
       <c r="B394" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>1941</v>
       </c>
       <c r="B395" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>1941</v>
       </c>
       <c r="B396" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>1942</v>
       </c>
       <c r="B397" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>1942</v>
       </c>
       <c r="B398" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>1942</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>1943</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>1943</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>1943</v>
       </c>
       <c r="B402" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>1944</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>1944</v>
       </c>
       <c r="B404" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>1945</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>1945</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>1945</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>1945</v>
       </c>
       <c r="B408" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>1946</v>
       </c>
       <c r="B409" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>1946</v>
       </c>
       <c r="B410" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>1946</v>
       </c>
       <c r="B411" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>1947</v>
       </c>
       <c r="B412" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>1947</v>
       </c>
       <c r="B413" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>1947</v>
       </c>
       <c r="B414" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>1947</v>
       </c>
       <c r="B415" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>1948</v>
       </c>
       <c r="B416" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>1948</v>
       </c>
       <c r="B417" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>1949</v>
       </c>
       <c r="B418" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>1949</v>
       </c>
       <c r="B419" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>1949</v>
       </c>
       <c r="B420" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>1950</v>
       </c>
       <c r="B421" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>1950</v>
       </c>
       <c r="B422" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>1951</v>
       </c>
       <c r="B423" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>1951</v>
       </c>
       <c r="B424" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>1951</v>
       </c>
       <c r="B425" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>1952</v>
       </c>
       <c r="B426" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>1952</v>
       </c>
       <c r="B427" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>1953</v>
       </c>
       <c r="B428" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>1953</v>
       </c>
       <c r="B429" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>1953</v>
       </c>
       <c r="B430" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>1954</v>
       </c>
       <c r="B431" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>1954</v>
       </c>
       <c r="B432" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>1954</v>
       </c>
       <c r="B433" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>1955</v>
       </c>
       <c r="B434" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>1955</v>
       </c>
       <c r="B435" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>1955</v>
       </c>
       <c r="B436" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>1955</v>
       </c>
       <c r="B437" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>1955</v>
       </c>
       <c r="B438" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>1956</v>
       </c>
       <c r="B439" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>1956</v>
       </c>
       <c r="B440" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>1956</v>
       </c>
       <c r="B441" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>1956</v>
       </c>
       <c r="B442" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>1957</v>
       </c>
       <c r="B443" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>1957</v>
       </c>
       <c r="B444" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>1957</v>
       </c>
       <c r="B445" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>1957</v>
       </c>
       <c r="B446" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>1957</v>
       </c>
       <c r="B447" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>1958</v>
       </c>
       <c r="B448" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>1958</v>
       </c>
       <c r="B449" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>1958</v>
       </c>
       <c r="B450" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>1959</v>
       </c>
       <c r="B451" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>1959</v>
       </c>
       <c r="B452" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>1959</v>
       </c>
       <c r="B453" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>1959</v>
       </c>
       <c r="B454" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>1959</v>
       </c>
       <c r="B455" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>1960</v>
       </c>
       <c r="B456" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>1960</v>
       </c>
       <c r="B457" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>1961</v>
       </c>
       <c r="B458" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>1961</v>
       </c>
       <c r="B459" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>1961</v>
       </c>
       <c r="B460" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>1962</v>
       </c>
       <c r="B461" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>1962</v>
       </c>
       <c r="B462" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>1962</v>
       </c>
       <c r="B463" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>1962</v>
       </c>
       <c r="B464" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>1962</v>
       </c>
       <c r="B465" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>1963</v>
       </c>
       <c r="B466" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>1963</v>
       </c>
       <c r="B467" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>1964</v>
       </c>
       <c r="B468" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>1964</v>
       </c>
       <c r="B469" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>1964</v>
       </c>
       <c r="B470" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>1965</v>
       </c>
       <c r="B471" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>1965</v>
       </c>
       <c r="B472" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>1965</v>
       </c>
       <c r="B473" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>1965</v>
       </c>
       <c r="B474" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>1966</v>
       </c>
       <c r="B475" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>1966</v>
       </c>
       <c r="B476" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>1966</v>
       </c>
       <c r="B477" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>1966</v>
       </c>
       <c r="B478" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>1967</v>
       </c>
       <c r="B479" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>1967</v>
       </c>
       <c r="B480" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>1967</v>
       </c>
       <c r="B481" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>1967</v>
       </c>
       <c r="B482" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>1967</v>
       </c>
       <c r="B483" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>1967</v>
       </c>
       <c r="B484" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>1967</v>
       </c>
       <c r="B485" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>1967</v>
       </c>
       <c r="B486" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>1968</v>
       </c>
       <c r="B487" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>1968</v>
       </c>
       <c r="B488" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>1968</v>
       </c>
       <c r="B489" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>1968</v>
       </c>
       <c r="B490" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>1968</v>
       </c>
       <c r="B491" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>1969</v>
       </c>
       <c r="B492" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>1969</v>
       </c>
       <c r="B493" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>1969</v>
       </c>
       <c r="B494" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>1970</v>
       </c>
       <c r="B495" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>1970</v>
       </c>
       <c r="B496" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>1971</v>
       </c>
       <c r="B497" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>1971</v>
       </c>
       <c r="B498" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>1972</v>
       </c>
       <c r="B499" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>1972</v>
       </c>
       <c r="B500" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>1972</v>
       </c>
       <c r="B501" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>1973</v>
       </c>
       <c r="B502" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>1973</v>
       </c>
       <c r="B503" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>1973</v>
       </c>
       <c r="B504" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>1974</v>
       </c>
       <c r="B505" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>1974</v>
       </c>
       <c r="B506" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>1974</v>
       </c>
       <c r="B507" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>1975</v>
       </c>
       <c r="B508" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>1975</v>
       </c>
       <c r="B509" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>1975</v>
       </c>
       <c r="B510" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>1976</v>
       </c>
       <c r="B511" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>1976</v>
       </c>
       <c r="B512" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>1976</v>
       </c>
       <c r="B513" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>1976</v>
       </c>
       <c r="B514" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>1977</v>
       </c>
       <c r="B515" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>1977</v>
       </c>
       <c r="B516" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>1977</v>
       </c>
       <c r="B517" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>1977</v>
       </c>
       <c r="B518" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>1977</v>
       </c>
       <c r="B519" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>1977</v>
       </c>
       <c r="B520" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>1978</v>
       </c>
       <c r="B521" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>1978</v>
       </c>
       <c r="B522" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>1979</v>
       </c>
       <c r="B523" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>1979</v>
       </c>
       <c r="B524" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>1979</v>
       </c>
       <c r="B525" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>1980</v>
       </c>
       <c r="B526" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>1980</v>
       </c>
       <c r="B527" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>1980</v>
       </c>
       <c r="B528" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>1980</v>
       </c>
       <c r="B529" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>1981</v>
       </c>
       <c r="B530" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>1981</v>
       </c>
       <c r="B531" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>1981</v>
       </c>
       <c r="B532" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>1981</v>
       </c>
       <c r="B533" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>1982</v>
       </c>
       <c r="B534" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>1982</v>
       </c>
       <c r="B535" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>1982</v>
       </c>
       <c r="B536" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>1982</v>
       </c>
       <c r="B537" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>1983</v>
       </c>
       <c r="B538" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>1983</v>
       </c>
       <c r="B539" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>1983</v>
       </c>
       <c r="B540" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>1984</v>
       </c>
       <c r="B541" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>1984</v>
       </c>
       <c r="B542" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>1984</v>
       </c>
       <c r="B543" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>1984</v>
       </c>
       <c r="B544" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>1985</v>
       </c>
       <c r="B545" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>1985</v>
       </c>
       <c r="B546" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>1985</v>
       </c>
       <c r="B547" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>1986</v>
       </c>
       <c r="B548" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>1986</v>
       </c>
       <c r="B549" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>1986</v>
       </c>
       <c r="B550" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>1986</v>
       </c>
       <c r="B551" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>1986</v>
       </c>
       <c r="B552" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>1987</v>
       </c>
       <c r="B553" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>1987</v>
       </c>
       <c r="B554" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>1988</v>
       </c>
       <c r="B555" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>1988</v>
       </c>
       <c r="B556" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>1988</v>
       </c>
       <c r="B557" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>1988</v>
       </c>
       <c r="B558" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>1989</v>
       </c>
       <c r="B559" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>1989</v>
       </c>
       <c r="B560" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>1989</v>
       </c>
       <c r="B561" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>1990</v>
       </c>
       <c r="B562" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>1990</v>
       </c>
       <c r="B563" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>1990</v>
       </c>
       <c r="B564" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>1990</v>
       </c>
       <c r="B565" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>1991</v>
       </c>
       <c r="B566" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>1991</v>
       </c>
       <c r="B567" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>1991</v>
       </c>
       <c r="B568" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>1992</v>
       </c>
       <c r="B569" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>1992</v>
       </c>
       <c r="B570" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>1992</v>
       </c>
       <c r="B571" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>1993</v>
       </c>
       <c r="B572" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>1993</v>
       </c>
       <c r="B573" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>1994</v>
       </c>
       <c r="B574" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>1994</v>
       </c>
       <c r="B575" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>1994</v>
       </c>
       <c r="B576" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>1995</v>
       </c>
       <c r="B577" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>1995</v>
       </c>
       <c r="B578" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>1995</v>
       </c>
       <c r="B579" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>1995</v>
       </c>
       <c r="B580" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>1996</v>
       </c>
       <c r="B581" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>1996</v>
       </c>
       <c r="B582" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>1997</v>
       </c>
       <c r="B583" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>1997</v>
       </c>
       <c r="B584" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>1998</v>
       </c>
       <c r="B585" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>1998</v>
       </c>
       <c r="B586" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>1998</v>
       </c>
       <c r="B587" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>1999</v>
       </c>
       <c r="B588" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>1999</v>
       </c>
       <c r="B589" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>1999</v>
       </c>
       <c r="B590" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>2000</v>
       </c>
       <c r="B591" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>2000</v>
       </c>
       <c r="B592" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>2000</v>
       </c>
       <c r="B593" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>2001</v>
       </c>
       <c r="B594" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>2001</v>
       </c>
       <c r="B595" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>2001</v>
       </c>
       <c r="B596" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>2002</v>
       </c>
       <c r="B597" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>2002</v>
       </c>
       <c r="B598" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>2003</v>
       </c>
       <c r="B599" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>2003</v>
       </c>
       <c r="B600" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>2003</v>
       </c>
       <c r="B601" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>2004</v>
       </c>
       <c r="B602" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>2004</v>
       </c>
       <c r="B603" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>2004</v>
       </c>
       <c r="B604" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>2004</v>
       </c>
       <c r="B605" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>2005</v>
       </c>
       <c r="B606" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>2005</v>
       </c>
       <c r="B607" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>2006</v>
       </c>
       <c r="B608" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>2006</v>
       </c>
       <c r="B609" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>2007</v>
       </c>
       <c r="B610" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>2007</v>
       </c>
       <c r="B611" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>2008</v>
       </c>
       <c r="B612" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>2008</v>
       </c>
       <c r="B613" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>2009</v>
       </c>
       <c r="B614" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>2009</v>
       </c>
       <c r="B615" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>2010</v>
       </c>
       <c r="B616" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>2010</v>
       </c>
       <c r="B617" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>2011</v>
       </c>
       <c r="B618" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>2011</v>
       </c>
       <c r="B619" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>2011</v>
       </c>
       <c r="B620" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>2012</v>
       </c>
       <c r="B621" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>2012</v>
       </c>
       <c r="B622" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>2013</v>
       </c>
       <c r="B623" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>2013</v>
       </c>
       <c r="B624" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>2014</v>
       </c>
       <c r="B625" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>2014</v>
       </c>
       <c r="B626" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>2014</v>
       </c>
       <c r="B627" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>2015</v>
       </c>
       <c r="B628" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>2015</v>
       </c>
       <c r="B629" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>2016</v>
       </c>
       <c r="B630" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>2016</v>
       </c>
       <c r="B631" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>2016</v>
       </c>
       <c r="B632" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>2017</v>
       </c>
       <c r="B633" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>2017</v>
       </c>
       <c r="B634" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>2017</v>
       </c>
       <c r="B635" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>2017</v>
       </c>
       <c r="B636" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>2018</v>
       </c>
       <c r="B637" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>2018</v>
       </c>
       <c r="B638" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>2019</v>
       </c>
       <c r="B639" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>2019</v>
       </c>
       <c r="B640" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>2020</v>
       </c>
       <c r="B641" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>2020</v>
       </c>
       <c r="B642" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>2021</v>
       </c>
       <c r="B643" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/historical_items.xlsx
+++ b/xlsx/historical_items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_k\work_stuff\historical-transportation-map\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACE0C2C-497D-447F-A175-206732BB0878}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5028A122-FDF4-47CF-B718-89707848F3D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{171EF181-1F3C-7A42-9B63-D835B687641B}"/>
   </bookViews>
@@ -210,9 +210,6 @@
     <t>Oregon becomes 33th state of the Union.</t>
   </si>
   <si>
-    <t>Gaston Planté invented the lead–acid rechargeable battery</t>
-  </si>
-  <si>
     <t>The Pony Express begins.</t>
   </si>
   <si>
@@ -294,9 +291,6 @@
     <t>Electric self-starter for automobile patented.</t>
   </si>
   <si>
-    <t>Hildebrand &amp; Wolfmüller became the first motorcycle available to the public for purchase.</t>
-  </si>
-  <si>
     <t>Charles Duryea patents a gas-driven automobile.</t>
   </si>
   <si>
@@ -315,9 +309,6 @@
     <t>George Westinghouse invented the compressed-air brake for railway trains.</t>
   </si>
   <si>
-    <t>Étienne Lenoir made a gasoline engine automobile.</t>
-  </si>
-  <si>
     <t>Charles Goodyear patents the vulcanization of rubber.</t>
   </si>
   <si>
@@ -369,9 +360,6 @@
     <t>The era of the subway begins when the first underground public transportation in North America opens in Boston, Massachusetts.</t>
   </si>
   <si>
-    <t>Winton Motor Carriage Company publishes the first known automobile ad in Scientific American using the headline “dispense with a horse.”</t>
-  </si>
-  <si>
     <t>Rudolf Diesel of Germany obtains patent for his internal combustion engine, later known as the diesel engine</t>
   </si>
   <si>
@@ -390,9 +378,6 @@
     <t>American Automobile Association (AAA) founded in Chicago.</t>
   </si>
   <si>
-    <t>Orville Wright and Wilbur Wright – Fly the first motor-driven airplane.</t>
-  </si>
-  <si>
     <t>New bicycle race "Tour de France" announced.</t>
   </si>
   <si>
@@ -552,9 +537,6 @@
     <t>First seaplane takes off from water at Martinques France (Henri Fabre).</t>
   </si>
   <si>
-    <t>Selandia launched – First ocean-going, diesel engine-driven ship.</t>
-  </si>
-  <si>
     <t>New Mexico becomes 47th state of the Union.</t>
   </si>
   <si>
@@ -573,9 +555,6 @@
     <t>Motorized scooter invented.</t>
   </si>
   <si>
-    <t>The Luftkissengleitboot Hovercraft – First hovering vehicle was created by Dagobert Müller. It could only travel on water.</t>
-  </si>
-  <si>
     <t>Articulated trams, invented and first used by the Boston Elevated Railway.</t>
   </si>
   <si>
@@ -768,9 +747,6 @@
     <t>Interstate highway system begins with the signing of the Federal-Aid Highway Act.</t>
   </si>
   <si>
-    <t>Sputnik 1 – First artificial satellite to be launched into orbit.</t>
-  </si>
-  <si>
     <t>Ford Motor Co. introduces Edsel.</t>
   </si>
   <si>
@@ -924,9 +900,6 @@
     <t>San Francisco cable cars cease operations for 2 years of repairs.</t>
   </si>
   <si>
-    <t>First Automated guideway transit driverless metro, Véhicule Automatique Léger introduced in Lille Metro, France.</t>
-  </si>
-  <si>
     <t>First commercial maglev, albeit low-speed opens in Birmingham.</t>
   </si>
   <si>
@@ -987,9 +960,6 @@
     <t>Segway PT self-balancing personal transport was launched by inventor Dean Kamen.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Tesla Roadster, first mass production lithium-ion battery electric car.</t>
-  </si>
-  <si>
     <t>First mass produced hydrogen fuel cell car, Toyota Mirai.</t>
   </si>
   <si>
@@ -1026,9 +996,6 @@
     <t>New Orleans Regional Transit Authority Loyola Avenue Streetcar Line opened.</t>
   </si>
   <si>
-    <t>Opening of the Green Line light rail service in Minneapolis–Saint Paul, Minnesota.</t>
-  </si>
-  <si>
     <t>Opening of the MAX Orange Line in Portland, Oregon, United States.</t>
   </si>
   <si>
@@ -1092,9 +1059,6 @@
     <t>The Western Railroad of Massachusetts is chartered to build a railroad between Worcester, Massachusetts, and the New York state line.</t>
   </si>
   <si>
-    <t xml:space="preserve"> The Long Island Rail Road is incorporated in New York.</t>
-  </si>
-  <si>
     <t>The Castleton and West Stockbridge Railroad is chartered to build a railroad between Albany, New York, and the Massachusetts state line.</t>
   </si>
   <si>
@@ -1113,15 +1077,6 @@
     <t>The Champlain and St. Lawrence Railroad opens between St. John and La Prairie, Quebec, the first steam-worked passenger railroad in British North America.</t>
   </si>
   <si>
-    <t>Opening of first railroad in Cuba (and the Spanish Empire), Havana–Güines, principally for sugar traffic.</t>
-  </si>
-  <si>
-    <t>Opening of first railroad in Austria, the Kaiser Ferdinands Nordbahn, Vienna–Floridsdorf–Deutsch-Wagram (17.7 km).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Newcastle and Carlisle Railway opens, the first line across England.</t>
-  </si>
-  <si>
     <t>An act of the United States Congress officially designates all railroads in the United States as postal routes.</t>
   </si>
   <si>
@@ -1155,12 +1110,6 @@
     <t>The first Gare du Nord station in Paris, France, is opened.</t>
   </si>
   <si>
-    <t>The first railway line in Hungary opens between Pest and Vác.</t>
-  </si>
-  <si>
-    <t>Opening of first railway wholly within Switzerland, the Swiss Northern Railway from Zürich to Baden.</t>
-  </si>
-  <si>
     <t>London Waterloo station opens.</t>
   </si>
   <si>
@@ -1179,18 +1128,9 @@
     <t>The Brooklyn City Railroad, the oldest streetcar line in Brooklyn, New York, opens for passenger service.</t>
   </si>
   <si>
-    <t>The first trains operate in what is now Romania between Oraviţa, Transylvania, and Baziaş, on the Danube.</t>
-  </si>
-  <si>
     <t>Opening of first railway in Norway, the Hovedjernbanen, from Christiania (Oslo) to Eidsvoll (67.6 km).</t>
   </si>
   <si>
-    <t>Opening of first railway in Brazil, running 16 km (9.9 mi) inland from Mauá on 1,676 mm (5 ft 6.0 in) gauge.</t>
-  </si>
-  <si>
-    <t>The Oriental Railway Company is granted the concession to build the first railway in Turkey, from İzmir to Aydın.</t>
-  </si>
-  <si>
     <t>The Staten Island Railway starts operations in Staten Island, New York; this is now the oldest rapid transit right-of-way in New York City, but is operated separately from the New York City Subway</t>
   </si>
   <si>
@@ -1206,9 +1146,6 @@
     <t>The first demonstration runs are held on the Mount Washington Cog Railway, in New Hampshire.</t>
   </si>
   <si>
-    <t>First railway in the Governorate of Estonia is opened on the route Paldiski–Reval (Tallinn)–Narva–Gatchina.</t>
-  </si>
-  <si>
     <t>The first narrow gauge railway in North America, the Toronto and Nipissing Railway, using a track gauge of 1,067 mm (3 ft 6 in), opens to Uxbridge.</t>
   </si>
   <si>
@@ -1281,15 +1218,9 @@
     <t>Official opening of the Central London Railway, core of the Central line of the London Underground, the third deep-level electrified "tube" railway in the city.</t>
   </si>
   <si>
-    <t>The first section of the Paris Métro opens.</t>
-  </si>
-  <si>
     <t>Official start of traffic on Chinese Eastern Railway.</t>
   </si>
   <si>
-    <t>Pennsylvania Railroad president Alexander Cassatt announces the railroad's plan to enter New York City – to tunnel under the Hudson River and to build a grand station on the West Side of Manhattan, a station that would become Pennsylvania Station.</t>
-  </si>
-  <si>
     <t>The New York Central railroad debuts the 20th Century Limited passenger train between Chicago and New York.</t>
   </si>
   <si>
@@ -1389,12 +1320,6 @@
     <t>Sixty-nine railroads buy the American Railway Express Company and rename it Railway Express Agency.</t>
   </si>
   <si>
-    <t>The Turkestan–Siberia Railway is completed.</t>
-  </si>
-  <si>
-    <t>The Boston and Maine Railroad runs its first “Snow Train” for skiers and other winter vacationers.</t>
-  </si>
-  <si>
     <t>London Underground diagram designed by Harry Beck introduced to public.</t>
   </si>
   <si>
@@ -1554,9 +1479,6 @@
     <t>The Victoria line of the London Underground opens.</t>
   </si>
   <si>
-    <t>São Paulo Metro is inaugurated.</t>
-  </si>
-  <si>
     <t>Revenue service begins on the Bay Area Rapid Transit (BART) system in the San Francisco Bay Area.</t>
   </si>
   <si>
@@ -1572,9 +1494,6 @@
     <t>The first section, 4.6 miles (7.4 km), of the Washington Metro, the elevated, ground, and subway system in Washington, D.C., opens.</t>
   </si>
   <si>
-    <t xml:space="preserve"> London becomes the first capital city in the world to be directly linked to its international airport by underground railway </t>
-  </si>
-  <si>
     <t>The Stone Arch Bridge built by the Great Northern Railway across the Mississippi River in Minneapolis, Minnesota sees its final use as a railroad bridge; the bridge is later converted for pedestrian and bicycle use.</t>
   </si>
   <si>
@@ -1605,12 +1524,6 @@
     <t>The Minsk Metro in Belarus (then still a part of the Soviet Union) opens.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pittsburgh Light Rail downtown subway opens for operation.</t>
-  </si>
-  <si>
-    <t>China Railway opens the world's longest railway bridge at this date, carrying the Heze–Xinxiang line over the Yellow River (10.3 km (6.4 mi)).</t>
-  </si>
-  <si>
     <t>Portland, Oregon's light rail system, MAX, opens for service.</t>
   </si>
   <si>
@@ -1638,9 +1551,6 @@
     <t>Light rail system in Baltimore, Maryland, USA, opens.</t>
   </si>
   <si>
-    <t>Buses replace streetcars along the Girard Avenue Line in Philadelphia – rail service would not be restored for thirteen years.</t>
-  </si>
-  <si>
     <t>California Northern Railroad begins operations.</t>
   </si>
   <si>
@@ -1710,9 +1620,6 @@
     <t>CapeFLYER summer weekend service from Boston, Massachusetts to Cape Cod begun.</t>
   </si>
   <si>
-    <t>The Bay Area Rapid Transit Coliseum–Oakland International Airport line automated people mover begins service.</t>
-  </si>
-  <si>
     <t>West Island Line (Hong Kong) opened.</t>
   </si>
   <si>
@@ -1734,33 +1641,12 @@
     <t>Lund , Sweden tramway opened.</t>
   </si>
   <si>
-    <t>Becket–Chester–Russell Massachusetts Turnpike opens.</t>
-  </si>
-  <si>
-    <t>Douglas–Mendon–Bellingham Massachusetts Turnpike opens.</t>
-  </si>
-  <si>
-    <t>New York line–Lenox–Becket–Sandisfield–Connecticut line Massachusetts Turnpike opens.</t>
-  </si>
-  <si>
-    <t>Egremont–Sheffield—Connecticut line Massachusetts Turnpike opens.</t>
-  </si>
-  <si>
     <t>Quincy Turnpike in Massachusetts opens.</t>
   </si>
   <si>
     <t>Quincy Turnpike in Massachusetts closed.</t>
   </si>
   <si>
-    <t>New York line–Lenox–Becket–Sandisfield–Connecticut line Massachusetts Turnpike closes.</t>
-  </si>
-  <si>
-    <t>Douglas–Mendon–Bellingham Massachusetts Turnpike closes.</t>
-  </si>
-  <si>
-    <t>Becket–Chester–Russell Massachusetts Turnpike closes.</t>
-  </si>
-  <si>
     <t>Great Barrington and Alford Turnpike opens.</t>
   </si>
   <si>
@@ -1869,9 +1755,6 @@
     <t>The CharlieCard debuts. It is a contactless smart card on which the passenger loads fares. It replaces the metal token.</t>
   </si>
   <si>
-    <t>The Madrid–Valladolid high-speed rail line opens to passengers in Spain, including the 28 kilometers (17 mi) Guadarrama Tunnel, the fourth longest railway tunnel in Europe.</t>
-  </si>
-  <si>
     <t>Suzhou, China Metro opens.</t>
   </si>
   <si>
@@ -1884,9 +1767,6 @@
     <t>First transcontinental airplane flight, NY-Pasadena in 82 hrs. 4 min.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Twin Peaks Tunnel in San Francisco, California, the longest (11,920 feet or 3,630 meters) streetcar tunnel in the world, opens.</t>
-  </si>
-  <si>
     <t>All major railways in Great Britain are nationalized.</t>
   </si>
   <si>
@@ -1954,6 +1834,126 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>Becket-Chester-Russell Massachusetts Turnpike opens.</t>
+  </si>
+  <si>
+    <t>New York line-Lenox-Becket-Sandisfield-Connecticut line Massachusetts Turnpike opens.</t>
+  </si>
+  <si>
+    <t>Douglas-Mendon-Bellingham Massachusetts Turnpike opens.</t>
+  </si>
+  <si>
+    <t>Egremont-Sheffield-Connecticut line Massachusetts Turnpike opens.</t>
+  </si>
+  <si>
+    <t>Opening of first railroad in Austria, the Kaiser Ferdinands Nordbahn, Vienna-Floridsdorf-Deutsch-Wagram (17.7 km).</t>
+  </si>
+  <si>
+    <t>Opening of first railroad in Cuba (and the Spanish Empire), Havana-Guines, principally for sugar traffic.</t>
+  </si>
+  <si>
+    <t>Becket-Chester-Russell Massachusetts Turnpike closes.</t>
+  </si>
+  <si>
+    <t>The first section of the Paris M&amp;eacute;tro opens.</t>
+  </si>
+  <si>
+    <t>&amp;Eacute;tienne Lenoir made a gasoline engine automobile.</t>
+  </si>
+  <si>
+    <t>Opening of first railway wholly within Switzerland, the Swiss Northern Railway from Z&amp;uuml;rich to Baden.</t>
+  </si>
+  <si>
+    <t>Newcastle and Carlisle Railway opens, the first line across England.</t>
+  </si>
+  <si>
+    <t>Hildebrand &amp; Wolfm&amp;uuml;ller became the first motorcycle available to the public for purchase.</t>
+  </si>
+  <si>
+    <t>The first railway line in Hungary opens between Pest and V&amp;aacute;c.</t>
+  </si>
+  <si>
+    <t>Opening of first railway in Brazil, running 16 km (9.9 mi) inland from Mau&amp;aacute; on 1,676 mm (5 ft 6.0 in) gauge.</t>
+  </si>
+  <si>
+    <t>S&amp;atilde;o Paulo Metro is inaugurated.</t>
+  </si>
+  <si>
+    <t>The first trains operate in what is now Romania between Oravi&amp;tcedil;a, Transylvania, and Bazia&amp;scedil;, on the Danube.</t>
+  </si>
+  <si>
+    <t>The Oriental Railway Company is granted the concession to build the first railway in Turkey, from &amp;Iuml;zmir to Aydın.</t>
+  </si>
+  <si>
+    <t>New York line-Lenox-Becket-Sandisfield-Connecticut line Massachusetts Turnpike closes.</t>
+  </si>
+  <si>
+    <t>First railway in the Governorate of Estonia is opened on the route Paldiski-Reval (Tallinn)-Narva-Gatchina.</t>
+  </si>
+  <si>
+    <t>Pennsylvania Railroad president Alexander Cassatt announces the railroad's plan to enter New York City - to tunnel under the Hudson River and to build a grand station on the West Side of Manhattan, a station that would become Pennsylvania Station.</t>
+  </si>
+  <si>
+    <t>Orville Wright and Wilbur Wright - Fly the first motor-driven airplane.</t>
+  </si>
+  <si>
+    <t>Selandia launched - First ocean-going, diesel engine-driven ship.</t>
+  </si>
+  <si>
+    <t>The Luftkissengleitboot Hovercraft - First hovering vehicle was created by Dagobert Müller. It could only travel on water.</t>
+  </si>
+  <si>
+    <t>The Turkestan-Siberia Railway is completed.</t>
+  </si>
+  <si>
+    <t>Sputnik 1 - First artificial satellite to be launched into orbit.</t>
+  </si>
+  <si>
+    <t>Pittsburgh Light Rail downtown subway opens for operation.</t>
+  </si>
+  <si>
+    <t>China Railway opens the world's longest railway bridge at this date, carrying the Heze-Xinxiang line over the Yellow River (10.3 km (6.4 mi)).</t>
+  </si>
+  <si>
+    <t>The Madrid-Valladolid high-speed rail line opens to passengers in Spain, including the 28 kilometers (17 mi) Guadarrama Tunnel, the fourth longest railway tunnel in Europe.</t>
+  </si>
+  <si>
+    <t>The Bay Area Rapid Transit Coliseum-Oakland International Airport line automated people mover begins service.</t>
+  </si>
+  <si>
+    <t>Tesla Roadster, first mass production lithium-ion battery electric car.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">London becomes the first capital city in the world to be directly linked to its international airport by underground railway </t>
+  </si>
+  <si>
+    <t>Twin Peaks Tunnel in San Francisco, California, the longest (11,920 feet or 3,630 meters) streetcar tunnel in the world, opens.</t>
+  </si>
+  <si>
+    <t>The Long Island Rail Road is incorporated in New York.</t>
+  </si>
+  <si>
+    <t>Douglas-Mendon-Bellingham Massachusetts Turnpike closes.</t>
+  </si>
+  <si>
+    <t>Gaston Plant&amp;eacute; invented the lead-acid rechargeable battery</t>
+  </si>
+  <si>
+    <t>Winton Motor Carriage Company publishes the first known automobile ad in Scientific American using the headline "dispense with a horse."</t>
+  </si>
+  <si>
+    <t>The Boston and Maine Railroad runs its first "Snow Train" for skiers and other winter vacationers.</t>
+  </si>
+  <si>
+    <t>First Automated guideway transit driverless metro, V&amp;eacute;hicule Automatique L&amp;eacute;ger introduced in Lille M&amp;eacute;tro, France.</t>
+  </si>
+  <si>
+    <t>Buses replace streetcars along the Girard Avenue Line in Philadelphia - rail service would not be restored for thirteen years.</t>
+  </si>
+  <si>
+    <t>Opening of the Green Line light rail service in Minneapolis-Saint Paul, Minnesota.</t>
   </si>
 </sst>
 </file>
@@ -2342,8 +2342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8479D0E-E3F6-DA41-AEC9-2CE4981D9A6E}">
   <dimension ref="A1:B643"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A619" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B628" sqref="B628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2354,10 +2354,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>641</v>
+        <v>601</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>642</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2373,7 +2373,7 @@
         <v>1800</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>569</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2381,7 +2381,7 @@
         <v>1800</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>571</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2389,7 +2389,7 @@
         <v>1800</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>570</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2397,7 +2397,7 @@
         <v>1800</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>616</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2405,7 +2405,7 @@
         <v>1801</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>572</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2413,7 +2413,7 @@
         <v>1801</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2421,7 +2421,7 @@
         <v>1801</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2429,7 +2429,7 @@
         <v>1802</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2437,7 +2437,7 @@
         <v>1802</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2445,7 +2445,7 @@
         <v>1803</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>580</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2453,7 +2453,7 @@
         <v>1803</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2461,7 +2461,7 @@
         <v>1803</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2469,7 +2469,7 @@
         <v>1803</v>
       </c>
       <c r="B15" t="s">
-        <v>581</v>
+        <v>543</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2477,7 +2477,7 @@
         <v>1803</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2493,7 +2493,7 @@
         <v>1804</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>586</v>
+        <v>548</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2501,7 +2501,7 @@
         <v>1804</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>582</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2525,7 +2525,7 @@
         <v>1805</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>590</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2533,7 +2533,7 @@
         <v>1805</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>592</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2541,7 +2541,7 @@
         <v>1805</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>588</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2557,7 +2557,7 @@
         <v>1806</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>594</v>
+        <v>556</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2581,7 +2581,7 @@
         <v>1807</v>
       </c>
       <c r="B29" t="s">
-        <v>584</v>
+        <v>546</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2589,7 +2589,7 @@
         <v>1807</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2621,7 +2621,7 @@
         <v>1808</v>
       </c>
       <c r="B34" t="s">
-        <v>573</v>
+        <v>538</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2629,7 +2629,7 @@
         <v>1808</v>
       </c>
       <c r="B35" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2645,7 +2645,7 @@
         <v>1809</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2661,7 +2661,7 @@
         <v>1809</v>
       </c>
       <c r="B39" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2677,7 +2677,7 @@
         <v>1811</v>
       </c>
       <c r="B41" t="s">
-        <v>595</v>
+        <v>557</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2685,7 +2685,7 @@
         <v>1811</v>
       </c>
       <c r="B42" t="s">
-        <v>578</v>
+        <v>540</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2717,7 +2717,7 @@
         <v>1812</v>
       </c>
       <c r="B46" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2725,7 +2725,7 @@
         <v>1812</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2733,7 +2733,7 @@
         <v>1813</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2741,7 +2741,7 @@
         <v>1814</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2765,7 +2765,7 @@
         <v>1816</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2789,7 +2789,7 @@
         <v>1817</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2797,7 +2797,7 @@
         <v>1818</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2813,7 +2813,7 @@
         <v>1819</v>
       </c>
       <c r="B58" t="s">
-        <v>593</v>
+        <v>555</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2829,7 +2829,7 @@
         <v>1819</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2845,7 +2845,7 @@
         <v>1819</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2853,7 +2853,7 @@
         <v>1819</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2861,7 +2861,7 @@
         <v>1820</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2877,7 +2877,7 @@
         <v>1821</v>
       </c>
       <c r="B66" t="s">
-        <v>596</v>
+        <v>558</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2885,7 +2885,7 @@
         <v>1821</v>
       </c>
       <c r="B67" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,7 +2893,7 @@
         <v>1822</v>
       </c>
       <c r="B68" t="s">
-        <v>597</v>
+        <v>559</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2909,7 +2909,7 @@
         <v>1823</v>
       </c>
       <c r="B70" t="s">
-        <v>583</v>
+        <v>545</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2925,7 +2925,7 @@
         <v>1823</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2933,7 +2933,7 @@
         <v>1824</v>
       </c>
       <c r="B73" t="s">
-        <v>599</v>
+        <v>561</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2949,7 +2949,7 @@
         <v>1825</v>
       </c>
       <c r="B75" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2957,7 +2957,7 @@
         <v>1825</v>
       </c>
       <c r="B76" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2973,7 +2973,7 @@
         <v>1826</v>
       </c>
       <c r="B78" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2989,7 +2989,7 @@
         <v>1827</v>
       </c>
       <c r="B80" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2997,7 +2997,7 @@
         <v>1827</v>
       </c>
       <c r="B81" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -3013,7 +3013,7 @@
         <v>1828</v>
       </c>
       <c r="B83" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -3037,7 +3037,7 @@
         <v>1829</v>
       </c>
       <c r="B86" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -3045,7 +3045,7 @@
         <v>1829</v>
       </c>
       <c r="B87" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -3053,7 +3053,7 @@
         <v>1830</v>
       </c>
       <c r="B88" t="s">
-        <v>601</v>
+        <v>563</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +3061,7 @@
         <v>1830</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,7 +3069,7 @@
         <v>1830</v>
       </c>
       <c r="B90" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -3093,7 +3093,7 @@
         <v>1830</v>
       </c>
       <c r="B93" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -3101,7 +3101,7 @@
         <v>1831</v>
       </c>
       <c r="B94" t="s">
-        <v>598</v>
+        <v>560</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +3109,7 @@
         <v>1831</v>
       </c>
       <c r="B95" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -3117,7 +3117,7 @@
         <v>1831</v>
       </c>
       <c r="B96" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3141,7 +3141,7 @@
         <v>1831</v>
       </c>
       <c r="B99" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,7 +3149,7 @@
         <v>1831</v>
       </c>
       <c r="B100" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +3157,7 @@
         <v>1831</v>
       </c>
       <c r="B101" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,7 +3165,7 @@
         <v>1832</v>
       </c>
       <c r="B102" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -3173,7 +3173,7 @@
         <v>1832</v>
       </c>
       <c r="B103" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -3181,7 +3181,7 @@
         <v>1833</v>
       </c>
       <c r="B104" t="s">
-        <v>576</v>
+        <v>636</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -3189,7 +3189,7 @@
         <v>1833</v>
       </c>
       <c r="B105" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -3197,7 +3197,7 @@
         <v>1833</v>
       </c>
       <c r="B106" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
         <v>1834</v>
       </c>
       <c r="B107" t="s">
-        <v>355</v>
+        <v>635</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -3213,7 +3213,7 @@
         <v>1834</v>
       </c>
       <c r="B108" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3221,7 +3221,7 @@
         <v>1834</v>
       </c>
       <c r="B109" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -3229,7 +3229,7 @@
         <v>1835</v>
       </c>
       <c r="B110" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
         <v>1835</v>
       </c>
       <c r="B111" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -3253,7 +3253,7 @@
         <v>1835</v>
       </c>
       <c r="B113" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -3261,7 +3261,7 @@
         <v>1836</v>
       </c>
       <c r="B114" t="s">
-        <v>600</v>
+        <v>562</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -3269,7 +3269,7 @@
         <v>1836</v>
       </c>
       <c r="B115" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -3277,7 +3277,7 @@
         <v>1836</v>
       </c>
       <c r="B116" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -3317,7 +3317,7 @@
         <v>1837</v>
       </c>
       <c r="B121" t="s">
-        <v>363</v>
+        <v>607</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3325,7 +3325,7 @@
         <v>1837</v>
       </c>
       <c r="B122" t="s">
-        <v>362</v>
+        <v>608</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -3333,7 +3333,7 @@
         <v>1837</v>
       </c>
       <c r="B123" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -3341,7 +3341,7 @@
         <v>1838</v>
       </c>
       <c r="B124" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3349,7 +3349,7 @@
         <v>1838</v>
       </c>
       <c r="B125" t="s">
-        <v>364</v>
+        <v>613</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -3365,7 +3365,7 @@
         <v>1839</v>
       </c>
       <c r="B127" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -3373,7 +3373,7 @@
         <v>1839</v>
       </c>
       <c r="B128" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -3389,7 +3389,7 @@
         <v>1839</v>
       </c>
       <c r="B130" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -3397,7 +3397,7 @@
         <v>1839</v>
       </c>
       <c r="B131" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -3413,7 +3413,7 @@
         <v>1840</v>
       </c>
       <c r="B133" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -3421,7 +3421,7 @@
         <v>1841</v>
       </c>
       <c r="B134" t="s">
-        <v>602</v>
+        <v>564</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -3429,7 +3429,7 @@
         <v>1841</v>
       </c>
       <c r="B135" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3445,7 +3445,7 @@
         <v>1842</v>
       </c>
       <c r="B137" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -3453,7 +3453,7 @@
         <v>1842</v>
       </c>
       <c r="B138" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -3461,7 +3461,7 @@
         <v>1843</v>
       </c>
       <c r="B139" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3477,7 +3477,7 @@
         <v>1843</v>
       </c>
       <c r="B141" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3485,7 +3485,7 @@
         <v>1844</v>
       </c>
       <c r="B142" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -3493,7 +3493,7 @@
         <v>1844</v>
       </c>
       <c r="B143" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -3533,7 +3533,7 @@
         <v>1846</v>
       </c>
       <c r="B148" t="s">
-        <v>579</v>
+        <v>541</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3541,7 +3541,7 @@
         <v>1846</v>
       </c>
       <c r="B149" t="s">
-        <v>376</v>
+        <v>615</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3549,7 +3549,7 @@
         <v>1846</v>
       </c>
       <c r="B150" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3557,7 +3557,7 @@
         <v>1846</v>
       </c>
       <c r="B151" t="s">
-        <v>377</v>
+        <v>612</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3565,7 +3565,7 @@
         <v>1847</v>
       </c>
       <c r="B152" t="s">
-        <v>585</v>
+        <v>547</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3597,7 +3597,7 @@
         <v>1848</v>
       </c>
       <c r="B156" t="s">
-        <v>589</v>
+        <v>551</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3605,7 +3605,7 @@
         <v>1848</v>
       </c>
       <c r="B157" t="s">
-        <v>587</v>
+        <v>549</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -3613,7 +3613,7 @@
         <v>1848</v>
       </c>
       <c r="B158" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3621,7 +3621,7 @@
         <v>1849</v>
       </c>
       <c r="B159" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3637,7 +3637,7 @@
         <v>1850</v>
       </c>
       <c r="B161" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3645,7 +3645,7 @@
         <v>1850</v>
       </c>
       <c r="B162" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -3653,7 +3653,7 @@
         <v>1851</v>
       </c>
       <c r="B163" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -3685,7 +3685,7 @@
         <v>1853</v>
       </c>
       <c r="B167" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -3693,7 +3693,7 @@
         <v>1853</v>
       </c>
       <c r="B168" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3701,7 +3701,7 @@
         <v>1853</v>
       </c>
       <c r="B169" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -3709,7 +3709,7 @@
         <v>1854</v>
       </c>
       <c r="B170" t="s">
-        <v>591</v>
+        <v>553</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3717,7 +3717,7 @@
         <v>1854</v>
       </c>
       <c r="B171" t="s">
-        <v>384</v>
+        <v>618</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3725,7 +3725,7 @@
         <v>1854</v>
       </c>
       <c r="B172" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3733,7 +3733,7 @@
         <v>1854</v>
       </c>
       <c r="B173" t="s">
-        <v>386</v>
+        <v>616</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3741,7 +3741,7 @@
         <v>1854</v>
       </c>
       <c r="B174" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3749,7 +3749,7 @@
         <v>1854</v>
       </c>
       <c r="B175" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -3757,7 +3757,7 @@
         <v>1855</v>
       </c>
       <c r="B176" t="s">
-        <v>575</v>
+        <v>620</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3773,7 +3773,7 @@
         <v>1855</v>
       </c>
       <c r="B178" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3781,7 +3781,7 @@
         <v>1855</v>
       </c>
       <c r="B179" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3789,7 +3789,7 @@
         <v>1856</v>
       </c>
       <c r="B180" t="s">
-        <v>387</v>
+        <v>619</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3797,7 +3797,7 @@
         <v>1856</v>
       </c>
       <c r="B181" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -3821,7 +3821,7 @@
         <v>1858</v>
       </c>
       <c r="B184" t="s">
-        <v>623</v>
+        <v>583</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3829,7 +3829,7 @@
         <v>1858</v>
       </c>
       <c r="B185" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -3853,7 +3853,7 @@
         <v>1859</v>
       </c>
       <c r="B188" t="s">
-        <v>61</v>
+        <v>637</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3861,7 +3861,7 @@
         <v>1859</v>
       </c>
       <c r="B189" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3869,7 +3869,7 @@
         <v>1860</v>
       </c>
       <c r="B190" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3877,7 +3877,7 @@
         <v>1860</v>
       </c>
       <c r="B191" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3885,7 +3885,7 @@
         <v>1861</v>
       </c>
       <c r="B192" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3893,7 +3893,7 @@
         <v>1861</v>
       </c>
       <c r="B193" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -3901,7 +3901,7 @@
         <v>1861</v>
       </c>
       <c r="B194" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3909,7 +3909,7 @@
         <v>1862</v>
       </c>
       <c r="B195" t="s">
-        <v>96</v>
+        <v>611</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3917,7 +3917,7 @@
         <v>1863</v>
       </c>
       <c r="B196" t="s">
-        <v>574</v>
+        <v>539</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3925,7 +3925,7 @@
         <v>1863</v>
       </c>
       <c r="B197" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -3933,7 +3933,7 @@
         <v>1863</v>
       </c>
       <c r="B198" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3941,7 +3941,7 @@
         <v>1864</v>
       </c>
       <c r="B199" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3949,7 +3949,7 @@
         <v>1864</v>
       </c>
       <c r="B200" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -3957,7 +3957,7 @@
         <v>1865</v>
       </c>
       <c r="B201" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3965,7 +3965,7 @@
         <v>1865</v>
       </c>
       <c r="B202" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3973,7 +3973,7 @@
         <v>1866</v>
       </c>
       <c r="B203" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3981,7 +3981,7 @@
         <v>1866</v>
       </c>
       <c r="B204" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3989,7 +3989,7 @@
         <v>1867</v>
       </c>
       <c r="B205" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3997,7 +3997,7 @@
         <v>1867</v>
       </c>
       <c r="B206" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -4005,7 +4005,7 @@
         <v>1868</v>
       </c>
       <c r="B207" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -4013,7 +4013,7 @@
         <v>1868</v>
       </c>
       <c r="B208" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -4021,7 +4021,7 @@
         <v>1869</v>
       </c>
       <c r="B209" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -4029,7 +4029,7 @@
         <v>1869</v>
       </c>
       <c r="B210" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -4037,7 +4037,7 @@
         <v>1870</v>
       </c>
       <c r="B211" t="s">
-        <v>393</v>
+        <v>621</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -4045,7 +4045,7 @@
         <v>1870</v>
       </c>
       <c r="B212" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -4053,7 +4053,7 @@
         <v>1871</v>
       </c>
       <c r="B213" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -4061,7 +4061,7 @@
         <v>1871</v>
       </c>
       <c r="B214" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -4069,7 +4069,7 @@
         <v>1872</v>
       </c>
       <c r="B215" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -4077,7 +4077,7 @@
         <v>1872</v>
       </c>
       <c r="B216" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -4085,7 +4085,7 @@
         <v>1873</v>
       </c>
       <c r="B217" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -4093,7 +4093,7 @@
         <v>1873</v>
       </c>
       <c r="B218" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -4101,7 +4101,7 @@
         <v>1874</v>
       </c>
       <c r="B219" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -4109,7 +4109,7 @@
         <v>1874</v>
       </c>
       <c r="B220" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -4117,7 +4117,7 @@
         <v>1875</v>
       </c>
       <c r="B221" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -4125,7 +4125,7 @@
         <v>1875</v>
       </c>
       <c r="B222" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -4133,7 +4133,7 @@
         <v>1876</v>
       </c>
       <c r="B223" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -4141,7 +4141,7 @@
         <v>1876</v>
       </c>
       <c r="B224" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -4149,7 +4149,7 @@
         <v>1877</v>
       </c>
       <c r="B225" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -4157,7 +4157,7 @@
         <v>1877</v>
       </c>
       <c r="B226" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -4165,7 +4165,7 @@
         <v>1878</v>
       </c>
       <c r="B227" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -4173,7 +4173,7 @@
         <v>1878</v>
       </c>
       <c r="B228" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -4181,7 +4181,7 @@
         <v>1879</v>
       </c>
       <c r="B229" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -4189,7 +4189,7 @@
         <v>1879</v>
       </c>
       <c r="B230" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -4197,7 +4197,7 @@
         <v>1880</v>
       </c>
       <c r="B231" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -4205,7 +4205,7 @@
         <v>1881</v>
       </c>
       <c r="B232" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -4213,7 +4213,7 @@
         <v>1881</v>
       </c>
       <c r="B233" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -4221,7 +4221,7 @@
         <v>1882</v>
       </c>
       <c r="B234" t="s">
-        <v>624</v>
+        <v>584</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -4229,7 +4229,7 @@
         <v>1882</v>
       </c>
       <c r="B235" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -4237,7 +4237,7 @@
         <v>1883</v>
       </c>
       <c r="B236" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -4245,7 +4245,7 @@
         <v>1883</v>
       </c>
       <c r="B237" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -4253,7 +4253,7 @@
         <v>1884</v>
       </c>
       <c r="B238" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -4261,7 +4261,7 @@
         <v>1885</v>
       </c>
       <c r="B239" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -4269,7 +4269,7 @@
         <v>1885</v>
       </c>
       <c r="B240" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -4277,7 +4277,7 @@
         <v>1886</v>
       </c>
       <c r="B241" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -4285,7 +4285,7 @@
         <v>1886</v>
       </c>
       <c r="B242" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -4293,7 +4293,7 @@
         <v>1887</v>
       </c>
       <c r="B243" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -4301,7 +4301,7 @@
         <v>1887</v>
       </c>
       <c r="B244" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -4309,7 +4309,7 @@
         <v>1888</v>
       </c>
       <c r="B245" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -4317,7 +4317,7 @@
         <v>1888</v>
       </c>
       <c r="B246" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -4325,7 +4325,7 @@
         <v>1889</v>
       </c>
       <c r="B247" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -4333,7 +4333,7 @@
         <v>1889</v>
       </c>
       <c r="B248" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -4341,7 +4341,7 @@
         <v>1889</v>
       </c>
       <c r="B249" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -4349,7 +4349,7 @@
         <v>1889</v>
       </c>
       <c r="B250" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -4357,7 +4357,7 @@
         <v>1890</v>
       </c>
       <c r="B251" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -4365,7 +4365,7 @@
         <v>1890</v>
       </c>
       <c r="B252" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -4373,7 +4373,7 @@
         <v>1890</v>
       </c>
       <c r="B253" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -4381,7 +4381,7 @@
         <v>1891</v>
       </c>
       <c r="B254" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -4389,7 +4389,7 @@
         <v>1891</v>
       </c>
       <c r="B255" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -4397,7 +4397,7 @@
         <v>1892</v>
       </c>
       <c r="B256" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -4405,7 +4405,7 @@
         <v>1892</v>
       </c>
       <c r="B257" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -4413,7 +4413,7 @@
         <v>1893</v>
       </c>
       <c r="B258" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -4421,7 +4421,7 @@
         <v>1893</v>
       </c>
       <c r="B259" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -4429,7 +4429,7 @@
         <v>1893</v>
       </c>
       <c r="B260" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -4437,7 +4437,7 @@
         <v>1893</v>
       </c>
       <c r="B261" t="s">
-        <v>625</v>
+        <v>585</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -4445,7 +4445,7 @@
         <v>1893</v>
       </c>
       <c r="B262" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -4453,7 +4453,7 @@
         <v>1894</v>
       </c>
       <c r="B263" t="s">
-        <v>626</v>
+        <v>586</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -4461,7 +4461,7 @@
         <v>1894</v>
       </c>
       <c r="B264" t="s">
-        <v>89</v>
+        <v>614</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -4469,7 +4469,7 @@
         <v>1895</v>
       </c>
       <c r="B265" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -4477,7 +4477,7 @@
         <v>1895</v>
       </c>
       <c r="B266" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -4485,7 +4485,7 @@
         <v>1895</v>
       </c>
       <c r="B267" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -4493,7 +4493,7 @@
         <v>1895</v>
       </c>
       <c r="B268" t="s">
-        <v>617</v>
+        <v>578</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -4501,7 +4501,7 @@
         <v>1896</v>
       </c>
       <c r="B269" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -4509,7 +4509,7 @@
         <v>1896</v>
       </c>
       <c r="B270" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4517,7 +4517,7 @@
         <v>1896</v>
       </c>
       <c r="B271" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -4525,7 +4525,7 @@
         <v>1897</v>
       </c>
       <c r="B272" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -4533,7 +4533,7 @@
         <v>1897</v>
       </c>
       <c r="B273" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -4541,7 +4541,7 @@
         <v>1897</v>
       </c>
       <c r="B274" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -4549,7 +4549,7 @@
         <v>1898</v>
       </c>
       <c r="B275" t="s">
-        <v>114</v>
+        <v>638</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -4557,7 +4557,7 @@
         <v>1898</v>
       </c>
       <c r="B276" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -4565,7 +4565,7 @@
         <v>1899</v>
       </c>
       <c r="B277" t="s">
-        <v>418</v>
+        <v>610</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -4573,7 +4573,7 @@
         <v>1899</v>
       </c>
       <c r="B278" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -4581,7 +4581,7 @@
         <v>1899</v>
       </c>
       <c r="B279" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -4589,7 +4589,7 @@
         <v>1899</v>
       </c>
       <c r="B280" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -4597,7 +4597,7 @@
         <v>1900</v>
       </c>
       <c r="B281" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -4605,7 +4605,7 @@
         <v>1900</v>
       </c>
       <c r="B282" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -4613,7 +4613,7 @@
         <v>1900</v>
       </c>
       <c r="B283" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -4621,7 +4621,7 @@
         <v>1901</v>
       </c>
       <c r="B284" t="s">
-        <v>420</v>
+        <v>622</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -4629,7 +4629,7 @@
         <v>1901</v>
       </c>
       <c r="B285" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -4637,7 +4637,7 @@
         <v>1902</v>
       </c>
       <c r="B286" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -4645,7 +4645,7 @@
         <v>1902</v>
       </c>
       <c r="B287" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -4653,7 +4653,7 @@
         <v>1903</v>
       </c>
       <c r="B288" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -4661,7 +4661,7 @@
         <v>1903</v>
       </c>
       <c r="B289" t="s">
-        <v>121</v>
+        <v>623</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -4669,7 +4669,7 @@
         <v>1903</v>
       </c>
       <c r="B290" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -4677,7 +4677,7 @@
         <v>1904</v>
       </c>
       <c r="B291" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -4685,7 +4685,7 @@
         <v>1904</v>
       </c>
       <c r="B292" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -4693,7 +4693,7 @@
         <v>1904</v>
       </c>
       <c r="B293" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -4701,7 +4701,7 @@
         <v>1904</v>
       </c>
       <c r="B294" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -4709,7 +4709,7 @@
         <v>1905</v>
       </c>
       <c r="B295" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -4717,7 +4717,7 @@
         <v>1905</v>
       </c>
       <c r="B296" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -4725,7 +4725,7 @@
         <v>1906</v>
       </c>
       <c r="B297" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -4733,7 +4733,7 @@
         <v>1906</v>
       </c>
       <c r="B298" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -4741,7 +4741,7 @@
         <v>1906</v>
       </c>
       <c r="B299" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -4749,7 +4749,7 @@
         <v>1907</v>
       </c>
       <c r="B300" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -4757,7 +4757,7 @@
         <v>1907</v>
       </c>
       <c r="B301" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -4765,7 +4765,7 @@
         <v>1907</v>
       </c>
       <c r="B302" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -4773,7 +4773,7 @@
         <v>1908</v>
       </c>
       <c r="B303" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -4781,7 +4781,7 @@
         <v>1908</v>
       </c>
       <c r="B304" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -4789,7 +4789,7 @@
         <v>1908</v>
       </c>
       <c r="B305" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -4797,7 +4797,7 @@
         <v>1908</v>
       </c>
       <c r="B306" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -4805,7 +4805,7 @@
         <v>1909</v>
       </c>
       <c r="B307" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -4813,7 +4813,7 @@
         <v>1909</v>
       </c>
       <c r="B308" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -4821,7 +4821,7 @@
         <v>1909</v>
       </c>
       <c r="B309" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -4829,7 +4829,7 @@
         <v>1910</v>
       </c>
       <c r="B310" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -4837,7 +4837,7 @@
         <v>1910</v>
       </c>
       <c r="B311" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -4845,7 +4845,7 @@
         <v>1911</v>
       </c>
       <c r="B312" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -4853,7 +4853,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="s">
-        <v>618</v>
+        <v>579</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -4861,7 +4861,7 @@
         <v>1911</v>
       </c>
       <c r="B314" t="s">
-        <v>175</v>
+        <v>624</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -4869,7 +4869,7 @@
         <v>1912</v>
       </c>
       <c r="B315" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -4877,7 +4877,7 @@
         <v>1912</v>
       </c>
       <c r="B316" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -4885,7 +4885,7 @@
         <v>1912</v>
       </c>
       <c r="B317" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -4893,7 +4893,7 @@
         <v>1912</v>
       </c>
       <c r="B318" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -4901,7 +4901,7 @@
         <v>1912</v>
       </c>
       <c r="B319" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -4909,7 +4909,7 @@
         <v>1913</v>
       </c>
       <c r="B320" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -4917,7 +4917,7 @@
         <v>1913</v>
       </c>
       <c r="B321" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -4925,7 +4925,7 @@
         <v>1913</v>
       </c>
       <c r="B322" t="s">
-        <v>630</v>
+        <v>590</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -4933,7 +4933,7 @@
         <v>1914</v>
       </c>
       <c r="B323" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -4941,7 +4941,7 @@
         <v>1914</v>
       </c>
       <c r="B324" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -4949,7 +4949,7 @@
         <v>1914</v>
       </c>
       <c r="B325" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -4957,7 +4957,7 @@
         <v>1915</v>
       </c>
       <c r="B326" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -4965,7 +4965,7 @@
         <v>1915</v>
       </c>
       <c r="B327" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -4973,7 +4973,7 @@
         <v>1915</v>
       </c>
       <c r="B328" t="s">
-        <v>182</v>
+        <v>625</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -4981,7 +4981,7 @@
         <v>1916</v>
       </c>
       <c r="B329" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -4989,7 +4989,7 @@
         <v>1916</v>
       </c>
       <c r="B330" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -4997,7 +4997,7 @@
         <v>1916</v>
       </c>
       <c r="B331" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -5005,7 +5005,7 @@
         <v>1917</v>
       </c>
       <c r="B332" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -5013,7 +5013,7 @@
         <v>1917</v>
       </c>
       <c r="B333" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -5021,7 +5021,7 @@
         <v>1918</v>
       </c>
       <c r="B334" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -5029,7 +5029,7 @@
         <v>1918</v>
       </c>
       <c r="B335" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -5037,7 +5037,7 @@
         <v>1919</v>
       </c>
       <c r="B336" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -5045,7 +5045,7 @@
         <v>1919</v>
       </c>
       <c r="B337" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -5053,7 +5053,7 @@
         <v>1920</v>
       </c>
       <c r="B338" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -5061,7 +5061,7 @@
         <v>1920</v>
       </c>
       <c r="B339" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -5069,7 +5069,7 @@
         <v>1921</v>
       </c>
       <c r="B340" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -5077,7 +5077,7 @@
         <v>1921</v>
       </c>
       <c r="B341" t="s">
-        <v>631</v>
+        <v>591</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -5085,7 +5085,7 @@
         <v>1922</v>
       </c>
       <c r="B342" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -5093,7 +5093,7 @@
         <v>1922</v>
       </c>
       <c r="B343" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -5101,7 +5101,7 @@
         <v>1923</v>
       </c>
       <c r="B344" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -5109,7 +5109,7 @@
         <v>1923</v>
       </c>
       <c r="B345" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -5117,7 +5117,7 @@
         <v>1923</v>
       </c>
       <c r="B346" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -5125,7 +5125,7 @@
         <v>1924</v>
       </c>
       <c r="B347" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -5133,7 +5133,7 @@
         <v>1924</v>
       </c>
       <c r="B348" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -5141,7 +5141,7 @@
         <v>1924</v>
       </c>
       <c r="B349" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -5149,7 +5149,7 @@
         <v>1924</v>
       </c>
       <c r="B350" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -5157,7 +5157,7 @@
         <v>1925</v>
       </c>
       <c r="B351" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -5165,7 +5165,7 @@
         <v>1925</v>
       </c>
       <c r="B352" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -5173,7 +5173,7 @@
         <v>1926</v>
       </c>
       <c r="B353" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -5181,7 +5181,7 @@
         <v>1926</v>
       </c>
       <c r="B354" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -5189,7 +5189,7 @@
         <v>1926</v>
       </c>
       <c r="B355" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -5197,7 +5197,7 @@
         <v>1927</v>
       </c>
       <c r="B356" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -5205,7 +5205,7 @@
         <v>1927</v>
       </c>
       <c r="B357" t="s">
-        <v>632</v>
+        <v>592</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -5213,7 +5213,7 @@
         <v>1928</v>
       </c>
       <c r="B358" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -5221,7 +5221,7 @@
         <v>1928</v>
       </c>
       <c r="B359" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -5229,7 +5229,7 @@
         <v>1929</v>
       </c>
       <c r="B360" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -5237,7 +5237,7 @@
         <v>1929</v>
       </c>
       <c r="B361" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -5245,7 +5245,7 @@
         <v>1930</v>
       </c>
       <c r="B362" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -5253,7 +5253,7 @@
         <v>1930</v>
       </c>
       <c r="B363" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -5261,7 +5261,7 @@
         <v>1930</v>
       </c>
       <c r="B364" t="s">
-        <v>454</v>
+        <v>626</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -5269,7 +5269,7 @@
         <v>1931</v>
       </c>
       <c r="B365" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -5277,7 +5277,7 @@
         <v>1931</v>
       </c>
       <c r="B366" t="s">
-        <v>455</v>
+        <v>639</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -5285,7 +5285,7 @@
         <v>1931</v>
       </c>
       <c r="B367" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -5293,7 +5293,7 @@
         <v>1932</v>
       </c>
       <c r="B368" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -5301,7 +5301,7 @@
         <v>1932</v>
       </c>
       <c r="B369" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -5309,7 +5309,7 @@
         <v>1932</v>
       </c>
       <c r="B370" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -5317,7 +5317,7 @@
         <v>1933</v>
       </c>
       <c r="B371" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -5325,7 +5325,7 @@
         <v>1933</v>
       </c>
       <c r="B372" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -5333,7 +5333,7 @@
         <v>1933</v>
       </c>
       <c r="B373" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -5341,7 +5341,7 @@
         <v>1934</v>
       </c>
       <c r="B374" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -5349,7 +5349,7 @@
         <v>1934</v>
       </c>
       <c r="B375" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -5357,7 +5357,7 @@
         <v>1935</v>
       </c>
       <c r="B376" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -5365,7 +5365,7 @@
         <v>1935</v>
       </c>
       <c r="B377" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -5373,7 +5373,7 @@
         <v>1935</v>
       </c>
       <c r="B378" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -5381,7 +5381,7 @@
         <v>1935</v>
       </c>
       <c r="B379" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -5389,7 +5389,7 @@
         <v>1936</v>
       </c>
       <c r="B380" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -5397,7 +5397,7 @@
         <v>1936</v>
       </c>
       <c r="B381" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -5405,7 +5405,7 @@
         <v>1937</v>
       </c>
       <c r="B382" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -5413,7 +5413,7 @@
         <v>1937</v>
       </c>
       <c r="B383" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -5421,7 +5421,7 @@
         <v>1937</v>
       </c>
       <c r="B384" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -5429,7 +5429,7 @@
         <v>1937</v>
       </c>
       <c r="B385" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -5437,7 +5437,7 @@
         <v>1938</v>
       </c>
       <c r="B386" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -5445,7 +5445,7 @@
         <v>1938</v>
       </c>
       <c r="B387" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -5453,7 +5453,7 @@
         <v>1939</v>
       </c>
       <c r="B388" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -5461,7 +5461,7 @@
         <v>1939</v>
       </c>
       <c r="B389" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -5469,7 +5469,7 @@
         <v>1940</v>
       </c>
       <c r="B390" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -5477,7 +5477,7 @@
         <v>1940</v>
       </c>
       <c r="B391" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -5485,7 +5485,7 @@
         <v>1940</v>
       </c>
       <c r="B392" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -5493,7 +5493,7 @@
         <v>1940</v>
       </c>
       <c r="B393" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -5501,7 +5501,7 @@
         <v>1941</v>
       </c>
       <c r="B394" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -5509,7 +5509,7 @@
         <v>1941</v>
       </c>
       <c r="B395" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -5517,7 +5517,7 @@
         <v>1941</v>
       </c>
       <c r="B396" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -5525,7 +5525,7 @@
         <v>1942</v>
       </c>
       <c r="B397" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -5533,7 +5533,7 @@
         <v>1942</v>
       </c>
       <c r="B398" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -5541,7 +5541,7 @@
         <v>1942</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -5549,7 +5549,7 @@
         <v>1943</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -5557,7 +5557,7 @@
         <v>1943</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -5565,7 +5565,7 @@
         <v>1943</v>
       </c>
       <c r="B402" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -5573,7 +5573,7 @@
         <v>1944</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -5581,7 +5581,7 @@
         <v>1944</v>
       </c>
       <c r="B404" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -5589,7 +5589,7 @@
         <v>1945</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -5597,7 +5597,7 @@
         <v>1945</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -5605,7 +5605,7 @@
         <v>1945</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -5613,7 +5613,7 @@
         <v>1945</v>
       </c>
       <c r="B408" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -5621,7 +5621,7 @@
         <v>1946</v>
       </c>
       <c r="B409" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -5629,7 +5629,7 @@
         <v>1946</v>
       </c>
       <c r="B410" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -5637,7 +5637,7 @@
         <v>1946</v>
       </c>
       <c r="B411" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -5645,7 +5645,7 @@
         <v>1947</v>
       </c>
       <c r="B412" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -5653,7 +5653,7 @@
         <v>1947</v>
       </c>
       <c r="B413" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -5661,7 +5661,7 @@
         <v>1947</v>
       </c>
       <c r="B414" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -5669,7 +5669,7 @@
         <v>1947</v>
       </c>
       <c r="B415" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -5677,7 +5677,7 @@
         <v>1948</v>
       </c>
       <c r="B416" t="s">
-        <v>620</v>
+        <v>580</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -5685,7 +5685,7 @@
         <v>1948</v>
       </c>
       <c r="B417" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -5693,7 +5693,7 @@
         <v>1949</v>
       </c>
       <c r="B418" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -5701,7 +5701,7 @@
         <v>1949</v>
       </c>
       <c r="B419" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -5709,7 +5709,7 @@
         <v>1949</v>
       </c>
       <c r="B420" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -5717,7 +5717,7 @@
         <v>1950</v>
       </c>
       <c r="B421" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -5725,7 +5725,7 @@
         <v>1950</v>
       </c>
       <c r="B422" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -5733,7 +5733,7 @@
         <v>1951</v>
       </c>
       <c r="B423" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -5741,7 +5741,7 @@
         <v>1951</v>
       </c>
       <c r="B424" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -5749,7 +5749,7 @@
         <v>1951</v>
       </c>
       <c r="B425" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -5757,7 +5757,7 @@
         <v>1952</v>
       </c>
       <c r="B426" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -5765,7 +5765,7 @@
         <v>1952</v>
       </c>
       <c r="B427" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -5773,7 +5773,7 @@
         <v>1953</v>
       </c>
       <c r="B428" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -5781,7 +5781,7 @@
         <v>1953</v>
       </c>
       <c r="B429" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -5789,7 +5789,7 @@
         <v>1953</v>
       </c>
       <c r="B430" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -5797,7 +5797,7 @@
         <v>1954</v>
       </c>
       <c r="B431" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -5805,7 +5805,7 @@
         <v>1954</v>
       </c>
       <c r="B432" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -5813,7 +5813,7 @@
         <v>1954</v>
       </c>
       <c r="B433" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -5821,7 +5821,7 @@
         <v>1955</v>
       </c>
       <c r="B434" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -5829,7 +5829,7 @@
         <v>1955</v>
       </c>
       <c r="B435" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -5837,7 +5837,7 @@
         <v>1955</v>
       </c>
       <c r="B436" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -5845,7 +5845,7 @@
         <v>1955</v>
       </c>
       <c r="B437" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -5853,7 +5853,7 @@
         <v>1955</v>
       </c>
       <c r="B438" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -5861,7 +5861,7 @@
         <v>1956</v>
       </c>
       <c r="B439" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -5869,7 +5869,7 @@
         <v>1956</v>
       </c>
       <c r="B440" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -5877,7 +5877,7 @@
         <v>1956</v>
       </c>
       <c r="B441" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -5885,7 +5885,7 @@
         <v>1956</v>
       </c>
       <c r="B442" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -5893,7 +5893,7 @@
         <v>1957</v>
       </c>
       <c r="B443" t="s">
-        <v>247</v>
+        <v>627</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -5901,7 +5901,7 @@
         <v>1957</v>
       </c>
       <c r="B444" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -5909,7 +5909,7 @@
         <v>1957</v>
       </c>
       <c r="B445" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -5917,7 +5917,7 @@
         <v>1957</v>
       </c>
       <c r="B446" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -5925,7 +5925,7 @@
         <v>1957</v>
       </c>
       <c r="B447" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -5933,7 +5933,7 @@
         <v>1958</v>
       </c>
       <c r="B448" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -5941,7 +5941,7 @@
         <v>1958</v>
       </c>
       <c r="B449" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -5949,7 +5949,7 @@
         <v>1958</v>
       </c>
       <c r="B450" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
@@ -5957,7 +5957,7 @@
         <v>1959</v>
       </c>
       <c r="B451" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -5965,7 +5965,7 @@
         <v>1959</v>
       </c>
       <c r="B452" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -5973,7 +5973,7 @@
         <v>1959</v>
       </c>
       <c r="B453" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -5981,7 +5981,7 @@
         <v>1959</v>
       </c>
       <c r="B454" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -5989,7 +5989,7 @@
         <v>1959</v>
       </c>
       <c r="B455" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
@@ -5997,7 +5997,7 @@
         <v>1960</v>
       </c>
       <c r="B456" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
@@ -6005,7 +6005,7 @@
         <v>1960</v>
       </c>
       <c r="B457" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -6013,7 +6013,7 @@
         <v>1961</v>
       </c>
       <c r="B458" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -6021,7 +6021,7 @@
         <v>1961</v>
       </c>
       <c r="B459" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -6029,7 +6029,7 @@
         <v>1961</v>
       </c>
       <c r="B460" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -6037,7 +6037,7 @@
         <v>1962</v>
       </c>
       <c r="B461" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -6045,7 +6045,7 @@
         <v>1962</v>
       </c>
       <c r="B462" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -6053,7 +6053,7 @@
         <v>1962</v>
       </c>
       <c r="B463" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -6061,7 +6061,7 @@
         <v>1962</v>
       </c>
       <c r="B464" t="s">
-        <v>633</v>
+        <v>593</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -6069,7 +6069,7 @@
         <v>1962</v>
       </c>
       <c r="B465" t="s">
-        <v>634</v>
+        <v>594</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -6077,7 +6077,7 @@
         <v>1963</v>
       </c>
       <c r="B466" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -6085,7 +6085,7 @@
         <v>1963</v>
       </c>
       <c r="B467" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -6093,7 +6093,7 @@
         <v>1964</v>
       </c>
       <c r="B468" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
@@ -6101,7 +6101,7 @@
         <v>1964</v>
       </c>
       <c r="B469" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -6109,7 +6109,7 @@
         <v>1964</v>
       </c>
       <c r="B470" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -6117,7 +6117,7 @@
         <v>1965</v>
       </c>
       <c r="B471" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
@@ -6125,7 +6125,7 @@
         <v>1965</v>
       </c>
       <c r="B472" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -6133,7 +6133,7 @@
         <v>1965</v>
       </c>
       <c r="B473" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -6141,7 +6141,7 @@
         <v>1965</v>
       </c>
       <c r="B474" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -6149,7 +6149,7 @@
         <v>1966</v>
       </c>
       <c r="B475" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -6157,7 +6157,7 @@
         <v>1966</v>
       </c>
       <c r="B476" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -6165,7 +6165,7 @@
         <v>1966</v>
       </c>
       <c r="B477" t="s">
-        <v>635</v>
+        <v>595</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -6173,7 +6173,7 @@
         <v>1966</v>
       </c>
       <c r="B478" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
@@ -6181,7 +6181,7 @@
         <v>1967</v>
       </c>
       <c r="B479" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -6189,7 +6189,7 @@
         <v>1967</v>
       </c>
       <c r="B480" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -6197,7 +6197,7 @@
         <v>1967</v>
       </c>
       <c r="B481" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -6205,7 +6205,7 @@
         <v>1967</v>
       </c>
       <c r="B482" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -6213,7 +6213,7 @@
         <v>1967</v>
       </c>
       <c r="B483" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -6221,7 +6221,7 @@
         <v>1967</v>
       </c>
       <c r="B484" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -6229,7 +6229,7 @@
         <v>1967</v>
       </c>
       <c r="B485" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
@@ -6237,7 +6237,7 @@
         <v>1967</v>
       </c>
       <c r="B486" t="s">
-        <v>636</v>
+        <v>596</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -6245,7 +6245,7 @@
         <v>1968</v>
       </c>
       <c r="B487" t="s">
-        <v>621</v>
+        <v>581</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -6253,7 +6253,7 @@
         <v>1968</v>
       </c>
       <c r="B488" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -6261,7 +6261,7 @@
         <v>1968</v>
       </c>
       <c r="B489" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
@@ -6269,7 +6269,7 @@
         <v>1968</v>
       </c>
       <c r="B490" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -6277,7 +6277,7 @@
         <v>1968</v>
       </c>
       <c r="B491" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -6285,7 +6285,7 @@
         <v>1969</v>
       </c>
       <c r="B492" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -6293,7 +6293,7 @@
         <v>1969</v>
       </c>
       <c r="B493" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -6301,7 +6301,7 @@
         <v>1969</v>
       </c>
       <c r="B494" t="s">
-        <v>637</v>
+        <v>597</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -6309,7 +6309,7 @@
         <v>1970</v>
       </c>
       <c r="B495" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -6317,7 +6317,7 @@
         <v>1970</v>
       </c>
       <c r="B496" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -6325,7 +6325,7 @@
         <v>1971</v>
       </c>
       <c r="B497" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -6333,7 +6333,7 @@
         <v>1971</v>
       </c>
       <c r="B498" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -6341,7 +6341,7 @@
         <v>1972</v>
       </c>
       <c r="B499" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -6349,7 +6349,7 @@
         <v>1972</v>
       </c>
       <c r="B500" t="s">
-        <v>509</v>
+        <v>617</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -6357,7 +6357,7 @@
         <v>1972</v>
       </c>
       <c r="B501" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
@@ -6365,7 +6365,7 @@
         <v>1973</v>
       </c>
       <c r="B502" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
@@ -6373,7 +6373,7 @@
         <v>1973</v>
       </c>
       <c r="B503" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -6381,7 +6381,7 @@
         <v>1973</v>
       </c>
       <c r="B504" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
@@ -6389,7 +6389,7 @@
         <v>1974</v>
       </c>
       <c r="B505" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -6397,7 +6397,7 @@
         <v>1974</v>
       </c>
       <c r="B506" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
@@ -6405,7 +6405,7 @@
         <v>1974</v>
       </c>
       <c r="B507" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
@@ -6413,7 +6413,7 @@
         <v>1975</v>
       </c>
       <c r="B508" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
@@ -6421,7 +6421,7 @@
         <v>1975</v>
       </c>
       <c r="B509" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
@@ -6429,7 +6429,7 @@
         <v>1975</v>
       </c>
       <c r="B510" t="s">
-        <v>638</v>
+        <v>598</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
@@ -6437,7 +6437,7 @@
         <v>1976</v>
       </c>
       <c r="B511" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
@@ -6445,7 +6445,7 @@
         <v>1976</v>
       </c>
       <c r="B512" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
@@ -6453,7 +6453,7 @@
         <v>1976</v>
       </c>
       <c r="B513" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
@@ -6461,7 +6461,7 @@
         <v>1976</v>
       </c>
       <c r="B514" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
@@ -6469,7 +6469,7 @@
         <v>1977</v>
       </c>
       <c r="B515" t="s">
-        <v>515</v>
+        <v>633</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
@@ -6477,7 +6477,7 @@
         <v>1977</v>
       </c>
       <c r="B516" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
@@ -6485,7 +6485,7 @@
         <v>1977</v>
       </c>
       <c r="B517" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
@@ -6493,7 +6493,7 @@
         <v>1977</v>
       </c>
       <c r="B518" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
@@ -6501,7 +6501,7 @@
         <v>1977</v>
       </c>
       <c r="B519" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
@@ -6509,7 +6509,7 @@
         <v>1977</v>
       </c>
       <c r="B520" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
@@ -6517,7 +6517,7 @@
         <v>1978</v>
       </c>
       <c r="B521" t="s">
-        <v>516</v>
+        <v>489</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
@@ -6525,7 +6525,7 @@
         <v>1978</v>
       </c>
       <c r="B522" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -6533,7 +6533,7 @@
         <v>1979</v>
       </c>
       <c r="B523" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
@@ -6541,7 +6541,7 @@
         <v>1979</v>
       </c>
       <c r="B524" t="s">
-        <v>517</v>
+        <v>490</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
@@ -6549,7 +6549,7 @@
         <v>1979</v>
       </c>
       <c r="B525" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
@@ -6557,7 +6557,7 @@
         <v>1980</v>
       </c>
       <c r="B526" t="s">
-        <v>519</v>
+        <v>492</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
@@ -6565,7 +6565,7 @@
         <v>1980</v>
       </c>
       <c r="B527" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
@@ -6573,7 +6573,7 @@
         <v>1980</v>
       </c>
       <c r="B528" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
@@ -6581,7 +6581,7 @@
         <v>1980</v>
       </c>
       <c r="B529" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
@@ -6589,7 +6589,7 @@
         <v>1981</v>
       </c>
       <c r="B530" t="s">
-        <v>521</v>
+        <v>494</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
@@ -6597,7 +6597,7 @@
         <v>1981</v>
       </c>
       <c r="B531" t="s">
-        <v>520</v>
+        <v>493</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
@@ -6605,7 +6605,7 @@
         <v>1981</v>
       </c>
       <c r="B532" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
@@ -6613,7 +6613,7 @@
         <v>1981</v>
       </c>
       <c r="B533" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
@@ -6621,7 +6621,7 @@
         <v>1982</v>
       </c>
       <c r="B534" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
@@ -6629,7 +6629,7 @@
         <v>1982</v>
       </c>
       <c r="B535" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
@@ -6637,7 +6637,7 @@
         <v>1982</v>
       </c>
       <c r="B536" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
@@ -6645,7 +6645,7 @@
         <v>1982</v>
       </c>
       <c r="B537" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
@@ -6653,7 +6653,7 @@
         <v>1983</v>
       </c>
       <c r="B538" t="s">
-        <v>522</v>
+        <v>495</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
@@ -6661,7 +6661,7 @@
         <v>1983</v>
       </c>
       <c r="B539" t="s">
-        <v>523</v>
+        <v>496</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
@@ -6669,7 +6669,7 @@
         <v>1983</v>
       </c>
       <c r="B540" t="s">
-        <v>299</v>
+        <v>640</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
@@ -6677,7 +6677,7 @@
         <v>1984</v>
       </c>
       <c r="B541" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
@@ -6685,7 +6685,7 @@
         <v>1984</v>
       </c>
       <c r="B542" t="s">
-        <v>524</v>
+        <v>497</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
@@ -6693,7 +6693,7 @@
         <v>1984</v>
       </c>
       <c r="B543" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
@@ -6701,7 +6701,7 @@
         <v>1984</v>
       </c>
       <c r="B544" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
@@ -6709,7 +6709,7 @@
         <v>1985</v>
       </c>
       <c r="B545" t="s">
-        <v>526</v>
+        <v>628</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
@@ -6717,7 +6717,7 @@
         <v>1985</v>
       </c>
       <c r="B546" t="s">
-        <v>527</v>
+        <v>629</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
@@ -6725,7 +6725,7 @@
         <v>1985</v>
       </c>
       <c r="B547" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
@@ -6733,7 +6733,7 @@
         <v>1986</v>
       </c>
       <c r="B548" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
@@ -6741,7 +6741,7 @@
         <v>1986</v>
       </c>
       <c r="B549" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
@@ -6749,7 +6749,7 @@
         <v>1986</v>
       </c>
       <c r="B550" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
@@ -6757,7 +6757,7 @@
         <v>1986</v>
       </c>
       <c r="B551" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
@@ -6765,7 +6765,7 @@
         <v>1986</v>
       </c>
       <c r="B552" t="s">
-        <v>639</v>
+        <v>599</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
@@ -6773,7 +6773,7 @@
         <v>1987</v>
       </c>
       <c r="B553" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
@@ -6781,7 +6781,7 @@
         <v>1987</v>
       </c>
       <c r="B554" t="s">
-        <v>640</v>
+        <v>600</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
@@ -6789,7 +6789,7 @@
         <v>1988</v>
       </c>
       <c r="B555" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
@@ -6797,7 +6797,7 @@
         <v>1988</v>
       </c>
       <c r="B556" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
@@ -6805,7 +6805,7 @@
         <v>1988</v>
       </c>
       <c r="B557" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
@@ -6813,7 +6813,7 @@
         <v>1988</v>
       </c>
       <c r="B558" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
@@ -6821,7 +6821,7 @@
         <v>1989</v>
       </c>
       <c r="B559" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
@@ -6829,7 +6829,7 @@
         <v>1989</v>
       </c>
       <c r="B560" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
@@ -6837,7 +6837,7 @@
         <v>1989</v>
       </c>
       <c r="B561" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
@@ -6845,7 +6845,7 @@
         <v>1990</v>
       </c>
       <c r="B562" t="s">
-        <v>603</v>
+        <v>565</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
@@ -6853,7 +6853,7 @@
         <v>1990</v>
       </c>
       <c r="B563" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
@@ -6861,7 +6861,7 @@
         <v>1990</v>
       </c>
       <c r="B564" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
@@ -6869,7 +6869,7 @@
         <v>1990</v>
       </c>
       <c r="B565" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
@@ -6877,7 +6877,7 @@
         <v>1991</v>
       </c>
       <c r="B566" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
@@ -6885,7 +6885,7 @@
         <v>1991</v>
       </c>
       <c r="B567" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
@@ -6893,7 +6893,7 @@
         <v>1991</v>
       </c>
       <c r="B568" t="s">
-        <v>535</v>
+        <v>506</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
@@ -6901,7 +6901,7 @@
         <v>1992</v>
       </c>
       <c r="B569" t="s">
-        <v>536</v>
+        <v>507</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
@@ -6909,7 +6909,7 @@
         <v>1992</v>
       </c>
       <c r="B570" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
@@ -6917,7 +6917,7 @@
         <v>1992</v>
       </c>
       <c r="B571" t="s">
-        <v>537</v>
+        <v>641</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
@@ -6925,7 +6925,7 @@
         <v>1993</v>
       </c>
       <c r="B572" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
@@ -6933,7 +6933,7 @@
         <v>1993</v>
       </c>
       <c r="B573" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
@@ -6941,7 +6941,7 @@
         <v>1994</v>
       </c>
       <c r="B574" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
@@ -6949,7 +6949,7 @@
         <v>1994</v>
       </c>
       <c r="B575" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
@@ -6957,7 +6957,7 @@
         <v>1994</v>
       </c>
       <c r="B576" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
@@ -6965,7 +6965,7 @@
         <v>1995</v>
       </c>
       <c r="B577" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
@@ -6973,7 +6973,7 @@
         <v>1995</v>
       </c>
       <c r="B578" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
@@ -6981,7 +6981,7 @@
         <v>1995</v>
       </c>
       <c r="B579" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
@@ -6989,7 +6989,7 @@
         <v>1995</v>
       </c>
       <c r="B580" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
@@ -6997,7 +6997,7 @@
         <v>1996</v>
       </c>
       <c r="B581" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
@@ -7005,7 +7005,7 @@
         <v>1996</v>
       </c>
       <c r="B582" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
@@ -7013,7 +7013,7 @@
         <v>1997</v>
       </c>
       <c r="B583" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
@@ -7021,7 +7021,7 @@
         <v>1997</v>
       </c>
       <c r="B584" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
@@ -7029,7 +7029,7 @@
         <v>1998</v>
       </c>
       <c r="B585" t="s">
-        <v>547</v>
+        <v>517</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
@@ -7037,7 +7037,7 @@
         <v>1998</v>
       </c>
       <c r="B586" t="s">
-        <v>546</v>
+        <v>516</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
@@ -7045,7 +7045,7 @@
         <v>1998</v>
       </c>
       <c r="B587" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
@@ -7053,7 +7053,7 @@
         <v>1999</v>
       </c>
       <c r="B588" t="s">
-        <v>549</v>
+        <v>519</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
@@ -7061,7 +7061,7 @@
         <v>1999</v>
       </c>
       <c r="B589" t="s">
-        <v>548</v>
+        <v>518</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
@@ -7069,7 +7069,7 @@
         <v>1999</v>
       </c>
       <c r="B590" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
@@ -7077,7 +7077,7 @@
         <v>2000</v>
       </c>
       <c r="B591" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
@@ -7085,7 +7085,7 @@
         <v>2000</v>
       </c>
       <c r="B592" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
@@ -7093,7 +7093,7 @@
         <v>2000</v>
       </c>
       <c r="B593" t="s">
-        <v>608</v>
+        <v>570</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
@@ -7101,7 +7101,7 @@
         <v>2001</v>
       </c>
       <c r="B594" t="s">
-        <v>609</v>
+        <v>571</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
@@ -7109,7 +7109,7 @@
         <v>2001</v>
       </c>
       <c r="B595" t="s">
-        <v>551</v>
+        <v>521</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
@@ -7117,7 +7117,7 @@
         <v>2001</v>
       </c>
       <c r="B596" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
@@ -7125,7 +7125,7 @@
         <v>2002</v>
       </c>
       <c r="B597" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
@@ -7133,7 +7133,7 @@
         <v>2002</v>
       </c>
       <c r="B598" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
@@ -7141,7 +7141,7 @@
         <v>2003</v>
       </c>
       <c r="B599" t="s">
-        <v>604</v>
+        <v>566</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
@@ -7149,7 +7149,7 @@
         <v>2003</v>
       </c>
       <c r="B600" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
@@ -7157,7 +7157,7 @@
         <v>2003</v>
       </c>
       <c r="B601" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
@@ -7165,7 +7165,7 @@
         <v>2004</v>
       </c>
       <c r="B602" t="s">
-        <v>610</v>
+        <v>572</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
@@ -7173,7 +7173,7 @@
         <v>2004</v>
       </c>
       <c r="B603" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
@@ -7181,7 +7181,7 @@
         <v>2004</v>
       </c>
       <c r="B604" t="s">
-        <v>611</v>
+        <v>573</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
@@ -7189,7 +7189,7 @@
         <v>2004</v>
       </c>
       <c r="B605" t="s">
-        <v>622</v>
+        <v>582</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
@@ -7197,7 +7197,7 @@
         <v>2005</v>
       </c>
       <c r="B606" t="s">
-        <v>555</v>
+        <v>525</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
@@ -7205,7 +7205,7 @@
         <v>2005</v>
       </c>
       <c r="B607" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
@@ -7213,7 +7213,7 @@
         <v>2006</v>
       </c>
       <c r="B608" t="s">
-        <v>612</v>
+        <v>574</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
@@ -7221,7 +7221,7 @@
         <v>2006</v>
       </c>
       <c r="B609" t="s">
-        <v>613</v>
+        <v>575</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
@@ -7229,7 +7229,7 @@
         <v>2007</v>
       </c>
       <c r="B610" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
@@ -7237,7 +7237,7 @@
         <v>2007</v>
       </c>
       <c r="B611" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
@@ -7245,7 +7245,7 @@
         <v>2008</v>
       </c>
       <c r="B612" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
@@ -7253,7 +7253,7 @@
         <v>2008</v>
       </c>
       <c r="B613" t="s">
-        <v>320</v>
+        <v>632</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
@@ -7261,7 +7261,7 @@
         <v>2009</v>
       </c>
       <c r="B614" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
@@ -7269,7 +7269,7 @@
         <v>2009</v>
       </c>
       <c r="B615" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
@@ -7277,7 +7277,7 @@
         <v>2010</v>
       </c>
       <c r="B616" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
@@ -7285,7 +7285,7 @@
         <v>2010</v>
       </c>
       <c r="B617" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
@@ -7293,7 +7293,7 @@
         <v>2011</v>
       </c>
       <c r="B618" t="s">
-        <v>605</v>
+        <v>567</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
@@ -7301,7 +7301,7 @@
         <v>2011</v>
       </c>
       <c r="B619" t="s">
-        <v>559</v>
+        <v>529</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
@@ -7309,7 +7309,7 @@
         <v>2011</v>
       </c>
       <c r="B620" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
@@ -7317,7 +7317,7 @@
         <v>2012</v>
       </c>
       <c r="B621" t="s">
-        <v>615</v>
+        <v>576</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
@@ -7325,7 +7325,7 @@
         <v>2012</v>
       </c>
       <c r="B622" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
@@ -7333,7 +7333,7 @@
         <v>2013</v>
       </c>
       <c r="B623" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
@@ -7341,7 +7341,7 @@
         <v>2013</v>
       </c>
       <c r="B624" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
@@ -7349,7 +7349,7 @@
         <v>2014</v>
       </c>
       <c r="B625" t="s">
-        <v>562</v>
+        <v>531</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
@@ -7357,7 +7357,7 @@
         <v>2014</v>
       </c>
       <c r="B626" t="s">
-        <v>561</v>
+        <v>631</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
@@ -7365,7 +7365,7 @@
         <v>2014</v>
       </c>
       <c r="B627" t="s">
-        <v>333</v>
+        <v>642</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
@@ -7373,7 +7373,7 @@
         <v>2015</v>
       </c>
       <c r="B628" t="s">
-        <v>563</v>
+        <v>532</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
@@ -7381,7 +7381,7 @@
         <v>2015</v>
       </c>
       <c r="B629" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
@@ -7389,7 +7389,7 @@
         <v>2016</v>
       </c>
       <c r="B630" t="s">
-        <v>565</v>
+        <v>534</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
@@ -7397,7 +7397,7 @@
         <v>2016</v>
       </c>
       <c r="B631" t="s">
-        <v>564</v>
+        <v>533</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
@@ -7405,7 +7405,7 @@
         <v>2016</v>
       </c>
       <c r="B632" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
@@ -7413,7 +7413,7 @@
         <v>2017</v>
       </c>
       <c r="B633" t="s">
-        <v>607</v>
+        <v>569</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
@@ -7421,7 +7421,7 @@
         <v>2017</v>
       </c>
       <c r="B634" t="s">
-        <v>606</v>
+        <v>568</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
@@ -7429,7 +7429,7 @@
         <v>2017</v>
       </c>
       <c r="B635" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
@@ -7437,7 +7437,7 @@
         <v>2017</v>
       </c>
       <c r="B636" t="s">
-        <v>566</v>
+        <v>535</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
@@ -7445,7 +7445,7 @@
         <v>2018</v>
       </c>
       <c r="B637" t="s">
-        <v>567</v>
+        <v>536</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
@@ -7453,7 +7453,7 @@
         <v>2018</v>
       </c>
       <c r="B638" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
@@ -7461,7 +7461,7 @@
         <v>2019</v>
       </c>
       <c r="B639" t="s">
-        <v>629</v>
+        <v>589</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
@@ -7469,7 +7469,7 @@
         <v>2019</v>
       </c>
       <c r="B640" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
@@ -7477,7 +7477,7 @@
         <v>2020</v>
       </c>
       <c r="B641" t="s">
-        <v>568</v>
+        <v>537</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
@@ -7485,7 +7485,7 @@
         <v>2020</v>
       </c>
       <c r="B642" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
@@ -7493,7 +7493,7 @@
         <v>2021</v>
       </c>
       <c r="B643" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/historical_items.xlsx
+++ b/xlsx/historical_items.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_k\work_stuff\historical-transportation-map\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5028A122-FDF4-47CF-B718-89707848F3D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C41B2E-235A-4E81-BCD7-EEB0E420EDFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{171EF181-1F3C-7A42-9B63-D835B687641B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="655">
   <si>
     <t>The U.S. capital is moved from Philadelphia to Washington, DC.</t>
   </si>
@@ -771,12 +771,6 @@
     <t>The first U.S. manned sub-orbital space flight is completed with Commander Alan B. Shepard Jr.</t>
   </si>
   <si>
-    <t>The Cuban Missile Crises.</t>
-  </si>
-  <si>
-    <t>LA ends streetcar service after 90 years.</t>
-  </si>
-  <si>
     <t>France &amp; Great-Britain sign accord over building channel tunnel.</t>
   </si>
   <si>
@@ -1954,6 +1948,48 @@
   </si>
   <si>
     <t>Opening of the Green Line light rail service in Minneapolis-Saint Paul, Minnesota.</t>
+  </si>
+  <si>
+    <t>The Cuban Missile Crisis.</t>
+  </si>
+  <si>
+    <t>MBTA Green Line tunnel from Boylston Street to the portal at Tremont Street and Broadway is closed in April.</t>
+  </si>
+  <si>
+    <t>Los Angeles ends streetcar service after 90 years.</t>
+  </si>
+  <si>
+    <t>MBTA Green Line relocated to the new Government Center station, and the Adams Square station closed and by-passed in October.</t>
+  </si>
+  <si>
+    <t>The MBTA Quincy Adams station opened as an infill station in October.</t>
+  </si>
+  <si>
+    <t>MBTA Green Line Arlington station opened as an infill station in November.</t>
+  </si>
+  <si>
+    <t>MBTA Green Line extended from portal at Kenmore to new portals at Blandford St. and St. Mary's St. in October.</t>
+  </si>
+  <si>
+    <t>MBTA Green Line Science Park station opened as an infill station in August.</t>
+  </si>
+  <si>
+    <t>MBTA Orange Line Washington Street tunnel opened from Chinatown to Haymarket. (Orange Line trains used the Green Line tunnel from 1901 to 1908.)</t>
+  </si>
+  <si>
+    <t>MBTA Blue Line converted from streetcar to high-platform subway in April, including new underground Maverick station.</t>
+  </si>
+  <si>
+    <t>MBTA Red Line opened from Downtown Crossing to South Station in December.</t>
+  </si>
+  <si>
+    <t>MBTA Red Line opened from South Station to Broadway in December.</t>
+  </si>
+  <si>
+    <t>MBTA Red Line Charles Street station opened as infill station in February.</t>
+  </si>
+  <si>
+    <t>MBTA Green Line A branch converted to 57 bus in June.</t>
   </si>
 </sst>
 </file>
@@ -2340,10 +2376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8479D0E-E3F6-DA41-AEC9-2CE4981D9A6E}">
-  <dimension ref="A1:B643"/>
+  <dimension ref="A1:B655"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A619" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B628" sqref="B628"/>
+    <sheetView tabSelected="1" topLeftCell="A487" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A503" sqref="A503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2354,10 +2390,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2373,7 +2409,7 @@
         <v>1800</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2381,7 +2417,7 @@
         <v>1800</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2389,7 +2425,7 @@
         <v>1800</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2397,7 +2433,7 @@
         <v>1800</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2405,7 +2441,7 @@
         <v>1801</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2437,7 +2473,7 @@
         <v>1802</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2445,7 +2481,7 @@
         <v>1803</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2469,7 +2505,7 @@
         <v>1803</v>
       </c>
       <c r="B15" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2477,7 +2513,7 @@
         <v>1803</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2493,7 +2529,7 @@
         <v>1804</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2501,7 +2537,7 @@
         <v>1804</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2525,7 +2561,7 @@
         <v>1805</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2533,7 +2569,7 @@
         <v>1805</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2541,7 +2577,7 @@
         <v>1805</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2557,7 +2593,7 @@
         <v>1806</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2581,7 +2617,7 @@
         <v>1807</v>
       </c>
       <c r="B29" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2621,7 +2657,7 @@
         <v>1808</v>
       </c>
       <c r="B34" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2629,7 +2665,7 @@
         <v>1808</v>
       </c>
       <c r="B35" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2677,7 +2713,7 @@
         <v>1811</v>
       </c>
       <c r="B41" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2685,7 +2721,7 @@
         <v>1811</v>
       </c>
       <c r="B42" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2717,7 +2753,7 @@
         <v>1812</v>
       </c>
       <c r="B46" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2813,7 +2849,7 @@
         <v>1819</v>
       </c>
       <c r="B58" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2877,7 +2913,7 @@
         <v>1821</v>
       </c>
       <c r="B66" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,7 +2929,7 @@
         <v>1822</v>
       </c>
       <c r="B68" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2909,7 +2945,7 @@
         <v>1823</v>
       </c>
       <c r="B70" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2933,7 +2969,7 @@
         <v>1824</v>
       </c>
       <c r="B73" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2949,7 +2985,7 @@
         <v>1825</v>
       </c>
       <c r="B75" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2973,7 +3009,7 @@
         <v>1826</v>
       </c>
       <c r="B78" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -3013,7 +3049,7 @@
         <v>1828</v>
       </c>
       <c r="B83" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -3045,7 +3081,7 @@
         <v>1829</v>
       </c>
       <c r="B87" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -3053,7 +3089,7 @@
         <v>1830</v>
       </c>
       <c r="B88" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3093,7 +3129,7 @@
         <v>1830</v>
       </c>
       <c r="B93" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -3101,7 +3137,7 @@
         <v>1831</v>
       </c>
       <c r="B94" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +3145,7 @@
         <v>1831</v>
       </c>
       <c r="B95" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -3141,7 +3177,7 @@
         <v>1831</v>
       </c>
       <c r="B99" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,7 +3185,7 @@
         <v>1831</v>
       </c>
       <c r="B100" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +3193,7 @@
         <v>1831</v>
       </c>
       <c r="B101" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -3181,7 +3217,7 @@
         <v>1833</v>
       </c>
       <c r="B104" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -3189,7 +3225,7 @@
         <v>1833</v>
       </c>
       <c r="B105" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -3205,7 +3241,7 @@
         <v>1834</v>
       </c>
       <c r="B107" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -3221,7 +3257,7 @@
         <v>1834</v>
       </c>
       <c r="B109" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -3229,7 +3265,7 @@
         <v>1835</v>
       </c>
       <c r="B110" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3237,7 +3273,7 @@
         <v>1835</v>
       </c>
       <c r="B111" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -3253,7 +3289,7 @@
         <v>1835</v>
       </c>
       <c r="B113" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -3261,7 +3297,7 @@
         <v>1836</v>
       </c>
       <c r="B114" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -3269,7 +3305,7 @@
         <v>1836</v>
       </c>
       <c r="B115" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -3277,7 +3313,7 @@
         <v>1836</v>
       </c>
       <c r="B116" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -3317,7 +3353,7 @@
         <v>1837</v>
       </c>
       <c r="B121" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3325,7 +3361,7 @@
         <v>1837</v>
       </c>
       <c r="B122" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -3341,7 +3377,7 @@
         <v>1838</v>
       </c>
       <c r="B124" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3349,7 +3385,7 @@
         <v>1838</v>
       </c>
       <c r="B125" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -3365,7 +3401,7 @@
         <v>1839</v>
       </c>
       <c r="B127" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -3373,7 +3409,7 @@
         <v>1839</v>
       </c>
       <c r="B128" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -3389,7 +3425,7 @@
         <v>1839</v>
       </c>
       <c r="B130" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -3397,7 +3433,7 @@
         <v>1839</v>
       </c>
       <c r="B131" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -3413,7 +3449,7 @@
         <v>1840</v>
       </c>
       <c r="B133" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -3421,7 +3457,7 @@
         <v>1841</v>
       </c>
       <c r="B134" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -3429,7 +3465,7 @@
         <v>1841</v>
       </c>
       <c r="B135" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3445,7 +3481,7 @@
         <v>1842</v>
       </c>
       <c r="B137" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -3461,7 +3497,7 @@
         <v>1843</v>
       </c>
       <c r="B139" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3477,7 +3513,7 @@
         <v>1843</v>
       </c>
       <c r="B141" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3485,7 +3521,7 @@
         <v>1844</v>
       </c>
       <c r="B142" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -3533,7 +3569,7 @@
         <v>1846</v>
       </c>
       <c r="B148" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3541,7 +3577,7 @@
         <v>1846</v>
       </c>
       <c r="B149" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3549,7 +3585,7 @@
         <v>1846</v>
       </c>
       <c r="B150" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3557,7 +3593,7 @@
         <v>1846</v>
       </c>
       <c r="B151" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3565,7 +3601,7 @@
         <v>1847</v>
       </c>
       <c r="B152" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3597,7 +3633,7 @@
         <v>1848</v>
       </c>
       <c r="B156" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3605,7 +3641,7 @@
         <v>1848</v>
       </c>
       <c r="B157" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -3613,7 +3649,7 @@
         <v>1848</v>
       </c>
       <c r="B158" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3637,7 +3673,7 @@
         <v>1850</v>
       </c>
       <c r="B161" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3645,7 +3681,7 @@
         <v>1850</v>
       </c>
       <c r="B162" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -3653,7 +3689,7 @@
         <v>1851</v>
       </c>
       <c r="B163" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -3685,7 +3721,7 @@
         <v>1853</v>
       </c>
       <c r="B167" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -3709,7 +3745,7 @@
         <v>1854</v>
       </c>
       <c r="B170" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3717,7 +3753,7 @@
         <v>1854</v>
       </c>
       <c r="B171" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3725,7 +3761,7 @@
         <v>1854</v>
       </c>
       <c r="B172" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3733,7 +3769,7 @@
         <v>1854</v>
       </c>
       <c r="B173" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3741,7 +3777,7 @@
         <v>1854</v>
       </c>
       <c r="B174" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3757,7 +3793,7 @@
         <v>1855</v>
       </c>
       <c r="B176" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3789,7 +3825,7 @@
         <v>1856</v>
       </c>
       <c r="B180" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3821,7 +3857,7 @@
         <v>1858</v>
       </c>
       <c r="B184" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3853,7 +3889,7 @@
         <v>1859</v>
       </c>
       <c r="B188" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3869,7 +3905,7 @@
         <v>1860</v>
       </c>
       <c r="B190" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3909,7 +3945,7 @@
         <v>1862</v>
       </c>
       <c r="B195" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3917,7 +3953,7 @@
         <v>1863</v>
       </c>
       <c r="B196" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3925,7 +3961,7 @@
         <v>1863</v>
       </c>
       <c r="B197" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -3941,7 +3977,7 @@
         <v>1864</v>
       </c>
       <c r="B199" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3957,7 +3993,7 @@
         <v>1865</v>
       </c>
       <c r="B201" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3973,7 +4009,7 @@
         <v>1866</v>
       </c>
       <c r="B203" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -4037,7 +4073,7 @@
         <v>1870</v>
       </c>
       <c r="B211" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -4053,7 +4089,7 @@
         <v>1871</v>
       </c>
       <c r="B213" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -4093,7 +4129,7 @@
         <v>1873</v>
       </c>
       <c r="B218" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -4109,7 +4145,7 @@
         <v>1874</v>
       </c>
       <c r="B220" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -4117,7 +4153,7 @@
         <v>1875</v>
       </c>
       <c r="B221" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -4133,7 +4169,7 @@
         <v>1876</v>
       </c>
       <c r="B223" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -4165,7 +4201,7 @@
         <v>1878</v>
       </c>
       <c r="B227" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -4181,7 +4217,7 @@
         <v>1879</v>
       </c>
       <c r="B229" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -4205,7 +4241,7 @@
         <v>1881</v>
       </c>
       <c r="B232" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -4221,7 +4257,7 @@
         <v>1882</v>
       </c>
       <c r="B234" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -4237,7 +4273,7 @@
         <v>1883</v>
       </c>
       <c r="B236" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -4261,7 +4297,7 @@
         <v>1885</v>
       </c>
       <c r="B239" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -4277,7 +4313,7 @@
         <v>1886</v>
       </c>
       <c r="B241" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -4293,7 +4329,7 @@
         <v>1887</v>
       </c>
       <c r="B243" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -4309,7 +4345,7 @@
         <v>1888</v>
       </c>
       <c r="B245" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -4357,7 +4393,7 @@
         <v>1890</v>
       </c>
       <c r="B251" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -4381,7 +4417,7 @@
         <v>1891</v>
       </c>
       <c r="B254" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -4389,7 +4425,7 @@
         <v>1891</v>
       </c>
       <c r="B255" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -4397,7 +4433,7 @@
         <v>1892</v>
       </c>
       <c r="B256" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -4437,7 +4473,7 @@
         <v>1893</v>
       </c>
       <c r="B261" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -4445,7 +4481,7 @@
         <v>1893</v>
       </c>
       <c r="B262" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -4453,7 +4489,7 @@
         <v>1894</v>
       </c>
       <c r="B263" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -4461,7 +4497,7 @@
         <v>1894</v>
       </c>
       <c r="B264" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -4477,7 +4513,7 @@
         <v>1895</v>
       </c>
       <c r="B266" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -4485,7 +4521,7 @@
         <v>1895</v>
       </c>
       <c r="B267" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -4493,7 +4529,7 @@
         <v>1895</v>
       </c>
       <c r="B268" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -4501,7 +4537,7 @@
         <v>1896</v>
       </c>
       <c r="B269" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -4509,7 +4545,7 @@
         <v>1896</v>
       </c>
       <c r="B270" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4533,7 +4569,7 @@
         <v>1897</v>
       </c>
       <c r="B273" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -4549,7 +4585,7 @@
         <v>1898</v>
       </c>
       <c r="B275" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -4565,7 +4601,7 @@
         <v>1899</v>
       </c>
       <c r="B277" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -4573,7 +4609,7 @@
         <v>1899</v>
       </c>
       <c r="B278" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -4581,7 +4617,7 @@
         <v>1899</v>
       </c>
       <c r="B279" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -4597,7 +4633,7 @@
         <v>1900</v>
       </c>
       <c r="B281" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -4621,7 +4657,7 @@
         <v>1901</v>
       </c>
       <c r="B284" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -4637,7 +4673,7 @@
         <v>1902</v>
       </c>
       <c r="B286" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -4653,7 +4689,7 @@
         <v>1903</v>
       </c>
       <c r="B288" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -4661,7 +4697,7 @@
         <v>1903</v>
       </c>
       <c r="B289" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -4677,7 +4713,7 @@
         <v>1904</v>
       </c>
       <c r="B291" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -4709,7 +4745,7 @@
         <v>1905</v>
       </c>
       <c r="B295" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -4725,7 +4761,7 @@
         <v>1906</v>
       </c>
       <c r="B297" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -4733,7 +4769,7 @@
         <v>1906</v>
       </c>
       <c r="B298" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -4757,7 +4793,7 @@
         <v>1907</v>
       </c>
       <c r="B301" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -4773,7 +4809,7 @@
         <v>1908</v>
       </c>
       <c r="B303" t="s">
-        <v>405</v>
+        <v>649</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -4781,7 +4817,7 @@
         <v>1908</v>
       </c>
       <c r="B304" t="s">
-        <v>165</v>
+        <v>403</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -4789,7 +4825,7 @@
         <v>1908</v>
       </c>
       <c r="B305" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -4797,15 +4833,15 @@
         <v>1908</v>
       </c>
       <c r="B306" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B307" t="s">
-        <v>407</v>
+        <v>167</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -4813,7 +4849,7 @@
         <v>1909</v>
       </c>
       <c r="B308" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -4821,15 +4857,15 @@
         <v>1909</v>
       </c>
       <c r="B309" t="s">
-        <v>168</v>
+        <v>404</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B310" t="s">
-        <v>408</v>
+        <v>168</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -4837,15 +4873,15 @@
         <v>1910</v>
       </c>
       <c r="B311" t="s">
-        <v>169</v>
+        <v>406</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B312" t="s">
-        <v>409</v>
+        <v>169</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -4853,7 +4889,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="s">
-        <v>579</v>
+        <v>407</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -4861,15 +4897,15 @@
         <v>1911</v>
       </c>
       <c r="B314" t="s">
-        <v>624</v>
+        <v>577</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B315" t="s">
-        <v>410</v>
+        <v>622</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -4877,7 +4913,7 @@
         <v>1912</v>
       </c>
       <c r="B316" t="s">
-        <v>170</v>
+        <v>408</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -4885,7 +4921,7 @@
         <v>1912</v>
       </c>
       <c r="B317" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -4893,7 +4929,7 @@
         <v>1912</v>
       </c>
       <c r="B318" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -4901,15 +4937,15 @@
         <v>1912</v>
       </c>
       <c r="B319" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B320" t="s">
-        <v>411</v>
+        <v>176</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -4917,7 +4953,7 @@
         <v>1913</v>
       </c>
       <c r="B321" t="s">
-        <v>173</v>
+        <v>409</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -4925,15 +4961,15 @@
         <v>1913</v>
       </c>
       <c r="B322" t="s">
-        <v>590</v>
+        <v>173</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B323" t="s">
-        <v>412</v>
+        <v>588</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -4941,7 +4977,7 @@
         <v>1914</v>
       </c>
       <c r="B324" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -4949,15 +4985,15 @@
         <v>1914</v>
       </c>
       <c r="B325" t="s">
-        <v>174</v>
+        <v>411</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B326" t="s">
-        <v>414</v>
+        <v>174</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -4965,7 +5001,7 @@
         <v>1915</v>
       </c>
       <c r="B327" t="s">
-        <v>175</v>
+        <v>412</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -4973,15 +5009,15 @@
         <v>1915</v>
       </c>
       <c r="B328" t="s">
-        <v>625</v>
+        <v>175</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B329" t="s">
-        <v>415</v>
+        <v>623</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -4989,7 +5025,7 @@
         <v>1916</v>
       </c>
       <c r="B330" t="s">
-        <v>177</v>
+        <v>651</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -4997,2503 +5033,2599 @@
         <v>1916</v>
       </c>
       <c r="B331" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B332" t="s">
-        <v>417</v>
+        <v>177</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B333" t="s">
-        <v>178</v>
+        <v>414</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B334" t="s">
-        <v>634</v>
+        <v>652</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B335" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="B336" t="s">
-        <v>419</v>
+        <v>178</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B337" t="s">
-        <v>181</v>
+        <v>632</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="B338" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B339" t="s">
-        <v>182</v>
+        <v>417</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="B340" t="s">
-        <v>421</v>
+        <v>181</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B341" t="s">
-        <v>591</v>
+        <v>418</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="B342" t="s">
-        <v>422</v>
+        <v>182</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B343" t="s">
-        <v>183</v>
+        <v>646</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="B344" t="s">
-        <v>184</v>
+        <v>419</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="B345" t="s">
-        <v>185</v>
+        <v>589</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B346" t="s">
-        <v>186</v>
+        <v>420</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="B347" t="s">
-        <v>424</v>
+        <v>183</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B348" t="s">
-        <v>423</v>
+        <v>650</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B349" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B350" t="s">
-        <v>426</v>
+        <v>185</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="B351" t="s">
-        <v>425</v>
+        <v>186</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B352" t="s">
-        <v>188</v>
+        <v>422</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="B353" t="s">
-        <v>189</v>
+        <v>421</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="B354" t="s">
-        <v>427</v>
+        <v>187</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="B355" t="s">
-        <v>190</v>
+        <v>424</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="B356" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="B357" t="s">
-        <v>592</v>
+        <v>188</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="B358" t="s">
-        <v>429</v>
+        <v>189</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="B359" t="s">
-        <v>191</v>
+        <v>425</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="B360" t="s">
-        <v>430</v>
+        <v>190</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="B361" t="s">
-        <v>192</v>
+        <v>426</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <v>1930</v>
+        <v>1927</v>
       </c>
       <c r="B362" t="s">
-        <v>193</v>
+        <v>590</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="B363" t="s">
-        <v>194</v>
+        <v>427</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="B364" t="s">
-        <v>626</v>
+        <v>191</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="B365" t="s">
-        <v>195</v>
+        <v>428</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="B366" t="s">
-        <v>639</v>
+        <v>192</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B367" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="B368" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="B369" t="s">
-        <v>198</v>
+        <v>624</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B370" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="B371" t="s">
-        <v>431</v>
+        <v>637</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="B372" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B373" t="s">
-        <v>201</v>
+        <v>653</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="B374" t="s">
-        <v>432</v>
+        <v>647</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="B375" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="B376" t="s">
-        <v>434</v>
+        <v>198</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="B377" t="s">
-        <v>433</v>
+        <v>199</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="B378" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="B379" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="B380" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="B381" t="s">
-        <v>206</v>
+        <v>430</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="B382" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="B383" t="s">
-        <v>210</v>
+        <v>432</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="B384" t="s">
-        <v>207</v>
+        <v>431</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="B385" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="B386" t="s">
-        <v>435</v>
+        <v>204</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="B387" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>1939</v>
+        <v>1936</v>
       </c>
       <c r="B388" t="s">
-        <v>436</v>
+        <v>206</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="B389" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>1940</v>
+        <v>1937</v>
       </c>
       <c r="B390" t="s">
-        <v>437</v>
+        <v>210</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>1940</v>
+        <v>1937</v>
       </c>
       <c r="B391" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>1940</v>
+        <v>1937</v>
       </c>
       <c r="B392" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="B393" t="s">
-        <v>215</v>
+        <v>433</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="B394" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="B395" t="s">
-        <v>217</v>
+        <v>434</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="B396" t="s">
-        <v>438</v>
+        <v>212</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B397" t="s">
-        <v>218</v>
+        <v>435</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B398" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>1942</v>
-      </c>
-      <c r="B399" s="8" t="s">
-        <v>439</v>
+        <v>1940</v>
+      </c>
+      <c r="B399" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>1943</v>
-      </c>
-      <c r="B400" s="8" t="s">
-        <v>441</v>
+        <v>1940</v>
+      </c>
+      <c r="B400" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>1943</v>
-      </c>
-      <c r="B401" s="8" t="s">
-        <v>440</v>
+        <v>1941</v>
+      </c>
+      <c r="B401" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="B402" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>1944</v>
-      </c>
-      <c r="B403" s="8" t="s">
-        <v>442</v>
+        <v>1941</v>
+      </c>
+      <c r="B403" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="B404" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>1945</v>
-      </c>
-      <c r="B405" s="8" t="s">
-        <v>444</v>
+        <v>1942</v>
+      </c>
+      <c r="B405" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>1945</v>
-      </c>
-      <c r="B408" t="s">
-        <v>222</v>
+        <v>1943</v>
+      </c>
+      <c r="B408" s="8" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="B409" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
-        <v>1946</v>
-      </c>
-      <c r="B410" t="s">
-        <v>224</v>
+        <v>1944</v>
+      </c>
+      <c r="B410" s="8" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="B411" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
-        <v>1947</v>
-      </c>
-      <c r="B412" t="s">
-        <v>446</v>
+        <v>1945</v>
+      </c>
+      <c r="B412" s="8" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
-        <v>1947</v>
-      </c>
-      <c r="B413" t="s">
-        <v>226</v>
+        <v>1945</v>
+      </c>
+      <c r="B413" s="8" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
-        <v>1947</v>
-      </c>
-      <c r="B414" t="s">
-        <v>227</v>
+        <v>1945</v>
+      </c>
+      <c r="B414" s="8" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="B415" t="s">
-        <v>447</v>
+        <v>222</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="B416" t="s">
-        <v>580</v>
+        <v>223</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="B417" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="B418" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="B419" t="s">
-        <v>230</v>
+        <v>444</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="B420" t="s">
-        <v>448</v>
+        <v>226</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="B421" t="s">
-        <v>449</v>
+        <v>227</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="B422" t="s">
-        <v>231</v>
+        <v>445</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>1951</v>
+        <v>1948</v>
       </c>
       <c r="B423" t="s">
-        <v>451</v>
+        <v>578</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
-        <v>1951</v>
+        <v>1948</v>
       </c>
       <c r="B424" t="s">
-        <v>450</v>
+        <v>228</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="B425" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="B426" t="s">
-        <v>452</v>
+        <v>230</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="B427" t="s">
-        <v>233</v>
+        <v>446</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="B428" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="B429" t="s">
-        <v>454</v>
+        <v>231</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="B430" t="s">
-        <v>234</v>
+        <v>449</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="B431" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="B432" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="B433" t="s">
-        <v>235</v>
+        <v>450</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="B434" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="B435" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="B436" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="B437" t="s">
-        <v>457</v>
+        <v>234</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B438" t="s">
-        <v>238</v>
+        <v>453</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="B439" t="s">
-        <v>460</v>
+        <v>236</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="B440" t="s">
-        <v>459</v>
+        <v>235</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B441" t="s">
-        <v>461</v>
+        <v>648</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B442" t="s">
-        <v>239</v>
+        <v>455</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="B443" t="s">
-        <v>627</v>
+        <v>456</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="B444" t="s">
-        <v>240</v>
+        <v>454</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="B445" t="s">
-        <v>463</v>
+        <v>237</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="B446" t="s">
-        <v>462</v>
+        <v>238</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B447" t="s">
-        <v>241</v>
+        <v>458</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="B448" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="B449" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="B450" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="B451" t="s">
-        <v>467</v>
+        <v>625</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="B452" t="s">
-        <v>466</v>
+        <v>240</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="B453" t="s">
-        <v>243</v>
+        <v>461</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="B454" t="s">
-        <v>244</v>
+        <v>460</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="B455" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="B456" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="B457" t="s">
-        <v>246</v>
+        <v>462</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="B458" t="s">
-        <v>469</v>
+        <v>242</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B459" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B460" t="s">
-        <v>247</v>
+        <v>464</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="B461" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="B462" t="s">
-        <v>472</v>
+        <v>244</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="B463" t="s">
-        <v>471</v>
+        <v>245</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="B464" t="s">
-        <v>593</v>
+        <v>466</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="B465" t="s">
-        <v>594</v>
+        <v>246</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="B466" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="B467" t="s">
-        <v>249</v>
+        <v>468</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="B468" t="s">
-        <v>474</v>
+        <v>247</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B469" t="s">
-        <v>250</v>
+        <v>642</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B470" t="s">
-        <v>251</v>
+        <v>470</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="B471" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="B472" t="s">
-        <v>476</v>
+        <v>591</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="B473" t="s">
-        <v>477</v>
+        <v>641</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="B474" t="s">
-        <v>252</v>
+        <v>592</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="B475" t="s">
-        <v>478</v>
+        <v>644</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="B476" t="s">
-        <v>253</v>
+        <v>643</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="B477" t="s">
-        <v>595</v>
+        <v>471</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="B478" t="s">
-        <v>254</v>
+        <v>472</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="B479" t="s">
-        <v>480</v>
+        <v>248</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="B480" t="s">
-        <v>479</v>
+        <v>249</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B481" t="s">
-        <v>255</v>
+        <v>473</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B482" t="s">
-        <v>256</v>
+        <v>474</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B483" t="s">
-        <v>257</v>
+        <v>475</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B484" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B485" t="s">
-        <v>259</v>
+        <v>476</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B486" t="s">
-        <v>596</v>
+        <v>251</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B487" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B488" t="s">
-        <v>483</v>
+        <v>252</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B489" t="s">
-        <v>260</v>
+        <v>478</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B490" t="s">
-        <v>261</v>
+        <v>477</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B491" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B492" t="s">
-        <v>482</v>
+        <v>254</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B493" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B494" t="s">
-        <v>597</v>
+        <v>256</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="B495" t="s">
-        <v>481</v>
+        <v>257</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="B496" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="B497" t="s">
-        <v>264</v>
+        <v>579</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="B498" t="s">
-        <v>265</v>
+        <v>481</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
-        <v>1972</v>
+        <v>1968</v>
       </c>
       <c r="B499" t="s">
-        <v>484</v>
+        <v>258</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
-        <v>1972</v>
+        <v>1968</v>
       </c>
       <c r="B500" t="s">
-        <v>617</v>
+        <v>259</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
-        <v>1972</v>
+        <v>1968</v>
       </c>
       <c r="B501" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
-        <v>1973</v>
+        <v>1969</v>
       </c>
       <c r="B502" t="s">
-        <v>485</v>
+        <v>654</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
-        <v>1973</v>
+        <v>1969</v>
       </c>
       <c r="B503" t="s">
-        <v>281</v>
+        <v>480</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
-        <v>1973</v>
+        <v>1969</v>
       </c>
       <c r="B504" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
-        <v>1974</v>
+        <v>1969</v>
       </c>
       <c r="B505" t="s">
-        <v>486</v>
+        <v>595</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
-        <v>1974</v>
+        <v>1970</v>
       </c>
       <c r="B506" t="s">
-        <v>268</v>
+        <v>479</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
-        <v>1974</v>
+        <v>1970</v>
       </c>
       <c r="B507" t="s">
-        <v>269</v>
+        <v>585</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="B508" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="B509" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="B510" t="s">
-        <v>598</v>
+        <v>482</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="B511" t="s">
-        <v>488</v>
+        <v>615</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="B512" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="B513" t="s">
-        <v>285</v>
+        <v>483</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="B514" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
-        <v>1977</v>
+        <v>1973</v>
       </c>
       <c r="B515" t="s">
-        <v>633</v>
+        <v>265</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="B516" t="s">
-        <v>273</v>
+        <v>484</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="B517" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="B518" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="B519" t="s">
-        <v>277</v>
+        <v>485</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="B520" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="B521" t="s">
-        <v>489</v>
+        <v>596</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="B522" t="s">
-        <v>279</v>
+        <v>486</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="B523" t="s">
-        <v>588</v>
+        <v>269</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="B524" t="s">
-        <v>490</v>
+        <v>283</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="B525" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="B526" t="s">
-        <v>492</v>
+        <v>631</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="B527" t="s">
-        <v>491</v>
+        <v>271</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="B528" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="B529" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="B530" t="s">
-        <v>494</v>
+        <v>275</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="B531" t="s">
-        <v>493</v>
+        <v>276</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="B532" t="s">
-        <v>283</v>
+        <v>487</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="B533" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="B534" t="s">
-        <v>287</v>
+        <v>586</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="B535" t="s">
-        <v>288</v>
+        <v>488</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="B536" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="B537" t="s">
-        <v>290</v>
+        <v>490</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="B538" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="B539" t="s">
-        <v>496</v>
+        <v>284</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="B540" t="s">
-        <v>640</v>
+        <v>280</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="B541" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="B542" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="B543" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="B544" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="B545" t="s">
-        <v>628</v>
+        <v>285</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="B546" t="s">
-        <v>629</v>
+        <v>286</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="B547" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="B548" t="s">
-        <v>500</v>
+        <v>288</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="B549" t="s">
-        <v>499</v>
+        <v>645</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="B550" t="s">
-        <v>294</v>
+        <v>493</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="B551" t="s">
-        <v>295</v>
+        <v>494</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="B552" t="s">
-        <v>599</v>
+        <v>638</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="B553" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="B554" t="s">
-        <v>600</v>
+        <v>495</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B555" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B556" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="B557" t="s">
-        <v>298</v>
+        <v>626</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="B558" t="s">
-        <v>299</v>
+        <v>627</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="B559" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="B560" t="s">
-        <v>301</v>
+        <v>498</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="B561" t="s">
-        <v>302</v>
+        <v>497</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="B562" t="s">
-        <v>565</v>
+        <v>292</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="B563" t="s">
-        <v>503</v>
+        <v>293</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="B564" t="s">
-        <v>502</v>
+        <v>597</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="B565" t="s">
-        <v>303</v>
+        <v>499</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="B566" t="s">
-        <v>504</v>
+        <v>598</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="B567" t="s">
-        <v>505</v>
+        <v>294</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="B568" t="s">
-        <v>506</v>
+        <v>295</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B569" t="s">
-        <v>507</v>
+        <v>296</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B570" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="B571" t="s">
-        <v>641</v>
+        <v>298</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="B572" t="s">
-        <v>508</v>
+        <v>299</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="B573" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B574" t="s">
-        <v>510</v>
+        <v>563</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B575" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B576" t="s">
-        <v>305</v>
+        <v>500</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="B577" t="s">
-        <v>513</v>
+        <v>301</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="B578" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="B579" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="B580" t="s">
-        <v>309</v>
+        <v>504</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B581" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B582" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="B583" t="s">
-        <v>515</v>
+        <v>639</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="B584" t="s">
-        <v>306</v>
+        <v>506</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="B585" t="s">
-        <v>517</v>
+        <v>326</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B586" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B587" t="s">
-        <v>307</v>
+        <v>507</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
-        <v>1999</v>
+        <v>1994</v>
       </c>
       <c r="B588" t="s">
-        <v>519</v>
+        <v>303</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="B589" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="B590" t="s">
-        <v>308</v>
+        <v>510</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="B591" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="B592" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B593" t="s">
-        <v>570</v>
+        <v>512</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="B594" t="s">
-        <v>571</v>
+        <v>310</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="B595" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="B596" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B597" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B598" t="s">
-        <v>310</v>
+        <v>514</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="B599" t="s">
-        <v>566</v>
+        <v>305</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="B600" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="B601" t="s">
-        <v>314</v>
+        <v>516</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="B602" t="s">
-        <v>572</v>
+        <v>306</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B603" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B604" t="s">
-        <v>573</v>
+        <v>311</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B605" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="B606" t="s">
-        <v>525</v>
+        <v>569</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="B607" t="s">
-        <v>316</v>
+        <v>519</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="B608" t="s">
-        <v>574</v>
+        <v>313</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B609" t="s">
-        <v>575</v>
+        <v>520</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="B610" t="s">
-        <v>630</v>
+        <v>308</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="B611" t="s">
-        <v>317</v>
+        <v>564</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="B612" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="B613" t="s">
-        <v>632</v>
+        <v>312</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="B614" t="s">
-        <v>527</v>
+        <v>570</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="B615" t="s">
-        <v>318</v>
+        <v>522</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="B616" t="s">
-        <v>528</v>
+        <v>571</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="B617" t="s">
-        <v>319</v>
+        <v>580</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="B618" t="s">
-        <v>567</v>
+        <v>523</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="B619" t="s">
-        <v>529</v>
+        <v>314</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B620" t="s">
-        <v>320</v>
+        <v>572</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="B621" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B622" t="s">
-        <v>321</v>
+        <v>628</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="B623" t="s">
-        <v>530</v>
+        <v>315</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B624" t="s">
-        <v>322</v>
+        <v>524</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="B625" t="s">
-        <v>531</v>
+        <v>630</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B626" t="s">
-        <v>631</v>
+        <v>525</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B627" t="s">
-        <v>642</v>
+        <v>316</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="B628" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="B629" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="B630" t="s">
-        <v>534</v>
+        <v>565</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="B631" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="B632" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="B633" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="B634" t="s">
-        <v>568</v>
+        <v>319</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="B635" t="s">
-        <v>325</v>
+        <v>528</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="B636" t="s">
-        <v>535</v>
+        <v>320</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B637" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B638" t="s">
-        <v>311</v>
+        <v>629</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B639" t="s">
-        <v>589</v>
+        <v>640</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="B640" t="s">
-        <v>326</v>
+        <v>530</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="B641" t="s">
-        <v>537</v>
+        <v>321</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="B642" t="s">
-        <v>304</v>
+        <v>532</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B643" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B644" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B645" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B646" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B647" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B648" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B649" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B650" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B651" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B652" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B653" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B654" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655" s="1">
         <v>2021</v>
       </c>
-      <c r="B643" t="s">
-        <v>327</v>
+      <c r="B655" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/historical_items.xlsx
+++ b/xlsx/historical_items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_k\work_stuff\historical-transportation-map\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C41B2E-235A-4E81-BCD7-EEB0E420EDFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FAFB99-37DB-4238-BD25-9D362BDE89BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{171EF181-1F3C-7A42-9B63-D835B687641B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="656">
   <si>
     <t>The U.S. capital is moved from Philadelphia to Washington, DC.</t>
   </si>
@@ -1990,6 +1990,9 @@
   </si>
   <si>
     <t>MBTA Green Line A branch converted to 57 bus in June.</t>
+  </si>
+  <si>
+    <t>The relocated northern portion of the MBTA Orange line opened to Sullivan in April, to Wellington in September, and to Malden in December.</t>
   </si>
 </sst>
 </file>
@@ -2376,10 +2379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8479D0E-E3F6-DA41-AEC9-2CE4981D9A6E}">
-  <dimension ref="A1:B655"/>
+  <dimension ref="A1:B656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A487" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A503" sqref="A503"/>
+    <sheetView tabSelected="1" topLeftCell="A511" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B520" sqref="B520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6537,7 +6540,7 @@
         <v>1975</v>
       </c>
       <c r="B519" t="s">
-        <v>485</v>
+        <v>655</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
@@ -6545,7 +6548,7 @@
         <v>1975</v>
       </c>
       <c r="B520" t="s">
-        <v>268</v>
+        <v>485</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
@@ -6553,15 +6556,15 @@
         <v>1975</v>
       </c>
       <c r="B521" t="s">
-        <v>596</v>
+        <v>268</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B522" t="s">
-        <v>486</v>
+        <v>596</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -6569,7 +6572,7 @@
         <v>1976</v>
       </c>
       <c r="B523" t="s">
-        <v>269</v>
+        <v>486</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
@@ -6577,7 +6580,7 @@
         <v>1976</v>
       </c>
       <c r="B524" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
@@ -6585,15 +6588,15 @@
         <v>1976</v>
       </c>
       <c r="B525" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B526" t="s">
-        <v>631</v>
+        <v>270</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
@@ -6601,7 +6604,7 @@
         <v>1977</v>
       </c>
       <c r="B527" t="s">
-        <v>271</v>
+        <v>631</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
@@ -6609,7 +6612,7 @@
         <v>1977</v>
       </c>
       <c r="B528" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
@@ -6617,7 +6620,7 @@
         <v>1977</v>
       </c>
       <c r="B529" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
@@ -6625,7 +6628,7 @@
         <v>1977</v>
       </c>
       <c r="B530" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
@@ -6633,15 +6636,15 @@
         <v>1977</v>
       </c>
       <c r="B531" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B532" t="s">
-        <v>487</v>
+        <v>276</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
@@ -6649,15 +6652,15 @@
         <v>1978</v>
       </c>
       <c r="B533" t="s">
-        <v>277</v>
+        <v>487</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B534" t="s">
-        <v>586</v>
+        <v>277</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
@@ -6665,7 +6668,7 @@
         <v>1979</v>
       </c>
       <c r="B535" t="s">
-        <v>488</v>
+        <v>586</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
@@ -6673,15 +6676,15 @@
         <v>1979</v>
       </c>
       <c r="B536" t="s">
-        <v>278</v>
+        <v>488</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B537" t="s">
-        <v>490</v>
+        <v>278</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
@@ -6689,7 +6692,7 @@
         <v>1980</v>
       </c>
       <c r="B538" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
@@ -6697,7 +6700,7 @@
         <v>1980</v>
       </c>
       <c r="B539" t="s">
-        <v>284</v>
+        <v>489</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
@@ -6705,15 +6708,15 @@
         <v>1980</v>
       </c>
       <c r="B540" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B541" t="s">
-        <v>492</v>
+        <v>280</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
@@ -6721,7 +6724,7 @@
         <v>1981</v>
       </c>
       <c r="B542" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
@@ -6729,7 +6732,7 @@
         <v>1981</v>
       </c>
       <c r="B543" t="s">
-        <v>281</v>
+        <v>491</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
@@ -6737,15 +6740,15 @@
         <v>1981</v>
       </c>
       <c r="B544" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B545" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
@@ -6753,7 +6756,7 @@
         <v>1982</v>
       </c>
       <c r="B546" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
@@ -6761,7 +6764,7 @@
         <v>1982</v>
       </c>
       <c r="B547" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
@@ -6769,15 +6772,15 @@
         <v>1982</v>
       </c>
       <c r="B548" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B549" t="s">
-        <v>645</v>
+        <v>288</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
@@ -6785,7 +6788,7 @@
         <v>1983</v>
       </c>
       <c r="B550" t="s">
-        <v>493</v>
+        <v>645</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
@@ -6793,7 +6796,7 @@
         <v>1983</v>
       </c>
       <c r="B551" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
@@ -6801,15 +6804,15 @@
         <v>1983</v>
       </c>
       <c r="B552" t="s">
-        <v>638</v>
+        <v>494</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B553" t="s">
-        <v>496</v>
+        <v>638</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
@@ -6817,7 +6820,7 @@
         <v>1984</v>
       </c>
       <c r="B554" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
@@ -6825,7 +6828,7 @@
         <v>1984</v>
       </c>
       <c r="B555" t="s">
-        <v>289</v>
+        <v>495</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
@@ -6833,15 +6836,15 @@
         <v>1984</v>
       </c>
       <c r="B556" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B557" t="s">
-        <v>626</v>
+        <v>290</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
@@ -6849,7 +6852,7 @@
         <v>1985</v>
       </c>
       <c r="B558" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
@@ -6857,15 +6860,15 @@
         <v>1985</v>
       </c>
       <c r="B559" t="s">
-        <v>291</v>
+        <v>627</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B560" t="s">
-        <v>498</v>
+        <v>291</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
@@ -6873,7 +6876,7 @@
         <v>1986</v>
       </c>
       <c r="B561" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
@@ -6881,7 +6884,7 @@
         <v>1986</v>
       </c>
       <c r="B562" t="s">
-        <v>292</v>
+        <v>497</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
@@ -6889,7 +6892,7 @@
         <v>1986</v>
       </c>
       <c r="B563" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
@@ -6897,15 +6900,15 @@
         <v>1986</v>
       </c>
       <c r="B564" t="s">
-        <v>597</v>
+        <v>293</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B565" t="s">
-        <v>499</v>
+        <v>597</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
@@ -6913,15 +6916,15 @@
         <v>1987</v>
       </c>
       <c r="B566" t="s">
-        <v>598</v>
+        <v>499</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B567" t="s">
-        <v>294</v>
+        <v>598</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
@@ -6929,7 +6932,7 @@
         <v>1988</v>
       </c>
       <c r="B568" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
@@ -6937,7 +6940,7 @@
         <v>1988</v>
       </c>
       <c r="B569" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
@@ -6945,15 +6948,15 @@
         <v>1988</v>
       </c>
       <c r="B570" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B571" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
@@ -6961,7 +6964,7 @@
         <v>1989</v>
       </c>
       <c r="B572" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
@@ -6969,15 +6972,15 @@
         <v>1989</v>
       </c>
       <c r="B573" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B574" t="s">
-        <v>563</v>
+        <v>300</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
@@ -6985,7 +6988,7 @@
         <v>1990</v>
       </c>
       <c r="B575" t="s">
-        <v>501</v>
+        <v>563</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
@@ -6993,7 +6996,7 @@
         <v>1990</v>
       </c>
       <c r="B576" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
@@ -7001,15 +7004,15 @@
         <v>1990</v>
       </c>
       <c r="B577" t="s">
-        <v>301</v>
+        <v>500</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B578" t="s">
-        <v>502</v>
+        <v>301</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
@@ -7017,7 +7020,7 @@
         <v>1991</v>
       </c>
       <c r="B579" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
@@ -7025,15 +7028,15 @@
         <v>1991</v>
       </c>
       <c r="B580" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B581" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
@@ -7041,7 +7044,7 @@
         <v>1992</v>
       </c>
       <c r="B582" t="s">
-        <v>327</v>
+        <v>505</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
@@ -7049,15 +7052,15 @@
         <v>1992</v>
       </c>
       <c r="B583" t="s">
-        <v>639</v>
+        <v>327</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B584" t="s">
-        <v>506</v>
+        <v>639</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
@@ -7065,15 +7068,15 @@
         <v>1993</v>
       </c>
       <c r="B585" t="s">
-        <v>326</v>
+        <v>506</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B586" t="s">
-        <v>508</v>
+        <v>326</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
@@ -7081,7 +7084,7 @@
         <v>1994</v>
       </c>
       <c r="B587" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
@@ -7089,15 +7092,15 @@
         <v>1994</v>
       </c>
       <c r="B588" t="s">
-        <v>303</v>
+        <v>507</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B589" t="s">
-        <v>511</v>
+        <v>303</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
@@ -7105,7 +7108,7 @@
         <v>1995</v>
       </c>
       <c r="B590" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
@@ -7113,7 +7116,7 @@
         <v>1995</v>
       </c>
       <c r="B591" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
@@ -7121,15 +7124,15 @@
         <v>1995</v>
       </c>
       <c r="B592" t="s">
-        <v>307</v>
+        <v>509</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B593" t="s">
-        <v>512</v>
+        <v>307</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
@@ -7137,15 +7140,15 @@
         <v>1996</v>
       </c>
       <c r="B594" t="s">
-        <v>310</v>
+        <v>512</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B595" t="s">
-        <v>513</v>
+        <v>310</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
@@ -7153,15 +7156,15 @@
         <v>1997</v>
       </c>
       <c r="B596" t="s">
-        <v>304</v>
+        <v>513</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B597" t="s">
-        <v>515</v>
+        <v>304</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
@@ -7169,7 +7172,7 @@
         <v>1998</v>
       </c>
       <c r="B598" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
@@ -7177,15 +7180,15 @@
         <v>1998</v>
       </c>
       <c r="B599" t="s">
-        <v>305</v>
+        <v>514</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B600" t="s">
-        <v>517</v>
+        <v>305</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
@@ -7193,7 +7196,7 @@
         <v>1999</v>
       </c>
       <c r="B601" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
@@ -7201,15 +7204,15 @@
         <v>1999</v>
       </c>
       <c r="B602" t="s">
-        <v>306</v>
+        <v>516</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B603" t="s">
-        <v>518</v>
+        <v>306</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
@@ -7217,7 +7220,7 @@
         <v>2000</v>
       </c>
       <c r="B604" t="s">
-        <v>311</v>
+        <v>518</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
@@ -7225,15 +7228,15 @@
         <v>2000</v>
       </c>
       <c r="B605" t="s">
-        <v>568</v>
+        <v>311</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B606" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
@@ -7241,7 +7244,7 @@
         <v>2001</v>
       </c>
       <c r="B607" t="s">
-        <v>519</v>
+        <v>569</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
@@ -7249,15 +7252,15 @@
         <v>2001</v>
       </c>
       <c r="B608" t="s">
-        <v>313</v>
+        <v>519</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B609" t="s">
-        <v>520</v>
+        <v>313</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
@@ -7265,15 +7268,15 @@
         <v>2002</v>
       </c>
       <c r="B610" t="s">
-        <v>308</v>
+        <v>520</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B611" t="s">
-        <v>564</v>
+        <v>308</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
@@ -7281,7 +7284,7 @@
         <v>2003</v>
       </c>
       <c r="B612" t="s">
-        <v>521</v>
+        <v>564</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
@@ -7289,15 +7292,15 @@
         <v>2003</v>
       </c>
       <c r="B613" t="s">
-        <v>312</v>
+        <v>521</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B614" t="s">
-        <v>570</v>
+        <v>312</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
@@ -7305,7 +7308,7 @@
         <v>2004</v>
       </c>
       <c r="B615" t="s">
-        <v>522</v>
+        <v>570</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
@@ -7313,7 +7316,7 @@
         <v>2004</v>
       </c>
       <c r="B616" t="s">
-        <v>571</v>
+        <v>522</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
@@ -7321,15 +7324,15 @@
         <v>2004</v>
       </c>
       <c r="B617" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B618" t="s">
-        <v>523</v>
+        <v>580</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
@@ -7337,15 +7340,15 @@
         <v>2005</v>
       </c>
       <c r="B619" t="s">
-        <v>314</v>
+        <v>523</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B620" t="s">
-        <v>572</v>
+        <v>314</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
@@ -7353,15 +7356,15 @@
         <v>2006</v>
       </c>
       <c r="B621" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B622" t="s">
-        <v>628</v>
+        <v>573</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
@@ -7369,15 +7372,15 @@
         <v>2007</v>
       </c>
       <c r="B623" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B624" t="s">
-        <v>524</v>
+        <v>315</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
@@ -7385,15 +7388,15 @@
         <v>2008</v>
       </c>
       <c r="B625" t="s">
-        <v>630</v>
+        <v>524</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B626" t="s">
-        <v>525</v>
+        <v>630</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
@@ -7401,15 +7404,15 @@
         <v>2009</v>
       </c>
       <c r="B627" t="s">
-        <v>316</v>
+        <v>525</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B628" t="s">
-        <v>526</v>
+        <v>316</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
@@ -7417,15 +7420,15 @@
         <v>2010</v>
       </c>
       <c r="B629" t="s">
-        <v>317</v>
+        <v>526</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B630" t="s">
-        <v>565</v>
+        <v>317</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
@@ -7433,7 +7436,7 @@
         <v>2011</v>
       </c>
       <c r="B631" t="s">
-        <v>527</v>
+        <v>565</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
@@ -7441,15 +7444,15 @@
         <v>2011</v>
       </c>
       <c r="B632" t="s">
-        <v>318</v>
+        <v>527</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B633" t="s">
-        <v>574</v>
+        <v>318</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
@@ -7457,15 +7460,15 @@
         <v>2012</v>
       </c>
       <c r="B634" t="s">
-        <v>319</v>
+        <v>574</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B635" t="s">
-        <v>528</v>
+        <v>319</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
@@ -7473,15 +7476,15 @@
         <v>2013</v>
       </c>
       <c r="B636" t="s">
-        <v>320</v>
+        <v>528</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B637" t="s">
-        <v>529</v>
+        <v>320</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
@@ -7489,7 +7492,7 @@
         <v>2014</v>
       </c>
       <c r="B638" t="s">
-        <v>629</v>
+        <v>529</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
@@ -7497,15 +7500,15 @@
         <v>2014</v>
       </c>
       <c r="B639" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B640" t="s">
-        <v>530</v>
+        <v>640</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
@@ -7513,15 +7516,15 @@
         <v>2015</v>
       </c>
       <c r="B641" t="s">
-        <v>321</v>
+        <v>530</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B642" t="s">
-        <v>532</v>
+        <v>321</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
@@ -7529,7 +7532,7 @@
         <v>2016</v>
       </c>
       <c r="B643" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
@@ -7537,15 +7540,15 @@
         <v>2016</v>
       </c>
       <c r="B644" t="s">
-        <v>322</v>
+        <v>531</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B645" t="s">
-        <v>567</v>
+        <v>322</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
@@ -7553,7 +7556,7 @@
         <v>2017</v>
       </c>
       <c r="B646" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
@@ -7561,7 +7564,7 @@
         <v>2017</v>
       </c>
       <c r="B647" t="s">
-        <v>323</v>
+        <v>566</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
@@ -7569,15 +7572,15 @@
         <v>2017</v>
       </c>
       <c r="B648" t="s">
-        <v>533</v>
+        <v>323</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B649" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
@@ -7585,15 +7588,15 @@
         <v>2018</v>
       </c>
       <c r="B650" t="s">
-        <v>309</v>
+        <v>534</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B651" t="s">
-        <v>587</v>
+        <v>309</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
@@ -7601,15 +7604,15 @@
         <v>2019</v>
       </c>
       <c r="B652" t="s">
-        <v>324</v>
+        <v>587</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B653" t="s">
-        <v>535</v>
+        <v>324</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
@@ -7617,14 +7620,22 @@
         <v>2020</v>
       </c>
       <c r="B654" t="s">
-        <v>302</v>
+        <v>535</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B655" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656" s="1">
         <v>2021</v>
       </c>
-      <c r="B655" t="s">
+      <c r="B656" t="s">
         <v>325</v>
       </c>
     </row>

--- a/xlsx/historical_items.xlsx
+++ b/xlsx/historical_items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_k\work_stuff\historical-transportation-map\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FAFB99-37DB-4238-BD25-9D362BDE89BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CA4B8E-35FD-4B59-B99A-154E6CFC1268}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{171EF181-1F3C-7A42-9B63-D835B687641B}"/>
   </bookViews>
@@ -1770,9 +1770,6 @@
     <t>First commercial high speed Maglev train starts operation between Shanghai and its airport.</t>
   </si>
   <si>
-    <t>The Oriental Railway Company opens the first section of railway in the Ottoman Empire, from İzmir to Seydiköy.</t>
-  </si>
-  <si>
     <t>Narrow gauge Catskill Mountain Railway opens to carry passengers from Hudson River steamboats to connections at Palenville, New York to the Catskill Mountain House destination resort.</t>
   </si>
   <si>
@@ -1878,9 +1875,6 @@
     <t>The first trains operate in what is now Romania between Oravi&amp;tcedil;a, Transylvania, and Bazia&amp;scedil;, on the Danube.</t>
   </si>
   <si>
-    <t>The Oriental Railway Company is granted the concession to build the first railway in Turkey, from &amp;Iuml;zmir to Aydın.</t>
-  </si>
-  <si>
     <t>New York line-Lenox-Becket-Sandisfield-Connecticut line Massachusetts Turnpike closes.</t>
   </si>
   <si>
@@ -1896,9 +1890,6 @@
     <t>Selandia launched - First ocean-going, diesel engine-driven ship.</t>
   </si>
   <si>
-    <t>The Luftkissengleitboot Hovercraft - First hovering vehicle was created by Dagobert Müller. It could only travel on water.</t>
-  </si>
-  <si>
     <t>The Turkestan-Siberia Railway is completed.</t>
   </si>
   <si>
@@ -1993,6 +1984,15 @@
   </si>
   <si>
     <t>The relocated northern portion of the MBTA Orange line opened to Sullivan in April, to Wellington in September, and to Malden in December.</t>
+  </si>
+  <si>
+    <t>The Oriental Railway Company is granted the concession to build the first railway in Turkey, from &amp;Iuml;zmir to Aydin.</t>
+  </si>
+  <si>
+    <t>The Luftkissengleitboot Hovercraft - First hovering vehicle was created by Dagobert M&amp;uuml;ller. It could only travel on water.</t>
+  </si>
+  <si>
+    <t>The Oriental Railway Company opens the first section of railway in the Ottoman Empire, from &amp;Iuml;zmir to Seydik&amp;ouml;y.</t>
   </si>
 </sst>
 </file>
@@ -2381,8 +2381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8479D0E-E3F6-DA41-AEC9-2CE4981D9A6E}">
   <dimension ref="A1:B656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A511" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B520" sqref="B520"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2393,10 +2393,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>599</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2412,7 +2412,7 @@
         <v>1800</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2420,7 +2420,7 @@
         <v>1800</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2428,7 +2428,7 @@
         <v>1800</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2444,7 +2444,7 @@
         <v>1801</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3220,7 +3220,7 @@
         <v>1833</v>
       </c>
       <c r="B104" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -3244,7 +3244,7 @@
         <v>1834</v>
       </c>
       <c r="B107" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -3356,7 +3356,7 @@
         <v>1837</v>
       </c>
       <c r="B121" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3364,7 +3364,7 @@
         <v>1837</v>
       </c>
       <c r="B122" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -3388,7 +3388,7 @@
         <v>1838</v>
       </c>
       <c r="B125" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -3524,7 +3524,7 @@
         <v>1844</v>
       </c>
       <c r="B142" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -3580,7 +3580,7 @@
         <v>1846</v>
       </c>
       <c r="B149" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3596,7 +3596,7 @@
         <v>1846</v>
       </c>
       <c r="B151" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3756,7 +3756,7 @@
         <v>1854</v>
       </c>
       <c r="B171" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3772,7 +3772,7 @@
         <v>1854</v>
       </c>
       <c r="B173" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3796,7 +3796,7 @@
         <v>1855</v>
       </c>
       <c r="B176" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3828,7 +3828,7 @@
         <v>1856</v>
       </c>
       <c r="B180" t="s">
-        <v>617</v>
+        <v>653</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3860,7 +3860,7 @@
         <v>1858</v>
       </c>
       <c r="B184" t="s">
-        <v>581</v>
+        <v>655</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3892,7 +3892,7 @@
         <v>1859</v>
       </c>
       <c r="B188" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3948,7 +3948,7 @@
         <v>1862</v>
       </c>
       <c r="B195" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -4076,7 +4076,7 @@
         <v>1870</v>
       </c>
       <c r="B211" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -4260,7 +4260,7 @@
         <v>1882</v>
       </c>
       <c r="B234" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -4476,7 +4476,7 @@
         <v>1893</v>
       </c>
       <c r="B261" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -4492,7 +4492,7 @@
         <v>1894</v>
       </c>
       <c r="B263" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -4500,7 +4500,7 @@
         <v>1894</v>
       </c>
       <c r="B264" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -4588,7 +4588,7 @@
         <v>1898</v>
       </c>
       <c r="B275" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -4604,7 +4604,7 @@
         <v>1899</v>
       </c>
       <c r="B277" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -4660,7 +4660,7 @@
         <v>1901</v>
       </c>
       <c r="B284" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -4700,7 +4700,7 @@
         <v>1903</v>
       </c>
       <c r="B289" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -4812,7 +4812,7 @@
         <v>1908</v>
       </c>
       <c r="B303" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -4908,7 +4908,7 @@
         <v>1911</v>
       </c>
       <c r="B315" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -4972,7 +4972,7 @@
         <v>1913</v>
       </c>
       <c r="B323" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -5020,7 +5020,7 @@
         <v>1915</v>
       </c>
       <c r="B329" t="s">
-        <v>623</v>
+        <v>654</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -5028,7 +5028,7 @@
         <v>1916</v>
       </c>
       <c r="B330" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -5060,7 +5060,7 @@
         <v>1917</v>
       </c>
       <c r="B334" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -5084,7 +5084,7 @@
         <v>1918</v>
       </c>
       <c r="B337" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -5132,7 +5132,7 @@
         <v>1921</v>
       </c>
       <c r="B343" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -5148,7 +5148,7 @@
         <v>1921</v>
       </c>
       <c r="B345" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -5172,7 +5172,7 @@
         <v>1923</v>
       </c>
       <c r="B348" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -5284,7 +5284,7 @@
         <v>1927</v>
       </c>
       <c r="B362" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -5340,7 +5340,7 @@
         <v>1930</v>
       </c>
       <c r="B369" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -5356,7 +5356,7 @@
         <v>1931</v>
       </c>
       <c r="B371" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -5372,7 +5372,7 @@
         <v>1932</v>
       </c>
       <c r="B373" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -5380,7 +5380,7 @@
         <v>1932</v>
       </c>
       <c r="B374" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -5916,7 +5916,7 @@
         <v>1955</v>
       </c>
       <c r="B441" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -5996,7 +5996,7 @@
         <v>1957</v>
       </c>
       <c r="B451" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -6140,7 +6140,7 @@
         <v>1962</v>
       </c>
       <c r="B469" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -6164,7 +6164,7 @@
         <v>1962</v>
       </c>
       <c r="B472" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -6172,7 +6172,7 @@
         <v>1962</v>
       </c>
       <c r="B473" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -6180,7 +6180,7 @@
         <v>1962</v>
       </c>
       <c r="B474" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -6188,7 +6188,7 @@
         <v>1963</v>
       </c>
       <c r="B475" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -6196,7 +6196,7 @@
         <v>1963</v>
       </c>
       <c r="B476" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -6284,7 +6284,7 @@
         <v>1966</v>
       </c>
       <c r="B487" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -6356,7 +6356,7 @@
         <v>1967</v>
       </c>
       <c r="B496" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -6404,7 +6404,7 @@
         <v>1969</v>
       </c>
       <c r="B502" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
@@ -6428,7 +6428,7 @@
         <v>1969</v>
       </c>
       <c r="B505" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -6444,7 +6444,7 @@
         <v>1970</v>
       </c>
       <c r="B507" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
@@ -6476,7 +6476,7 @@
         <v>1972</v>
       </c>
       <c r="B511" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
@@ -6540,7 +6540,7 @@
         <v>1975</v>
       </c>
       <c r="B519" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
@@ -6564,7 +6564,7 @@
         <v>1975</v>
       </c>
       <c r="B522" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -6604,7 +6604,7 @@
         <v>1977</v>
       </c>
       <c r="B527" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
@@ -6668,7 +6668,7 @@
         <v>1979</v>
       </c>
       <c r="B535" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
@@ -6788,7 +6788,7 @@
         <v>1983</v>
       </c>
       <c r="B550" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
@@ -6812,7 +6812,7 @@
         <v>1983</v>
       </c>
       <c r="B553" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
@@ -6852,7 +6852,7 @@
         <v>1985</v>
       </c>
       <c r="B558" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
@@ -6860,7 +6860,7 @@
         <v>1985</v>
       </c>
       <c r="B559" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
@@ -6908,7 +6908,7 @@
         <v>1986</v>
       </c>
       <c r="B565" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
@@ -6924,7 +6924,7 @@
         <v>1987</v>
       </c>
       <c r="B567" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
@@ -7060,7 +7060,7 @@
         <v>1992</v>
       </c>
       <c r="B584" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
@@ -7372,7 +7372,7 @@
         <v>2007</v>
       </c>
       <c r="B623" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
@@ -7396,7 +7396,7 @@
         <v>2008</v>
       </c>
       <c r="B626" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
@@ -7500,7 +7500,7 @@
         <v>2014</v>
       </c>
       <c r="B639" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
@@ -7508,7 +7508,7 @@
         <v>2014</v>
       </c>
       <c r="B640" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
@@ -7604,7 +7604,7 @@
         <v>2019</v>
       </c>
       <c r="B652" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">

--- a/xlsx/historical_items.xlsx
+++ b/xlsx/historical_items.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_k\work_stuff\historical-transportation-map\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_k\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CA4B8E-35FD-4B59-B99A-154E6CFC1268}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C9255E-30D6-4639-B86E-F527C15AD635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{171EF181-1F3C-7A42-9B63-D835B687641B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="663">
   <si>
     <t>The U.S. capital is moved from Philadelphia to Washington, DC.</t>
   </si>
@@ -1152,9 +1152,6 @@
     <t>The first train passes through the Hoosac Tunnel in Massachusetts.</t>
   </si>
   <si>
-    <t>The Transcontinental Express arrives in San Francisco 83 hours after departing New York City.</t>
-  </si>
-  <si>
     <t>The North British Railway's Tay Bridge across the Firth of Tay in Scotland, is opened to public traffic, making it the longest in the world at that date.</t>
   </si>
   <si>
@@ -1770,6 +1767,9 @@
     <t>First commercial high speed Maglev train starts operation between Shanghai and its airport.</t>
   </si>
   <si>
+    <t>The Oriental Railway Company opens the first section of railway in the Ottoman Empire, from İzmir to Seydiköy.</t>
+  </si>
+  <si>
     <t>Narrow gauge Catskill Mountain Railway opens to carry passengers from Hudson River steamboats to connections at Palenville, New York to the Catskill Mountain House destination resort.</t>
   </si>
   <si>
@@ -1875,6 +1875,9 @@
     <t>The first trains operate in what is now Romania between Oravi&amp;tcedil;a, Transylvania, and Bazia&amp;scedil;, on the Danube.</t>
   </si>
   <si>
+    <t>The Oriental Railway Company is granted the concession to build the first railway in Turkey, from &amp;Iuml;zmir to Aydın.</t>
+  </si>
+  <si>
     <t>New York line-Lenox-Becket-Sandisfield-Connecticut line Massachusetts Turnpike closes.</t>
   </si>
   <si>
@@ -1890,6 +1893,9 @@
     <t>Selandia launched - First ocean-going, diesel engine-driven ship.</t>
   </si>
   <si>
+    <t>The Luftkissengleitboot Hovercraft - First hovering vehicle was created by Dagobert Müller. It could only travel on water.</t>
+  </si>
+  <si>
     <t>The Turkestan-Siberia Railway is completed.</t>
   </si>
   <si>
@@ -1986,13 +1992,28 @@
     <t>The relocated northern portion of the MBTA Orange line opened to Sullivan in April, to Wellington in September, and to Malden in December.</t>
   </si>
   <si>
-    <t>The Oriental Railway Company is granted the concession to build the first railway in Turkey, from &amp;Iuml;zmir to Aydin.</t>
-  </si>
-  <si>
-    <t>The Luftkissengleitboot Hovercraft - First hovering vehicle was created by Dagobert M&amp;uuml;ller. It could only travel on water.</t>
-  </si>
-  <si>
-    <t>The Oriental Railway Company opens the first section of railway in the Ottoman Empire, from &amp;Iuml;zmir to Seydik&amp;ouml;y.</t>
+    <t>Consolidated Rail Corporation (Conrail) took over operation of selected Penn Central Lines.</t>
+  </si>
+  <si>
+    <t>New York Central Railroad and Pennsylvania Railroad merged as Penn Central.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penn Central took over operation of the New Haven Railroad system </t>
+  </si>
+  <si>
+    <t>New York Central Railroad system leased the Boston &amp; Albany Railroad.</t>
+  </si>
+  <si>
+    <t>Boston &amp; Maine Railroad leased the Fitchburg Railroad.</t>
+  </si>
+  <si>
+    <t>Boston, Hartford &amp; Erie Railroad was succeeded by the New York &amp; New England Railroad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boston &amp; Worcester Railroad merged with the Western Railroad, forming the Boston &amp; Albany Railroad. </t>
+  </si>
+  <si>
+    <t>New York &amp; Boston Railroad merged into the Boston, Hartford &amp; Erie Railroad.</t>
   </si>
 </sst>
 </file>
@@ -2379,10 +2400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8479D0E-E3F6-DA41-AEC9-2CE4981D9A6E}">
-  <dimension ref="A1:B656"/>
+  <dimension ref="A1:B663"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B185" sqref="B185"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2436,7 +2457,7 @@
         <v>1800</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2484,7 +2505,7 @@
         <v>1803</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2508,7 +2529,7 @@
         <v>1803</v>
       </c>
       <c r="B15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2532,7 +2553,7 @@
         <v>1804</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2540,7 +2561,7 @@
         <v>1804</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2564,7 +2585,7 @@
         <v>1805</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2572,7 +2593,7 @@
         <v>1805</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2580,7 +2601,7 @@
         <v>1805</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2596,7 +2617,7 @@
         <v>1806</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2620,7 +2641,7 @@
         <v>1807</v>
       </c>
       <c r="B29" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2660,7 +2681,7 @@
         <v>1808</v>
       </c>
       <c r="B34" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2716,7 +2737,7 @@
         <v>1811</v>
       </c>
       <c r="B41" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2724,7 +2745,7 @@
         <v>1811</v>
       </c>
       <c r="B42" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2852,7 +2873,7 @@
         <v>1819</v>
       </c>
       <c r="B58" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2916,7 +2937,7 @@
         <v>1821</v>
       </c>
       <c r="B66" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2932,7 +2953,7 @@
         <v>1822</v>
       </c>
       <c r="B68" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2948,7 +2969,7 @@
         <v>1823</v>
       </c>
       <c r="B70" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2972,7 +2993,7 @@
         <v>1824</v>
       </c>
       <c r="B73" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -3092,7 +3113,7 @@
         <v>1830</v>
       </c>
       <c r="B88" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3140,7 +3161,7 @@
         <v>1831</v>
       </c>
       <c r="B94" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -3220,7 +3241,7 @@
         <v>1833</v>
       </c>
       <c r="B104" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -3244,7 +3265,7 @@
         <v>1834</v>
       </c>
       <c r="B107" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -3300,7 +3321,7 @@
         <v>1836</v>
       </c>
       <c r="B114" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -3460,7 +3481,7 @@
         <v>1841</v>
       </c>
       <c r="B134" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -3572,7 +3593,7 @@
         <v>1846</v>
       </c>
       <c r="B148" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3604,7 +3625,7 @@
         <v>1847</v>
       </c>
       <c r="B152" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3636,7 +3657,7 @@
         <v>1848</v>
       </c>
       <c r="B156" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3644,7 +3665,7 @@
         <v>1848</v>
       </c>
       <c r="B157" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -3748,7 +3769,7 @@
         <v>1854</v>
       </c>
       <c r="B170" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3796,7 +3817,7 @@
         <v>1855</v>
       </c>
       <c r="B176" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3828,7 +3849,7 @@
         <v>1856</v>
       </c>
       <c r="B180" t="s">
-        <v>653</v>
+        <v>616</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3860,7 +3881,7 @@
         <v>1858</v>
       </c>
       <c r="B184" t="s">
-        <v>655</v>
+        <v>580</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3892,7 +3913,7 @@
         <v>1859</v>
       </c>
       <c r="B188" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3956,7 +3977,7 @@
         <v>1863</v>
       </c>
       <c r="B196" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3996,7 +4017,7 @@
         <v>1865</v>
       </c>
       <c r="B201" t="s">
-        <v>369</v>
+        <v>662</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -4004,15 +4025,15 @@
         <v>1865</v>
       </c>
       <c r="B202" t="s">
-        <v>180</v>
+        <v>369</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B203" t="s">
-        <v>370</v>
+        <v>180</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -4020,15 +4041,15 @@
         <v>1866</v>
       </c>
       <c r="B204" t="s">
-        <v>149</v>
+        <v>370</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B205" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -4036,343 +4057,343 @@
         <v>1867</v>
       </c>
       <c r="B206" t="s">
-        <v>150</v>
+        <v>661</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B207" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B208" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B209" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B210" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B211" t="s">
-        <v>617</v>
+        <v>68</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B212" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B213" t="s">
-        <v>371</v>
+        <v>618</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B214" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B215" t="s">
-        <v>69</v>
+        <v>371</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B216" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B217" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B218" t="s">
-        <v>372</v>
+        <v>70</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B219" t="s">
-        <v>154</v>
+        <v>71</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B220" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B221" t="s">
-        <v>374</v>
+        <v>154</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B222" t="s">
-        <v>72</v>
+        <v>373</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B223" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B224" t="s">
-        <v>73</v>
+        <v>660</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="B225" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B226" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B227" t="s">
-        <v>376</v>
+        <v>74</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B228" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B229" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B230" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B231" t="s">
-        <v>75</v>
+        <v>376</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="B232" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B233" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B234" t="s">
-        <v>581</v>
+        <v>377</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B235" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B236" t="s">
-        <v>274</v>
+        <v>581</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B237" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B238" t="s">
-        <v>92</v>
+        <v>274</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="B239" t="s">
-        <v>379</v>
+        <v>77</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B240" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B241" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B242" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B243" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B244" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B245" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B246" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B247" t="s">
-        <v>81</v>
+        <v>381</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B248" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -4380,7 +4401,7 @@
         <v>1889</v>
       </c>
       <c r="B249" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -4388,23 +4409,23 @@
         <v>1889</v>
       </c>
       <c r="B250" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B251" t="s">
-        <v>383</v>
+        <v>83</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B252" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -4412,55 +4433,55 @@
         <v>1890</v>
       </c>
       <c r="B253" t="s">
-        <v>86</v>
+        <v>382</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B254" t="s">
-        <v>385</v>
+        <v>85</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B255" t="s">
-        <v>384</v>
+        <v>86</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B256" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B257" t="s">
-        <v>87</v>
+        <v>383</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B258" t="s">
-        <v>90</v>
+        <v>385</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B259" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -4468,7 +4489,7 @@
         <v>1893</v>
       </c>
       <c r="B260" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -4476,7 +4497,7 @@
         <v>1893</v>
       </c>
       <c r="B261" t="s">
-        <v>582</v>
+        <v>91</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -4484,39 +4505,39 @@
         <v>1893</v>
       </c>
       <c r="B262" t="s">
-        <v>387</v>
+        <v>160</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B263" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B264" t="s">
-        <v>611</v>
+        <v>386</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B265" t="s">
-        <v>88</v>
+        <v>583</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B266" t="s">
-        <v>388</v>
+        <v>611</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -4524,7 +4545,7 @@
         <v>1895</v>
       </c>
       <c r="B267" t="s">
-        <v>389</v>
+        <v>88</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -4532,23 +4553,23 @@
         <v>1895</v>
       </c>
       <c r="B268" t="s">
-        <v>576</v>
+        <v>387</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B269" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B270" t="s">
-        <v>390</v>
+        <v>575</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4556,23 +4577,23 @@
         <v>1896</v>
       </c>
       <c r="B271" t="s">
-        <v>89</v>
+        <v>390</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B272" t="s">
-        <v>109</v>
+        <v>389</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B273" t="s">
-        <v>392</v>
+        <v>89</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -4580,39 +4601,39 @@
         <v>1897</v>
       </c>
       <c r="B274" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B275" t="s">
-        <v>633</v>
+        <v>391</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B276" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B277" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B278" t="s">
-        <v>394</v>
+        <v>111</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -4620,7 +4641,7 @@
         <v>1899</v>
       </c>
       <c r="B279" t="s">
-        <v>393</v>
+        <v>607</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -4628,23 +4649,23 @@
         <v>1899</v>
       </c>
       <c r="B280" t="s">
-        <v>112</v>
+        <v>393</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B281" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B282" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -4652,191 +4673,191 @@
         <v>1900</v>
       </c>
       <c r="B283" t="s">
-        <v>114</v>
+        <v>658</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B284" t="s">
-        <v>618</v>
+        <v>659</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B285" t="s">
-        <v>115</v>
+        <v>394</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="B286" t="s">
-        <v>396</v>
+        <v>113</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="B287" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="B288" t="s">
-        <v>397</v>
+        <v>619</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="B289" t="s">
-        <v>619</v>
+        <v>115</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B290" t="s">
-        <v>117</v>
+        <v>395</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="B291" t="s">
-        <v>398</v>
+        <v>116</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B292" t="s">
-        <v>118</v>
+        <v>396</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B293" t="s">
-        <v>119</v>
+        <v>620</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B294" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B295" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B296" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="B297" t="s">
-        <v>401</v>
+        <v>119</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="B298" t="s">
-        <v>400</v>
+        <v>120</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B299" t="s">
-        <v>121</v>
+        <v>398</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="B300" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B301" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B302" t="s">
-        <v>123</v>
+        <v>399</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="B303" t="s">
-        <v>646</v>
+        <v>121</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B304" t="s">
-        <v>403</v>
+        <v>122</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B305" t="s">
-        <v>165</v>
+        <v>401</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B306" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -4844,103 +4865,103 @@
         <v>1908</v>
       </c>
       <c r="B307" t="s">
-        <v>167</v>
+        <v>648</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B308" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B309" t="s">
-        <v>404</v>
+        <v>165</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B310" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="B311" t="s">
-        <v>406</v>
+        <v>167</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B312" t="s">
-        <v>169</v>
+        <v>404</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="B313" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="B314" t="s">
-        <v>577</v>
+        <v>168</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B315" t="s">
-        <v>620</v>
+        <v>405</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="B316" t="s">
-        <v>408</v>
+        <v>169</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B317" t="s">
-        <v>170</v>
+        <v>406</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B318" t="s">
-        <v>171</v>
+        <v>576</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B319" t="s">
-        <v>172</v>
+        <v>621</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -4948,455 +4969,455 @@
         <v>1912</v>
       </c>
       <c r="B320" t="s">
-        <v>176</v>
+        <v>407</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B321" t="s">
-        <v>409</v>
+        <v>170</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B322" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B323" t="s">
-        <v>587</v>
+        <v>172</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="B324" t="s">
-        <v>410</v>
+        <v>176</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B325" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B326" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="B327" t="s">
-        <v>412</v>
+        <v>587</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B328" t="s">
-        <v>175</v>
+        <v>409</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B329" t="s">
-        <v>654</v>
+        <v>410</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="B330" t="s">
-        <v>648</v>
+        <v>174</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B331" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B332" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B333" t="s">
-        <v>414</v>
+        <v>622</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B334" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B335" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B336" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="B337" t="s">
-        <v>629</v>
+        <v>413</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B338" t="s">
-        <v>416</v>
+        <v>651</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="B339" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="B340" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="B341" t="s">
-        <v>418</v>
+        <v>631</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="B342" t="s">
-        <v>182</v>
+        <v>415</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="B343" t="s">
-        <v>643</v>
+        <v>416</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="B344" t="s">
-        <v>419</v>
+        <v>181</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B345" t="s">
-        <v>588</v>
+        <v>417</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="B346" t="s">
-        <v>420</v>
+        <v>182</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B347" t="s">
-        <v>183</v>
+        <v>645</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="B348" t="s">
-        <v>647</v>
+        <v>418</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="B349" t="s">
-        <v>184</v>
+        <v>588</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B350" t="s">
-        <v>185</v>
+        <v>419</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B351" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B352" t="s">
-        <v>422</v>
+        <v>649</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B353" t="s">
-        <v>421</v>
+        <v>184</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B354" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B355" t="s">
-        <v>424</v>
+        <v>186</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B356" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B357" t="s">
-        <v>188</v>
+        <v>420</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="B358" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="B359" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B360" t="s">
-        <v>190</v>
+        <v>422</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="B361" t="s">
-        <v>426</v>
+        <v>188</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B362" t="s">
-        <v>589</v>
+        <v>189</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="B363" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="B364" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="B365" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="B366" t="s">
-        <v>192</v>
+        <v>589</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="B367" t="s">
-        <v>193</v>
+        <v>426</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="B368" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B369" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="B370" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B371" t="s">
-        <v>634</v>
+        <v>193</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B372" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="B373" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B374" t="s">
-        <v>644</v>
+        <v>195</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B375" t="s">
-        <v>197</v>
+        <v>636</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B376" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -5404,543 +5425,543 @@
         <v>1932</v>
       </c>
       <c r="B377" t="s">
-        <v>199</v>
+        <v>652</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B378" t="s">
-        <v>429</v>
+        <v>646</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B379" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B380" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="B381" t="s">
-        <v>430</v>
+        <v>199</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B382" t="s">
-        <v>202</v>
+        <v>428</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="B383" t="s">
-        <v>432</v>
+        <v>200</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="B384" t="s">
-        <v>431</v>
+        <v>201</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B385" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B386" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B387" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B388" t="s">
-        <v>206</v>
+        <v>430</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="B389" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="B390" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B391" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B392" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B393" t="s">
-        <v>433</v>
+        <v>209</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B394" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="B395" t="s">
-        <v>434</v>
+        <v>207</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="B396" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="B397" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="B398" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B399" t="s">
-        <v>214</v>
+        <v>433</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B400" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B401" t="s">
-        <v>216</v>
+        <v>434</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B402" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B403" t="s">
-        <v>436</v>
+        <v>214</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B404" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B405" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>1942</v>
-      </c>
-      <c r="B406" s="8" t="s">
-        <v>437</v>
+        <v>1941</v>
+      </c>
+      <c r="B406" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>1943</v>
-      </c>
-      <c r="B407" s="8" t="s">
-        <v>439</v>
+        <v>1941</v>
+      </c>
+      <c r="B407" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>1943</v>
-      </c>
-      <c r="B408" s="8" t="s">
-        <v>438</v>
+        <v>1942</v>
+      </c>
+      <c r="B408" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B409" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
-        <v>1944</v>
-      </c>
-      <c r="B411" t="s">
-        <v>221</v>
+        <v>1943</v>
+      </c>
+      <c r="B411" s="8" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
-        <v>1945</v>
-      </c>
-      <c r="B413" s="8" t="s">
-        <v>443</v>
+        <v>1943</v>
+      </c>
+      <c r="B413" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B415" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>1946</v>
-      </c>
-      <c r="B416" t="s">
-        <v>223</v>
+        <v>1945</v>
+      </c>
+      <c r="B416" s="8" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
-        <v>1946</v>
-      </c>
-      <c r="B417" t="s">
-        <v>224</v>
+        <v>1945</v>
+      </c>
+      <c r="B417" s="8" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
-        <v>1946</v>
-      </c>
-      <c r="B418" t="s">
-        <v>225</v>
+        <v>1945</v>
+      </c>
+      <c r="B418" s="8" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="B419" t="s">
-        <v>444</v>
+        <v>222</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B420" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B421" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B422" t="s">
-        <v>445</v>
+        <v>225</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B423" t="s">
-        <v>578</v>
+        <v>443</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B424" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="B425" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="B426" t="s">
-        <v>230</v>
+        <v>444</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B427" t="s">
-        <v>446</v>
+        <v>577</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="B428" t="s">
-        <v>447</v>
+        <v>228</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B429" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="B430" t="s">
-        <v>449</v>
+        <v>230</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="B431" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B432" t="s">
-        <v>232</v>
+        <v>446</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="B433" t="s">
-        <v>450</v>
+        <v>231</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B434" t="s">
-        <v>233</v>
+        <v>448</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="B435" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="B436" t="s">
-        <v>452</v>
+        <v>232</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B437" t="s">
-        <v>234</v>
+        <v>449</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="B438" t="s">
-        <v>453</v>
+        <v>233</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B439" t="s">
-        <v>236</v>
+        <v>450</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B440" t="s">
-        <v>235</v>
+        <v>451</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="B441" t="s">
-        <v>645</v>
+        <v>234</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B442" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B443" t="s">
-        <v>456</v>
+        <v>236</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B444" t="s">
-        <v>454</v>
+        <v>235</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -5948,7 +5969,7 @@
         <v>1955</v>
       </c>
       <c r="B445" t="s">
-        <v>237</v>
+        <v>647</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -5956,71 +5977,71 @@
         <v>1955</v>
       </c>
       <c r="B446" t="s">
-        <v>238</v>
+        <v>454</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B447" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B448" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B449" t="s">
-        <v>459</v>
+        <v>237</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B450" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B451" t="s">
-        <v>622</v>
+        <v>457</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B452" t="s">
-        <v>240</v>
+        <v>456</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B453" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B454" t="s">
-        <v>460</v>
+        <v>239</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -6028,63 +6049,63 @@
         <v>1957</v>
       </c>
       <c r="B455" t="s">
-        <v>241</v>
+        <v>624</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B456" t="s">
-        <v>463</v>
+        <v>240</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B457" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B458" t="s">
-        <v>242</v>
+        <v>459</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="B459" t="s">
-        <v>465</v>
+        <v>241</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B460" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B461" t="s">
-        <v>243</v>
+        <v>461</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B462" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -6092,79 +6113,79 @@
         <v>1959</v>
       </c>
       <c r="B463" t="s">
-        <v>245</v>
+        <v>464</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B464" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B465" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B466" t="s">
-        <v>467</v>
+        <v>244</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B467" t="s">
-        <v>468</v>
+        <v>245</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B468" t="s">
-        <v>247</v>
+        <v>465</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="B469" t="s">
-        <v>639</v>
+        <v>246</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B470" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B471" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B472" t="s">
-        <v>590</v>
+        <v>247</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -6172,7 +6193,7 @@
         <v>1962</v>
       </c>
       <c r="B473" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -6180,151 +6201,151 @@
         <v>1962</v>
       </c>
       <c r="B474" t="s">
-        <v>591</v>
+        <v>469</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B475" t="s">
-        <v>641</v>
+        <v>468</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B476" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B477" t="s">
-        <v>471</v>
+        <v>640</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B478" t="s">
-        <v>472</v>
+        <v>591</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B479" t="s">
-        <v>248</v>
+        <v>643</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B480" t="s">
-        <v>249</v>
+        <v>642</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B481" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B482" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B483" t="s">
-        <v>475</v>
+        <v>248</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B484" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B485" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B486" t="s">
-        <v>251</v>
+        <v>473</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B487" t="s">
-        <v>592</v>
+        <v>474</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B488" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B489" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B490" t="s">
-        <v>477</v>
+        <v>251</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B491" t="s">
-        <v>253</v>
+        <v>592</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B492" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -6332,7 +6353,7 @@
         <v>1967</v>
       </c>
       <c r="B493" t="s">
-        <v>255</v>
+        <v>477</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -6340,7 +6361,7 @@
         <v>1967</v>
       </c>
       <c r="B494" t="s">
-        <v>256</v>
+        <v>476</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -6348,7 +6369,7 @@
         <v>1967</v>
       </c>
       <c r="B495" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -6356,60 +6377,60 @@
         <v>1967</v>
       </c>
       <c r="B496" t="s">
-        <v>593</v>
+        <v>254</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B497" t="s">
-        <v>579</v>
+        <v>255</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B498" t="s">
-        <v>481</v>
+        <v>256</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B499" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B500" t="s">
-        <v>259</v>
+        <v>593</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B501" t="s">
-        <v>260</v>
+        <v>656</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B502" t="s">
-        <v>651</v>
+        <v>578</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B503" t="s">
         <v>480</v>
@@ -6417,1225 +6438,1281 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B504" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B505" t="s">
-        <v>594</v>
+        <v>259</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="B506" t="s">
-        <v>479</v>
+        <v>260</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B507" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="B508" t="s">
-        <v>262</v>
+        <v>653</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="B509" t="s">
-        <v>263</v>
+        <v>479</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="B510" t="s">
-        <v>482</v>
+        <v>261</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="B511" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="B512" t="s">
-        <v>264</v>
+        <v>478</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="B513" t="s">
-        <v>483</v>
+        <v>584</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="B514" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="B515" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="B516" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="B517" t="s">
-        <v>266</v>
+        <v>614</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="B518" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="B519" t="s">
-        <v>652</v>
+        <v>482</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="B520" t="s">
-        <v>485</v>
+        <v>279</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="B521" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B522" t="s">
-        <v>595</v>
+        <v>483</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="B523" t="s">
-        <v>486</v>
+        <v>266</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="B524" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B525" t="s">
-        <v>283</v>
+        <v>654</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B526" t="s">
-        <v>270</v>
+        <v>484</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="B527" t="s">
-        <v>628</v>
+        <v>268</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="B528" t="s">
-        <v>271</v>
+        <v>595</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B529" t="s">
-        <v>272</v>
+        <v>655</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B530" t="s">
-        <v>273</v>
+        <v>485</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B531" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B532" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="B533" t="s">
-        <v>487</v>
+        <v>270</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B534" t="s">
-        <v>277</v>
+        <v>630</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="B535" t="s">
-        <v>585</v>
+        <v>271</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="B536" t="s">
-        <v>488</v>
+        <v>272</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="B537" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="B538" t="s">
-        <v>490</v>
+        <v>275</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="B539" t="s">
-        <v>489</v>
+        <v>276</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="B540" t="s">
-        <v>284</v>
+        <v>486</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="B541" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="B542" t="s">
-        <v>492</v>
+        <v>585</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="B543" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="B544" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B545" t="s">
-        <v>282</v>
+        <v>489</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="B546" t="s">
-        <v>285</v>
+        <v>488</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="B547" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="B548" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B549" t="s">
-        <v>288</v>
+        <v>491</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="B550" t="s">
-        <v>642</v>
+        <v>490</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="B551" t="s">
-        <v>493</v>
+        <v>281</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="B552" t="s">
-        <v>494</v>
+        <v>282</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B553" t="s">
-        <v>635</v>
+        <v>285</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="B554" t="s">
-        <v>496</v>
+        <v>286</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="B555" t="s">
-        <v>495</v>
+        <v>287</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="B556" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B557" t="s">
-        <v>290</v>
+        <v>644</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="B558" t="s">
-        <v>623</v>
+        <v>492</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="B559" t="s">
-        <v>624</v>
+        <v>493</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="B560" t="s">
-        <v>291</v>
+        <v>637</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B561" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B562" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B563" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B564" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B565" t="s">
-        <v>596</v>
+        <v>625</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="B566" t="s">
-        <v>499</v>
+        <v>626</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="B567" t="s">
-        <v>597</v>
+        <v>291</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="B568" t="s">
-        <v>294</v>
+        <v>497</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="B569" t="s">
-        <v>295</v>
+        <v>496</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="B570" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="B571" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="B572" t="s">
-        <v>298</v>
+        <v>596</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="B573" t="s">
-        <v>299</v>
+        <v>498</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="B574" t="s">
-        <v>300</v>
+        <v>597</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="B575" t="s">
-        <v>563</v>
+        <v>294</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="B576" t="s">
-        <v>501</v>
+        <v>295</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="B577" t="s">
-        <v>500</v>
+        <v>296</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="B578" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B579" t="s">
-        <v>502</v>
+        <v>298</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B580" t="s">
-        <v>503</v>
+        <v>299</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B581" t="s">
-        <v>504</v>
+        <v>300</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="B582" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="B583" t="s">
-        <v>327</v>
+        <v>500</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="B584" t="s">
-        <v>636</v>
+        <v>499</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="B585" t="s">
-        <v>506</v>
+        <v>301</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="B586" t="s">
-        <v>326</v>
+        <v>501</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="B587" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="B588" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="B589" t="s">
-        <v>303</v>
+        <v>504</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="B590" t="s">
-        <v>511</v>
+        <v>327</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="B591" t="s">
-        <v>510</v>
+        <v>638</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="B592" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="B593" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="B594" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="B595" t="s">
-        <v>310</v>
+        <v>506</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="B596" t="s">
-        <v>513</v>
+        <v>303</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="B597" t="s">
-        <v>304</v>
+        <v>510</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="B598" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="B599" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="B600" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="B601" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="B602" t="s">
-        <v>516</v>
+        <v>310</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="B603" t="s">
-        <v>306</v>
+        <v>512</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="B604" t="s">
-        <v>518</v>
+        <v>304</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="B605" t="s">
-        <v>311</v>
+        <v>514</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="B606" t="s">
-        <v>568</v>
+        <v>513</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="B607" t="s">
-        <v>569</v>
+        <v>305</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B608" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B609" t="s">
-        <v>313</v>
+        <v>515</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="B610" t="s">
-        <v>520</v>
+        <v>306</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="B611" t="s">
-        <v>308</v>
+        <v>517</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="B612" t="s">
-        <v>564</v>
+        <v>311</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="B613" t="s">
-        <v>521</v>
+        <v>567</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B614" t="s">
-        <v>312</v>
+        <v>568</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B615" t="s">
-        <v>570</v>
+        <v>518</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B616" t="s">
-        <v>522</v>
+        <v>313</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B617" t="s">
-        <v>571</v>
+        <v>519</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B618" t="s">
-        <v>580</v>
+        <v>308</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B619" t="s">
-        <v>523</v>
+        <v>563</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B620" t="s">
-        <v>314</v>
+        <v>520</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="B621" t="s">
-        <v>572</v>
+        <v>312</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B622" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="B623" t="s">
-        <v>625</v>
+        <v>521</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="B624" t="s">
-        <v>315</v>
+        <v>570</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B625" t="s">
-        <v>524</v>
+        <v>579</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="B626" t="s">
-        <v>627</v>
+        <v>522</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="B627" t="s">
-        <v>525</v>
+        <v>314</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="B628" t="s">
-        <v>316</v>
+        <v>571</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B629" t="s">
-        <v>526</v>
+        <v>572</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="B630" t="s">
-        <v>317</v>
+        <v>627</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="B631" t="s">
-        <v>565</v>
+        <v>315</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="B632" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="B633" t="s">
-        <v>318</v>
+        <v>629</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="B634" t="s">
-        <v>574</v>
+        <v>524</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="B635" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="B636" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="B637" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="B638" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="B639" t="s">
-        <v>626</v>
+        <v>526</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="B640" t="s">
-        <v>637</v>
+        <v>318</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="B641" t="s">
-        <v>530</v>
+        <v>573</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="B642" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="B643" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="B644" t="s">
-        <v>531</v>
+        <v>320</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B645" t="s">
-        <v>322</v>
+        <v>528</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B646" t="s">
-        <v>567</v>
+        <v>628</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B647" t="s">
-        <v>566</v>
+        <v>639</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B648" t="s">
-        <v>323</v>
+        <v>529</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B649" t="s">
-        <v>533</v>
+        <v>321</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B650" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B651" t="s">
-        <v>309</v>
+        <v>530</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="B652" t="s">
-        <v>586</v>
+        <v>322</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B653" t="s">
-        <v>324</v>
+        <v>566</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="B654" t="s">
-        <v>535</v>
+        <v>565</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="B655" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B656" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B657" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B658" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B659" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B660" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B661" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B662" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663" s="1">
         <v>2021</v>
       </c>
-      <c r="B656" t="s">
+      <c r="B663" t="s">
         <v>325</v>
       </c>
     </row>

--- a/xlsx/historical_items.xlsx
+++ b/xlsx/historical_items.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_k\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrepp.AD\Desktop\TEMP_June_18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C9255E-30D6-4639-B86E-F527C15AD635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{171EF181-1F3C-7A42-9B63-D835B687641B}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="31125" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="670">
   <si>
     <t>The U.S. capital is moved from Philadelphia to Washington, DC.</t>
   </si>
@@ -96,9 +95,6 @@
     <t>James Weddell reaches the South Pole.</t>
   </si>
   <si>
-    <t>Boston, Massachusetts, is incorporated as a city.</t>
-  </si>
-  <si>
     <t>The Menai Suspension Bridge, considered the world's first modern suspension bridge, connecting the Isle of Anglesey to the north West coast of Wales is opened.</t>
   </si>
   <si>
@@ -231,9 +227,6 @@
     <t>The first traffic lights are installed outside the Palace of Westminster in London.</t>
   </si>
   <si>
-    <t>Boston University is chartered by the Commonwealth of Massachusetts</t>
-  </si>
-  <si>
     <t>US engineer George Brayton patents an internal combustion engine.</t>
   </si>
   <si>
@@ -267,9 +260,6 @@
     <t>The railroads of the Southern United States convert 11,000 miles of track from a five foot rail gauge to standard gauge.</t>
   </si>
   <si>
-    <t>Scottish vet John Boyd Dunlop patents pneumatic bicycle tyre.</t>
-  </si>
-  <si>
     <t>North Dakota becomes 39th state of the Union.</t>
   </si>
   <si>
@@ -333,9 +323,6 @@
     <t>George Stephenson built the first practical steam-powered railway locomotive "Blutcher" at Killingworth Colliery.</t>
   </si>
   <si>
-    <t>Louisiana becomes 18th state of the Union</t>
-  </si>
-  <si>
     <t>Francois Isaac de Rivaz invents the first internal combustion engine using hydrogen as a fuel.</t>
   </si>
   <si>
@@ -360,9 +347,6 @@
     <t>The era of the subway begins when the first underground public transportation in North America opens in Boston, Massachusetts.</t>
   </si>
   <si>
-    <t>Rudolf Diesel of Germany obtains patent for his internal combustion engine, later known as the diesel engine</t>
-  </si>
-  <si>
     <t>Ferdinand von Zeppelin builds the first successful airship.</t>
   </si>
   <si>
@@ -417,9 +401,6 @@
     <t>George Stephenson's "Locomotion No. 1" becomes the First steam locomotive to carry passengers on a public rail line, the Stockton and Darlington Railway in England.</t>
   </si>
   <si>
-    <t>First commercial railroad in US, Baltimore &amp; Ohio (B&amp;O) chartered</t>
-  </si>
-  <si>
     <t>First US swimming school opens (Boston, Massachusetts).</t>
   </si>
   <si>
@@ -729,9 +710,6 @@
     <t>de Havilland Comet first commercial jet air liner.</t>
   </si>
   <si>
-    <t>First west-to-east jet transatlantic nonstop flight</t>
-  </si>
-  <si>
     <t>Chevrolet unveils V-8 engine.</t>
   </si>
   <si>
@@ -912,9 +890,6 @@
     <t>United Airlines Boeing 747SP, circles world in 36h 54m 15s.</t>
   </si>
   <si>
-    <t>Boston's worst traffic jam in 30 years. (Jul 27)</t>
-  </si>
-  <si>
     <t>Union Station reopens in Washington, D.C.</t>
   </si>
   <si>
@@ -1110,9 +1085,6 @@
     <t>Maine Central Railroad predecessor Androscoggin and Kennebec Railroad is completed between Auburn, Maine and Waterville, Maine.</t>
   </si>
   <si>
-    <t>Opening of first railway in Peru, linking the Pacific port of Callao and the capital Lima (13.7 km (8.5 mi) of standard gauge)</t>
-  </si>
-  <si>
     <t>The Staten Island Railway is incorporated.</t>
   </si>
   <si>
@@ -1146,9 +1118,6 @@
     <t>Ballina railway station opens in Ireland.</t>
   </si>
   <si>
-    <t>Official opening of Eads Bridge over the Mississippi River at St. Louis, Missouri, designed by James B. Eads. It is the longest arch bridge in the world at the time</t>
-  </si>
-  <si>
     <t>The first train passes through the Hoosac Tunnel in Massachusetts.</t>
   </si>
   <si>
@@ -1296,9 +1265,6 @@
     <t>A new suspension bridge opens over Niagara Falls, replacing the previous span built in 1855.</t>
   </si>
   <si>
-    <t>Long Island Rail Road 401, the first diesel-electric locomotive used in mainline service, is demonstrated for the first time.</t>
-  </si>
-  <si>
     <t>First electric railway in the Soviet Union opened.</t>
   </si>
   <si>
@@ -1545,9 +1511,6 @@
     <t>California Northern Railroad begins operations.</t>
   </si>
   <si>
-    <t>First commercial Eurostar services Brussels&lt;&gt;London and Paris&lt;&gt;London.</t>
-  </si>
-  <si>
     <t>The Regional Transportation District in Denver, Colorado opens the first line of its light rail system.</t>
   </si>
   <si>
@@ -1848,36 +1811,9 @@
     <t>Becket-Chester-Russell Massachusetts Turnpike closes.</t>
   </si>
   <si>
-    <t>The first section of the Paris M&amp;eacute;tro opens.</t>
-  </si>
-  <si>
-    <t>&amp;Eacute;tienne Lenoir made a gasoline engine automobile.</t>
-  </si>
-  <si>
-    <t>Opening of first railway wholly within Switzerland, the Swiss Northern Railway from Z&amp;uuml;rich to Baden.</t>
-  </si>
-  <si>
     <t>Newcastle and Carlisle Railway opens, the first line across England.</t>
   </si>
   <si>
-    <t>Hildebrand &amp; Wolfm&amp;uuml;ller became the first motorcycle available to the public for purchase.</t>
-  </si>
-  <si>
-    <t>The first railway line in Hungary opens between Pest and V&amp;aacute;c.</t>
-  </si>
-  <si>
-    <t>Opening of first railway in Brazil, running 16 km (9.9 mi) inland from Mau&amp;aacute; on 1,676 mm (5 ft 6.0 in) gauge.</t>
-  </si>
-  <si>
-    <t>S&amp;atilde;o Paulo Metro is inaugurated.</t>
-  </si>
-  <si>
-    <t>The first trains operate in what is now Romania between Oravi&amp;tcedil;a, Transylvania, and Bazia&amp;scedil;, on the Danube.</t>
-  </si>
-  <si>
-    <t>The Oriental Railway Company is granted the concession to build the first railway in Turkey, from &amp;Iuml;zmir to Aydın.</t>
-  </si>
-  <si>
     <t>New York line-Lenox-Becket-Sandisfield-Connecticut line Massachusetts Turnpike closes.</t>
   </si>
   <si>
@@ -1917,9 +1853,6 @@
     <t>Tesla Roadster, first mass production lithium-ion battery electric car.</t>
   </si>
   <si>
-    <t xml:space="preserve">London becomes the first capital city in the world to be directly linked to its international airport by underground railway </t>
-  </si>
-  <si>
     <t>Twin Peaks Tunnel in San Francisco, California, the longest (11,920 feet or 3,630 meters) streetcar tunnel in the world, opens.</t>
   </si>
   <si>
@@ -1929,18 +1862,12 @@
     <t>Douglas-Mendon-Bellingham Massachusetts Turnpike closes.</t>
   </si>
   <si>
-    <t>Gaston Plant&amp;eacute; invented the lead-acid rechargeable battery</t>
-  </si>
-  <si>
     <t>Winton Motor Carriage Company publishes the first known automobile ad in Scientific American using the headline "dispense with a horse."</t>
   </si>
   <si>
     <t>The Boston and Maine Railroad runs its first "Snow Train" for skiers and other winter vacationers.</t>
   </si>
   <si>
-    <t>First Automated guideway transit driverless metro, V&amp;eacute;hicule Automatique L&amp;eacute;ger introduced in Lille M&amp;eacute;tro, France.</t>
-  </si>
-  <si>
     <t>Buses replace streetcars along the Girard Avenue Line in Philadelphia - rail service would not be restored for thirteen years.</t>
   </si>
   <si>
@@ -1950,57 +1877,18 @@
     <t>The Cuban Missile Crisis.</t>
   </si>
   <si>
-    <t>MBTA Green Line tunnel from Boylston Street to the portal at Tremont Street and Broadway is closed in April.</t>
-  </si>
-  <si>
     <t>Los Angeles ends streetcar service after 90 years.</t>
   </si>
   <si>
-    <t>MBTA Green Line relocated to the new Government Center station, and the Adams Square station closed and by-passed in October.</t>
-  </si>
-  <si>
-    <t>The MBTA Quincy Adams station opened as an infill station in October.</t>
-  </si>
-  <si>
-    <t>MBTA Green Line Arlington station opened as an infill station in November.</t>
-  </si>
-  <si>
-    <t>MBTA Green Line extended from portal at Kenmore to new portals at Blandford St. and St. Mary's St. in October.</t>
-  </si>
-  <si>
     <t>MBTA Green Line Science Park station opened as an infill station in August.</t>
   </si>
   <si>
-    <t>MBTA Orange Line Washington Street tunnel opened from Chinatown to Haymarket. (Orange Line trains used the Green Line tunnel from 1901 to 1908.)</t>
-  </si>
-  <si>
-    <t>MBTA Blue Line converted from streetcar to high-platform subway in April, including new underground Maverick station.</t>
-  </si>
-  <si>
-    <t>MBTA Red Line opened from Downtown Crossing to South Station in December.</t>
-  </si>
-  <si>
-    <t>MBTA Red Line opened from South Station to Broadway in December.</t>
-  </si>
-  <si>
-    <t>MBTA Red Line Charles Street station opened as infill station in February.</t>
-  </si>
-  <si>
     <t>MBTA Green Line A branch converted to 57 bus in June.</t>
   </si>
   <si>
-    <t>The relocated northern portion of the MBTA Orange line opened to Sullivan in April, to Wellington in September, and to Malden in December.</t>
-  </si>
-  <si>
     <t>Consolidated Rail Corporation (Conrail) took over operation of selected Penn Central Lines.</t>
   </si>
   <si>
-    <t>New York Central Railroad and Pennsylvania Railroad merged as Penn Central.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penn Central took over operation of the New Haven Railroad system </t>
-  </si>
-  <si>
     <t>New York Central Railroad system leased the Boston &amp; Albany Railroad.</t>
   </si>
   <si>
@@ -2014,12 +1902,144 @@
   </si>
   <si>
     <t>New York &amp; Boston Railroad merged into the Boston, Hartford &amp; Erie Railroad.</t>
+  </si>
+  <si>
+    <t>Étienne Lenoir made a gasoline engine automobile.</t>
+  </si>
+  <si>
+    <t>The first section of the Paris Metro opens.</t>
+  </si>
+  <si>
+    <t>Hildebrand &amp; Wolfmüller became the first motorcycle available to the public for purchase.</t>
+  </si>
+  <si>
+    <t>The first railway line in Hungary opens between Pest and Vác.</t>
+  </si>
+  <si>
+    <t>Opening of first railway wholly within Switzerland, the Swiss Northern Railway from Zürich to Baden.</t>
+  </si>
+  <si>
+    <t>The first trains operate in what is now Romania between Oravița, Transylvania, and Baziaș, on the Danube.</t>
+  </si>
+  <si>
+    <t>Gaston Planté; invented the lead-acid rechargeable battery</t>
+  </si>
+  <si>
+    <t>Long Island Railroad 401, the first diesel-electric locomotive used in mainline service, is demonstrated for the first time.</t>
+  </si>
+  <si>
+    <t>São Paulo Metro is inaugurated.</t>
+  </si>
+  <si>
+    <t>First Automated guideway transit driverless metro, Véhicule Automatique Léger, Lille Metro, France.</t>
+  </si>
+  <si>
+    <t>First commercial Eurostar services Brussels-London and Paris-London.</t>
+  </si>
+  <si>
+    <t>Opening of first railway in Brazil, running 16 km (9.9 mi) inland; on 1,676 mm (5 ft 6.0 in) gauge.</t>
+  </si>
+  <si>
+    <t>The Oriental Railway Company is granted the concession to build the first railway in Turkey, from İzmir to Aydın.</t>
+  </si>
+  <si>
+    <t>Scottish vet John Boyd Dunlop patents pneumatic bicycle tire.</t>
+  </si>
+  <si>
+    <t>Route 3 opened Tremont St., Duxbury to Main St., Kingston</t>
+  </si>
+  <si>
+    <t>Route 2 opened Route 111, Harvard to Route 140, Westminster .</t>
+  </si>
+  <si>
+    <t>Route 24 opened Route 44, Raynham to Route 106, West Bridgewater.</t>
+  </si>
+  <si>
+    <t>Route 24 opened Route 123 to Route 27, Brockton.</t>
+  </si>
+  <si>
+    <t>First west-to-east jet transatlantic nonstop flight.</t>
+  </si>
+  <si>
+    <t>Worcester Turnpike (Route 9) opened Grafton St. Shrewsbury to Framingham.</t>
+  </si>
+  <si>
+    <t>Worcester Turnpike (Route 9) opened Framingham to Natick/Wellesley border.</t>
+  </si>
+  <si>
+    <t>Route 3 south opened Plymouth to Sagamore Bridge.</t>
+  </si>
+  <si>
+    <t>I-95 RI state line-Route 123 Attleboro.</t>
+  </si>
+  <si>
+    <t>I-95 Route 1-Route 123 Attleboro.</t>
+  </si>
+  <si>
+    <t>Route 25 opened Route 28, Middleborough to Route 58, Wareham</t>
+  </si>
+  <si>
+    <t>Route 25 from Route 44, Middleboro to Route 24, Raynham.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York Central Railroad and Pennsylvania Railroad merged as Penn Central </t>
+  </si>
+  <si>
+    <t>Route 25 from Route 58  to Wareham.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boston, Hartford &amp; Erie Railroad took over operation of the Norfolk County Railroad and the Southbridge &amp; Blackstone Railroad. </t>
+  </si>
+  <si>
+    <t>Boston &amp; Lowell Railroad opened  branch from Bedford to North Billerica. Ran for only a few months and was the first two-foot gauge commercial railroad in the U.S.</t>
+  </si>
+  <si>
+    <t>Boston &amp; Maine Railroad leased the Boston &amp; Lowell Railroad system.</t>
+  </si>
+  <si>
+    <t>Boston &amp; Maine Railroad leased the Boston &amp; Lowell Railroad.</t>
+  </si>
+  <si>
+    <t>Old Colony Railroad leased the Boston &amp; Providence Railroad.</t>
+  </si>
+  <si>
+    <t>New York, New Haven &amp; Hartford Railroad (New Haven Railroad) leased the Old Colony Railroad.</t>
+  </si>
+  <si>
+    <t>New York &amp; New England Railroad was reorganized as the New England Railroad.</t>
+  </si>
+  <si>
+    <t>Penn Central took over operation of the New Haven Railroad system.</t>
+  </si>
+  <si>
+    <t>Louisiana becomes 18th state of the Union.</t>
+  </si>
+  <si>
+    <t>First commercial railroad in US, Baltimore &amp; Ohio (B&amp;O) chartered.</t>
+  </si>
+  <si>
+    <t>Opening of first railway in Peru, linking the Pacific port of Callao and the capital Lima (13.7 km (8.5 mi) of standard gauge).</t>
+  </si>
+  <si>
+    <t>Boston University is chartered by the Commonwealth of Massachusetts.</t>
+  </si>
+  <si>
+    <t>Official opening of Eads Bridge over the Mississippi River at St. Louis, Missouri, designed by James B. Eads. It is the longest arch bridge in the world at the time.</t>
+  </si>
+  <si>
+    <t>Rudolf Diesel of Germany obtains patent for his internal combustion engine, later known as the diesel engine.</t>
+  </si>
+  <si>
+    <t>London becomes the first capital city in the world to be directly linked to its international airport by underground railway.</t>
+  </si>
+  <si>
+    <t>Boston's worst traffic jam in 30 years. (Jul 27).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2399,11 +2419,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8479D0E-E3F6-DA41-AEC9-2CE4981D9A6E}">
-  <dimension ref="A1:B663"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView tabSelected="1" topLeftCell="A448" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B675" sqref="B675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2414,10 +2434,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2433,7 +2453,7 @@
         <v>1800</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2441,7 +2461,7 @@
         <v>1800</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2449,7 +2469,7 @@
         <v>1800</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2457,7 +2477,7 @@
         <v>1800</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2465,7 +2485,7 @@
         <v>1801</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2473,7 +2493,7 @@
         <v>1801</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2481,7 +2501,7 @@
         <v>1801</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2489,7 +2509,7 @@
         <v>1802</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2497,7 +2517,7 @@
         <v>1802</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2505,7 +2525,7 @@
         <v>1803</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2513,7 +2533,7 @@
         <v>1803</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2521,7 +2541,7 @@
         <v>1803</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2529,7 +2549,7 @@
         <v>1803</v>
       </c>
       <c r="B15" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2537,7 +2557,7 @@
         <v>1803</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2553,7 +2573,7 @@
         <v>1804</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2561,7 +2581,7 @@
         <v>1804</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2585,7 +2605,7 @@
         <v>1805</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2593,7 +2613,7 @@
         <v>1805</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2601,7 +2621,7 @@
         <v>1805</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2617,7 +2637,7 @@
         <v>1806</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2641,7 +2661,7 @@
         <v>1807</v>
       </c>
       <c r="B29" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2649,7 +2669,7 @@
         <v>1807</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2673,7 +2693,7 @@
         <v>1807</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2681,7 +2701,7 @@
         <v>1808</v>
       </c>
       <c r="B34" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2689,7 +2709,7 @@
         <v>1808</v>
       </c>
       <c r="B35" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2697,7 +2717,7 @@
         <v>1808</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2705,7 +2725,7 @@
         <v>1809</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2721,7 +2741,7 @@
         <v>1809</v>
       </c>
       <c r="B39" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2729,7 +2749,7 @@
         <v>1810</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2737,7 +2757,7 @@
         <v>1811</v>
       </c>
       <c r="B41" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2745,7 +2765,7 @@
         <v>1811</v>
       </c>
       <c r="B42" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2777,7 +2797,7 @@
         <v>1812</v>
       </c>
       <c r="B46" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2785,7 +2805,7 @@
         <v>1812</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>662</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2793,7 +2813,7 @@
         <v>1813</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2801,7 +2821,7 @@
         <v>1814</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2825,7 +2845,7 @@
         <v>1816</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2849,7 +2869,7 @@
         <v>1817</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2857,7 +2877,7 @@
         <v>1818</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2873,7 +2893,7 @@
         <v>1819</v>
       </c>
       <c r="B58" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2889,7 +2909,7 @@
         <v>1819</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2905,7 +2925,7 @@
         <v>1819</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2913,7 +2933,7 @@
         <v>1819</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2921,7 +2941,7 @@
         <v>1820</v>
       </c>
       <c r="B64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2937,7 +2957,7 @@
         <v>1821</v>
       </c>
       <c r="B66" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2945,7 +2965,7 @@
         <v>1821</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2953,15 +2973,15 @@
         <v>1822</v>
       </c>
       <c r="B68" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>530</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2969,7 +2989,7 @@
         <v>1823</v>
       </c>
       <c r="B70" t="s">
-        <v>542</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2977,15 +2997,15 @@
         <v>1823</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="B72" t="s">
-        <v>128</v>
+        <v>546</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2993,15 +3013,15 @@
         <v>1824</v>
       </c>
       <c r="B73" t="s">
-        <v>558</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>324</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -3009,7 +3029,7 @@
         <v>1825</v>
       </c>
       <c r="B75" t="s">
-        <v>332</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -3017,15 +3037,15 @@
         <v>1825</v>
       </c>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -3033,15 +3053,15 @@
         <v>1826</v>
       </c>
       <c r="B78" t="s">
-        <v>333</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B79" t="s">
-        <v>24</v>
+        <v>663</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -3049,15 +3069,15 @@
         <v>1827</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="B81" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -3065,7 +3085,7 @@
         <v>1828</v>
       </c>
       <c r="B82" t="s">
-        <v>25</v>
+        <v>326</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -3073,12 +3093,12 @@
         <v>1828</v>
       </c>
       <c r="B83" t="s">
-        <v>334</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="B84" t="s">
         <v>26</v>
@@ -3089,7 +3109,7 @@
         <v>1829</v>
       </c>
       <c r="B85" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -3097,15 +3117,15 @@
         <v>1829</v>
       </c>
       <c r="B86" t="s">
-        <v>132</v>
+        <v>327</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B87" t="s">
-        <v>335</v>
+        <v>548</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -3113,7 +3133,7 @@
         <v>1830</v>
       </c>
       <c r="B88" t="s">
-        <v>560</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3121,7 +3141,7 @@
         <v>1830</v>
       </c>
       <c r="B89" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -3129,7 +3149,7 @@
         <v>1830</v>
       </c>
       <c r="B90" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -3145,15 +3165,15 @@
         <v>1830</v>
       </c>
       <c r="B92" t="s">
-        <v>29</v>
+        <v>328</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B93" t="s">
-        <v>336</v>
+        <v>545</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -3161,7 +3181,7 @@
         <v>1831</v>
       </c>
       <c r="B94" t="s">
-        <v>557</v>
+        <v>329</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -3169,7 +3189,7 @@
         <v>1831</v>
       </c>
       <c r="B95" t="s">
-        <v>337</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -3177,7 +3197,7 @@
         <v>1831</v>
       </c>
       <c r="B96" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3193,7 +3213,7 @@
         <v>1831</v>
       </c>
       <c r="B98" t="s">
-        <v>31</v>
+        <v>331</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -3201,7 +3221,7 @@
         <v>1831</v>
       </c>
       <c r="B99" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -3209,15 +3229,15 @@
         <v>1831</v>
       </c>
       <c r="B100" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="B101" t="s">
-        <v>340</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -3225,15 +3245,15 @@
         <v>1832</v>
       </c>
       <c r="B102" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B103" t="s">
-        <v>136</v>
+        <v>611</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -3241,7 +3261,7 @@
         <v>1833</v>
       </c>
       <c r="B104" t="s">
-        <v>633</v>
+        <v>333</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -3249,15 +3269,15 @@
         <v>1833</v>
       </c>
       <c r="B105" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B106" t="s">
-        <v>137</v>
+        <v>610</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -3265,7 +3285,7 @@
         <v>1834</v>
       </c>
       <c r="B107" t="s">
-        <v>632</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -3273,15 +3293,15 @@
         <v>1834</v>
       </c>
       <c r="B108" t="s">
-        <v>138</v>
+        <v>334</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B109" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -3289,7 +3309,7 @@
         <v>1835</v>
       </c>
       <c r="B110" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3297,7 +3317,7 @@
         <v>1835</v>
       </c>
       <c r="B111" t="s">
-        <v>344</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -3305,15 +3325,15 @@
         <v>1835</v>
       </c>
       <c r="B112" t="s">
-        <v>32</v>
+        <v>338</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B113" t="s">
-        <v>346</v>
+        <v>547</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -3321,7 +3341,7 @@
         <v>1836</v>
       </c>
       <c r="B114" t="s">
-        <v>559</v>
+        <v>337</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -3329,7 +3349,7 @@
         <v>1836</v>
       </c>
       <c r="B115" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -3337,12 +3357,12 @@
         <v>1836</v>
       </c>
       <c r="B116" t="s">
-        <v>347</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B117" t="s">
         <v>33</v>
@@ -3369,7 +3389,7 @@
         <v>1837</v>
       </c>
       <c r="B120" t="s">
-        <v>36</v>
+        <v>592</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -3377,7 +3397,7 @@
         <v>1837</v>
       </c>
       <c r="B121" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3385,15 +3405,15 @@
         <v>1837</v>
       </c>
       <c r="B122" t="s">
-        <v>605</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B123" t="s">
-        <v>139</v>
+        <v>340</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -3401,7 +3421,7 @@
         <v>1838</v>
       </c>
       <c r="B124" t="s">
-        <v>348</v>
+        <v>595</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3409,15 +3429,15 @@
         <v>1838</v>
       </c>
       <c r="B125" t="s">
-        <v>610</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B126" t="s">
-        <v>42</v>
+        <v>342</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -3425,7 +3445,7 @@
         <v>1839</v>
       </c>
       <c r="B127" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -3433,7 +3453,7 @@
         <v>1839</v>
       </c>
       <c r="B128" t="s">
-        <v>349</v>
+        <v>36</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -3441,7 +3461,7 @@
         <v>1839</v>
       </c>
       <c r="B129" t="s">
-        <v>37</v>
+        <v>344</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -3449,7 +3469,7 @@
         <v>1839</v>
       </c>
       <c r="B130" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -3457,23 +3477,23 @@
         <v>1839</v>
       </c>
       <c r="B131" t="s">
-        <v>351</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B132" t="s">
-        <v>38</v>
+        <v>347</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B133" t="s">
-        <v>355</v>
+        <v>549</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -3481,7 +3501,7 @@
         <v>1841</v>
       </c>
       <c r="B134" t="s">
-        <v>561</v>
+        <v>346</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -3489,15 +3509,15 @@
         <v>1841</v>
       </c>
       <c r="B135" t="s">
-        <v>354</v>
+        <v>42</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B136" t="s">
-        <v>43</v>
+        <v>345</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -3505,15 +3525,15 @@
         <v>1842</v>
       </c>
       <c r="B137" t="s">
-        <v>353</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B138" t="s">
-        <v>140</v>
+        <v>348</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -3521,7 +3541,7 @@
         <v>1843</v>
       </c>
       <c r="B139" t="s">
-        <v>356</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3529,15 +3549,15 @@
         <v>1843</v>
       </c>
       <c r="B140" t="s">
-        <v>44</v>
+        <v>349</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B141" t="s">
-        <v>357</v>
+        <v>594</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3545,15 +3565,15 @@
         <v>1844</v>
       </c>
       <c r="B142" t="s">
-        <v>606</v>
+        <v>91</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B143" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -3574,7 +3594,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B146" t="s">
         <v>47</v>
@@ -3585,7 +3605,7 @@
         <v>1846</v>
       </c>
       <c r="B147" t="s">
-        <v>48</v>
+        <v>526</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3593,7 +3613,7 @@
         <v>1846</v>
       </c>
       <c r="B148" t="s">
-        <v>538</v>
+        <v>629</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3601,7 +3621,7 @@
         <v>1846</v>
       </c>
       <c r="B149" t="s">
-        <v>612</v>
+        <v>350</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3609,15 +3629,15 @@
         <v>1846</v>
       </c>
       <c r="B150" t="s">
-        <v>358</v>
+        <v>630</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B151" t="s">
-        <v>609</v>
+        <v>532</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3625,12 +3645,12 @@
         <v>1847</v>
       </c>
       <c r="B152" t="s">
-        <v>544</v>
+        <v>48</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B153" t="s">
         <v>49</v>
@@ -3649,7 +3669,7 @@
         <v>1848</v>
       </c>
       <c r="B155" t="s">
-        <v>51</v>
+        <v>536</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3657,7 +3677,7 @@
         <v>1848</v>
       </c>
       <c r="B156" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3665,23 +3685,23 @@
         <v>1848</v>
       </c>
       <c r="B157" t="s">
-        <v>546</v>
+        <v>351</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B158" t="s">
-        <v>359</v>
+        <v>135</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="B159" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3689,7 +3709,7 @@
         <v>1850</v>
       </c>
       <c r="B160" t="s">
-        <v>52</v>
+        <v>352</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3697,15 +3717,15 @@
         <v>1850</v>
       </c>
       <c r="B161" t="s">
-        <v>360</v>
+        <v>664</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B162" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -3713,12 +3733,12 @@
         <v>1851</v>
       </c>
       <c r="B163" t="s">
-        <v>362</v>
+        <v>52</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B164" t="s">
         <v>53</v>
@@ -3734,10 +3754,10 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B166" t="s">
-        <v>55</v>
+        <v>354</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -3745,7 +3765,7 @@
         <v>1853</v>
       </c>
       <c r="B167" t="s">
-        <v>363</v>
+        <v>136</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -3753,15 +3773,15 @@
         <v>1853</v>
       </c>
       <c r="B168" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B169" t="s">
-        <v>143</v>
+        <v>538</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -3769,7 +3789,7 @@
         <v>1854</v>
       </c>
       <c r="B170" t="s">
-        <v>550</v>
+        <v>631</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3777,7 +3797,7 @@
         <v>1854</v>
       </c>
       <c r="B171" t="s">
-        <v>615</v>
+        <v>355</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3785,7 +3805,7 @@
         <v>1854</v>
       </c>
       <c r="B172" t="s">
-        <v>364</v>
+        <v>637</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3793,7 +3813,7 @@
         <v>1854</v>
       </c>
       <c r="B173" t="s">
-        <v>613</v>
+        <v>356</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3801,15 +3821,15 @@
         <v>1854</v>
       </c>
       <c r="B174" t="s">
-        <v>365</v>
+        <v>138</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B175" t="s">
-        <v>144</v>
+        <v>596</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -3817,7 +3837,7 @@
         <v>1855</v>
       </c>
       <c r="B176" t="s">
-        <v>617</v>
+        <v>55</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3825,7 +3845,7 @@
         <v>1855</v>
       </c>
       <c r="B177" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -3833,15 +3853,15 @@
         <v>1855</v>
       </c>
       <c r="B178" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B179" t="s">
-        <v>146</v>
+        <v>638</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3849,20 +3869,20 @@
         <v>1856</v>
       </c>
       <c r="B180" t="s">
-        <v>616</v>
+        <v>141</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B181" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B182" t="s">
         <v>57</v>
@@ -3873,7 +3893,7 @@
         <v>1858</v>
       </c>
       <c r="B183" t="s">
-        <v>58</v>
+        <v>568</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -3881,7 +3901,7 @@
         <v>1858</v>
       </c>
       <c r="B184" t="s">
-        <v>580</v>
+        <v>158</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3889,12 +3909,12 @@
         <v>1858</v>
       </c>
       <c r="B185" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B186" t="s">
         <v>59</v>
@@ -3905,7 +3925,7 @@
         <v>1859</v>
       </c>
       <c r="B187" t="s">
-        <v>60</v>
+        <v>632</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3913,15 +3933,15 @@
         <v>1859</v>
       </c>
       <c r="B188" t="s">
-        <v>634</v>
+        <v>142</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B189" t="s">
-        <v>148</v>
+        <v>357</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3929,12 +3949,12 @@
         <v>1860</v>
       </c>
       <c r="B190" t="s">
-        <v>366</v>
+        <v>60</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B191" t="s">
         <v>61</v>
@@ -3953,23 +3973,23 @@
         <v>1861</v>
       </c>
       <c r="B193" t="s">
-        <v>63</v>
+        <v>173</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="B194" t="s">
-        <v>179</v>
+        <v>626</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B195" t="s">
-        <v>608</v>
+        <v>524</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3977,7 +3997,7 @@
         <v>1863</v>
       </c>
       <c r="B196" t="s">
-        <v>536</v>
+        <v>358</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3985,15 +4005,15 @@
         <v>1863</v>
       </c>
       <c r="B197" t="s">
-        <v>367</v>
+        <v>63</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="B198" t="s">
-        <v>64</v>
+        <v>359</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -4001,15 +4021,15 @@
         <v>1864</v>
       </c>
       <c r="B199" t="s">
-        <v>368</v>
+        <v>64</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="B200" t="s">
-        <v>65</v>
+        <v>625</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -4017,7 +4037,7 @@
         <v>1865</v>
       </c>
       <c r="B201" t="s">
-        <v>662</v>
+        <v>360</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -4025,15 +4045,15 @@
         <v>1865</v>
       </c>
       <c r="B202" t="s">
-        <v>369</v>
+        <v>174</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="B203" t="s">
-        <v>180</v>
+        <v>361</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -4041,15 +4061,15 @@
         <v>1866</v>
       </c>
       <c r="B204" t="s">
-        <v>370</v>
+        <v>143</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="B205" t="s">
-        <v>149</v>
+        <v>654</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -4057,7 +4077,7 @@
         <v>1867</v>
       </c>
       <c r="B206" t="s">
-        <v>661</v>
+        <v>624</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -4065,7 +4085,7 @@
         <v>1867</v>
       </c>
       <c r="B207" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -4073,7 +4093,7 @@
         <v>1867</v>
       </c>
       <c r="B208" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -4081,7 +4101,7 @@
         <v>1868</v>
       </c>
       <c r="B209" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -4089,7 +4109,7 @@
         <v>1868</v>
       </c>
       <c r="B210" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -4097,7 +4117,7 @@
         <v>1869</v>
       </c>
       <c r="B211" t="s">
-        <v>68</v>
+        <v>665</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -4105,7 +4125,7 @@
         <v>1869</v>
       </c>
       <c r="B212" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -4113,7 +4133,7 @@
         <v>1870</v>
       </c>
       <c r="B213" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -4121,7 +4141,7 @@
         <v>1870</v>
       </c>
       <c r="B214" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -4129,7 +4149,7 @@
         <v>1871</v>
       </c>
       <c r="B215" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -4137,7 +4157,7 @@
         <v>1871</v>
       </c>
       <c r="B216" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -4145,7 +4165,7 @@
         <v>1872</v>
       </c>
       <c r="B217" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -4153,7 +4173,7 @@
         <v>1872</v>
       </c>
       <c r="B218" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -4161,7 +4181,7 @@
         <v>1873</v>
       </c>
       <c r="B219" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -4169,7 +4189,7 @@
         <v>1873</v>
       </c>
       <c r="B220" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -4177,7 +4197,7 @@
         <v>1874</v>
       </c>
       <c r="B221" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -4185,7 +4205,7 @@
         <v>1874</v>
       </c>
       <c r="B222" t="s">
-        <v>373</v>
+        <v>666</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -4193,7 +4213,7 @@
         <v>1875</v>
       </c>
       <c r="B223" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -4201,7 +4221,7 @@
         <v>1875</v>
       </c>
       <c r="B224" t="s">
-        <v>660</v>
+        <v>623</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -4209,7 +4229,7 @@
         <v>1875</v>
       </c>
       <c r="B225" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -4217,7 +4237,7 @@
         <v>1876</v>
       </c>
       <c r="B226" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -4225,7 +4245,7 @@
         <v>1877</v>
       </c>
       <c r="B227" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -4233,7 +4253,7 @@
         <v>1877</v>
       </c>
       <c r="B228" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -4241,7 +4261,7 @@
         <v>1878</v>
       </c>
       <c r="B229" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -4249,7 +4269,7 @@
         <v>1878</v>
       </c>
       <c r="B230" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -4257,7 +4277,7 @@
         <v>1879</v>
       </c>
       <c r="B231" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -4265,7 +4285,7 @@
         <v>1879</v>
       </c>
       <c r="B232" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -4273,7 +4293,7 @@
         <v>1880</v>
       </c>
       <c r="B233" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -4281,7 +4301,7 @@
         <v>1881</v>
       </c>
       <c r="B234" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -4289,7 +4309,7 @@
         <v>1881</v>
       </c>
       <c r="B235" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -4297,7 +4317,7 @@
         <v>1882</v>
       </c>
       <c r="B236" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -4305,7 +4325,7 @@
         <v>1882</v>
       </c>
       <c r="B237" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -4313,7 +4333,7 @@
         <v>1883</v>
       </c>
       <c r="B238" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -4321,23 +4341,23 @@
         <v>1883</v>
       </c>
       <c r="B239" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B240" t="s">
-        <v>92</v>
+        <v>657</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B241" t="s">
-        <v>378</v>
+        <v>89</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -4345,175 +4365,175 @@
         <v>1885</v>
       </c>
       <c r="B242" t="s">
-        <v>78</v>
+        <v>655</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B243" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B244" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B245" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B246" t="s">
-        <v>159</v>
+        <v>77</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B247" t="s">
-        <v>381</v>
+        <v>656</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B248" t="s">
-        <v>80</v>
+        <v>370</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="B249" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B250" t="s">
-        <v>82</v>
+        <v>658</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B251" t="s">
-        <v>83</v>
+        <v>371</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B252" t="s">
-        <v>84</v>
+        <v>639</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B253" t="s">
-        <v>382</v>
+        <v>78</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B254" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B255" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="B256" t="s">
-        <v>384</v>
+        <v>81</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B257" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="B258" t="s">
-        <v>385</v>
+        <v>82</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="B259" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="B260" t="s">
-        <v>90</v>
+        <v>374</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="B261" t="s">
-        <v>91</v>
+        <v>373</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B262" t="s">
-        <v>160</v>
+        <v>375</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B263" t="s">
-        <v>582</v>
+        <v>84</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -4521,719 +4541,719 @@
         <v>1893</v>
       </c>
       <c r="B264" t="s">
-        <v>386</v>
+        <v>87</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B265" t="s">
-        <v>583</v>
+        <v>88</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B266" t="s">
-        <v>611</v>
+        <v>154</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="B267" t="s">
-        <v>88</v>
+        <v>570</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="B268" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B269" t="s">
-        <v>388</v>
+        <v>571</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B270" t="s">
-        <v>575</v>
+        <v>628</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B271" t="s">
-        <v>390</v>
+        <v>659</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B272" t="s">
-        <v>389</v>
+        <v>660</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B273" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="B274" t="s">
-        <v>109</v>
+        <v>377</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="B275" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="B276" t="s">
-        <v>110</v>
+        <v>563</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B277" t="s">
-        <v>635</v>
+        <v>380</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B278" t="s">
-        <v>111</v>
+        <v>379</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="B279" t="s">
-        <v>607</v>
+        <v>86</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="B280" t="s">
-        <v>393</v>
+        <v>105</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="B281" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="B282" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="B283" t="s">
-        <v>658</v>
+        <v>612</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="B284" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B285" t="s">
-        <v>394</v>
+        <v>627</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B286" t="s">
-        <v>113</v>
+        <v>383</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B287" t="s">
-        <v>114</v>
+        <v>382</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="B288" t="s">
-        <v>619</v>
+        <v>107</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B289" t="s">
-        <v>115</v>
+        <v>621</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="B290" t="s">
-        <v>395</v>
+        <v>622</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="B291" t="s">
-        <v>116</v>
+        <v>384</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="B292" t="s">
-        <v>396</v>
+        <v>108</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="B293" t="s">
-        <v>620</v>
+        <v>109</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="B294" t="s">
-        <v>117</v>
+        <v>598</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="B295" t="s">
-        <v>397</v>
+        <v>110</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="B296" t="s">
-        <v>118</v>
+        <v>385</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="B297" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B298" t="s">
-        <v>120</v>
+        <v>386</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="B299" t="s">
-        <v>398</v>
+        <v>599</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="B300" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="B301" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="B302" t="s">
-        <v>399</v>
+        <v>113</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="B303" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="B304" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="B305" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="B306" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="B307" t="s">
-        <v>648</v>
+        <v>390</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="B308" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="B309" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B310" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B311" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="B312" t="s">
-        <v>404</v>
+        <v>118</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B313" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B314" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="B315" t="s">
-        <v>405</v>
+        <v>160</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="B316" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="B317" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="B318" t="s">
-        <v>576</v>
+        <v>393</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="B319" t="s">
-        <v>621</v>
+        <v>162</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="B320" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="B321" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B322" t="s">
-        <v>171</v>
+        <v>396</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B323" t="s">
-        <v>172</v>
+        <v>564</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B324" t="s">
-        <v>176</v>
+        <v>600</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B325" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B326" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B327" t="s">
-        <v>587</v>
+        <v>165</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="B328" t="s">
-        <v>409</v>
+        <v>166</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="B329" t="s">
-        <v>410</v>
+        <v>170</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B330" t="s">
-        <v>174</v>
+        <v>398</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="B331" t="s">
-        <v>411</v>
+        <v>167</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="B332" t="s">
-        <v>175</v>
+        <v>575</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B333" t="s">
-        <v>622</v>
+        <v>399</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="B334" t="s">
-        <v>650</v>
+        <v>400</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="B335" t="s">
-        <v>412</v>
+        <v>168</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B336" t="s">
-        <v>177</v>
+        <v>401</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B337" t="s">
-        <v>413</v>
+        <v>169</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="B338" t="s">
-        <v>651</v>
+        <v>601</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B339" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B340" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="B341" t="s">
-        <v>631</v>
+        <v>403</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B342" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="B343" t="s">
-        <v>416</v>
+        <v>172</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B344" t="s">
-        <v>181</v>
+        <v>609</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="B345" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B346" t="s">
-        <v>182</v>
+        <v>406</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="B347" t="s">
-        <v>645</v>
+        <v>175</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B348" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B349" t="s">
-        <v>588</v>
+        <v>176</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B350" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B351" t="s">
-        <v>183</v>
+        <v>576</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B352" t="s">
-        <v>649</v>
+        <v>409</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B353" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -5241,7 +5261,7 @@
         <v>1923</v>
       </c>
       <c r="B354" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -5249,15 +5269,15 @@
         <v>1923</v>
       </c>
       <c r="B355" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B356" t="s">
-        <v>421</v>
+        <v>180</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -5265,7 +5285,7 @@
         <v>1924</v>
       </c>
       <c r="B357" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -5273,7 +5293,7 @@
         <v>1924</v>
       </c>
       <c r="B358" t="s">
-        <v>187</v>
+        <v>410</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -5281,15 +5301,15 @@
         <v>1924</v>
       </c>
       <c r="B359" t="s">
-        <v>423</v>
+        <v>181</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B360" t="s">
-        <v>422</v>
+        <v>633</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -5297,15 +5317,15 @@
         <v>1925</v>
       </c>
       <c r="B361" t="s">
-        <v>188</v>
+        <v>412</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B362" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -5313,7 +5333,7 @@
         <v>1926</v>
       </c>
       <c r="B363" t="s">
-        <v>424</v>
+        <v>183</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -5321,15 +5341,15 @@
         <v>1926</v>
       </c>
       <c r="B364" t="s">
-        <v>190</v>
+        <v>413</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B365" t="s">
-        <v>425</v>
+        <v>184</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -5337,15 +5357,15 @@
         <v>1927</v>
       </c>
       <c r="B366" t="s">
-        <v>589</v>
+        <v>414</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B367" t="s">
-        <v>426</v>
+        <v>577</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -5353,15 +5373,15 @@
         <v>1928</v>
       </c>
       <c r="B368" t="s">
-        <v>191</v>
+        <v>415</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B369" t="s">
-        <v>427</v>
+        <v>185</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -5369,15 +5389,15 @@
         <v>1929</v>
       </c>
       <c r="B370" t="s">
-        <v>192</v>
+        <v>416</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B371" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -5385,7 +5405,7 @@
         <v>1930</v>
       </c>
       <c r="B372" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -5393,15 +5413,15 @@
         <v>1930</v>
       </c>
       <c r="B373" t="s">
-        <v>623</v>
+        <v>188</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B374" t="s">
-        <v>195</v>
+        <v>602</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -5409,7 +5429,7 @@
         <v>1931</v>
       </c>
       <c r="B375" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -5417,23 +5437,23 @@
         <v>1931</v>
       </c>
       <c r="B376" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B377" t="s">
-        <v>652</v>
+        <v>613</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B378" t="s">
-        <v>646</v>
+        <v>190</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -5441,7 +5461,7 @@
         <v>1932</v>
       </c>
       <c r="B379" t="s">
-        <v>197</v>
+        <v>646</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -5449,7 +5469,7 @@
         <v>1932</v>
       </c>
       <c r="B380" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -5457,15 +5477,15 @@
         <v>1932</v>
       </c>
       <c r="B381" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B382" t="s">
-        <v>428</v>
+        <v>193</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -5473,7 +5493,7 @@
         <v>1933</v>
       </c>
       <c r="B383" t="s">
-        <v>200</v>
+        <v>417</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -5481,15 +5501,15 @@
         <v>1933</v>
       </c>
       <c r="B384" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B385" t="s">
-        <v>429</v>
+        <v>195</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -5497,15 +5517,15 @@
         <v>1934</v>
       </c>
       <c r="B386" t="s">
-        <v>202</v>
+        <v>418</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B387" t="s">
-        <v>431</v>
+        <v>196</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -5513,7 +5533,7 @@
         <v>1935</v>
       </c>
       <c r="B388" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -5521,7 +5541,7 @@
         <v>1935</v>
       </c>
       <c r="B389" t="s">
-        <v>203</v>
+        <v>419</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -5529,15 +5549,15 @@
         <v>1935</v>
       </c>
       <c r="B390" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B391" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -5545,15 +5565,15 @@
         <v>1936</v>
       </c>
       <c r="B392" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B393" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -5561,7 +5581,7 @@
         <v>1937</v>
       </c>
       <c r="B394" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -5569,7 +5589,7 @@
         <v>1937</v>
       </c>
       <c r="B395" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -5577,15 +5597,15 @@
         <v>1937</v>
       </c>
       <c r="B396" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B397" t="s">
-        <v>432</v>
+        <v>202</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -5593,15 +5613,15 @@
         <v>1938</v>
       </c>
       <c r="B398" t="s">
-        <v>211</v>
+        <v>421</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B399" t="s">
-        <v>433</v>
+        <v>205</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -5609,15 +5629,15 @@
         <v>1939</v>
       </c>
       <c r="B400" t="s">
-        <v>212</v>
+        <v>422</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B401" t="s">
-        <v>434</v>
+        <v>206</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -5625,7 +5645,7 @@
         <v>1940</v>
       </c>
       <c r="B402" t="s">
-        <v>213</v>
+        <v>423</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -5633,7 +5653,7 @@
         <v>1940</v>
       </c>
       <c r="B403" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -5641,15 +5661,15 @@
         <v>1940</v>
       </c>
       <c r="B404" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B405" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -5657,7 +5677,7 @@
         <v>1941</v>
       </c>
       <c r="B406" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -5665,15 +5685,15 @@
         <v>1941</v>
       </c>
       <c r="B407" t="s">
-        <v>435</v>
+        <v>211</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B408" t="s">
-        <v>218</v>
+        <v>424</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -5681,23 +5701,23 @@
         <v>1942</v>
       </c>
       <c r="B409" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>1942</v>
       </c>
-      <c r="B410" s="8" t="s">
-        <v>436</v>
+      <c r="B410" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -5705,39 +5725,39 @@
         <v>1943</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>1943</v>
       </c>
-      <c r="B413" t="s">
-        <v>220</v>
+      <c r="B413" s="8" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
-        <v>1944</v>
-      </c>
-      <c r="B414" s="8" t="s">
-        <v>439</v>
+        <v>1943</v>
+      </c>
+      <c r="B414" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>1944</v>
       </c>
-      <c r="B415" t="s">
-        <v>221</v>
+      <c r="B415" s="8" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>1945</v>
-      </c>
-      <c r="B416" s="8" t="s">
-        <v>441</v>
+        <v>1944</v>
+      </c>
+      <c r="B416" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -5745,7 +5765,7 @@
         <v>1945</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -5753,23 +5773,23 @@
         <v>1945</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>1945</v>
       </c>
-      <c r="B419" t="s">
-        <v>222</v>
+      <c r="B419" s="8" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B420" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -5777,7 +5797,7 @@
         <v>1946</v>
       </c>
       <c r="B421" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -5785,15 +5805,15 @@
         <v>1946</v>
       </c>
       <c r="B422" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B423" t="s">
-        <v>443</v>
+        <v>219</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -5801,7 +5821,7 @@
         <v>1947</v>
       </c>
       <c r="B424" t="s">
-        <v>226</v>
+        <v>432</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -5809,7 +5829,7 @@
         <v>1947</v>
       </c>
       <c r="B425" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -5817,15 +5837,15 @@
         <v>1947</v>
       </c>
       <c r="B426" t="s">
-        <v>444</v>
+        <v>221</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B427" t="s">
-        <v>577</v>
+        <v>433</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -5833,15 +5853,15 @@
         <v>1948</v>
       </c>
       <c r="B428" t="s">
-        <v>228</v>
+        <v>565</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B429" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -5849,7 +5869,7 @@
         <v>1949</v>
       </c>
       <c r="B430" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -5857,15 +5877,15 @@
         <v>1949</v>
       </c>
       <c r="B431" t="s">
-        <v>445</v>
+        <v>224</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B432" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -5873,15 +5893,15 @@
         <v>1950</v>
       </c>
       <c r="B433" t="s">
-        <v>231</v>
+        <v>435</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B434" t="s">
-        <v>448</v>
+        <v>225</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -5889,7 +5909,7 @@
         <v>1951</v>
       </c>
       <c r="B435" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -5897,15 +5917,15 @@
         <v>1951</v>
       </c>
       <c r="B436" t="s">
-        <v>232</v>
+        <v>436</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B437" t="s">
-        <v>449</v>
+        <v>226</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -5913,15 +5933,15 @@
         <v>1952</v>
       </c>
       <c r="B438" t="s">
-        <v>233</v>
+        <v>438</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B439" t="s">
-        <v>450</v>
+        <v>227</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -5929,7 +5949,7 @@
         <v>1953</v>
       </c>
       <c r="B440" t="s">
-        <v>451</v>
+        <v>641</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -5937,55 +5957,55 @@
         <v>1953</v>
       </c>
       <c r="B441" t="s">
-        <v>234</v>
+        <v>642</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B442" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B443" t="s">
-        <v>236</v>
+        <v>440</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B444" t="s">
-        <v>235</v>
+        <v>644</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B445" t="s">
-        <v>647</v>
+        <v>441</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B446" t="s">
-        <v>454</v>
+        <v>229</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B447" t="s">
-        <v>455</v>
+        <v>228</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -5993,7 +6013,7 @@
         <v>1955</v>
       </c>
       <c r="B448" t="s">
-        <v>453</v>
+        <v>640</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -6001,7 +6021,7 @@
         <v>1955</v>
       </c>
       <c r="B449" t="s">
-        <v>237</v>
+        <v>618</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -6009,407 +6029,407 @@
         <v>1955</v>
       </c>
       <c r="B450" t="s">
-        <v>238</v>
+        <v>443</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B451" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B452" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B453" t="s">
-        <v>458</v>
+        <v>230</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B454" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B455" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B456" t="s">
-        <v>240</v>
+        <v>446</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B457" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B458" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B459" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B460" t="s">
-        <v>462</v>
+        <v>603</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B461" t="s">
-        <v>461</v>
+        <v>233</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B462" t="s">
-        <v>242</v>
+        <v>449</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="B463" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="B464" t="s">
-        <v>463</v>
+        <v>234</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B465" t="s">
-        <v>243</v>
+        <v>647</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B466" t="s">
-        <v>244</v>
+        <v>451</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B467" t="s">
-        <v>245</v>
+        <v>450</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="B468" t="s">
-        <v>465</v>
+        <v>235</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B469" t="s">
-        <v>246</v>
+        <v>453</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B470" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B471" t="s">
-        <v>467</v>
+        <v>236</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B472" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="B473" t="s">
-        <v>641</v>
+        <v>238</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="B474" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="B475" t="s">
-        <v>468</v>
+        <v>239</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B476" t="s">
-        <v>590</v>
+        <v>455</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B477" t="s">
-        <v>640</v>
+        <v>456</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B478" t="s">
-        <v>591</v>
+        <v>240</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B479" t="s">
-        <v>643</v>
+        <v>458</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B480" t="s">
-        <v>642</v>
+        <v>457</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B481" t="s">
-        <v>470</v>
+        <v>578</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B482" t="s">
-        <v>471</v>
+        <v>616</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B483" t="s">
-        <v>248</v>
+        <v>579</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B484" t="s">
-        <v>249</v>
+        <v>648</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B485" t="s">
-        <v>472</v>
+        <v>651</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B486" t="s">
-        <v>473</v>
+        <v>617</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B487" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B488" t="s">
-        <v>250</v>
+        <v>649</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="B489" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="B490" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="B491" t="s">
-        <v>592</v>
+        <v>242</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B492" t="s">
-        <v>252</v>
+        <v>461</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B493" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B494" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B495" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B496" t="s">
-        <v>254</v>
+        <v>650</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B497" t="s">
-        <v>255</v>
+        <v>464</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B498" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B499" t="s">
-        <v>257</v>
+        <v>580</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B500" t="s">
-        <v>593</v>
+        <v>245</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -6417,1303 +6437,1359 @@
         <v>1967</v>
       </c>
       <c r="B501" t="s">
-        <v>656</v>
+        <v>466</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B502" t="s">
-        <v>578</v>
+        <v>465</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B503" t="s">
-        <v>480</v>
+        <v>246</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B504" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B505" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B506" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B507" t="s">
-        <v>657</v>
+        <v>250</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B508" t="s">
-        <v>653</v>
+        <v>581</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B509" t="s">
-        <v>479</v>
+        <v>653</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B510" t="s">
-        <v>261</v>
+        <v>652</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B511" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="B512" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="B513" t="s">
-        <v>584</v>
+        <v>251</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="B514" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="B515" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="B516" t="s">
-        <v>481</v>
+        <v>661</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="B517" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="B518" t="s">
-        <v>264</v>
+        <v>468</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
-        <v>1973</v>
+        <v>1969</v>
       </c>
       <c r="B519" t="s">
-        <v>482</v>
+        <v>254</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
-        <v>1973</v>
+        <v>1969</v>
       </c>
       <c r="B520" t="s">
-        <v>279</v>
+        <v>582</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="B521" t="s">
-        <v>265</v>
+        <v>467</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
-        <v>1974</v>
+        <v>1970</v>
       </c>
       <c r="B522" t="s">
-        <v>483</v>
+        <v>572</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="B523" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="B524" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="B525" t="s">
-        <v>654</v>
+        <v>470</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="B526" t="s">
-        <v>484</v>
+        <v>634</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="B527" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="B528" t="s">
-        <v>595</v>
+        <v>471</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="B529" t="s">
-        <v>655</v>
+        <v>272</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="B530" t="s">
-        <v>485</v>
+        <v>258</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="B531" t="s">
-        <v>269</v>
+        <v>472</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="B532" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="B533" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="B534" t="s">
-        <v>630</v>
+        <v>473</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="B535" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="B536" t="s">
-        <v>272</v>
+        <v>583</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B537" t="s">
-        <v>273</v>
+        <v>620</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B538" t="s">
-        <v>275</v>
+        <v>474</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B539" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="B540" t="s">
-        <v>486</v>
+        <v>276</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="B541" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="B542" t="s">
-        <v>585</v>
+        <v>668</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="B543" t="s">
-        <v>487</v>
+        <v>264</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="B544" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="B545" t="s">
-        <v>489</v>
+        <v>266</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="B546" t="s">
-        <v>488</v>
+        <v>268</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="B547" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="B548" t="s">
-        <v>280</v>
+        <v>475</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="B549" t="s">
-        <v>491</v>
+        <v>270</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="B550" t="s">
-        <v>490</v>
+        <v>573</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="B551" t="s">
-        <v>281</v>
+        <v>476</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="B552" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="B553" t="s">
-        <v>285</v>
+        <v>478</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="B554" t="s">
-        <v>286</v>
+        <v>477</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="B555" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="B556" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="B557" t="s">
-        <v>644</v>
+        <v>480</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="B558" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="B559" t="s">
-        <v>493</v>
+        <v>274</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="B560" t="s">
-        <v>637</v>
+        <v>275</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="B561" t="s">
-        <v>495</v>
+        <v>278</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="B562" t="s">
-        <v>494</v>
+        <v>279</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="B563" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="B564" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="B565" t="s">
-        <v>625</v>
+        <v>481</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="B566" t="s">
-        <v>626</v>
+        <v>482</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="B567" t="s">
-        <v>291</v>
+        <v>635</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B568" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B569" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B570" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B571" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B572" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="B573" t="s">
-        <v>498</v>
+        <v>605</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="B574" t="s">
-        <v>597</v>
+        <v>284</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="B575" t="s">
-        <v>294</v>
+        <v>486</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="B576" t="s">
-        <v>295</v>
+        <v>485</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="B577" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="B578" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="B579" t="s">
-        <v>298</v>
+        <v>584</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="B580" t="s">
-        <v>299</v>
+        <v>487</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="B581" t="s">
-        <v>300</v>
+        <v>585</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="B582" t="s">
-        <v>562</v>
+        <v>287</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="B583" t="s">
-        <v>500</v>
+        <v>669</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="B584" t="s">
-        <v>499</v>
+        <v>288</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="B585" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B586" t="s">
-        <v>501</v>
+        <v>290</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B587" t="s">
-        <v>502</v>
+        <v>291</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B588" t="s">
-        <v>503</v>
+        <v>292</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="B589" t="s">
-        <v>504</v>
+        <v>550</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="B590" t="s">
-        <v>327</v>
+        <v>489</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="B591" t="s">
-        <v>638</v>
+        <v>488</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="B592" t="s">
-        <v>505</v>
+        <v>293</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="B593" t="s">
-        <v>326</v>
+        <v>490</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="B594" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="B595" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="B596" t="s">
-        <v>303</v>
+        <v>493</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="B597" t="s">
-        <v>510</v>
+        <v>319</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="B598" t="s">
-        <v>509</v>
+        <v>614</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="B599" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="B600" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="B601" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="B602" t="s">
-        <v>310</v>
+        <v>636</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="B603" t="s">
-        <v>512</v>
+        <v>295</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="B604" t="s">
-        <v>304</v>
+        <v>498</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="B605" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="B606" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="B607" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="B608" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="B609" t="s">
-        <v>515</v>
+        <v>302</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="B610" t="s">
-        <v>306</v>
+        <v>500</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="B611" t="s">
-        <v>517</v>
+        <v>296</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="B612" t="s">
-        <v>311</v>
+        <v>502</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="B613" t="s">
-        <v>567</v>
+        <v>501</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="B614" t="s">
-        <v>568</v>
+        <v>297</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B615" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B616" t="s">
-        <v>313</v>
+        <v>503</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="B617" t="s">
-        <v>519</v>
+        <v>298</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="B618" t="s">
-        <v>308</v>
+        <v>505</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="B619" t="s">
-        <v>563</v>
+        <v>303</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="B620" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B621" t="s">
-        <v>312</v>
+        <v>556</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B622" t="s">
-        <v>569</v>
+        <v>506</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B623" t="s">
-        <v>521</v>
+        <v>305</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B624" t="s">
-        <v>570</v>
+        <v>507</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B625" t="s">
-        <v>579</v>
+        <v>300</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B626" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B627" t="s">
-        <v>314</v>
+        <v>508</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="B628" t="s">
-        <v>571</v>
+        <v>304</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B629" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="B630" t="s">
-        <v>627</v>
+        <v>509</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="B631" t="s">
-        <v>315</v>
+        <v>558</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B632" t="s">
-        <v>523</v>
+        <v>567</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="B633" t="s">
-        <v>629</v>
+        <v>510</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="B634" t="s">
-        <v>524</v>
+        <v>306</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="B635" t="s">
-        <v>316</v>
+        <v>559</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B636" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="B637" t="s">
-        <v>317</v>
+        <v>606</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="B638" t="s">
-        <v>564</v>
+        <v>307</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="B639" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="B640" t="s">
-        <v>318</v>
+        <v>608</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="B641" t="s">
-        <v>573</v>
+        <v>512</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="B642" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="B643" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="B644" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="B645" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="B646" t="s">
-        <v>628</v>
+        <v>514</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="B647" t="s">
-        <v>639</v>
+        <v>310</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="B648" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="B649" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="B650" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="B651" t="s">
-        <v>530</v>
+        <v>312</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B652" t="s">
-        <v>322</v>
+        <v>516</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B653" t="s">
-        <v>566</v>
+        <v>607</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B654" t="s">
-        <v>565</v>
+        <v>615</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B655" t="s">
-        <v>323</v>
+        <v>517</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B656" t="s">
-        <v>532</v>
+        <v>313</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B657" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B658" t="s">
-        <v>309</v>
+        <v>518</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="B659" t="s">
-        <v>586</v>
+        <v>314</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B660" t="s">
-        <v>324</v>
+        <v>554</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="B661" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="B662" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B663" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B664" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A665" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B665" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A666" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B666" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A667" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B667" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A668" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B668" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A669" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B669" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A670" s="1">
         <v>2021</v>
       </c>
-      <c r="B663" t="s">
-        <v>325</v>
+      <c r="B670" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/historical_items.xlsx
+++ b/xlsx/historical_items.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrepp.AD\Desktop\TEMP_June_18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kend/Documents/General Maps/Time Line/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13ACBF9-203D-014F-BECF-0A9E436F3921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="31125" windowHeight="15600"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31120" windowHeight="15600" xr2:uid="{171EF181-1F3C-7A42-9B63-D835B687641B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1730,9 +1731,6 @@
     <t>First commercial high speed Maglev train starts operation between Shanghai and its airport.</t>
   </si>
   <si>
-    <t>The Oriental Railway Company opens the first section of railway in the Ottoman Empire, from İzmir to Seydiköy.</t>
-  </si>
-  <si>
     <t>Narrow gauge Catskill Mountain Railway opens to carry passengers from Hudson River steamboats to connections at Palenville, New York to the Catskill Mountain House destination resort.</t>
   </si>
   <si>
@@ -1829,9 +1827,6 @@
     <t>Selandia launched - First ocean-going, diesel engine-driven ship.</t>
   </si>
   <si>
-    <t>The Luftkissengleitboot Hovercraft - First hovering vehicle was created by Dagobert Müller. It could only travel on water.</t>
-  </si>
-  <si>
     <t>The Turkestan-Siberia Railway is completed.</t>
   </si>
   <si>
@@ -1904,45 +1899,24 @@
     <t>New York &amp; Boston Railroad merged into the Boston, Hartford &amp; Erie Railroad.</t>
   </si>
   <si>
-    <t>Étienne Lenoir made a gasoline engine automobile.</t>
-  </si>
-  <si>
     <t>The first section of the Paris Metro opens.</t>
   </si>
   <si>
-    <t>Hildebrand &amp; Wolfmüller became the first motorcycle available to the public for purchase.</t>
-  </si>
-  <si>
-    <t>The first railway line in Hungary opens between Pest and Vác.</t>
-  </si>
-  <si>
     <t>Opening of first railway wholly within Switzerland, the Swiss Northern Railway from Zürich to Baden.</t>
   </si>
   <si>
     <t>The first trains operate in what is now Romania between Oravița, Transylvania, and Baziaș, on the Danube.</t>
   </si>
   <si>
-    <t>Gaston Planté; invented the lead-acid rechargeable battery</t>
-  </si>
-  <si>
     <t>Long Island Railroad 401, the first diesel-electric locomotive used in mainline service, is demonstrated for the first time.</t>
   </si>
   <si>
-    <t>São Paulo Metro is inaugurated.</t>
-  </si>
-  <si>
-    <t>First Automated guideway transit driverless metro, Véhicule Automatique Léger, Lille Metro, France.</t>
-  </si>
-  <si>
     <t>First commercial Eurostar services Brussels-London and Paris-London.</t>
   </si>
   <si>
     <t>Opening of first railway in Brazil, running 16 km (9.9 mi) inland; on 1,676 mm (5 ft 6.0 in) gauge.</t>
   </si>
   <si>
-    <t>The Oriental Railway Company is granted the concession to build the first railway in Turkey, from İzmir to Aydın.</t>
-  </si>
-  <si>
     <t>Scottish vet John Boyd Dunlop patents pneumatic bicycle tire.</t>
   </si>
   <si>
@@ -2034,12 +2008,39 @@
   </si>
   <si>
     <t>Boston's worst traffic jam in 30 years. (Jul 27).</t>
+  </si>
+  <si>
+    <t>The Oriental Railway Company opens the first section of railway in the Ottoman Empire, from Izmir to Seydikoy.</t>
+  </si>
+  <si>
+    <t>The Oriental Railway Company is granted the concession to build the first railway in Turkey, from Izmir to Aydin.</t>
+  </si>
+  <si>
+    <t>Gaston Plante; invented the lead-acid rechargeable battery</t>
+  </si>
+  <si>
+    <t>Etienne Lenoir made a gasoline engine automobile.</t>
+  </si>
+  <si>
+    <t>The first railway line in Hungary opens between Pest and Vac.</t>
+  </si>
+  <si>
+    <t>Hildebrand &amp; Wolfmuller became the first motorcycle available to the public for purchase.</t>
+  </si>
+  <si>
+    <t>The Luftkissengleitboot Hovercraft - First hovering vehicle was created by Dagobert Muller. It could only travel on water.</t>
+  </si>
+  <si>
+    <t>Sao Paulo Metro is inaugurated.</t>
+  </si>
+  <si>
+    <t>First Automated guideway transit driverless metro, Vehicule Automatique Leger, Lille Metro, France.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2419,28 +2420,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8479D0E-E3F6-DA41-AEC9-2CE4981D9A6E}">
   <dimension ref="A1:B670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A448" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B675" sqref="B675"/>
+    <sheetView tabSelected="1" topLeftCell="A548" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="B567" sqref="B567"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1"/>
-    <col min="2" max="2" width="134.375" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="134.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1800</v>
       </c>
@@ -2448,31 +2449,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1800</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1800</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1800</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>1800</v>
       </c>
@@ -2480,15 +2481,15 @@
         <v>562</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>1801</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1801</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>1801</v>
       </c>
@@ -2504,7 +2505,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>1802</v>
       </c>
@@ -2512,7 +2513,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>1802</v>
       </c>
@@ -2520,7 +2521,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>1803</v>
       </c>
@@ -2528,7 +2529,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>1803</v>
       </c>
@@ -2536,7 +2537,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>1803</v>
       </c>
@@ -2544,7 +2545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1803</v>
       </c>
@@ -2552,7 +2553,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>1803</v>
       </c>
@@ -2560,7 +2561,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1803</v>
       </c>
@@ -2568,7 +2569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1804</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1804</v>
       </c>
@@ -2584,7 +2585,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1804</v>
       </c>
@@ -2592,7 +2593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1804</v>
       </c>
@@ -2600,7 +2601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1805</v>
       </c>
@@ -2608,7 +2609,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1805</v>
       </c>
@@ -2616,7 +2617,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>1805</v>
       </c>
@@ -2624,7 +2625,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1805</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>1806</v>
       </c>
@@ -2640,7 +2641,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>1806</v>
       </c>
@@ -2648,7 +2649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>1806</v>
       </c>
@@ -2656,7 +2657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>1807</v>
       </c>
@@ -2664,7 +2665,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>1807</v>
       </c>
@@ -2672,7 +2673,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>1807</v>
       </c>
@@ -2680,7 +2681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>1807</v>
       </c>
@@ -2688,7 +2689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>1807</v>
       </c>
@@ -2696,7 +2697,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>1808</v>
       </c>
@@ -2704,7 +2705,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>1808</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>1808</v>
       </c>
@@ -2720,7 +2721,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>1809</v>
       </c>
@@ -2728,7 +2729,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>1809</v>
       </c>
@@ -2736,7 +2737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>1809</v>
       </c>
@@ -2744,7 +2745,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>1810</v>
       </c>
@@ -2752,7 +2753,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>1811</v>
       </c>
@@ -2760,7 +2761,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>1811</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>1811</v>
       </c>
@@ -2776,7 +2777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>1812</v>
       </c>
@@ -2784,7 +2785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>1812</v>
       </c>
@@ -2792,7 +2793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>1812</v>
       </c>
@@ -2800,15 +2801,15 @@
         <v>323</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>1812</v>
       </c>
       <c r="B47" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>1813</v>
       </c>
@@ -2816,7 +2817,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>1814</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>1814</v>
       </c>
@@ -2832,7 +2833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>1815</v>
       </c>
@@ -2840,7 +2841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>1816</v>
       </c>
@@ -2848,7 +2849,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>1817</v>
       </c>
@@ -2856,7 +2857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>1817</v>
       </c>
@@ -2864,7 +2865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>1817</v>
       </c>
@@ -2872,7 +2873,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>1818</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>1818</v>
       </c>
@@ -2888,7 +2889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>1819</v>
       </c>
@@ -2896,7 +2897,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>1819</v>
       </c>
@@ -2904,7 +2905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>1819</v>
       </c>
@@ -2912,7 +2913,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>1819</v>
       </c>
@@ -2920,7 +2921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>1819</v>
       </c>
@@ -2928,7 +2929,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>1819</v>
       </c>
@@ -2936,7 +2937,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>1820</v>
       </c>
@@ -2944,7 +2945,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>1820</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>1821</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>1821</v>
       </c>
@@ -2968,7 +2969,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>1822</v>
       </c>
@@ -2976,7 +2977,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>1823</v>
       </c>
@@ -2984,7 +2985,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>1823</v>
       </c>
@@ -2992,7 +2993,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>1823</v>
       </c>
@@ -3000,7 +3001,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>1824</v>
       </c>
@@ -3008,7 +3009,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>1824</v>
       </c>
@@ -3016,7 +3017,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>1825</v>
       </c>
@@ -3024,7 +3025,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>1825</v>
       </c>
@@ -3032,7 +3033,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>1825</v>
       </c>
@@ -3040,7 +3041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>1826</v>
       </c>
@@ -3048,7 +3049,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>1826</v>
       </c>
@@ -3056,15 +3057,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>1827</v>
       </c>
       <c r="B79" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>1827</v>
       </c>
@@ -3072,7 +3073,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>1828</v>
       </c>
@@ -3080,7 +3081,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>1828</v>
       </c>
@@ -3088,7 +3089,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>1828</v>
       </c>
@@ -3096,7 +3097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>1829</v>
       </c>
@@ -3104,7 +3105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>1829</v>
       </c>
@@ -3112,7 +3113,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>1829</v>
       </c>
@@ -3120,7 +3121,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>1830</v>
       </c>
@@ -3128,7 +3129,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>1830</v>
       </c>
@@ -3136,7 +3137,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>1830</v>
       </c>
@@ -3144,7 +3145,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>1830</v>
       </c>
@@ -3152,7 +3153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>1830</v>
       </c>
@@ -3160,7 +3161,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>1830</v>
       </c>
@@ -3168,7 +3169,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>1831</v>
       </c>
@@ -3176,7 +3177,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>1831</v>
       </c>
@@ -3184,7 +3185,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>1831</v>
       </c>
@@ -3192,7 +3193,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>1831</v>
       </c>
@@ -3200,7 +3201,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>1831</v>
       </c>
@@ -3208,7 +3209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>1831</v>
       </c>
@@ -3216,7 +3217,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>1831</v>
       </c>
@@ -3224,7 +3225,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>1831</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>1832</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>1832</v>
       </c>
@@ -3248,15 +3249,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>1833</v>
       </c>
       <c r="B103" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>1833</v>
       </c>
@@ -3264,7 +3265,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>1833</v>
       </c>
@@ -3272,15 +3273,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>1834</v>
       </c>
       <c r="B106" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>1834</v>
       </c>
@@ -3288,7 +3289,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>1834</v>
       </c>
@@ -3296,7 +3297,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>1835</v>
       </c>
@@ -3304,7 +3305,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>1835</v>
       </c>
@@ -3312,7 +3313,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>1835</v>
       </c>
@@ -3320,7 +3321,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>1835</v>
       </c>
@@ -3328,7 +3329,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>1836</v>
       </c>
@@ -3336,7 +3337,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>1836</v>
       </c>
@@ -3344,7 +3345,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>1836</v>
       </c>
@@ -3352,7 +3353,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>1836</v>
       </c>
@@ -3360,7 +3361,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>1837</v>
       </c>
@@ -3368,7 +3369,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>1837</v>
       </c>
@@ -3376,7 +3377,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>1837</v>
       </c>
@@ -3384,23 +3385,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>1837</v>
       </c>
       <c r="B120" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>1837</v>
       </c>
       <c r="B121" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>1837</v>
       </c>
@@ -3408,7 +3409,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>1838</v>
       </c>
@@ -3416,15 +3417,15 @@
         <v>340</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>1838</v>
       </c>
       <c r="B124" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>1838</v>
       </c>
@@ -3432,7 +3433,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>1839</v>
       </c>
@@ -3440,7 +3441,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>1839</v>
       </c>
@@ -3448,7 +3449,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>1839</v>
       </c>
@@ -3456,7 +3457,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>1839</v>
       </c>
@@ -3464,7 +3465,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>1839</v>
       </c>
@@ -3472,7 +3473,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>1839</v>
       </c>
@@ -3480,7 +3481,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>1840</v>
       </c>
@@ -3488,7 +3489,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>1841</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>1841</v>
       </c>
@@ -3504,7 +3505,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>1841</v>
       </c>
@@ -3512,7 +3513,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>1842</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>1842</v>
       </c>
@@ -3528,7 +3529,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>1843</v>
       </c>
@@ -3536,7 +3537,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>1843</v>
       </c>
@@ -3544,7 +3545,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>1843</v>
       </c>
@@ -3552,15 +3553,15 @@
         <v>349</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>1844</v>
       </c>
       <c r="B141" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>1844</v>
       </c>
@@ -3568,7 +3569,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>1845</v>
       </c>
@@ -3576,7 +3577,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>1845</v>
       </c>
@@ -3584,7 +3585,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>1845</v>
       </c>
@@ -3592,7 +3593,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>1846</v>
       </c>
@@ -3600,7 +3601,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>1846</v>
       </c>
@@ -3608,15 +3609,15 @@
         <v>526</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>1846</v>
       </c>
       <c r="B148" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>1846</v>
       </c>
@@ -3624,15 +3625,15 @@
         <v>350</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>1846</v>
       </c>
       <c r="B150" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>1847</v>
       </c>
@@ -3640,7 +3641,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>1847</v>
       </c>
@@ -3648,7 +3649,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>1848</v>
       </c>
@@ -3656,7 +3657,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>1848</v>
       </c>
@@ -3664,7 +3665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>1848</v>
       </c>
@@ -3672,7 +3673,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>1848</v>
       </c>
@@ -3680,7 +3681,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>1848</v>
       </c>
@@ -3688,7 +3689,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>1849</v>
       </c>
@@ -3696,7 +3697,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>1850</v>
       </c>
@@ -3704,7 +3705,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>1850</v>
       </c>
@@ -3712,15 +3713,15 @@
         <v>352</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>1850</v>
       </c>
       <c r="B161" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>1851</v>
       </c>
@@ -3728,7 +3729,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>1851</v>
       </c>
@@ -3736,7 +3737,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>1852</v>
       </c>
@@ -3744,7 +3745,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>1852</v>
       </c>
@@ -3752,7 +3753,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>1853</v>
       </c>
@@ -3760,7 +3761,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>1853</v>
       </c>
@@ -3768,7 +3769,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>1853</v>
       </c>
@@ -3776,7 +3777,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>1854</v>
       </c>
@@ -3784,15 +3785,15 @@
         <v>538</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>1854</v>
       </c>
       <c r="B170" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>1854</v>
       </c>
@@ -3800,15 +3801,15 @@
         <v>355</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>1854</v>
       </c>
       <c r="B172" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>1854</v>
       </c>
@@ -3816,7 +3817,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>1854</v>
       </c>
@@ -3824,15 +3825,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>1855</v>
       </c>
       <c r="B175" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>1855</v>
       </c>
@@ -3840,7 +3841,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>1855</v>
       </c>
@@ -3848,7 +3849,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>1855</v>
       </c>
@@ -3856,15 +3857,15 @@
         <v>140</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>1856</v>
       </c>
       <c r="B179" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>1856</v>
       </c>
@@ -3872,7 +3873,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>1857</v>
       </c>
@@ -3880,7 +3881,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>1858</v>
       </c>
@@ -3888,15 +3889,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>1858</v>
       </c>
       <c r="B183" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>1858</v>
       </c>
@@ -3904,7 +3905,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>1858</v>
       </c>
@@ -3912,7 +3913,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>1859</v>
       </c>
@@ -3920,15 +3921,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>1859</v>
       </c>
       <c r="B187" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>1859</v>
       </c>
@@ -3936,7 +3937,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>1860</v>
       </c>
@@ -3944,7 +3945,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>1860</v>
       </c>
@@ -3952,7 +3953,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>1861</v>
       </c>
@@ -3960,7 +3961,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>1861</v>
       </c>
@@ -3968,7 +3969,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>1861</v>
       </c>
@@ -3976,15 +3977,15 @@
         <v>173</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>1862</v>
       </c>
       <c r="B194" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>1863</v>
       </c>
@@ -3992,7 +3993,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>1863</v>
       </c>
@@ -4000,7 +4001,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>1863</v>
       </c>
@@ -4008,7 +4009,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>1864</v>
       </c>
@@ -4016,7 +4017,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>1864</v>
       </c>
@@ -4024,15 +4025,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>1865</v>
       </c>
       <c r="B200" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>1865</v>
       </c>
@@ -4040,7 +4041,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>1865</v>
       </c>
@@ -4048,7 +4049,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>1866</v>
       </c>
@@ -4056,7 +4057,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>1866</v>
       </c>
@@ -4064,23 +4065,23 @@
         <v>143</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>1867</v>
       </c>
       <c r="B205" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>1867</v>
       </c>
       <c r="B206" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>1867</v>
       </c>
@@ -4088,7 +4089,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>1867</v>
       </c>
@@ -4096,7 +4097,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>1868</v>
       </c>
@@ -4104,7 +4105,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>1868</v>
       </c>
@@ -4112,15 +4113,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>1869</v>
       </c>
       <c r="B211" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>1869</v>
       </c>
@@ -4128,15 +4129,15 @@
         <v>145</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>1870</v>
       </c>
       <c r="B213" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>1870</v>
       </c>
@@ -4144,7 +4145,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>1871</v>
       </c>
@@ -4152,7 +4153,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>1871</v>
       </c>
@@ -4160,7 +4161,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>1872</v>
       </c>
@@ -4168,7 +4169,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>1872</v>
       </c>
@@ -4176,7 +4177,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>1873</v>
       </c>
@@ -4184,7 +4185,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>1873</v>
       </c>
@@ -4192,7 +4193,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>1874</v>
       </c>
@@ -4200,15 +4201,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>1874</v>
       </c>
       <c r="B222" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>1875</v>
       </c>
@@ -4216,15 +4217,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>1875</v>
       </c>
       <c r="B224" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>1875</v>
       </c>
@@ -4232,7 +4233,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>1876</v>
       </c>
@@ -4240,7 +4241,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>1877</v>
       </c>
@@ -4248,7 +4249,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>1877</v>
       </c>
@@ -4256,7 +4257,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>1878</v>
       </c>
@@ -4264,7 +4265,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>1878</v>
       </c>
@@ -4272,7 +4273,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>1879</v>
       </c>
@@ -4280,7 +4281,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>1879</v>
       </c>
@@ -4288,7 +4289,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>1880</v>
       </c>
@@ -4296,7 +4297,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>1881</v>
       </c>
@@ -4304,7 +4305,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>1881</v>
       </c>
@@ -4312,15 +4313,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>1882</v>
       </c>
       <c r="B236" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>1882</v>
       </c>
@@ -4328,7 +4329,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>1883</v>
       </c>
@@ -4336,7 +4337,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>1883</v>
       </c>
@@ -4344,15 +4345,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>1883</v>
       </c>
       <c r="B240" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>1884</v>
       </c>
@@ -4360,15 +4361,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>1885</v>
       </c>
       <c r="B242" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>1885</v>
       </c>
@@ -4376,7 +4377,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>1885</v>
       </c>
@@ -4384,7 +4385,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>1886</v>
       </c>
@@ -4392,7 +4393,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>1886</v>
       </c>
@@ -4400,15 +4401,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>1887</v>
       </c>
       <c r="B247" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>1887</v>
       </c>
@@ -4416,7 +4417,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>1887</v>
       </c>
@@ -4424,15 +4425,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>1888</v>
       </c>
       <c r="B250" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>1888</v>
       </c>
@@ -4440,15 +4441,15 @@
         <v>371</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>1888</v>
       </c>
       <c r="B252" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>1889</v>
       </c>
@@ -4456,7 +4457,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>1889</v>
       </c>
@@ -4464,7 +4465,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>1889</v>
       </c>
@@ -4472,7 +4473,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>1889</v>
       </c>
@@ -4480,7 +4481,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>1890</v>
       </c>
@@ -4488,7 +4489,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>1890</v>
       </c>
@@ -4496,7 +4497,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>1890</v>
       </c>
@@ -4504,7 +4505,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>1891</v>
       </c>
@@ -4512,7 +4513,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>1891</v>
       </c>
@@ -4520,7 +4521,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>1892</v>
       </c>
@@ -4528,7 +4529,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>1892</v>
       </c>
@@ -4536,7 +4537,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>1893</v>
       </c>
@@ -4544,7 +4545,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>1893</v>
       </c>
@@ -4552,7 +4553,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>1893</v>
       </c>
@@ -4560,15 +4561,15 @@
         <v>154</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>1893</v>
       </c>
       <c r="B267" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>1893</v>
       </c>
@@ -4576,39 +4577,39 @@
         <v>376</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>1894</v>
       </c>
       <c r="B269" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>1894</v>
       </c>
       <c r="B270" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>1895</v>
       </c>
       <c r="B271" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>1895</v>
       </c>
       <c r="B272" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>1895</v>
       </c>
@@ -4616,7 +4617,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>1895</v>
       </c>
@@ -4624,7 +4625,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>1895</v>
       </c>
@@ -4632,7 +4633,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>1895</v>
       </c>
@@ -4640,7 +4641,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>1896</v>
       </c>
@@ -4648,7 +4649,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>1896</v>
       </c>
@@ -4656,7 +4657,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>1896</v>
       </c>
@@ -4664,7 +4665,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>1897</v>
       </c>
@@ -4672,7 +4673,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>1897</v>
       </c>
@@ -4680,7 +4681,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>1897</v>
       </c>
@@ -4688,31 +4689,31 @@
         <v>106</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>1898</v>
       </c>
       <c r="B283" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>1898</v>
       </c>
       <c r="B284" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>1899</v>
       </c>
       <c r="B285" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>1899</v>
       </c>
@@ -4720,7 +4721,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>1899</v>
       </c>
@@ -4728,7 +4729,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>1899</v>
       </c>
@@ -4736,23 +4737,23 @@
         <v>107</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>1900</v>
       </c>
       <c r="B289" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>1900</v>
       </c>
       <c r="B290" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>1900</v>
       </c>
@@ -4760,7 +4761,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>1900</v>
       </c>
@@ -4768,7 +4769,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>1900</v>
       </c>
@@ -4776,15 +4777,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>1901</v>
       </c>
       <c r="B294" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>1901</v>
       </c>
@@ -4792,7 +4793,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>1902</v>
       </c>
@@ -4800,7 +4801,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>1902</v>
       </c>
@@ -4808,7 +4809,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>1903</v>
       </c>
@@ -4816,15 +4817,15 @@
         <v>386</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>1903</v>
       </c>
       <c r="B299" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>1903</v>
       </c>
@@ -4832,7 +4833,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>1904</v>
       </c>
@@ -4840,7 +4841,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>1904</v>
       </c>
@@ -4848,7 +4849,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>1904</v>
       </c>
@@ -4856,7 +4857,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>1904</v>
       </c>
@@ -4864,7 +4865,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>1905</v>
       </c>
@@ -4872,7 +4873,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>1905</v>
       </c>
@@ -4880,7 +4881,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>1906</v>
       </c>
@@ -4888,7 +4889,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>1906</v>
       </c>
@@ -4896,7 +4897,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>1906</v>
       </c>
@@ -4904,7 +4905,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>1907</v>
       </c>
@@ -4912,7 +4913,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>1907</v>
       </c>
@@ -4920,7 +4921,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>1907</v>
       </c>
@@ -4928,7 +4929,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>1908</v>
       </c>
@@ -4936,7 +4937,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>1908</v>
       </c>
@@ -4944,7 +4945,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>1908</v>
       </c>
@@ -4952,7 +4953,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>1908</v>
       </c>
@@ -4960,7 +4961,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>1909</v>
       </c>
@@ -4968,7 +4969,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>1909</v>
       </c>
@@ -4976,7 +4977,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>1909</v>
       </c>
@@ -4984,7 +4985,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>1910</v>
       </c>
@@ -4992,7 +4993,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>1910</v>
       </c>
@@ -5000,7 +5001,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>1911</v>
       </c>
@@ -5008,7 +5009,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>1911</v>
       </c>
@@ -5016,15 +5017,15 @@
         <v>564</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>1911</v>
       </c>
       <c r="B324" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>1912</v>
       </c>
@@ -5032,7 +5033,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>1912</v>
       </c>
@@ -5040,7 +5041,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>1912</v>
       </c>
@@ -5048,7 +5049,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>1912</v>
       </c>
@@ -5056,7 +5057,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>1912</v>
       </c>
@@ -5064,7 +5065,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>1913</v>
       </c>
@@ -5072,7 +5073,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>1913</v>
       </c>
@@ -5080,15 +5081,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>1913</v>
       </c>
       <c r="B332" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>1914</v>
       </c>
@@ -5096,7 +5097,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>1914</v>
       </c>
@@ -5104,7 +5105,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>1914</v>
       </c>
@@ -5112,7 +5113,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>1915</v>
       </c>
@@ -5120,7 +5121,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>1915</v>
       </c>
@@ -5128,15 +5129,15 @@
         <v>169</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>1915</v>
       </c>
       <c r="B338" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>1916</v>
       </c>
@@ -5144,7 +5145,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>1916</v>
       </c>
@@ -5152,7 +5153,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>1916</v>
       </c>
@@ -5160,7 +5161,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>1917</v>
       </c>
@@ -5168,7 +5169,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>1917</v>
       </c>
@@ -5176,15 +5177,15 @@
         <v>172</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>1918</v>
       </c>
       <c r="B344" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>1918</v>
       </c>
@@ -5192,7 +5193,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>1919</v>
       </c>
@@ -5200,7 +5201,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>1919</v>
       </c>
@@ -5208,7 +5209,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>1920</v>
       </c>
@@ -5216,7 +5217,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>1920</v>
       </c>
@@ -5224,7 +5225,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>1921</v>
       </c>
@@ -5232,15 +5233,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>1921</v>
       </c>
       <c r="B351" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>1922</v>
       </c>
@@ -5248,7 +5249,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>1922</v>
       </c>
@@ -5256,7 +5257,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>1923</v>
       </c>
@@ -5264,7 +5265,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>1923</v>
       </c>
@@ -5272,7 +5273,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>1923</v>
       </c>
@@ -5280,7 +5281,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>1924</v>
       </c>
@@ -5288,7 +5289,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>1924</v>
       </c>
@@ -5296,7 +5297,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>1924</v>
       </c>
@@ -5304,15 +5305,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>1924</v>
       </c>
       <c r="B360" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>1925</v>
       </c>
@@ -5320,7 +5321,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>1925</v>
       </c>
@@ -5328,7 +5329,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>1926</v>
       </c>
@@ -5336,7 +5337,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>1926</v>
       </c>
@@ -5344,7 +5345,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>1926</v>
       </c>
@@ -5352,7 +5353,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>1927</v>
       </c>
@@ -5360,15 +5361,15 @@
         <v>414</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>1927</v>
       </c>
       <c r="B367" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>1928</v>
       </c>
@@ -5376,7 +5377,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>1928</v>
       </c>
@@ -5384,7 +5385,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>1929</v>
       </c>
@@ -5392,7 +5393,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>1929</v>
       </c>
@@ -5400,7 +5401,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>1930</v>
       </c>
@@ -5408,7 +5409,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>1930</v>
       </c>
@@ -5416,23 +5417,23 @@
         <v>188</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>1930</v>
       </c>
       <c r="B374" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>1931</v>
       </c>
       <c r="B375" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>1931</v>
       </c>
@@ -5440,15 +5441,15 @@
         <v>189</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>1931</v>
       </c>
       <c r="B377" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>1931</v>
       </c>
@@ -5456,15 +5457,15 @@
         <v>190</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>1932</v>
       </c>
       <c r="B379" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>1932</v>
       </c>
@@ -5472,7 +5473,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>1932</v>
       </c>
@@ -5480,7 +5481,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>1932</v>
       </c>
@@ -5488,7 +5489,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>1933</v>
       </c>
@@ -5496,7 +5497,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>1933</v>
       </c>
@@ -5504,7 +5505,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>1933</v>
       </c>
@@ -5512,7 +5513,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>1934</v>
       </c>
@@ -5520,7 +5521,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>1934</v>
       </c>
@@ -5528,7 +5529,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>1935</v>
       </c>
@@ -5536,7 +5537,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>1935</v>
       </c>
@@ -5544,7 +5545,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>1935</v>
       </c>
@@ -5552,7 +5553,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>1935</v>
       </c>
@@ -5560,7 +5561,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>1936</v>
       </c>
@@ -5568,7 +5569,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>1936</v>
       </c>
@@ -5576,7 +5577,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>1937</v>
       </c>
@@ -5584,7 +5585,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>1937</v>
       </c>
@@ -5592,7 +5593,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>1937</v>
       </c>
@@ -5600,7 +5601,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>1937</v>
       </c>
@@ -5608,7 +5609,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>1938</v>
       </c>
@@ -5616,7 +5617,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>1938</v>
       </c>
@@ -5624,7 +5625,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>1939</v>
       </c>
@@ -5632,7 +5633,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>1939</v>
       </c>
@@ -5640,7 +5641,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>1940</v>
       </c>
@@ -5648,7 +5649,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>1940</v>
       </c>
@@ -5656,7 +5657,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>1940</v>
       </c>
@@ -5664,7 +5665,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>1940</v>
       </c>
@@ -5672,7 +5673,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>1941</v>
       </c>
@@ -5680,7 +5681,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>1941</v>
       </c>
@@ -5688,7 +5689,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>1941</v>
       </c>
@@ -5696,7 +5697,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>1942</v>
       </c>
@@ -5704,7 +5705,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>1942</v>
       </c>
@@ -5712,7 +5713,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>1942</v>
       </c>
@@ -5720,7 +5721,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>1943</v>
       </c>
@@ -5728,7 +5729,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>1943</v>
       </c>
@@ -5736,7 +5737,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>1943</v>
       </c>
@@ -5744,7 +5745,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>1944</v>
       </c>
@@ -5752,7 +5753,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>1944</v>
       </c>
@@ -5760,7 +5761,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>1945</v>
       </c>
@@ -5768,7 +5769,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>1945</v>
       </c>
@@ -5776,7 +5777,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>1945</v>
       </c>
@@ -5784,7 +5785,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>1945</v>
       </c>
@@ -5792,7 +5793,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>1946</v>
       </c>
@@ -5800,7 +5801,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>1946</v>
       </c>
@@ -5808,7 +5809,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>1946</v>
       </c>
@@ -5816,7 +5817,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>1947</v>
       </c>
@@ -5824,7 +5825,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>1947</v>
       </c>
@@ -5832,7 +5833,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>1947</v>
       </c>
@@ -5840,7 +5841,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>1947</v>
       </c>
@@ -5848,7 +5849,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>1948</v>
       </c>
@@ -5856,7 +5857,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>1948</v>
       </c>
@@ -5864,7 +5865,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>1949</v>
       </c>
@@ -5872,7 +5873,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>1949</v>
       </c>
@@ -5880,7 +5881,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>1949</v>
       </c>
@@ -5888,7 +5889,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>1950</v>
       </c>
@@ -5896,7 +5897,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>1950</v>
       </c>
@@ -5904,7 +5905,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>1951</v>
       </c>
@@ -5912,7 +5913,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>1951</v>
       </c>
@@ -5920,7 +5921,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>1951</v>
       </c>
@@ -5928,7 +5929,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>1952</v>
       </c>
@@ -5936,7 +5937,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>1952</v>
       </c>
@@ -5944,23 +5945,23 @@
         <v>227</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>1953</v>
       </c>
       <c r="B440" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>1953</v>
       </c>
       <c r="B441" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>1953</v>
       </c>
@@ -5968,7 +5969,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>1953</v>
       </c>
@@ -5976,15 +5977,15 @@
         <v>440</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>1953</v>
       </c>
       <c r="B444" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>1954</v>
       </c>
@@ -5992,7 +5993,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>1954</v>
       </c>
@@ -6000,7 +6001,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>1954</v>
       </c>
@@ -6008,23 +6009,23 @@
         <v>228</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>1955</v>
       </c>
       <c r="B448" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>1955</v>
       </c>
       <c r="B449" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>1955</v>
       </c>
@@ -6032,7 +6033,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>1955</v>
       </c>
@@ -6040,7 +6041,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>1955</v>
       </c>
@@ -6048,7 +6049,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>1955</v>
       </c>
@@ -6056,7 +6057,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>1955</v>
       </c>
@@ -6064,15 +6065,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>1956</v>
       </c>
       <c r="B455" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>1956</v>
       </c>
@@ -6080,7 +6081,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>1956</v>
       </c>
@@ -6088,7 +6089,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>1956</v>
       </c>
@@ -6096,7 +6097,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>1956</v>
       </c>
@@ -6104,15 +6105,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>1957</v>
       </c>
       <c r="B460" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>1957</v>
       </c>
@@ -6120,7 +6121,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>1957</v>
       </c>
@@ -6128,7 +6129,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>1957</v>
       </c>
@@ -6136,7 +6137,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>1957</v>
       </c>
@@ -6144,15 +6145,15 @@
         <v>234</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>1958</v>
       </c>
       <c r="B465" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>1958</v>
       </c>
@@ -6160,7 +6161,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>1958</v>
       </c>
@@ -6168,7 +6169,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>1958</v>
       </c>
@@ -6176,7 +6177,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>1959</v>
       </c>
@@ -6184,7 +6185,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>1959</v>
       </c>
@@ -6192,7 +6193,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>1959</v>
       </c>
@@ -6200,7 +6201,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>1959</v>
       </c>
@@ -6208,7 +6209,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>1959</v>
       </c>
@@ -6216,7 +6217,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>1960</v>
       </c>
@@ -6224,7 +6225,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>1960</v>
       </c>
@@ -6232,7 +6233,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>1961</v>
       </c>
@@ -6240,7 +6241,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>1961</v>
       </c>
@@ -6248,7 +6249,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>1961</v>
       </c>
@@ -6256,7 +6257,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>1962</v>
       </c>
@@ -6264,7 +6265,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>1962</v>
       </c>
@@ -6272,55 +6273,55 @@
         <v>457</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>1962</v>
       </c>
       <c r="B481" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>1962</v>
       </c>
       <c r="B482" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>1962</v>
       </c>
       <c r="B483" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>1963</v>
       </c>
       <c r="B484" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>1963</v>
       </c>
       <c r="B485" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>1963</v>
       </c>
       <c r="B486" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>1963</v>
       </c>
@@ -6328,15 +6329,15 @@
         <v>459</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>1964</v>
       </c>
       <c r="B488" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>1964</v>
       </c>
@@ -6344,7 +6345,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>1964</v>
       </c>
@@ -6352,7 +6353,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>1964</v>
       </c>
@@ -6360,7 +6361,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>1965</v>
       </c>
@@ -6368,7 +6369,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>1965</v>
       </c>
@@ -6376,7 +6377,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>1965</v>
       </c>
@@ -6384,7 +6385,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>1965</v>
       </c>
@@ -6392,15 +6393,15 @@
         <v>243</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>1966</v>
       </c>
       <c r="B496" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>1966</v>
       </c>
@@ -6408,7 +6409,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>1966</v>
       </c>
@@ -6416,15 +6417,15 @@
         <v>244</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>1966</v>
       </c>
       <c r="B499" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>1966</v>
       </c>
@@ -6432,7 +6433,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>1967</v>
       </c>
@@ -6440,7 +6441,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>1967</v>
       </c>
@@ -6448,7 +6449,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>1967</v>
       </c>
@@ -6456,7 +6457,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>1967</v>
       </c>
@@ -6464,7 +6465,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>1967</v>
       </c>
@@ -6472,7 +6473,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>1967</v>
       </c>
@@ -6480,7 +6481,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>1967</v>
       </c>
@@ -6488,31 +6489,31 @@
         <v>250</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>1967</v>
       </c>
       <c r="B508" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>1968</v>
       </c>
       <c r="B509" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>1968</v>
       </c>
       <c r="B510" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>1968</v>
       </c>
@@ -6520,7 +6521,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>1968</v>
       </c>
@@ -6528,7 +6529,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>1968</v>
       </c>
@@ -6536,7 +6537,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>1968</v>
       </c>
@@ -6544,7 +6545,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>1968</v>
       </c>
@@ -6552,23 +6553,23 @@
         <v>253</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>1969</v>
       </c>
       <c r="B516" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>1969</v>
       </c>
       <c r="B517" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>1969</v>
       </c>
@@ -6576,7 +6577,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>1969</v>
       </c>
@@ -6584,15 +6585,15 @@
         <v>254</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>1969</v>
       </c>
       <c r="B520" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>1970</v>
       </c>
@@ -6600,15 +6601,15 @@
         <v>467</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>1970</v>
       </c>
       <c r="B522" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>1971</v>
       </c>
@@ -6616,7 +6617,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>1971</v>
       </c>
@@ -6624,7 +6625,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>1972</v>
       </c>
@@ -6632,15 +6633,15 @@
         <v>470</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>1972</v>
       </c>
       <c r="B526" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>1972</v>
       </c>
@@ -6648,7 +6649,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>1973</v>
       </c>
@@ -6656,7 +6657,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>1973</v>
       </c>
@@ -6664,7 +6665,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>1973</v>
       </c>
@@ -6672,7 +6673,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>1974</v>
       </c>
@@ -6680,7 +6681,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>1974</v>
       </c>
@@ -6688,7 +6689,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>1974</v>
       </c>
@@ -6696,7 +6697,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>1975</v>
       </c>
@@ -6704,7 +6705,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>1975</v>
       </c>
@@ -6712,23 +6713,23 @@
         <v>261</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>1975</v>
       </c>
       <c r="B536" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>1976</v>
       </c>
       <c r="B537" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>1976</v>
       </c>
@@ -6736,7 +6737,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>1976</v>
       </c>
@@ -6744,7 +6745,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>1976</v>
       </c>
@@ -6752,7 +6753,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>1976</v>
       </c>
@@ -6760,15 +6761,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>1977</v>
       </c>
       <c r="B542" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>1977</v>
       </c>
@@ -6776,7 +6777,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>1977</v>
       </c>
@@ -6784,7 +6785,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>1977</v>
       </c>
@@ -6792,7 +6793,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>1977</v>
       </c>
@@ -6800,7 +6801,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>1977</v>
       </c>
@@ -6808,7 +6809,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>1978</v>
       </c>
@@ -6816,7 +6817,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>1978</v>
       </c>
@@ -6824,15 +6825,15 @@
         <v>270</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>1979</v>
       </c>
       <c r="B550" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>1979</v>
       </c>
@@ -6840,7 +6841,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>1979</v>
       </c>
@@ -6848,7 +6849,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>1980</v>
       </c>
@@ -6856,7 +6857,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>1980</v>
       </c>
@@ -6864,7 +6865,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>1980</v>
       </c>
@@ -6872,7 +6873,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>1980</v>
       </c>
@@ -6880,7 +6881,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>1981</v>
       </c>
@@ -6888,7 +6889,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>1981</v>
       </c>
@@ -6896,7 +6897,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>1981</v>
       </c>
@@ -6904,7 +6905,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>1981</v>
       </c>
@@ -6912,7 +6913,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>1982</v>
       </c>
@@ -6920,7 +6921,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>1982</v>
       </c>
@@ -6928,7 +6929,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>1982</v>
       </c>
@@ -6936,7 +6937,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>1982</v>
       </c>
@@ -6944,7 +6945,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>1983</v>
       </c>
@@ -6952,7 +6953,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>1983</v>
       </c>
@@ -6960,15 +6961,15 @@
         <v>482</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>1983</v>
       </c>
       <c r="B567" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>1984</v>
       </c>
@@ -6976,7 +6977,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>1984</v>
       </c>
@@ -6984,7 +6985,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>1984</v>
       </c>
@@ -6992,7 +6993,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>1984</v>
       </c>
@@ -7000,23 +7001,23 @@
         <v>283</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>1985</v>
       </c>
       <c r="B572" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>1985</v>
       </c>
       <c r="B573" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>1985</v>
       </c>
@@ -7024,7 +7025,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>1986</v>
       </c>
@@ -7032,7 +7033,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>1986</v>
       </c>
@@ -7040,7 +7041,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>1986</v>
       </c>
@@ -7048,7 +7049,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>1986</v>
       </c>
@@ -7056,15 +7057,15 @@
         <v>286</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>1986</v>
       </c>
       <c r="B579" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>1987</v>
       </c>
@@ -7072,15 +7073,15 @@
         <v>487</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>1987</v>
       </c>
       <c r="B581" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>1988</v>
       </c>
@@ -7088,15 +7089,15 @@
         <v>287</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>1988</v>
       </c>
       <c r="B583" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>1988</v>
       </c>
@@ -7104,7 +7105,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>1988</v>
       </c>
@@ -7112,7 +7113,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>1989</v>
       </c>
@@ -7120,7 +7121,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>1989</v>
       </c>
@@ -7128,7 +7129,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>1989</v>
       </c>
@@ -7136,7 +7137,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>1990</v>
       </c>
@@ -7144,7 +7145,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>1990</v>
       </c>
@@ -7152,7 +7153,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>1990</v>
       </c>
@@ -7160,7 +7161,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>1990</v>
       </c>
@@ -7168,7 +7169,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>1991</v>
       </c>
@@ -7176,7 +7177,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>1991</v>
       </c>
@@ -7184,7 +7185,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>1991</v>
       </c>
@@ -7192,7 +7193,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>1992</v>
       </c>
@@ -7200,7 +7201,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>1992</v>
       </c>
@@ -7208,15 +7209,15 @@
         <v>319</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>1992</v>
       </c>
       <c r="B598" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>1993</v>
       </c>
@@ -7224,7 +7225,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>1993</v>
       </c>
@@ -7232,7 +7233,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>1994</v>
       </c>
@@ -7240,15 +7241,15 @@
         <v>495</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>1994</v>
       </c>
       <c r="B602" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>1994</v>
       </c>
@@ -7256,7 +7257,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>1995</v>
       </c>
@@ -7264,7 +7265,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>1995</v>
       </c>
@@ -7272,7 +7273,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>1995</v>
       </c>
@@ -7280,7 +7281,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>1995</v>
       </c>
@@ -7288,7 +7289,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>1996</v>
       </c>
@@ -7296,7 +7297,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>1996</v>
       </c>
@@ -7304,7 +7305,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>1997</v>
       </c>
@@ -7312,7 +7313,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>1997</v>
       </c>
@@ -7320,7 +7321,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>1998</v>
       </c>
@@ -7328,7 +7329,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>1998</v>
       </c>
@@ -7336,7 +7337,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>1998</v>
       </c>
@@ -7344,7 +7345,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>1999</v>
       </c>
@@ -7352,7 +7353,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>1999</v>
       </c>
@@ -7360,7 +7361,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>1999</v>
       </c>
@@ -7368,7 +7369,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>2000</v>
       </c>
@@ -7376,7 +7377,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>2000</v>
       </c>
@@ -7384,7 +7385,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>2000</v>
       </c>
@@ -7392,7 +7393,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>2001</v>
       </c>
@@ -7400,7 +7401,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>2001</v>
       </c>
@@ -7408,7 +7409,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>2001</v>
       </c>
@@ -7416,7 +7417,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>2002</v>
       </c>
@@ -7424,7 +7425,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>2002</v>
       </c>
@@ -7432,7 +7433,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>2003</v>
       </c>
@@ -7440,7 +7441,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>2003</v>
       </c>
@@ -7448,7 +7449,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>2003</v>
       </c>
@@ -7456,7 +7457,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>2004</v>
       </c>
@@ -7464,7 +7465,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>2004</v>
       </c>
@@ -7472,7 +7473,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>2004</v>
       </c>
@@ -7480,7 +7481,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>2004</v>
       </c>
@@ -7488,7 +7489,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>2005</v>
       </c>
@@ -7496,7 +7497,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>2005</v>
       </c>
@@ -7504,7 +7505,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>2006</v>
       </c>
@@ -7512,7 +7513,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>2006</v>
       </c>
@@ -7520,15 +7521,15 @@
         <v>560</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>2007</v>
       </c>
       <c r="B637" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>2007</v>
       </c>
@@ -7536,7 +7537,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>2008</v>
       </c>
@@ -7544,15 +7545,15 @@
         <v>511</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>2008</v>
       </c>
       <c r="B640" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>2009</v>
       </c>
@@ -7560,7 +7561,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>2009</v>
       </c>
@@ -7568,7 +7569,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>2010</v>
       </c>
@@ -7576,7 +7577,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>2010</v>
       </c>
@@ -7584,7 +7585,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>2011</v>
       </c>
@@ -7592,7 +7593,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>2011</v>
       </c>
@@ -7600,7 +7601,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>2011</v>
       </c>
@@ -7608,7 +7609,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>2012</v>
       </c>
@@ -7616,7 +7617,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>2012</v>
       </c>
@@ -7624,7 +7625,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>2013</v>
       </c>
@@ -7632,7 +7633,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>2013</v>
       </c>
@@ -7640,7 +7641,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>2014</v>
       </c>
@@ -7648,23 +7649,23 @@
         <v>516</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>2014</v>
       </c>
       <c r="B653" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>2014</v>
       </c>
       <c r="B654" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>2015</v>
       </c>
@@ -7672,7 +7673,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>2015</v>
       </c>
@@ -7680,7 +7681,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>2016</v>
       </c>
@@ -7688,7 +7689,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>2016</v>
       </c>
@@ -7696,7 +7697,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>2016</v>
       </c>
@@ -7704,7 +7705,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>2017</v>
       </c>
@@ -7712,7 +7713,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>2017</v>
       </c>
@@ -7720,7 +7721,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>2017</v>
       </c>
@@ -7728,7 +7729,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>2017</v>
       </c>
@@ -7736,7 +7737,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>2018</v>
       </c>
@@ -7744,7 +7745,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>2018</v>
       </c>
@@ -7752,15 +7753,15 @@
         <v>301</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>2019</v>
       </c>
       <c r="B666" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>2019</v>
       </c>
@@ -7768,7 +7769,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>2020</v>
       </c>
@@ -7776,7 +7777,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>2020</v>
       </c>
@@ -7784,7 +7785,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>2021</v>
       </c>

--- a/xlsx/historical_items.xlsx
+++ b/xlsx/historical_items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kend/Documents/General Maps/Time Line/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_k\work_stuff\historical-transportation-map\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13ACBF9-203D-014F-BECF-0A9E436F3921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DF5B8C-8942-4CA6-980C-F555298F20ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31120" windowHeight="15600" xr2:uid="{171EF181-1F3C-7A42-9B63-D835B687641B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{171EF181-1F3C-7A42-9B63-D835B687641B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1902,9 +1902,6 @@
     <t>The first section of the Paris Metro opens.</t>
   </si>
   <si>
-    <t>Opening of first railway wholly within Switzerland, the Swiss Northern Railway from Zürich to Baden.</t>
-  </si>
-  <si>
     <t>The first trains operate in what is now Romania between Oravița, Transylvania, and Baziaș, on the Danube.</t>
   </si>
   <si>
@@ -2010,9 +2007,6 @@
     <t>Boston's worst traffic jam in 30 years. (Jul 27).</t>
   </si>
   <si>
-    <t>The Oriental Railway Company opens the first section of railway in the Ottoman Empire, from Izmir to Seydikoy.</t>
-  </si>
-  <si>
     <t>The Oriental Railway Company is granted the concession to build the first railway in Turkey, from Izmir to Aydin.</t>
   </si>
   <si>
@@ -2035,6 +2029,12 @@
   </si>
   <si>
     <t>First Automated guideway transit driverless metro, Vehicule Automatique Leger, Lille Metro, France.</t>
+  </si>
+  <si>
+    <t>Opening of first railway wholly within Switzerland, the Swiss Northern Railway from Zurich to Baden.</t>
+  </si>
+  <si>
+    <t>The Oriental Railway Company opens the first section of railway in the Ottoman Empire, from Izmir to Seydikoy.</t>
   </si>
 </sst>
 </file>
@@ -2423,17 +2423,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8479D0E-E3F6-DA41-AEC9-2CE4981D9A6E}">
   <dimension ref="A1:B670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A548" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="B567" sqref="B567"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="134.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="2" max="2" width="134.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>585</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1800</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1800</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1800</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1800</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1800</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1801</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1801</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1801</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1802</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>1802</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>1803</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>1803</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>1803</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1803</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1803</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1803</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1804</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1804</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1804</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1804</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1805</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1805</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1805</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1805</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1806</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1806</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1806</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1807</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1807</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1807</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1807</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1807</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1808</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1808</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1808</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1809</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1809</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1809</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1810</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1811</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1811</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1811</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1812</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1812</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1812</v>
       </c>
@@ -2801,15 +2801,15 @@
         <v>323</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1812</v>
       </c>
       <c r="B47" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1813</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1814</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1814</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1815</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1816</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1817</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1817</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1817</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1818</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1818</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1819</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1819</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1819</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1819</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1819</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1819</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1820</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1820</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1821</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1821</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1822</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>1823</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1823</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1823</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1824</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>1824</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>1825</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>1825</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>1825</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>1826</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>1826</v>
       </c>
@@ -3057,15 +3057,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>1827</v>
       </c>
       <c r="B79" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>1827</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>1828</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>1828</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>1828</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>1829</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>1829</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>1829</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1830</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>1830</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>1830</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>1830</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>1830</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>1830</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>1831</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>1831</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>1831</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>1831</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>1831</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>1831</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>1831</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>1831</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>1832</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>1832</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>1833</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>1833</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>1833</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>1834</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>1834</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>1834</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>1835</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>1835</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>1835</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>1835</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>1836</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>1836</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>1836</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>1836</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>1837</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>1837</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>1837</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>1837</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>1837</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>1837</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>1838</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>1838</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>1838</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>1839</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>1839</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>1839</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>1839</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>1839</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>1839</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>1840</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>1841</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>1841</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>1841</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>1842</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>1842</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>1843</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>1843</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>1843</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>1844</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>1844</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>1845</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>1845</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>1845</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>1846</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>1846</v>
       </c>
@@ -3609,15 +3609,15 @@
         <v>526</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>1846</v>
       </c>
       <c r="B148" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>1846</v>
       </c>
@@ -3625,15 +3625,15 @@
         <v>350</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>1846</v>
       </c>
       <c r="B150" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>1847</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>1847</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>1848</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>1848</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>1848</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>1848</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>1848</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>1849</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>1850</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>1850</v>
       </c>
@@ -3713,15 +3713,15 @@
         <v>352</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>1850</v>
       </c>
       <c r="B161" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>1851</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>1851</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>1852</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>1852</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>1853</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>1853</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>1853</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>1854</v>
       </c>
@@ -3785,15 +3785,15 @@
         <v>538</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>1854</v>
       </c>
       <c r="B170" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>1854</v>
       </c>
@@ -3801,15 +3801,15 @@
         <v>355</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>1854</v>
       </c>
       <c r="B172" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>1854</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>1854</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>1855</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>1855</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>1855</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>1855</v>
       </c>
@@ -3857,15 +3857,15 @@
         <v>140</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>1856</v>
       </c>
       <c r="B179" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>1856</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>1857</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>1858</v>
       </c>
@@ -3889,15 +3889,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>1858</v>
       </c>
       <c r="B183" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>1858</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>1858</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>1859</v>
       </c>
@@ -3921,15 +3921,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>1859</v>
       </c>
       <c r="B187" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>1859</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>1860</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>1860</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>1861</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>1861</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>1861</v>
       </c>
@@ -3977,15 +3977,15 @@
         <v>173</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>1862</v>
       </c>
       <c r="B194" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>1863</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>1863</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>1863</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>1864</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>1864</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>1865</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>1865</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>1865</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>1866</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>1866</v>
       </c>
@@ -4065,15 +4065,15 @@
         <v>143</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>1867</v>
       </c>
       <c r="B205" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>1867</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>1867</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>1867</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>1868</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>1868</v>
       </c>
@@ -4113,15 +4113,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>1869</v>
       </c>
       <c r="B211" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>1869</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>1870</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>1870</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>1871</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>1871</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>1872</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>1872</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>1873</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>1873</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>1874</v>
       </c>
@@ -4201,15 +4201,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>1874</v>
       </c>
       <c r="B222" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>1875</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>1875</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>1875</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>1876</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>1877</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>1877</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>1878</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>1878</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>1879</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>1879</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>1880</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>1881</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>1881</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>1882</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>1882</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>1883</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>1883</v>
       </c>
@@ -4345,15 +4345,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>1883</v>
       </c>
       <c r="B240" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>1884</v>
       </c>
@@ -4361,15 +4361,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>1885</v>
       </c>
       <c r="B242" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>1885</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>1885</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>1886</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>1886</v>
       </c>
@@ -4401,15 +4401,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>1887</v>
       </c>
       <c r="B247" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>1887</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>1887</v>
       </c>
@@ -4425,15 +4425,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>1888</v>
       </c>
       <c r="B250" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>1888</v>
       </c>
@@ -4441,15 +4441,15 @@
         <v>371</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>1888</v>
       </c>
       <c r="B252" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>1889</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>1889</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>1889</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>1889</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>1890</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>1890</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>1890</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>1891</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>1891</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>1892</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>1892</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>1893</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>1893</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>1893</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>1893</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>1893</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>1894</v>
       </c>
@@ -4585,31 +4585,31 @@
         <v>570</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>1894</v>
       </c>
       <c r="B270" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>1895</v>
       </c>
       <c r="B271" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>1895</v>
       </c>
       <c r="B272" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>1895</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>1895</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>1895</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>1895</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>1896</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>1896</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>1896</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>1897</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>1897</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>1897</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>1898</v>
       </c>
@@ -4697,15 +4697,15 @@
         <v>610</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>1898</v>
       </c>
       <c r="B284" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>1899</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>1899</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>1899</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>1899</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>1900</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>1900</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>1900</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>1900</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>1900</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>1901</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>1901</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>1902</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>1902</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>1903</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>1903</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>1903</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>1904</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>1904</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>1904</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>1904</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>1905</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>1905</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>1906</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>1906</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>1906</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>1907</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>1907</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>1907</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>1908</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>1908</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>1908</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>1908</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>1909</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>1909</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>1909</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>1910</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>1910</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>1911</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>1911</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>1911</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>1912</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>1912</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>1912</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>1912</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>1912</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>1913</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>1913</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>1913</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>1914</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>1914</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>1914</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>1915</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>1915</v>
       </c>
@@ -5129,15 +5129,15 @@
         <v>169</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>1915</v>
       </c>
       <c r="B338" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>1916</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>1916</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>1916</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>1917</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>1917</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>1918</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>1918</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>1919</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>1919</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>1920</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>1920</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>1921</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>1921</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>1922</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>1922</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>1923</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>1923</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>1923</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>1924</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>1924</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>1924</v>
       </c>
@@ -5305,15 +5305,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>1924</v>
       </c>
       <c r="B360" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>1925</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>1925</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>1926</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>1926</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>1926</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>1927</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>1927</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>1928</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>1928</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>1929</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>1929</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>1930</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>1930</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>1930</v>
       </c>
@@ -5425,15 +5425,15 @@
         <v>600</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>1931</v>
       </c>
       <c r="B375" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>1931</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>1931</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>1931</v>
       </c>
@@ -5457,15 +5457,15 @@
         <v>190</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>1932</v>
       </c>
       <c r="B379" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>1932</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>1932</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>1932</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>1933</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>1933</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>1933</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>1934</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>1934</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>1935</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>1935</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>1935</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>1935</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>1936</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>1936</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>1937</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>1937</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>1937</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>1937</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>1938</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>1938</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>1939</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>1939</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>1940</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>1940</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>1940</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>1940</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>1941</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>1941</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>1941</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>1942</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>1942</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="411" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>1942</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>1943</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="413" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>1943</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>1943</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>1944</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>1944</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>1945</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>1945</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>1945</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>1945</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>1946</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>1946</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>1946</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>1947</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>1947</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>1947</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>1947</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>1948</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>1948</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>1949</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>1949</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>1949</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>1950</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>1950</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>1951</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>1951</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>1951</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>1952</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>1952</v>
       </c>
@@ -5945,23 +5945,23 @@
         <v>227</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>1953</v>
       </c>
       <c r="B440" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>1953</v>
       </c>
       <c r="B441" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>1953</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>1953</v>
       </c>
@@ -5977,15 +5977,15 @@
         <v>440</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>1953</v>
       </c>
       <c r="B444" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>1954</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>1954</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>1954</v>
       </c>
@@ -6009,15 +6009,15 @@
         <v>228</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>1955</v>
       </c>
       <c r="B448" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>1955</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>1955</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>1955</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>1955</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>1955</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>1955</v>
       </c>
@@ -6065,15 +6065,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>1956</v>
       </c>
       <c r="B455" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>1956</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>1956</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>1956</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>1956</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>1957</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>1957</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>1957</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>1957</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>1957</v>
       </c>
@@ -6145,15 +6145,15 @@
         <v>234</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>1958</v>
       </c>
       <c r="B465" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>1958</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>1958</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>1958</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>1959</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>1959</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>1959</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>1959</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>1959</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>1960</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>1960</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>1961</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>1961</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>1961</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>1962</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>1962</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>1962</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>1962</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>1962</v>
       </c>
@@ -6297,23 +6297,23 @@
         <v>578</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>1963</v>
       </c>
       <c r="B484" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>1963</v>
       </c>
       <c r="B485" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>1963</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>1963</v>
       </c>
@@ -6329,15 +6329,15 @@
         <v>459</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>1964</v>
       </c>
       <c r="B488" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>1964</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>1964</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>1964</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>1965</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>1965</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>1965</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>1965</v>
       </c>
@@ -6393,15 +6393,15 @@
         <v>243</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>1966</v>
       </c>
       <c r="B496" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>1966</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>1966</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>1966</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>1966</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>1967</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>1967</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>1967</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>1967</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>1967</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>1967</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>1967</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>1967</v>
       </c>
@@ -6497,23 +6497,23 @@
         <v>580</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>1968</v>
       </c>
       <c r="B509" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>1968</v>
       </c>
       <c r="B510" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>1968</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>1968</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>1968</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>1968</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>1968</v>
       </c>
@@ -6553,15 +6553,15 @@
         <v>253</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>1969</v>
       </c>
       <c r="B516" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>1969</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>1969</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>1969</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>1969</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>1970</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>1970</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>1971</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>1971</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>1972</v>
       </c>
@@ -6633,15 +6633,15 @@
         <v>470</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>1972</v>
       </c>
       <c r="B526" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>1972</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>1973</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>1973</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>1973</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>1974</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>1974</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>1974</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>1975</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>1975</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>1975</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>1976</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>1976</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>1976</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>1976</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>1976</v>
       </c>
@@ -6761,15 +6761,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>1977</v>
       </c>
       <c r="B542" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>1977</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>1977</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>1977</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>1977</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>1977</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>1978</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>1978</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>1979</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>1979</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>1979</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>1980</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>1980</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>1980</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>1980</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>1981</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>1981</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>1981</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>1981</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>1982</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>1982</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>1982</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>1982</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>1983</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>1983</v>
       </c>
@@ -6961,15 +6961,15 @@
         <v>482</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>1983</v>
       </c>
       <c r="B567" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>1984</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>1984</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>1984</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>1984</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>1985</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>1985</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>1985</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>1986</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>1986</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>1986</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>1986</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>1986</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>1987</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>1987</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>1988</v>
       </c>
@@ -7089,15 +7089,15 @@
         <v>287</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>1988</v>
       </c>
       <c r="B583" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>1988</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>1988</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>1989</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>1989</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>1989</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>1990</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>1990</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>1990</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>1990</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>1991</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>1991</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>1991</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>1992</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>1992</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>1992</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>1993</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>1993</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>1994</v>
       </c>
@@ -7241,15 +7241,15 @@
         <v>495</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>1994</v>
       </c>
       <c r="B602" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>1994</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>1995</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>1995</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>1995</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>1995</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>1996</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>1996</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>1997</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>1997</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>1998</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>1998</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>1998</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>1999</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>1999</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>1999</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>2000</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>2000</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>2000</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>2001</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>2001</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>2001</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>2002</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>2002</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>2003</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>2003</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>2003</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>2004</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>2004</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>2004</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>2004</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>2005</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>2005</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>2006</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>2006</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>2007</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>2007</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>2008</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>2008</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>2009</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>2009</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>2010</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>2010</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>2011</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>2011</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>2011</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>2012</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>2012</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>2013</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>2013</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>2014</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>2014</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>2014</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>2015</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>2015</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>2016</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>2016</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>2016</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>2017</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>2017</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>2017</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>2017</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>2018</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>2018</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>2019</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>2019</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>2020</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>2020</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>2021</v>
       </c>

--- a/xlsx/historical_items.xlsx
+++ b/xlsx/historical_items.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_k\work_stuff\historical-transportation-map\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_k\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DF5B8C-8942-4CA6-980C-F555298F20ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5296C2-E531-4056-9A1C-BEB09FD0DC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{171EF181-1F3C-7A42-9B63-D835B687641B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="656">
   <si>
     <t>The U.S. capital is moved from Philadelphia to Washington, DC.</t>
   </si>
@@ -177,9 +177,6 @@
     <t>Wisconsin becomes 30th state of the Union.</t>
   </si>
   <si>
-    <t>New Haven Railroad opens.</t>
-  </si>
-  <si>
     <t>California becomes 31th state of the Union.</t>
   </si>
   <si>
@@ -432,12 +429,6 @@
     <t>First US wire suspension bridge for general traffic opens in Pennsylvania.</t>
   </si>
   <si>
-    <t>First passenger train service to Peekskill, New York (New Haven Railroad).</t>
-  </si>
-  <si>
-    <t>Completion of Grand Trunk Line, trains begin running over First North American railroad between Portland, Maine and Montreal</t>
-  </si>
-  <si>
     <t>First round-the-world trip by yacht (Cornelius Vanderbilt).</t>
   </si>
   <si>
@@ -1011,9 +1002,6 @@
     <t>Tom Thumb, the first American-built steam locomotive used on a common carrier railroad, is operated in a race against a horsecar.</t>
   </si>
   <si>
-    <t>The Boston and Maine Railroad is formed to build a railroad between Boston, Massachusetts, and Portland, Maine.</t>
-  </si>
-  <si>
     <t>The Camden and Amboy Rail Road, the first railroad to be built in New Jersey, is chartered.</t>
   </si>
   <si>
@@ -1596,33 +1584,9 @@
     <t>Lund , Sweden tramway opened.</t>
   </si>
   <si>
-    <t>Quincy Turnpike in Massachusetts opens.</t>
-  </si>
-  <si>
-    <t>Quincy Turnpike in Massachusetts closed.</t>
-  </si>
-  <si>
-    <t>Great Barrington and Alford Turnpike opens.</t>
-  </si>
-  <si>
     <t>Great Barrington and Alford Turnpike closes.</t>
   </si>
   <si>
-    <t>Medford Turnpike (mostly in Somerville) opens.</t>
-  </si>
-  <si>
-    <t>Braintree and Weymouth Turnpike opens.</t>
-  </si>
-  <si>
-    <t>New Bedford and Bridgewater Turnpike opens.</t>
-  </si>
-  <si>
-    <t>North Branch Turnpike (Winchendon) opens.</t>
-  </si>
-  <si>
-    <t>New Bedford and Bridgewater Turnpike (Weymouth) opens.</t>
-  </si>
-  <si>
     <t>New Bedford and Bridgewater Turnpike (Weymouth) closes.</t>
   </si>
   <si>
@@ -1632,48 +1596,24 @@
     <t>Blue Hill Turnpike closes.</t>
   </si>
   <si>
-    <t>Andover and Medford Turnpike opens.</t>
-  </si>
-  <si>
     <t>Andover and Medford Turnpike closes.</t>
   </si>
   <si>
-    <t>Dorchester Turnpike opens.</t>
-  </si>
-  <si>
     <t>Dorchester Turnpike closes.</t>
   </si>
   <si>
-    <t>Worcester and Stafford Turnpike opens.</t>
-  </si>
-  <si>
     <t>Worcester and Stafford Turnpike closes.</t>
   </si>
   <si>
-    <t>Plum Island Turnpike opens.</t>
-  </si>
-  <si>
-    <t>Alford and Egremont Turnpike opens.</t>
-  </si>
-  <si>
     <t>Mill Dam opens. Connects Beacon Hill to Kenmore before Back Bay filled in.</t>
   </si>
   <si>
-    <t>Barre Turnpike opens.</t>
-  </si>
-  <si>
     <t>Barre Turnpike closes.</t>
   </si>
   <si>
-    <t>Central Turnpike (Route 135) opens.</t>
-  </si>
-  <si>
     <t>Central Turnpike (Route 135) closes.</t>
   </si>
   <si>
-    <t>Pontoosac Turnpike (Chester) opens.</t>
-  </si>
-  <si>
     <t>Pontoosac Turnpike (Chester) closes.</t>
   </si>
   <si>
@@ -1788,18 +1728,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>Becket-Chester-Russell Massachusetts Turnpike opens.</t>
-  </si>
-  <si>
-    <t>New York line-Lenox-Becket-Sandisfield-Connecticut line Massachusetts Turnpike opens.</t>
-  </si>
-  <si>
-    <t>Douglas-Mendon-Bellingham Massachusetts Turnpike opens.</t>
-  </si>
-  <si>
-    <t>Egremont-Sheffield-Connecticut line Massachusetts Turnpike opens.</t>
-  </si>
-  <si>
     <t>Opening of first railroad in Austria, the Kaiser Ferdinands Nordbahn, Vienna-Floridsdorf-Deutsch-Wagram (17.7 km).</t>
   </si>
   <si>
@@ -1917,48 +1845,15 @@
     <t>Scottish vet John Boyd Dunlop patents pneumatic bicycle tire.</t>
   </si>
   <si>
-    <t>Route 3 opened Tremont St., Duxbury to Main St., Kingston</t>
-  </si>
-  <si>
-    <t>Route 2 opened Route 111, Harvard to Route 140, Westminster .</t>
-  </si>
-  <si>
-    <t>Route 24 opened Route 44, Raynham to Route 106, West Bridgewater.</t>
-  </si>
-  <si>
-    <t>Route 24 opened Route 123 to Route 27, Brockton.</t>
-  </si>
-  <si>
     <t>First west-to-east jet transatlantic nonstop flight.</t>
   </si>
   <si>
     <t>Worcester Turnpike (Route 9) opened Grafton St. Shrewsbury to Framingham.</t>
   </si>
   <si>
-    <t>Worcester Turnpike (Route 9) opened Framingham to Natick/Wellesley border.</t>
-  </si>
-  <si>
-    <t>Route 3 south opened Plymouth to Sagamore Bridge.</t>
-  </si>
-  <si>
-    <t>I-95 RI state line-Route 123 Attleboro.</t>
-  </si>
-  <si>
-    <t>I-95 Route 1-Route 123 Attleboro.</t>
-  </si>
-  <si>
-    <t>Route 25 opened Route 28, Middleborough to Route 58, Wareham</t>
-  </si>
-  <si>
-    <t>Route 25 from Route 44, Middleboro to Route 24, Raynham.</t>
-  </si>
-  <si>
     <t xml:space="preserve">New York Central Railroad and Pennsylvania Railroad merged as Penn Central </t>
   </si>
   <si>
-    <t>Route 25 from Route 58  to Wareham.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Boston, Hartford &amp; Erie Railroad took over operation of the Norfolk County Railroad and the Southbridge &amp; Blackstone Railroad. </t>
   </si>
   <si>
@@ -2035,6 +1930,69 @@
   </si>
   <si>
     <t>The Oriental Railway Company opens the first section of railway in the Ottoman Empire, from Izmir to Seydikoy.</t>
+  </si>
+  <si>
+    <t>Becket-Chester-Russell Massachusetts Turnpike chartered.</t>
+  </si>
+  <si>
+    <t>Douglas-Mendon-Bellingham Massachusetts Turnpike chartered.</t>
+  </si>
+  <si>
+    <t>Worcester and Stafford Turnpike chartered.</t>
+  </si>
+  <si>
+    <t>Andover and Medford Turnpike chartered.</t>
+  </si>
+  <si>
+    <t>New York line-Lenox-Becket-Sandisfield-Connecticut line Massachusetts Turnpike chartered.</t>
+  </si>
+  <si>
+    <t>Egremont-Sheffield-Connecticut line Massachusetts Turnpike chartered.</t>
+  </si>
+  <si>
+    <t>Medford Turnpike (mostly in Somerville) chartered.</t>
+  </si>
+  <si>
+    <t>Braintree and Weymouth Turnpike chartered.</t>
+  </si>
+  <si>
+    <t>New Bedford and Bridgewater Turnpike chartered.</t>
+  </si>
+  <si>
+    <t>Dorchester Turnpike chartered.</t>
+  </si>
+  <si>
+    <t>Plum Island Turnpike chartered.</t>
+  </si>
+  <si>
+    <t>Great Barrington and Alford Turnpike chartered.</t>
+  </si>
+  <si>
+    <t>Barre Turnpike chartered.</t>
+  </si>
+  <si>
+    <t>North Branch Turnpike (Winchendon) chartered.</t>
+  </si>
+  <si>
+    <t>Central Turnpike (Route 135) chartered.</t>
+  </si>
+  <si>
+    <t>Pontoosac Turnpike (Chester-Hinsdale) opens.</t>
+  </si>
+  <si>
+    <t>Boston &amp; Lowell Railroad chartered.</t>
+  </si>
+  <si>
+    <t>New York &amp; New Haven Railroad opens.</t>
+  </si>
+  <si>
+    <t>First passenger train service to Peekskill, New York (Hudson River Railroad).</t>
+  </si>
+  <si>
+    <t>Completion of Grand Trunk Line, trains begin running between Portland, Maine and Montreal.</t>
+  </si>
+  <si>
+    <t>Nantasket Beach Branch electrified. One of first U.S steam railroad electrifications.</t>
   </si>
 </sst>
 </file>
@@ -2421,10 +2379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8479D0E-E3F6-DA41-AEC9-2CE4981D9A6E}">
-  <dimension ref="A1:B670"/>
+  <dimension ref="A1:B656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B183" sqref="B183"/>
+    <sheetView tabSelected="1" topLeftCell="A391" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A496" sqref="A496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2435,10 +2393,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2454,7 +2412,7 @@
         <v>1800</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>587</v>
+        <v>635</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2462,7 +2420,7 @@
         <v>1800</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>588</v>
+        <v>639</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2470,7 +2428,7 @@
         <v>1800</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>589</v>
+        <v>636</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2478,7 +2436,7 @@
         <v>1800</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2486,7 +2444,7 @@
         <v>1801</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>590</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2494,7 +2452,7 @@
         <v>1801</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2502,7 +2460,7 @@
         <v>1801</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2510,7 +2468,7 @@
         <v>1802</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2518,7 +2476,7 @@
         <v>1802</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2526,7 +2484,7 @@
         <v>1803</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>527</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2534,7 +2492,7 @@
         <v>1803</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2542,7 +2500,7 @@
         <v>1803</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2550,7 +2508,7 @@
         <v>1803</v>
       </c>
       <c r="B15" t="s">
-        <v>528</v>
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2558,7 +2516,7 @@
         <v>1803</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2574,7 +2532,7 @@
         <v>1804</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2582,7 +2540,7 @@
         <v>1804</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>529</v>
+        <v>643</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2606,15 +2564,15 @@
         <v>1805</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>537</v>
+        <v>644</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>539</v>
+        <v>637</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2622,7 +2580,7 @@
         <v>1805</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>535</v>
+        <v>638</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2638,7 +2596,7 @@
         <v>1806</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>541</v>
+        <v>645</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2662,7 +2620,7 @@
         <v>1807</v>
       </c>
       <c r="B29" t="s">
-        <v>531</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2670,7 +2628,7 @@
         <v>1807</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2678,7 +2636,7 @@
         <v>1807</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2686,15 +2644,15 @@
         <v>1807</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2702,23 +2660,23 @@
         <v>1808</v>
       </c>
       <c r="B34" t="s">
-        <v>523</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B35" t="s">
-        <v>322</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2726,55 +2684,55 @@
         <v>1809</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="B39" t="s">
-        <v>157</v>
+        <v>646</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B41" t="s">
-        <v>542</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B42" t="s">
-        <v>525</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2782,111 +2740,111 @@
         <v>1812</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>617</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="B46" t="s">
-        <v>323</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="B47" t="s">
-        <v>652</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>1814</v>
+        <v>1817</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>1817</v>
+        <v>1834</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>525</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2894,7 +2852,7 @@
         <v>1819</v>
       </c>
       <c r="B58" t="s">
-        <v>540</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,7 +2860,7 @@
         <v>1819</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2910,204 +2868,204 @@
         <v>1819</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>526</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>647</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>1821</v>
+        <v>1803</v>
       </c>
       <c r="B66" t="s">
-        <v>543</v>
+        <v>648</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="B68" t="s">
-        <v>544</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="B69" t="s">
-        <v>530</v>
+        <v>649</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="B72" t="s">
-        <v>546</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="B74" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="B75" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>618</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B77" t="s">
-        <v>325</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="B79" t="s">
-        <v>653</v>
+        <v>323</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="B81" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="B82" t="s">
-        <v>326</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="B83" t="s">
-        <v>25</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>650</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B85" t="s">
         <v>126</v>
@@ -3115,10 +3073,10 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B86" t="s">
-        <v>327</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -3126,7 +3084,7 @@
         <v>1830</v>
       </c>
       <c r="B87" t="s">
-        <v>548</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -3134,7 +3092,7 @@
         <v>1830</v>
       </c>
       <c r="B88" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3142,31 +3100,31 @@
         <v>1830</v>
       </c>
       <c r="B89" t="s">
-        <v>128</v>
+        <v>651</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>527</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>325</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B92" t="s">
-        <v>328</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -3174,7 +3132,7 @@
         <v>1831</v>
       </c>
       <c r="B93" t="s">
-        <v>545</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -3182,7 +3140,7 @@
         <v>1831</v>
       </c>
       <c r="B94" t="s">
-        <v>329</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -3190,7 +3148,7 @@
         <v>1831</v>
       </c>
       <c r="B95" t="s">
-        <v>129</v>
+        <v>327</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -3198,7 +3156,7 @@
         <v>1831</v>
       </c>
       <c r="B96" t="s">
-        <v>29</v>
+        <v>326</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3206,44 +3164,44 @@
         <v>1831</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>328</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="B98" t="s">
-        <v>331</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="B99" t="s">
-        <v>330</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="B100" t="s">
-        <v>332</v>
+        <v>585</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B101" t="s">
-        <v>156</v>
+        <v>329</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B102" t="s">
         <v>130</v>
@@ -3251,50 +3209,50 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B103" t="s">
-        <v>609</v>
+        <v>584</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B104" t="s">
-        <v>333</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B105" t="s">
-        <v>131</v>
+        <v>330</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B106" t="s">
-        <v>608</v>
+        <v>331</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B107" t="s">
-        <v>132</v>
+        <v>332</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B108" t="s">
-        <v>334</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3302,31 +3260,31 @@
         <v>1835</v>
       </c>
       <c r="B109" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B110" t="s">
-        <v>336</v>
+        <v>528</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B111" t="s">
-        <v>31</v>
+        <v>333</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B112" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -3334,31 +3292,31 @@
         <v>1836</v>
       </c>
       <c r="B113" t="s">
-        <v>547</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B114" t="s">
-        <v>337</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B115" t="s">
-        <v>339</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B116" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -3366,7 +3324,7 @@
         <v>1837</v>
       </c>
       <c r="B117" t="s">
-        <v>33</v>
+        <v>567</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -3374,7 +3332,7 @@
         <v>1837</v>
       </c>
       <c r="B118" t="s">
-        <v>34</v>
+        <v>568</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -3382,55 +3340,55 @@
         <v>1837</v>
       </c>
       <c r="B119" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B120" t="s">
-        <v>591</v>
+        <v>336</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B121" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B122" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B123" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B124" t="s">
-        <v>594</v>
+        <v>337</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B125" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -3438,7 +3396,7 @@
         <v>1839</v>
       </c>
       <c r="B126" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -3446,7 +3404,7 @@
         <v>1839</v>
       </c>
       <c r="B127" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -3454,143 +3412,143 @@
         <v>1839</v>
       </c>
       <c r="B128" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B129" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="B130" t="s">
-        <v>343</v>
+        <v>529</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="B131" t="s">
-        <v>37</v>
+        <v>342</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B132" t="s">
-        <v>347</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B133" t="s">
-        <v>549</v>
+        <v>341</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B134" t="s">
-        <v>346</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="B135" t="s">
-        <v>42</v>
+        <v>344</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B136" t="s">
-        <v>345</v>
+        <v>43</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B137" t="s">
-        <v>134</v>
+        <v>345</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B138" t="s">
-        <v>348</v>
+        <v>569</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B139" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="B140" t="s">
-        <v>349</v>
+        <v>44</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B141" t="s">
-        <v>593</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B142" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B143" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B144" t="s">
-        <v>45</v>
+        <v>519</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B145" t="s">
-        <v>46</v>
+        <v>628</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3598,7 +3556,7 @@
         <v>1846</v>
       </c>
       <c r="B146" t="s">
-        <v>47</v>
+        <v>346</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3606,47 +3564,47 @@
         <v>1846</v>
       </c>
       <c r="B147" t="s">
-        <v>526</v>
+        <v>633</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B148" t="s">
-        <v>663</v>
+        <v>520</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B149" t="s">
-        <v>350</v>
+        <v>48</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="B150" t="s">
-        <v>668</v>
+        <v>49</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B151" t="s">
-        <v>532</v>
+        <v>652</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>1847</v>
+        <v>1837</v>
       </c>
       <c r="B152" t="s">
-        <v>48</v>
+        <v>523</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3654,7 +3612,7 @@
         <v>1848</v>
       </c>
       <c r="B153" t="s">
-        <v>49</v>
+        <v>522</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3662,119 +3620,119 @@
         <v>1848</v>
       </c>
       <c r="B154" t="s">
-        <v>50</v>
+        <v>347</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B155" t="s">
-        <v>536</v>
+        <v>653</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="B156" t="s">
-        <v>534</v>
+        <v>50</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B157" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="B158" t="s">
-        <v>135</v>
+        <v>619</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B159" t="s">
-        <v>51</v>
+        <v>349</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B160" t="s">
-        <v>352</v>
+        <v>51</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="B161" t="s">
-        <v>654</v>
+        <v>52</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B162" t="s">
-        <v>353</v>
+        <v>53</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="B163" t="s">
-        <v>52</v>
+        <v>350</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B164" t="s">
-        <v>53</v>
+        <v>654</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B165" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B166" t="s">
-        <v>354</v>
+        <v>524</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B167" t="s">
-        <v>136</v>
+        <v>601</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B168" t="s">
-        <v>137</v>
+        <v>351</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3782,7 +3740,7 @@
         <v>1854</v>
       </c>
       <c r="B169" t="s">
-        <v>538</v>
+        <v>604</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -3790,7 +3748,7 @@
         <v>1854</v>
       </c>
       <c r="B170" t="s">
-        <v>625</v>
+        <v>352</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3798,31 +3756,31 @@
         <v>1854</v>
       </c>
       <c r="B171" t="s">
-        <v>355</v>
+        <v>135</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B172" t="s">
-        <v>628</v>
+        <v>571</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B173" t="s">
-        <v>356</v>
+        <v>54</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B174" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3830,55 +3788,55 @@
         <v>1855</v>
       </c>
       <c r="B175" t="s">
-        <v>595</v>
+        <v>137</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B176" t="s">
-        <v>55</v>
+        <v>625</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B177" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="B178" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="B179" t="s">
-        <v>660</v>
+        <v>56</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="B180" t="s">
-        <v>141</v>
+        <v>634</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B181" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -3891,407 +3849,407 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B183" t="s">
-        <v>669</v>
+        <v>58</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B184" t="s">
-        <v>158</v>
+        <v>626</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B185" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B186" t="s">
-        <v>59</v>
+        <v>353</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B187" t="s">
-        <v>661</v>
+        <v>59</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="B188" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B189" t="s">
-        <v>357</v>
+        <v>61</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B190" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="B191" t="s">
-        <v>61</v>
+        <v>627</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="B192" t="s">
-        <v>62</v>
+        <v>354</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="B193" t="s">
-        <v>173</v>
+        <v>62</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="B194" t="s">
-        <v>662</v>
+        <v>355</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="B195" t="s">
-        <v>524</v>
+        <v>63</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="B196" t="s">
-        <v>358</v>
+        <v>599</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="B197" t="s">
-        <v>63</v>
+        <v>356</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="B198" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="B199" t="s">
-        <v>64</v>
+        <v>357</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="B200" t="s">
-        <v>623</v>
+        <v>140</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="B201" t="s">
-        <v>360</v>
+        <v>609</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="B202" t="s">
-        <v>174</v>
+        <v>598</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="B203" t="s">
-        <v>361</v>
+        <v>64</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="B204" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B205" t="s">
-        <v>644</v>
+        <v>89</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B206" t="s">
-        <v>622</v>
+        <v>65</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="B207" t="s">
-        <v>65</v>
+        <v>620</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="B208" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="B209" t="s">
-        <v>90</v>
+        <v>572</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="B210" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="B211" t="s">
-        <v>655</v>
+        <v>358</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="B212" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="B213" t="s">
-        <v>596</v>
+        <v>66</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="B214" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="B215" t="s">
-        <v>362</v>
+        <v>68</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="B216" t="s">
-        <v>147</v>
+        <v>359</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="B217" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="B218" t="s">
-        <v>68</v>
+        <v>621</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="B219" t="s">
-        <v>69</v>
+        <v>360</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="B220" t="s">
-        <v>363</v>
+        <v>597</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="B221" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="B222" t="s">
-        <v>656</v>
+        <v>70</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="B223" t="s">
-        <v>364</v>
+        <v>71</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="B224" t="s">
-        <v>621</v>
+        <v>146</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="B225" t="s">
-        <v>70</v>
+        <v>361</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="B226" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="B227" t="s">
-        <v>72</v>
+        <v>362</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="B228" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="B229" t="s">
-        <v>365</v>
+        <v>72</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>1878</v>
+        <v>1881</v>
       </c>
       <c r="B230" t="s">
-        <v>150</v>
+        <v>363</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="B231" t="s">
-        <v>366</v>
+        <v>149</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>1879</v>
+        <v>1882</v>
       </c>
       <c r="B232" t="s">
-        <v>151</v>
+        <v>548</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="B233" t="s">
         <v>73</v>
@@ -4299,207 +4257,207 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="B234" t="s">
-        <v>367</v>
+        <v>264</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="B235" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B236" t="s">
-        <v>568</v>
+        <v>612</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="B237" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>1883</v>
+        <v>1877</v>
       </c>
       <c r="B238" t="s">
-        <v>267</v>
+        <v>610</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="B239" t="s">
-        <v>75</v>
+        <v>364</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="B240" t="s">
-        <v>647</v>
+        <v>75</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="B241" t="s">
-        <v>89</v>
+        <v>365</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B242" t="s">
-        <v>645</v>
+        <v>76</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="B243" t="s">
-        <v>368</v>
+        <v>611</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="B244" t="s">
-        <v>76</v>
+        <v>366</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B245" t="s">
-        <v>369</v>
+        <v>150</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>1886</v>
+        <v>1888</v>
       </c>
       <c r="B246" t="s">
-        <v>77</v>
+        <v>613</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B247" t="s">
-        <v>646</v>
+        <v>367</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B248" t="s">
-        <v>370</v>
+        <v>605</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c r="B249" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B250" t="s">
-        <v>648</v>
+        <v>78</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B251" t="s">
-        <v>371</v>
+        <v>79</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B252" t="s">
-        <v>629</v>
+        <v>80</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B253" t="s">
-        <v>78</v>
+        <v>368</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B254" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B255" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c r="B256" t="s">
-        <v>81</v>
+        <v>370</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="B257" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>1890</v>
+        <v>1892</v>
       </c>
       <c r="B258" t="s">
-        <v>82</v>
+        <v>371</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>1890</v>
+        <v>1892</v>
       </c>
       <c r="B259" t="s">
         <v>83</v>
@@ -4507,34 +4465,34 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="B260" t="s">
-        <v>374</v>
+        <v>86</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="B261" t="s">
-        <v>373</v>
+        <v>87</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B262" t="s">
-        <v>375</v>
+        <v>151</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B263" t="s">
-        <v>84</v>
+        <v>549</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -4542,23 +4500,23 @@
         <v>1893</v>
       </c>
       <c r="B264" t="s">
-        <v>87</v>
+        <v>372</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="B265" t="s">
-        <v>88</v>
+        <v>550</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="B266" t="s">
-        <v>154</v>
+        <v>629</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -4566,31 +4524,31 @@
         <v>1893</v>
       </c>
       <c r="B267" t="s">
-        <v>569</v>
+        <v>614</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="B268" t="s">
-        <v>376</v>
+        <v>655</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B269" t="s">
-        <v>570</v>
+        <v>615</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B270" t="s">
-        <v>664</v>
+        <v>84</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4598,7 +4556,7 @@
         <v>1895</v>
       </c>
       <c r="B271" t="s">
-        <v>649</v>
+        <v>373</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -4606,7 +4564,7 @@
         <v>1895</v>
       </c>
       <c r="B272" t="s">
-        <v>650</v>
+        <v>374</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -4614,95 +4572,95 @@
         <v>1895</v>
       </c>
       <c r="B273" t="s">
-        <v>85</v>
+        <v>543</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B274" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B275" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B276" t="s">
-        <v>563</v>
+        <v>85</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B277" t="s">
-        <v>380</v>
+        <v>104</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B278" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B279" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="B280" t="s">
-        <v>105</v>
+        <v>586</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="B281" t="s">
-        <v>381</v>
+        <v>622</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="B282" t="s">
-        <v>106</v>
+        <v>600</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="B283" t="s">
-        <v>610</v>
+        <v>379</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="B284" t="s">
-        <v>657</v>
+        <v>378</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -4710,31 +4668,31 @@
         <v>1899</v>
       </c>
       <c r="B285" t="s">
-        <v>624</v>
+        <v>106</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="B286" t="s">
-        <v>383</v>
+        <v>595</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="B287" t="s">
-        <v>382</v>
+        <v>596</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="B288" t="s">
-        <v>107</v>
+        <v>380</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -4742,7 +4700,7 @@
         <v>1900</v>
       </c>
       <c r="B289" t="s">
-        <v>619</v>
+        <v>107</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -4750,60 +4708,60 @@
         <v>1900</v>
       </c>
       <c r="B290" t="s">
-        <v>620</v>
+        <v>108</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B291" t="s">
-        <v>384</v>
+        <v>573</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B292" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="B293" t="s">
-        <v>109</v>
+        <v>381</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="B294" t="s">
-        <v>597</v>
+        <v>110</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="B295" t="s">
-        <v>110</v>
+        <v>382</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B296" t="s">
-        <v>385</v>
+        <v>574</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B297" t="s">
         <v>111</v>
@@ -4811,26 +4769,26 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="B298" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="B299" t="s">
-        <v>598</v>
+        <v>112</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="B300" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -4838,95 +4796,95 @@
         <v>1904</v>
       </c>
       <c r="B301" t="s">
-        <v>387</v>
+        <v>114</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="B302" t="s">
-        <v>113</v>
+        <v>384</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="B303" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>1904</v>
+        <v>1906</v>
       </c>
       <c r="B304" t="s">
-        <v>115</v>
+        <v>386</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="B305" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="B306" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B307" t="s">
-        <v>390</v>
+        <v>116</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B308" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B309" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="B310" t="s">
-        <v>117</v>
+        <v>388</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="B311" t="s">
-        <v>391</v>
+        <v>156</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="B312" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -4934,95 +4892,95 @@
         <v>1908</v>
       </c>
       <c r="B313" t="s">
-        <v>392</v>
+        <v>158</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B314" t="s">
-        <v>159</v>
+        <v>390</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B315" t="s">
-        <v>160</v>
+        <v>389</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B316" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="B317" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="B318" t="s">
-        <v>393</v>
+        <v>160</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="B319" t="s">
-        <v>162</v>
+        <v>392</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="B320" t="s">
-        <v>395</v>
+        <v>544</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="B321" t="s">
-        <v>163</v>
+        <v>575</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B322" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B323" t="s">
-        <v>564</v>
+        <v>161</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B324" t="s">
-        <v>599</v>
+        <v>162</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -5030,7 +4988,7 @@
         <v>1912</v>
       </c>
       <c r="B325" t="s">
-        <v>397</v>
+        <v>163</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -5038,220 +4996,220 @@
         <v>1912</v>
       </c>
       <c r="B326" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="B327" t="s">
-        <v>165</v>
+        <v>394</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="B328" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="B329" t="s">
-        <v>170</v>
+        <v>554</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="B330" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="B331" t="s">
-        <v>167</v>
+        <v>396</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="B332" t="s">
-        <v>574</v>
+        <v>165</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="B333" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="B334" t="s">
-        <v>400</v>
+        <v>166</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="B335" t="s">
-        <v>168</v>
+        <v>630</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="B336" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="B337" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="B338" t="s">
-        <v>665</v>
+        <v>399</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="B339" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="B340" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="B341" t="s">
-        <v>403</v>
+        <v>583</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="B342" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="B343" t="s">
-        <v>172</v>
+        <v>402</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="B344" t="s">
-        <v>607</v>
+        <v>172</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="B345" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="B346" t="s">
-        <v>406</v>
+        <v>173</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="B347" t="s">
-        <v>175</v>
+        <v>404</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="B348" t="s">
-        <v>407</v>
+        <v>555</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="B349" t="s">
-        <v>176</v>
+        <v>405</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="B350" t="s">
-        <v>408</v>
+        <v>174</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="B351" t="s">
-        <v>575</v>
+        <v>175</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="B352" t="s">
-        <v>409</v>
+        <v>176</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="B353" t="s">
         <v>177</v>
@@ -5259,26 +5217,26 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="B354" t="s">
-        <v>178</v>
+        <v>407</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="B355" t="s">
-        <v>179</v>
+        <v>406</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="B356" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -5286,143 +5244,143 @@
         <v>1924</v>
       </c>
       <c r="B357" t="s">
-        <v>411</v>
+        <v>602</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="B358" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="B359" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="B360" t="s">
-        <v>626</v>
+        <v>180</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="B361" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="B362" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="B363" t="s">
-        <v>183</v>
+        <v>410</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="B364" t="s">
-        <v>413</v>
+        <v>556</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="B365" t="s">
-        <v>184</v>
+        <v>411</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="B366" t="s">
-        <v>414</v>
+        <v>182</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="B367" t="s">
-        <v>576</v>
+        <v>412</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="B368" t="s">
-        <v>415</v>
+        <v>183</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="B369" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="B370" t="s">
-        <v>416</v>
+        <v>185</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="B371" t="s">
-        <v>186</v>
+        <v>576</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B372" t="s">
-        <v>187</v>
+        <v>607</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B373" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B374" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -5430,28 +5388,28 @@
         <v>1931</v>
       </c>
       <c r="B375" t="s">
-        <v>635</v>
+        <v>187</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="B376" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="B377" t="s">
-        <v>611</v>
+        <v>189</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="B378" t="s">
         <v>190</v>
@@ -5459,15 +5417,15 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="B379" t="s">
-        <v>636</v>
+        <v>413</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="B380" t="s">
         <v>191</v>
@@ -5475,7 +5433,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="B381" t="s">
         <v>192</v>
@@ -5483,159 +5441,159 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="B382" t="s">
-        <v>193</v>
+        <v>414</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="B383" t="s">
-        <v>417</v>
+        <v>193</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="B384" t="s">
-        <v>194</v>
+        <v>416</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="B385" t="s">
-        <v>195</v>
+        <v>415</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="B386" t="s">
-        <v>418</v>
+        <v>194</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="B387" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="B388" t="s">
-        <v>420</v>
+        <v>196</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="B389" t="s">
-        <v>419</v>
+        <v>197</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="B390" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="B391" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="B392" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="B393" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="B394" t="s">
-        <v>203</v>
+        <v>417</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="B395" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="B396" t="s">
-        <v>201</v>
+        <v>418</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="B397" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="B398" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="B399" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B400" t="s">
-        <v>422</v>
+        <v>205</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B401" t="s">
         <v>206</v>
@@ -5643,31 +5601,31 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="B402" t="s">
-        <v>423</v>
+        <v>207</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="B403" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="B404" t="s">
-        <v>208</v>
+        <v>420</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="B405" t="s">
         <v>209</v>
@@ -5675,7 +5633,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="B406" t="s">
         <v>210</v>
@@ -5683,55 +5641,55 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>1941</v>
-      </c>
-      <c r="B407" t="s">
-        <v>211</v>
+        <v>1942</v>
+      </c>
+      <c r="B407" s="8" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>1941</v>
-      </c>
-      <c r="B408" t="s">
-        <v>424</v>
+        <v>1943</v>
+      </c>
+      <c r="B408" s="8" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>1942</v>
-      </c>
-      <c r="B409" t="s">
-        <v>212</v>
+        <v>1943</v>
+      </c>
+      <c r="B409" s="8" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="B410" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
-        <v>1943</v>
-      </c>
-      <c r="B412" s="8" t="s">
-        <v>427</v>
+        <v>1944</v>
+      </c>
+      <c r="B412" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="B413" s="8" t="s">
         <v>426</v>
@@ -5739,63 +5697,63 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
-        <v>1943</v>
-      </c>
-      <c r="B414" t="s">
-        <v>214</v>
+        <v>1945</v>
+      </c>
+      <c r="B414" s="8" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="B416" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
-        <v>1945</v>
-      </c>
-      <c r="B417" s="8" t="s">
-        <v>430</v>
+        <v>1946</v>
+      </c>
+      <c r="B417" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
-        <v>1945</v>
-      </c>
-      <c r="B418" s="8" t="s">
-        <v>431</v>
+        <v>1946</v>
+      </c>
+      <c r="B418" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
-        <v>1945</v>
-      </c>
-      <c r="B419" s="8" t="s">
-        <v>429</v>
+        <v>1946</v>
+      </c>
+      <c r="B419" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="B420" t="s">
-        <v>216</v>
+        <v>428</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="B421" t="s">
         <v>217</v>
@@ -5803,7 +5761,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="B422" t="s">
         <v>218</v>
@@ -5811,199 +5769,199 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="B423" t="s">
-        <v>219</v>
+        <v>429</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="B424" t="s">
-        <v>432</v>
+        <v>545</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="B425" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="B426" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="B427" t="s">
-        <v>433</v>
+        <v>221</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="B428" t="s">
-        <v>565</v>
+        <v>430</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="B429" t="s">
-        <v>222</v>
+        <v>431</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="B430" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="B431" t="s">
-        <v>224</v>
+        <v>433</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="B432" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="B433" t="s">
-        <v>435</v>
+        <v>223</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="B434" t="s">
-        <v>225</v>
+        <v>434</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="B435" t="s">
-        <v>437</v>
+        <v>224</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="B436" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="B437" t="s">
-        <v>226</v>
+        <v>436</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="B438" t="s">
-        <v>438</v>
+        <v>606</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="B439" t="s">
-        <v>227</v>
+        <v>437</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="B440" t="s">
-        <v>631</v>
+        <v>226</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="B441" t="s">
-        <v>632</v>
+        <v>225</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="B442" t="s">
-        <v>439</v>
+        <v>592</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="B443" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="B444" t="s">
-        <v>634</v>
+        <v>440</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="B445" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="B446" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="B447" t="s">
         <v>228</v>
@@ -6011,23 +5969,23 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="B448" t="s">
-        <v>630</v>
+        <v>442</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="B449" t="s">
-        <v>616</v>
+        <v>441</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="B450" t="s">
         <v>443</v>
@@ -6035,23 +5993,23 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="B451" t="s">
-        <v>444</v>
+        <v>229</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="B452" t="s">
-        <v>442</v>
+        <v>577</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="B453" t="s">
         <v>230</v>
@@ -6059,47 +6017,47 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="B454" t="s">
-        <v>231</v>
+        <v>445</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="B455" t="s">
-        <v>633</v>
+        <v>444</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="B456" t="s">
-        <v>446</v>
+        <v>231</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="B457" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="B458" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="B459" t="s">
         <v>232</v>
@@ -6107,135 +6065,135 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="B460" t="s">
-        <v>601</v>
+        <v>449</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="B461" t="s">
-        <v>233</v>
+        <v>448</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="B462" t="s">
-        <v>449</v>
+        <v>233</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="B463" t="s">
-        <v>448</v>
+        <v>234</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="B464" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="B465" t="s">
-        <v>637</v>
+        <v>450</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="B466" t="s">
-        <v>451</v>
+        <v>236</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
-        <v>1958</v>
+        <v>1961</v>
       </c>
       <c r="B467" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
-        <v>1958</v>
+        <v>1961</v>
       </c>
       <c r="B468" t="s">
-        <v>235</v>
+        <v>452</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="B469" t="s">
-        <v>453</v>
+        <v>237</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="B470" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="B471" t="s">
-        <v>236</v>
+        <v>453</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="B472" t="s">
-        <v>237</v>
+        <v>557</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="B473" t="s">
-        <v>238</v>
+        <v>590</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="B474" t="s">
-        <v>454</v>
+        <v>558</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
-        <v>1960</v>
+        <v>1963</v>
       </c>
       <c r="B475" t="s">
-        <v>239</v>
+        <v>591</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="B476" t="s">
         <v>455</v>
@@ -6243,7 +6201,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
-        <v>1961</v>
+        <v>1964</v>
       </c>
       <c r="B477" t="s">
         <v>456</v>
@@ -6251,23 +6209,23 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
-        <v>1961</v>
+        <v>1964</v>
       </c>
       <c r="B478" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
-        <v>1962</v>
+        <v>1964</v>
       </c>
       <c r="B479" t="s">
-        <v>458</v>
+        <v>239</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="B480" t="s">
         <v>457</v>
@@ -6275,767 +6233,767 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="B481" t="s">
-        <v>577</v>
+        <v>458</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="B482" t="s">
-        <v>614</v>
+        <v>459</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="B483" t="s">
-        <v>578</v>
+        <v>240</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="B484" t="s">
-        <v>638</v>
+        <v>460</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="B485" t="s">
-        <v>641</v>
+        <v>241</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="B486" t="s">
-        <v>615</v>
+        <v>559</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="B487" t="s">
-        <v>459</v>
+        <v>242</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
-        <v>1964</v>
+        <v>1967</v>
       </c>
       <c r="B488" t="s">
-        <v>639</v>
+        <v>462</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
-        <v>1964</v>
+        <v>1967</v>
       </c>
       <c r="B489" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
-        <v>1964</v>
+        <v>1967</v>
       </c>
       <c r="B490" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
-        <v>1964</v>
+        <v>1967</v>
       </c>
       <c r="B491" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="B492" t="s">
-        <v>461</v>
+        <v>245</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="B493" t="s">
-        <v>462</v>
+        <v>246</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="B494" t="s">
-        <v>463</v>
+        <v>247</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="B495" t="s">
-        <v>243</v>
+        <v>560</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="B496" t="s">
-        <v>640</v>
+        <v>608</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="B497" t="s">
-        <v>464</v>
+        <v>546</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="B498" t="s">
-        <v>244</v>
+        <v>465</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="B499" t="s">
-        <v>579</v>
+        <v>248</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="B500" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B501" t="s">
-        <v>466</v>
+        <v>250</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="B502" t="s">
-        <v>465</v>
+        <v>616</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="B503" t="s">
-        <v>246</v>
+        <v>593</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="B504" t="s">
-        <v>247</v>
+        <v>464</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="B505" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="B506" t="s">
-        <v>249</v>
+        <v>561</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="B507" t="s">
-        <v>250</v>
+        <v>463</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="B508" t="s">
-        <v>580</v>
+        <v>551</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
-        <v>1968</v>
+        <v>1971</v>
       </c>
       <c r="B509" t="s">
-        <v>643</v>
+        <v>252</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
-        <v>1968</v>
+        <v>1971</v>
       </c>
       <c r="B510" t="s">
-        <v>642</v>
+        <v>253</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="B511" t="s">
-        <v>566</v>
+        <v>466</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="B512" t="s">
-        <v>469</v>
+        <v>631</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="B513" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
-        <v>1968</v>
+        <v>1973</v>
       </c>
       <c r="B514" t="s">
-        <v>252</v>
+        <v>467</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
-        <v>1968</v>
+        <v>1973</v>
       </c>
       <c r="B515" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
-        <v>1969</v>
+        <v>1973</v>
       </c>
       <c r="B516" t="s">
-        <v>651</v>
+        <v>255</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
-        <v>1969</v>
+        <v>1974</v>
       </c>
       <c r="B517" t="s">
-        <v>617</v>
+        <v>468</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
-        <v>1969</v>
+        <v>1974</v>
       </c>
       <c r="B518" t="s">
-        <v>468</v>
+        <v>256</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
-        <v>1969</v>
+        <v>1974</v>
       </c>
       <c r="B519" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
-        <v>1969</v>
+        <v>1975</v>
       </c>
       <c r="B520" t="s">
-        <v>581</v>
+        <v>469</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
-        <v>1970</v>
+        <v>1975</v>
       </c>
       <c r="B521" t="s">
-        <v>467</v>
+        <v>258</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
-        <v>1970</v>
+        <v>1975</v>
       </c>
       <c r="B522" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
-        <v>1971</v>
+        <v>1976</v>
       </c>
       <c r="B523" t="s">
-        <v>255</v>
+        <v>594</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
-        <v>1971</v>
+        <v>1976</v>
       </c>
       <c r="B524" t="s">
-        <v>256</v>
+        <v>470</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="B525" t="s">
-        <v>470</v>
+        <v>259</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="B526" t="s">
-        <v>666</v>
+        <v>273</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="B527" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
-        <v>1973</v>
+        <v>1977</v>
       </c>
       <c r="B528" t="s">
-        <v>471</v>
+        <v>623</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
-        <v>1973</v>
+        <v>1977</v>
       </c>
       <c r="B529" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
-        <v>1973</v>
+        <v>1977</v>
       </c>
       <c r="B530" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="B531" t="s">
-        <v>472</v>
+        <v>263</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="B532" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="B533" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
-        <v>1975</v>
+        <v>1978</v>
       </c>
       <c r="B534" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
-        <v>1975</v>
+        <v>1978</v>
       </c>
       <c r="B535" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="B536" t="s">
-        <v>582</v>
+        <v>552</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
-        <v>1976</v>
+        <v>1979</v>
       </c>
       <c r="B537" t="s">
-        <v>618</v>
+        <v>472</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
-        <v>1976</v>
+        <v>1979</v>
       </c>
       <c r="B538" t="s">
-        <v>474</v>
+        <v>268</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="B539" t="s">
-        <v>262</v>
+        <v>474</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="B540" t="s">
-        <v>276</v>
+        <v>473</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="B541" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="B542" t="s">
-        <v>658</v>
+        <v>270</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="B543" t="s">
-        <v>264</v>
+        <v>476</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="B544" t="s">
-        <v>265</v>
+        <v>475</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="B545" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="B546" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
-        <v>1977</v>
+        <v>1982</v>
       </c>
       <c r="B547" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
-        <v>1978</v>
+        <v>1982</v>
       </c>
       <c r="B548" t="s">
-        <v>475</v>
+        <v>276</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
-        <v>1978</v>
+        <v>1982</v>
       </c>
       <c r="B549" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="B550" t="s">
-        <v>572</v>
+        <v>278</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
-        <v>1979</v>
+        <v>1983</v>
       </c>
       <c r="B551" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
-        <v>1979</v>
+        <v>1983</v>
       </c>
       <c r="B552" t="s">
-        <v>271</v>
+        <v>478</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
-        <v>1980</v>
+        <v>1983</v>
       </c>
       <c r="B553" t="s">
-        <v>478</v>
+        <v>632</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="B554" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="B555" t="s">
-        <v>277</v>
+        <v>479</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="B556" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
-        <v>1981</v>
+        <v>1984</v>
       </c>
       <c r="B557" t="s">
-        <v>480</v>
+        <v>280</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="B558" t="s">
-        <v>479</v>
+        <v>578</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="B559" t="s">
-        <v>274</v>
+        <v>579</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="B560" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
-        <v>1982</v>
+        <v>1986</v>
       </c>
       <c r="B561" t="s">
-        <v>278</v>
+        <v>482</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
-        <v>1982</v>
+        <v>1986</v>
       </c>
       <c r="B562" t="s">
-        <v>279</v>
+        <v>481</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
-        <v>1982</v>
+        <v>1986</v>
       </c>
       <c r="B563" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
-        <v>1982</v>
+        <v>1986</v>
       </c>
       <c r="B564" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
-        <v>1983</v>
+        <v>1986</v>
       </c>
       <c r="B565" t="s">
-        <v>481</v>
+        <v>563</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="B566" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="B567" t="s">
-        <v>667</v>
+        <v>564</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="B568" t="s">
-        <v>484</v>
+        <v>284</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="B569" t="s">
-        <v>483</v>
+        <v>624</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="B570" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="B571" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="B572" t="s">
-        <v>602</v>
+        <v>287</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="B573" t="s">
-        <v>603</v>
+        <v>288</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="B574" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="B575" t="s">
-        <v>486</v>
+        <v>530</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="B576" t="s">
         <v>485</v>
@@ -7043,31 +7001,31 @@
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="B577" t="s">
-        <v>285</v>
+        <v>484</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="B578" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
-        <v>1986</v>
+        <v>1991</v>
       </c>
       <c r="B579" t="s">
-        <v>583</v>
+        <v>486</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="B580" t="s">
         <v>487</v>
@@ -7075,183 +7033,183 @@
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="B581" t="s">
-        <v>584</v>
+        <v>488</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="B582" t="s">
-        <v>287</v>
+        <v>489</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="B583" t="s">
-        <v>659</v>
+        <v>316</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="B584" t="s">
-        <v>288</v>
+        <v>588</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
-        <v>1988</v>
+        <v>1993</v>
       </c>
       <c r="B585" t="s">
-        <v>289</v>
+        <v>490</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="B586" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
-        <v>1989</v>
+        <v>1994</v>
       </c>
       <c r="B587" t="s">
-        <v>291</v>
+        <v>491</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
-        <v>1989</v>
+        <v>1994</v>
       </c>
       <c r="B588" t="s">
-        <v>292</v>
+        <v>603</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="B589" t="s">
-        <v>550</v>
+        <v>292</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
-        <v>1990</v>
+        <v>1995</v>
       </c>
       <c r="B590" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
-        <v>1990</v>
+        <v>1995</v>
       </c>
       <c r="B591" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
-        <v>1990</v>
+        <v>1995</v>
       </c>
       <c r="B592" t="s">
-        <v>293</v>
+        <v>492</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="B593" t="s">
-        <v>490</v>
+        <v>296</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
-        <v>1991</v>
+        <v>1996</v>
       </c>
       <c r="B594" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
-        <v>1991</v>
+        <v>1996</v>
       </c>
       <c r="B595" t="s">
-        <v>492</v>
+        <v>299</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="B596" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="B597" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
-        <v>1992</v>
+        <v>1998</v>
       </c>
       <c r="B598" t="s">
-        <v>612</v>
+        <v>498</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
-        <v>1993</v>
+        <v>1998</v>
       </c>
       <c r="B599" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
-        <v>1993</v>
+        <v>1998</v>
       </c>
       <c r="B600" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
-        <v>1994</v>
+        <v>1999</v>
       </c>
       <c r="B601" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
-        <v>1994</v>
+        <v>1999</v>
       </c>
       <c r="B602" t="s">
-        <v>627</v>
+        <v>499</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
-        <v>1994</v>
+        <v>1999</v>
       </c>
       <c r="B603" t="s">
         <v>295</v>
@@ -7259,47 +7217,47 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="B604" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="B605" t="s">
-        <v>497</v>
+        <v>300</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="B606" t="s">
-        <v>496</v>
+        <v>535</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
-        <v>1995</v>
+        <v>2001</v>
       </c>
       <c r="B607" t="s">
-        <v>299</v>
+        <v>536</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
-        <v>1996</v>
+        <v>2001</v>
       </c>
       <c r="B608" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
-        <v>1996</v>
+        <v>2001</v>
       </c>
       <c r="B609" t="s">
         <v>302</v>
@@ -7307,143 +7265,143 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="B610" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="B611" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="B612" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="B613" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="B614" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="B615" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="B616" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="B617" t="s">
-        <v>298</v>
+        <v>538</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="B618" t="s">
-        <v>505</v>
+        <v>547</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="B619" t="s">
-        <v>303</v>
+        <v>506</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="B620" t="s">
-        <v>555</v>
+        <v>303</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="B621" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="B622" t="s">
-        <v>506</v>
+        <v>540</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="B623" t="s">
-        <v>305</v>
+        <v>580</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="B624" t="s">
-        <v>507</v>
+        <v>304</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="B625" t="s">
-        <v>300</v>
+        <v>507</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="B626" t="s">
-        <v>551</v>
+        <v>582</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="B627" t="s">
         <v>508</v>
@@ -7451,346 +7409,234 @@
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="B628" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="B629" t="s">
-        <v>557</v>
+        <v>509</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="B630" t="s">
-        <v>509</v>
+        <v>306</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="B631" t="s">
-        <v>558</v>
+        <v>532</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="B632" t="s">
-        <v>567</v>
+        <v>510</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="B633" t="s">
-        <v>510</v>
+        <v>307</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="B634" t="s">
-        <v>306</v>
+        <v>541</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="B635" t="s">
-        <v>559</v>
+        <v>308</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="B636" t="s">
-        <v>560</v>
+        <v>511</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="B637" t="s">
-        <v>604</v>
+        <v>309</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="B638" t="s">
-        <v>307</v>
+        <v>512</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="B639" t="s">
-        <v>511</v>
+        <v>581</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="B640" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="B641" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="B642" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="B643" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="B644" t="s">
-        <v>309</v>
+        <v>514</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="B645" t="s">
-        <v>552</v>
+        <v>311</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="B646" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="B647" t="s">
-        <v>310</v>
+        <v>533</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="B648" t="s">
-        <v>561</v>
+        <v>312</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="B649" t="s">
-        <v>311</v>
+        <v>516</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="B650" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="B651" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="B652" t="s">
-        <v>516</v>
+        <v>553</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="B653" t="s">
-        <v>605</v>
+        <v>313</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="B654" t="s">
-        <v>613</v>
+        <v>518</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="B655" t="s">
-        <v>517</v>
+        <v>291</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="B656" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A657" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B657" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A658" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B658" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A659" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B659" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A660" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B660" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A661" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B661" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A662" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B662" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A663" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B663" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A664" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B664" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A665" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B665" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A666" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B666" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A667" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B667" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A668" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B668" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A669" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B669" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A670" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B670" t="s">
-        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/historical_items.xlsx
+++ b/xlsx/historical_items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_k\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5296C2-E531-4056-9A1C-BEB09FD0DC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED7D3A1-BC20-4DF6-BD27-065AB06CDDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{171EF181-1F3C-7A42-9B63-D835B687641B}"/>
   </bookViews>
@@ -1581,9 +1581,6 @@
     <t>Opening of the Lynx Blue Line Extension in Charlotte, North Carolina.</t>
   </si>
   <si>
-    <t>Lund , Sweden tramway opened.</t>
-  </si>
-  <si>
     <t>Great Barrington and Alford Turnpike closes.</t>
   </si>
   <si>
@@ -1830,9 +1827,6 @@
     <t>The first section of the Paris Metro opens.</t>
   </si>
   <si>
-    <t>The first trains operate in what is now Romania between Oravița, Transylvania, and Baziaș, on the Danube.</t>
-  </si>
-  <si>
     <t>Long Island Railroad 401, the first diesel-electric locomotive used in mainline service, is demonstrated for the first time.</t>
   </si>
   <si>
@@ -1993,6 +1987,12 @@
   </si>
   <si>
     <t>Nantasket Beach Branch electrified. One of first U.S steam railroad electrifications.</t>
+  </si>
+  <si>
+    <t>The first trains operate in what is now Romania between Oravita, Transylvania, and Bazias, on the Danube.</t>
+  </si>
+  <si>
+    <t>Lund, Sweden tramway opened.</t>
   </si>
 </sst>
 </file>
@@ -2381,8 +2381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8479D0E-E3F6-DA41-AEC9-2CE4981D9A6E}">
   <dimension ref="A1:B656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A496" sqref="A496"/>
+    <sheetView tabSelected="1" topLeftCell="A630" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B654" sqref="B654"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2393,10 +2393,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2412,7 +2412,7 @@
         <v>1800</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2420,7 +2420,7 @@
         <v>1800</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2428,7 +2428,7 @@
         <v>1800</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2436,7 +2436,7 @@
         <v>1800</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2444,7 +2444,7 @@
         <v>1801</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2484,7 +2484,7 @@
         <v>1803</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2508,7 +2508,7 @@
         <v>1803</v>
       </c>
       <c r="B15" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2532,7 +2532,7 @@
         <v>1804</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2540,7 +2540,7 @@
         <v>1804</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2564,7 +2564,7 @@
         <v>1805</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2572,7 +2572,7 @@
         <v>1806</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2580,7 +2580,7 @@
         <v>1805</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2596,7 +2596,7 @@
         <v>1806</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2700,7 +2700,7 @@
         <v>1811</v>
       </c>
       <c r="B39" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2740,7 +2740,7 @@
         <v>1812</v>
       </c>
       <c r="B44" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2828,7 +2828,7 @@
         <v>1834</v>
       </c>
       <c r="B55" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2892,7 +2892,7 @@
         <v>1821</v>
       </c>
       <c r="B63" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2908,7 +2908,7 @@
         <v>1822</v>
       </c>
       <c r="B65" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2916,7 +2916,7 @@
         <v>1803</v>
       </c>
       <c r="B66" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2940,7 +2940,7 @@
         <v>1824</v>
       </c>
       <c r="B69" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2996,7 +2996,7 @@
         <v>1827</v>
       </c>
       <c r="B76" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -3060,7 +3060,7 @@
         <v>1830</v>
       </c>
       <c r="B84" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -3100,7 +3100,7 @@
         <v>1830</v>
       </c>
       <c r="B89" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -3108,7 +3108,7 @@
         <v>1831</v>
       </c>
       <c r="B90" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -3188,7 +3188,7 @@
         <v>1833</v>
       </c>
       <c r="B100" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -3212,7 +3212,7 @@
         <v>1834</v>
       </c>
       <c r="B103" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -3268,7 +3268,7 @@
         <v>1836</v>
       </c>
       <c r="B110" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3324,7 +3324,7 @@
         <v>1837</v>
       </c>
       <c r="B117" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -3332,7 +3332,7 @@
         <v>1837</v>
       </c>
       <c r="B118" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -3356,7 +3356,7 @@
         <v>1838</v>
       </c>
       <c r="B121" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3428,7 +3428,7 @@
         <v>1841</v>
       </c>
       <c r="B130" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -3492,7 +3492,7 @@
         <v>1844</v>
       </c>
       <c r="B138" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -3540,7 +3540,7 @@
         <v>1846</v>
       </c>
       <c r="B144" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -3548,7 +3548,7 @@
         <v>1846</v>
       </c>
       <c r="B145" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3564,7 +3564,7 @@
         <v>1846</v>
       </c>
       <c r="B147" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3572,7 +3572,7 @@
         <v>1847</v>
       </c>
       <c r="B148" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3596,7 +3596,7 @@
         <v>1848</v>
       </c>
       <c r="B151" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3604,7 +3604,7 @@
         <v>1837</v>
       </c>
       <c r="B152" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3612,7 +3612,7 @@
         <v>1848</v>
       </c>
       <c r="B153" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3628,7 +3628,7 @@
         <v>1849</v>
       </c>
       <c r="B155" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3652,7 +3652,7 @@
         <v>1850</v>
       </c>
       <c r="B158" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3700,7 +3700,7 @@
         <v>1853</v>
       </c>
       <c r="B164" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -3716,7 +3716,7 @@
         <v>1854</v>
       </c>
       <c r="B166" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -3724,7 +3724,7 @@
         <v>1854</v>
       </c>
       <c r="B167" t="s">
-        <v>601</v>
+        <v>654</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -3740,7 +3740,7 @@
         <v>1854</v>
       </c>
       <c r="B169" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -3764,7 +3764,7 @@
         <v>1855</v>
       </c>
       <c r="B172" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3796,7 +3796,7 @@
         <v>1856</v>
       </c>
       <c r="B176" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3828,7 +3828,7 @@
         <v>1858</v>
       </c>
       <c r="B180" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3860,7 +3860,7 @@
         <v>1859</v>
       </c>
       <c r="B184" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3916,7 +3916,7 @@
         <v>1862</v>
       </c>
       <c r="B191" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3956,7 +3956,7 @@
         <v>1865</v>
       </c>
       <c r="B196" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3996,7 +3996,7 @@
         <v>1867</v>
       </c>
       <c r="B201" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -4004,7 +4004,7 @@
         <v>1867</v>
       </c>
       <c r="B202" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -4044,7 +4044,7 @@
         <v>1869</v>
       </c>
       <c r="B207" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -4060,7 +4060,7 @@
         <v>1870</v>
       </c>
       <c r="B209" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -4132,7 +4132,7 @@
         <v>1874</v>
       </c>
       <c r="B218" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -4148,7 +4148,7 @@
         <v>1875</v>
       </c>
       <c r="B220" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -4244,7 +4244,7 @@
         <v>1882</v>
       </c>
       <c r="B232" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -4276,7 +4276,7 @@
         <v>1883</v>
       </c>
       <c r="B236" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -4292,7 +4292,7 @@
         <v>1877</v>
       </c>
       <c r="B238" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -4332,7 +4332,7 @@
         <v>1887</v>
       </c>
       <c r="B243" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -4356,7 +4356,7 @@
         <v>1888</v>
       </c>
       <c r="B246" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -4372,7 +4372,7 @@
         <v>1888</v>
       </c>
       <c r="B248" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -4492,7 +4492,7 @@
         <v>1893</v>
       </c>
       <c r="B263" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -4508,7 +4508,7 @@
         <v>1894</v>
       </c>
       <c r="B265" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -4516,7 +4516,7 @@
         <v>1894</v>
       </c>
       <c r="B266" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -4524,7 +4524,7 @@
         <v>1893</v>
       </c>
       <c r="B267" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -4532,7 +4532,7 @@
         <v>1895</v>
       </c>
       <c r="B268" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -4540,7 +4540,7 @@
         <v>1895</v>
       </c>
       <c r="B269" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -4572,7 +4572,7 @@
         <v>1895</v>
       </c>
       <c r="B273" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -4628,7 +4628,7 @@
         <v>1898</v>
       </c>
       <c r="B280" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -4636,7 +4636,7 @@
         <v>1898</v>
       </c>
       <c r="B281" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -4644,7 +4644,7 @@
         <v>1899</v>
       </c>
       <c r="B282" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -4676,7 +4676,7 @@
         <v>1900</v>
       </c>
       <c r="B286" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -4684,7 +4684,7 @@
         <v>1900</v>
       </c>
       <c r="B287" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -4716,7 +4716,7 @@
         <v>1901</v>
       </c>
       <c r="B291" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -4756,7 +4756,7 @@
         <v>1903</v>
       </c>
       <c r="B296" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -4948,7 +4948,7 @@
         <v>1911</v>
       </c>
       <c r="B320" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -4956,7 +4956,7 @@
         <v>1911</v>
       </c>
       <c r="B321" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -5020,7 +5020,7 @@
         <v>1913</v>
       </c>
       <c r="B329" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -5068,7 +5068,7 @@
         <v>1915</v>
       </c>
       <c r="B335" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -5116,7 +5116,7 @@
         <v>1918</v>
       </c>
       <c r="B341" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -5172,7 +5172,7 @@
         <v>1921</v>
       </c>
       <c r="B348" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -5244,7 +5244,7 @@
         <v>1924</v>
       </c>
       <c r="B357" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -5300,7 +5300,7 @@
         <v>1927</v>
       </c>
       <c r="B364" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -5356,7 +5356,7 @@
         <v>1930</v>
       </c>
       <c r="B371" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -5364,7 +5364,7 @@
         <v>1931</v>
       </c>
       <c r="B372" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -5380,7 +5380,7 @@
         <v>1931</v>
       </c>
       <c r="B374" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -5780,7 +5780,7 @@
         <v>1948</v>
       </c>
       <c r="B424" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -5892,7 +5892,7 @@
         <v>1953</v>
       </c>
       <c r="B438" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -5924,7 +5924,7 @@
         <v>1955</v>
       </c>
       <c r="B442" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -6004,7 +6004,7 @@
         <v>1957</v>
       </c>
       <c r="B452" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -6164,7 +6164,7 @@
         <v>1962</v>
       </c>
       <c r="B472" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -6172,7 +6172,7 @@
         <v>1962</v>
       </c>
       <c r="B473" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -6180,7 +6180,7 @@
         <v>1962</v>
       </c>
       <c r="B474" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -6188,7 +6188,7 @@
         <v>1963</v>
       </c>
       <c r="B475" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -6276,7 +6276,7 @@
         <v>1966</v>
       </c>
       <c r="B486" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -6348,7 +6348,7 @@
         <v>1967</v>
       </c>
       <c r="B495" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -6356,7 +6356,7 @@
         <v>1968</v>
       </c>
       <c r="B496" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -6364,7 +6364,7 @@
         <v>1968</v>
       </c>
       <c r="B497" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -6404,7 +6404,7 @@
         <v>1969</v>
       </c>
       <c r="B502" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
@@ -6412,7 +6412,7 @@
         <v>1969</v>
       </c>
       <c r="B503" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -6436,7 +6436,7 @@
         <v>1969</v>
       </c>
       <c r="B506" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
@@ -6452,7 +6452,7 @@
         <v>1970</v>
       </c>
       <c r="B508" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
@@ -6484,7 +6484,7 @@
         <v>1972</v>
       </c>
       <c r="B512" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
@@ -6564,7 +6564,7 @@
         <v>1975</v>
       </c>
       <c r="B522" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -6572,7 +6572,7 @@
         <v>1976</v>
       </c>
       <c r="B523" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
@@ -6612,7 +6612,7 @@
         <v>1977</v>
       </c>
       <c r="B528" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
@@ -6676,7 +6676,7 @@
         <v>1979</v>
       </c>
       <c r="B536" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
@@ -6812,7 +6812,7 @@
         <v>1983</v>
       </c>
       <c r="B553" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
@@ -6852,7 +6852,7 @@
         <v>1985</v>
       </c>
       <c r="B558" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
@@ -6860,7 +6860,7 @@
         <v>1985</v>
       </c>
       <c r="B559" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
@@ -6908,7 +6908,7 @@
         <v>1986</v>
       </c>
       <c r="B565" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
@@ -6924,7 +6924,7 @@
         <v>1987</v>
       </c>
       <c r="B567" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
@@ -6940,7 +6940,7 @@
         <v>1988</v>
       </c>
       <c r="B569" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
@@ -6988,7 +6988,7 @@
         <v>1990</v>
       </c>
       <c r="B575" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
@@ -7060,7 +7060,7 @@
         <v>1992</v>
       </c>
       <c r="B584" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
@@ -7092,7 +7092,7 @@
         <v>1994</v>
       </c>
       <c r="B588" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
@@ -7236,7 +7236,7 @@
         <v>2000</v>
       </c>
       <c r="B606" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
@@ -7244,7 +7244,7 @@
         <v>2001</v>
       </c>
       <c r="B607" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
@@ -7284,7 +7284,7 @@
         <v>2003</v>
       </c>
       <c r="B612" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
@@ -7308,7 +7308,7 @@
         <v>2004</v>
       </c>
       <c r="B615" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
@@ -7324,7 +7324,7 @@
         <v>2004</v>
       </c>
       <c r="B617" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
@@ -7332,7 +7332,7 @@
         <v>2004</v>
       </c>
       <c r="B618" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
@@ -7356,7 +7356,7 @@
         <v>2006</v>
       </c>
       <c r="B621" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
@@ -7364,7 +7364,7 @@
         <v>2006</v>
       </c>
       <c r="B622" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
@@ -7372,7 +7372,7 @@
         <v>2007</v>
       </c>
       <c r="B623" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
@@ -7396,7 +7396,7 @@
         <v>2008</v>
       </c>
       <c r="B626" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
@@ -7436,7 +7436,7 @@
         <v>2011</v>
       </c>
       <c r="B631" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
@@ -7460,7 +7460,7 @@
         <v>2012</v>
       </c>
       <c r="B634" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
@@ -7500,7 +7500,7 @@
         <v>2014</v>
       </c>
       <c r="B639" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
@@ -7508,7 +7508,7 @@
         <v>2014</v>
       </c>
       <c r="B640" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
@@ -7556,7 +7556,7 @@
         <v>2017</v>
       </c>
       <c r="B646" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
@@ -7564,7 +7564,7 @@
         <v>2017</v>
       </c>
       <c r="B647" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
@@ -7604,7 +7604,7 @@
         <v>2019</v>
       </c>
       <c r="B652" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
@@ -7620,7 +7620,7 @@
         <v>2020</v>
       </c>
       <c r="B654" t="s">
-        <v>518</v>
+        <v>655</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">

--- a/xlsx/historical_items.xlsx
+++ b/xlsx/historical_items.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_k\work_stuff\historical-transportation-map\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_k\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DF5B8C-8942-4CA6-980C-F555298F20ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A06B19E-F0CC-4EB7-925D-68276A36A22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{171EF181-1F3C-7A42-9B63-D835B687641B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="654">
   <si>
     <t>The U.S. capital is moved from Philadelphia to Washington, DC.</t>
   </si>
@@ -177,9 +177,6 @@
     <t>Wisconsin becomes 30th state of the Union.</t>
   </si>
   <si>
-    <t>New Haven Railroad opens.</t>
-  </si>
-  <si>
     <t>California becomes 31th state of the Union.</t>
   </si>
   <si>
@@ -432,12 +429,6 @@
     <t>First US wire suspension bridge for general traffic opens in Pennsylvania.</t>
   </si>
   <si>
-    <t>First passenger train service to Peekskill, New York (New Haven Railroad).</t>
-  </si>
-  <si>
-    <t>Completion of Grand Trunk Line, trains begin running over First North American railroad between Portland, Maine and Montreal</t>
-  </si>
-  <si>
     <t>First round-the-world trip by yacht (Cornelius Vanderbilt).</t>
   </si>
   <si>
@@ -1011,9 +1002,6 @@
     <t>Tom Thumb, the first American-built steam locomotive used on a common carrier railroad, is operated in a race against a horsecar.</t>
   </si>
   <si>
-    <t>The Boston and Maine Railroad is formed to build a railroad between Boston, Massachusetts, and Portland, Maine.</t>
-  </si>
-  <si>
     <t>The Camden and Amboy Rail Road, the first railroad to be built in New Jersey, is chartered.</t>
   </si>
   <si>
@@ -1158,9 +1146,6 @@
     <t>Introduction by Webb C. Ball of the General Railroad Timepiece Standards in North America, leading to significance of the railroad chronometer.</t>
   </si>
   <si>
-    <t>The New Haven and Hartford Railroad begins the first regular passenger service in the United States powered by electricity.</t>
-  </si>
-  <si>
     <t>Narrow gauge Wiscasset and Quebec Railroad opens from Wiscasset, Maine to Albion.</t>
   </si>
   <si>
@@ -1593,36 +1578,9 @@
     <t>Opening of the Lynx Blue Line Extension in Charlotte, North Carolina.</t>
   </si>
   <si>
-    <t>Lund , Sweden tramway opened.</t>
-  </si>
-  <si>
-    <t>Quincy Turnpike in Massachusetts opens.</t>
-  </si>
-  <si>
-    <t>Quincy Turnpike in Massachusetts closed.</t>
-  </si>
-  <si>
-    <t>Great Barrington and Alford Turnpike opens.</t>
-  </si>
-  <si>
     <t>Great Barrington and Alford Turnpike closes.</t>
   </si>
   <si>
-    <t>Medford Turnpike (mostly in Somerville) opens.</t>
-  </si>
-  <si>
-    <t>Braintree and Weymouth Turnpike opens.</t>
-  </si>
-  <si>
-    <t>New Bedford and Bridgewater Turnpike opens.</t>
-  </si>
-  <si>
-    <t>North Branch Turnpike (Winchendon) opens.</t>
-  </si>
-  <si>
-    <t>New Bedford and Bridgewater Turnpike (Weymouth) opens.</t>
-  </si>
-  <si>
     <t>New Bedford and Bridgewater Turnpike (Weymouth) closes.</t>
   </si>
   <si>
@@ -1632,48 +1590,24 @@
     <t>Blue Hill Turnpike closes.</t>
   </si>
   <si>
-    <t>Andover and Medford Turnpike opens.</t>
-  </si>
-  <si>
     <t>Andover and Medford Turnpike closes.</t>
   </si>
   <si>
-    <t>Dorchester Turnpike opens.</t>
-  </si>
-  <si>
     <t>Dorchester Turnpike closes.</t>
   </si>
   <si>
-    <t>Worcester and Stafford Turnpike opens.</t>
-  </si>
-  <si>
     <t>Worcester and Stafford Turnpike closes.</t>
   </si>
   <si>
-    <t>Plum Island Turnpike opens.</t>
-  </si>
-  <si>
-    <t>Alford and Egremont Turnpike opens.</t>
-  </si>
-  <si>
     <t>Mill Dam opens. Connects Beacon Hill to Kenmore before Back Bay filled in.</t>
   </si>
   <si>
-    <t>Barre Turnpike opens.</t>
-  </si>
-  <si>
     <t>Barre Turnpike closes.</t>
   </si>
   <si>
-    <t>Central Turnpike (Route 135) opens.</t>
-  </si>
-  <si>
     <t>Central Turnpike (Route 135) closes.</t>
   </si>
   <si>
-    <t>Pontoosac Turnpike (Chester) opens.</t>
-  </si>
-  <si>
     <t>Pontoosac Turnpike (Chester) closes.</t>
   </si>
   <si>
@@ -1788,18 +1722,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>Becket-Chester-Russell Massachusetts Turnpike opens.</t>
-  </si>
-  <si>
-    <t>New York line-Lenox-Becket-Sandisfield-Connecticut line Massachusetts Turnpike opens.</t>
-  </si>
-  <si>
-    <t>Douglas-Mendon-Bellingham Massachusetts Turnpike opens.</t>
-  </si>
-  <si>
-    <t>Egremont-Sheffield-Connecticut line Massachusetts Turnpike opens.</t>
-  </si>
-  <si>
     <t>Opening of first railroad in Austria, the Kaiser Ferdinands Nordbahn, Vienna-Floridsdorf-Deutsch-Wagram (17.7 km).</t>
   </si>
   <si>
@@ -1902,9 +1824,6 @@
     <t>The first section of the Paris Metro opens.</t>
   </si>
   <si>
-    <t>The first trains operate in what is now Romania between Oravița, Transylvania, and Baziaș, on the Danube.</t>
-  </si>
-  <si>
     <t>Long Island Railroad 401, the first diesel-electric locomotive used in mainline service, is demonstrated for the first time.</t>
   </si>
   <si>
@@ -1917,48 +1836,12 @@
     <t>Scottish vet John Boyd Dunlop patents pneumatic bicycle tire.</t>
   </si>
   <si>
-    <t>Route 3 opened Tremont St., Duxbury to Main St., Kingston</t>
-  </si>
-  <si>
-    <t>Route 2 opened Route 111, Harvard to Route 140, Westminster .</t>
-  </si>
-  <si>
-    <t>Route 24 opened Route 44, Raynham to Route 106, West Bridgewater.</t>
-  </si>
-  <si>
-    <t>Route 24 opened Route 123 to Route 27, Brockton.</t>
-  </si>
-  <si>
     <t>First west-to-east jet transatlantic nonstop flight.</t>
   </si>
   <si>
-    <t>Worcester Turnpike (Route 9) opened Grafton St. Shrewsbury to Framingham.</t>
-  </si>
-  <si>
-    <t>Worcester Turnpike (Route 9) opened Framingham to Natick/Wellesley border.</t>
-  </si>
-  <si>
-    <t>Route 3 south opened Plymouth to Sagamore Bridge.</t>
-  </si>
-  <si>
-    <t>I-95 RI state line-Route 123 Attleboro.</t>
-  </si>
-  <si>
-    <t>I-95 Route 1-Route 123 Attleboro.</t>
-  </si>
-  <si>
-    <t>Route 25 opened Route 28, Middleborough to Route 58, Wareham</t>
-  </si>
-  <si>
-    <t>Route 25 from Route 44, Middleboro to Route 24, Raynham.</t>
-  </si>
-  <si>
     <t xml:space="preserve">New York Central Railroad and Pennsylvania Railroad merged as Penn Central </t>
   </si>
   <si>
-    <t>Route 25 from Route 58  to Wareham.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Boston, Hartford &amp; Erie Railroad took over operation of the Norfolk County Railroad and the Southbridge &amp; Blackstone Railroad. </t>
   </si>
   <si>
@@ -2035,6 +1918,75 @@
   </si>
   <si>
     <t>The Oriental Railway Company opens the first section of railway in the Ottoman Empire, from Izmir to Seydikoy.</t>
+  </si>
+  <si>
+    <t>Becket-Chester-Russell Massachusetts Turnpike chartered.</t>
+  </si>
+  <si>
+    <t>Douglas-Mendon-Bellingham Massachusetts Turnpike chartered.</t>
+  </si>
+  <si>
+    <t>Worcester and Stafford Turnpike chartered.</t>
+  </si>
+  <si>
+    <t>Andover and Medford Turnpike chartered.</t>
+  </si>
+  <si>
+    <t>New York line-Lenox-Becket-Sandisfield-Connecticut line Massachusetts Turnpike chartered.</t>
+  </si>
+  <si>
+    <t>Egremont-Sheffield-Connecticut line Massachusetts Turnpike chartered.</t>
+  </si>
+  <si>
+    <t>Medford Turnpike (mostly in Somerville) chartered.</t>
+  </si>
+  <si>
+    <t>Braintree and Weymouth Turnpike chartered.</t>
+  </si>
+  <si>
+    <t>New Bedford and Bridgewater Turnpike chartered.</t>
+  </si>
+  <si>
+    <t>Dorchester Turnpike chartered.</t>
+  </si>
+  <si>
+    <t>Plum Island Turnpike chartered.</t>
+  </si>
+  <si>
+    <t>Great Barrington and Alford Turnpike chartered.</t>
+  </si>
+  <si>
+    <t>Barre Turnpike chartered.</t>
+  </si>
+  <si>
+    <t>North Branch Turnpike (Winchendon) chartered.</t>
+  </si>
+  <si>
+    <t>Central Turnpike (Route 135) chartered.</t>
+  </si>
+  <si>
+    <t>Pontoosac Turnpike (Chester-Hinsdale) opens.</t>
+  </si>
+  <si>
+    <t>Boston &amp; Lowell Railroad chartered.</t>
+  </si>
+  <si>
+    <t>New York &amp; New Haven Railroad opens.</t>
+  </si>
+  <si>
+    <t>First passenger train service to Peekskill, New York (Hudson River Railroad).</t>
+  </si>
+  <si>
+    <t>Completion of Grand Trunk Line, trains begin running between Portland, Maine and Montreal.</t>
+  </si>
+  <si>
+    <t>The first trains operate in what is now Romania between Oravita, Transylvania, and Bazias, on the Danube.</t>
+  </si>
+  <si>
+    <t>Lund, Sweden tramway opened.</t>
+  </si>
+  <si>
+    <t>The New Haven Railroad begins the first regular passenger service on an electrified steam railroad line in the U. S., on the Nantasket Beach Branch.</t>
   </si>
 </sst>
 </file>
@@ -2421,10 +2373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8479D0E-E3F6-DA41-AEC9-2CE4981D9A6E}">
-  <dimension ref="A1:B670"/>
+  <dimension ref="A1:B654"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B183" sqref="B183"/>
+    <sheetView tabSelected="1" topLeftCell="A359" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A371" sqref="A371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2435,10 +2387,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2454,7 +2406,7 @@
         <v>1800</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>587</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2462,7 +2414,7 @@
         <v>1800</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>588</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2470,7 +2422,7 @@
         <v>1800</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>589</v>
+        <v>632</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2478,7 +2430,7 @@
         <v>1800</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2486,7 +2438,7 @@
         <v>1801</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>590</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2494,7 +2446,7 @@
         <v>1801</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2502,7 +2454,7 @@
         <v>1801</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2510,7 +2462,7 @@
         <v>1802</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2518,7 +2470,7 @@
         <v>1802</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2526,7 +2478,7 @@
         <v>1803</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>527</v>
+        <v>637</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2534,7 +2486,7 @@
         <v>1803</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2542,7 +2494,7 @@
         <v>1803</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2550,7 +2502,7 @@
         <v>1803</v>
       </c>
       <c r="B15" t="s">
-        <v>528</v>
+        <v>638</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2558,7 +2510,7 @@
         <v>1803</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2574,7 +2526,7 @@
         <v>1804</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2582,7 +2534,7 @@
         <v>1804</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>529</v>
+        <v>639</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2606,15 +2558,15 @@
         <v>1805</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>537</v>
+        <v>640</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>539</v>
+        <v>633</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2622,7 +2574,7 @@
         <v>1805</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>535</v>
+        <v>634</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2638,7 +2590,7 @@
         <v>1806</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>541</v>
+        <v>641</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2662,7 +2614,7 @@
         <v>1807</v>
       </c>
       <c r="B29" t="s">
-        <v>531</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2670,7 +2622,7 @@
         <v>1807</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2678,7 +2630,7 @@
         <v>1807</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2686,15 +2638,15 @@
         <v>1807</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2702,23 +2654,23 @@
         <v>1808</v>
       </c>
       <c r="B34" t="s">
-        <v>523</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B35" t="s">
-        <v>322</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2726,55 +2678,55 @@
         <v>1809</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="B39" t="s">
-        <v>157</v>
+        <v>642</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B41" t="s">
-        <v>542</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B42" t="s">
-        <v>525</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2782,111 +2734,111 @@
         <v>1812</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>613</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="B46" t="s">
-        <v>323</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="B47" t="s">
-        <v>652</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>1814</v>
+        <v>1817</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>1817</v>
+        <v>1834</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>523</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2894,7 +2846,7 @@
         <v>1819</v>
       </c>
       <c r="B58" t="s">
-        <v>540</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,7 +2854,7 @@
         <v>1819</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2910,204 +2862,204 @@
         <v>1819</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>524</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>643</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>1821</v>
+        <v>1803</v>
       </c>
       <c r="B66" t="s">
-        <v>543</v>
+        <v>644</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="B68" t="s">
-        <v>544</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="B69" t="s">
-        <v>530</v>
+        <v>645</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="B72" t="s">
-        <v>546</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="B74" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="B75" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>614</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B77" t="s">
-        <v>325</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="B79" t="s">
-        <v>653</v>
+        <v>323</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="B81" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="B82" t="s">
-        <v>326</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="B83" t="s">
-        <v>25</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>646</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B85" t="s">
         <v>126</v>
@@ -3115,10 +3067,10 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B86" t="s">
-        <v>327</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -3126,7 +3078,7 @@
         <v>1830</v>
       </c>
       <c r="B87" t="s">
-        <v>548</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -3134,7 +3086,7 @@
         <v>1830</v>
       </c>
       <c r="B88" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3142,31 +3094,31 @@
         <v>1830</v>
       </c>
       <c r="B89" t="s">
-        <v>128</v>
+        <v>647</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>525</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>325</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B92" t="s">
-        <v>328</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -3174,7 +3126,7 @@
         <v>1831</v>
       </c>
       <c r="B93" t="s">
-        <v>545</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -3182,7 +3134,7 @@
         <v>1831</v>
       </c>
       <c r="B94" t="s">
-        <v>329</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -3190,7 +3142,7 @@
         <v>1831</v>
       </c>
       <c r="B95" t="s">
-        <v>129</v>
+        <v>327</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -3198,7 +3150,7 @@
         <v>1831</v>
       </c>
       <c r="B96" t="s">
-        <v>29</v>
+        <v>326</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3206,44 +3158,44 @@
         <v>1831</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>328</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="B98" t="s">
-        <v>331</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="B99" t="s">
-        <v>330</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="B100" t="s">
-        <v>332</v>
+        <v>583</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B101" t="s">
-        <v>156</v>
+        <v>329</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B102" t="s">
         <v>130</v>
@@ -3251,50 +3203,50 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B103" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B104" t="s">
-        <v>333</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B105" t="s">
-        <v>131</v>
+        <v>330</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B106" t="s">
-        <v>608</v>
+        <v>331</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B107" t="s">
-        <v>132</v>
+        <v>332</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B108" t="s">
-        <v>334</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3302,31 +3254,31 @@
         <v>1835</v>
       </c>
       <c r="B109" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B110" t="s">
-        <v>336</v>
+        <v>526</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B111" t="s">
-        <v>31</v>
+        <v>333</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B112" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -3334,31 +3286,31 @@
         <v>1836</v>
       </c>
       <c r="B113" t="s">
-        <v>547</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B114" t="s">
-        <v>337</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B115" t="s">
-        <v>339</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B116" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -3366,7 +3318,7 @@
         <v>1837</v>
       </c>
       <c r="B117" t="s">
-        <v>33</v>
+        <v>565</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -3374,7 +3326,7 @@
         <v>1837</v>
       </c>
       <c r="B118" t="s">
-        <v>34</v>
+        <v>566</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -3382,55 +3334,55 @@
         <v>1837</v>
       </c>
       <c r="B119" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B120" t="s">
-        <v>591</v>
+        <v>336</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B121" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B122" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B123" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B124" t="s">
-        <v>594</v>
+        <v>337</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B125" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -3438,7 +3390,7 @@
         <v>1839</v>
       </c>
       <c r="B126" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -3446,7 +3398,7 @@
         <v>1839</v>
       </c>
       <c r="B127" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -3454,143 +3406,143 @@
         <v>1839</v>
       </c>
       <c r="B128" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B129" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="B130" t="s">
-        <v>343</v>
+        <v>527</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="B131" t="s">
-        <v>37</v>
+        <v>342</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B132" t="s">
-        <v>347</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B133" t="s">
-        <v>549</v>
+        <v>341</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B134" t="s">
-        <v>346</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="B135" t="s">
-        <v>42</v>
+        <v>344</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B136" t="s">
-        <v>345</v>
+        <v>43</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B137" t="s">
-        <v>134</v>
+        <v>345</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B138" t="s">
-        <v>348</v>
+        <v>567</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B139" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="B140" t="s">
-        <v>349</v>
+        <v>44</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B141" t="s">
-        <v>593</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B142" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B143" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B144" t="s">
-        <v>45</v>
+        <v>517</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B145" t="s">
-        <v>46</v>
+        <v>624</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3598,7 +3550,7 @@
         <v>1846</v>
       </c>
       <c r="B146" t="s">
-        <v>47</v>
+        <v>346</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3606,47 +3558,47 @@
         <v>1846</v>
       </c>
       <c r="B147" t="s">
-        <v>526</v>
+        <v>629</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B148" t="s">
-        <v>663</v>
+        <v>518</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B149" t="s">
-        <v>350</v>
+        <v>48</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="B150" t="s">
-        <v>668</v>
+        <v>49</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B151" t="s">
-        <v>532</v>
+        <v>648</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>1847</v>
+        <v>1837</v>
       </c>
       <c r="B152" t="s">
-        <v>48</v>
+        <v>521</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3654,7 +3606,7 @@
         <v>1848</v>
       </c>
       <c r="B153" t="s">
-        <v>49</v>
+        <v>520</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3662,119 +3614,119 @@
         <v>1848</v>
       </c>
       <c r="B154" t="s">
-        <v>50</v>
+        <v>347</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B155" t="s">
-        <v>536</v>
+        <v>649</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="B156" t="s">
-        <v>534</v>
+        <v>50</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B157" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="B158" t="s">
-        <v>135</v>
+        <v>615</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B159" t="s">
-        <v>51</v>
+        <v>349</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B160" t="s">
-        <v>352</v>
+        <v>51</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="B161" t="s">
-        <v>654</v>
+        <v>52</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B162" t="s">
-        <v>353</v>
+        <v>53</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="B163" t="s">
-        <v>52</v>
+        <v>350</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B164" t="s">
-        <v>53</v>
+        <v>650</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B165" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B166" t="s">
-        <v>354</v>
+        <v>522</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B167" t="s">
-        <v>136</v>
+        <v>651</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B168" t="s">
-        <v>137</v>
+        <v>351</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3782,7 +3734,7 @@
         <v>1854</v>
       </c>
       <c r="B169" t="s">
-        <v>538</v>
+        <v>601</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -3790,7 +3742,7 @@
         <v>1854</v>
       </c>
       <c r="B170" t="s">
-        <v>625</v>
+        <v>352</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3798,31 +3750,31 @@
         <v>1854</v>
       </c>
       <c r="B171" t="s">
-        <v>355</v>
+        <v>135</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B172" t="s">
-        <v>628</v>
+        <v>569</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B173" t="s">
-        <v>356</v>
+        <v>54</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B174" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3830,55 +3782,55 @@
         <v>1855</v>
       </c>
       <c r="B175" t="s">
-        <v>595</v>
+        <v>137</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B176" t="s">
-        <v>55</v>
+        <v>621</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B177" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="B178" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="B179" t="s">
-        <v>660</v>
+        <v>56</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="B180" t="s">
-        <v>141</v>
+        <v>630</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B181" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -3891,407 +3843,407 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B183" t="s">
-        <v>669</v>
+        <v>58</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B184" t="s">
-        <v>158</v>
+        <v>622</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B185" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B186" t="s">
-        <v>59</v>
+        <v>353</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B187" t="s">
-        <v>661</v>
+        <v>59</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="B188" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B189" t="s">
-        <v>357</v>
+        <v>61</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B190" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="B191" t="s">
-        <v>61</v>
+        <v>623</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="B192" t="s">
-        <v>62</v>
+        <v>354</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="B193" t="s">
-        <v>173</v>
+        <v>62</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="B194" t="s">
-        <v>662</v>
+        <v>355</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="B195" t="s">
-        <v>524</v>
+        <v>63</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="B196" t="s">
-        <v>358</v>
+        <v>597</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="B197" t="s">
-        <v>63</v>
+        <v>356</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="B198" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="B199" t="s">
-        <v>64</v>
+        <v>357</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="B200" t="s">
-        <v>623</v>
+        <v>140</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="B201" t="s">
-        <v>360</v>
+        <v>605</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="B202" t="s">
-        <v>174</v>
+        <v>596</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="B203" t="s">
-        <v>361</v>
+        <v>64</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="B204" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B205" t="s">
-        <v>644</v>
+        <v>89</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B206" t="s">
-        <v>622</v>
+        <v>65</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="B207" t="s">
-        <v>65</v>
+        <v>616</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="B208" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="B209" t="s">
-        <v>90</v>
+        <v>570</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="B210" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="B211" t="s">
-        <v>655</v>
+        <v>358</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="B212" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="B213" t="s">
-        <v>596</v>
+        <v>66</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="B214" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="B215" t="s">
-        <v>362</v>
+        <v>68</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="B216" t="s">
-        <v>147</v>
+        <v>359</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="B217" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="B218" t="s">
-        <v>68</v>
+        <v>617</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="B219" t="s">
-        <v>69</v>
+        <v>360</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="B220" t="s">
-        <v>363</v>
+        <v>595</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="B221" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="B222" t="s">
-        <v>656</v>
+        <v>70</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="B223" t="s">
-        <v>364</v>
+        <v>71</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="B224" t="s">
-        <v>621</v>
+        <v>146</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="B225" t="s">
-        <v>70</v>
+        <v>361</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="B226" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="B227" t="s">
-        <v>72</v>
+        <v>362</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="B228" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="B229" t="s">
-        <v>365</v>
+        <v>72</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>1878</v>
+        <v>1881</v>
       </c>
       <c r="B230" t="s">
-        <v>150</v>
+        <v>363</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="B231" t="s">
-        <v>366</v>
+        <v>149</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>1879</v>
+        <v>1882</v>
       </c>
       <c r="B232" t="s">
-        <v>151</v>
+        <v>546</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="B233" t="s">
         <v>73</v>
@@ -4299,207 +4251,207 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="B234" t="s">
-        <v>367</v>
+        <v>264</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="B235" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B236" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="B237" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>1883</v>
+        <v>1877</v>
       </c>
       <c r="B238" t="s">
-        <v>267</v>
+        <v>606</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="B239" t="s">
-        <v>75</v>
+        <v>364</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="B240" t="s">
-        <v>647</v>
+        <v>75</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="B241" t="s">
-        <v>89</v>
+        <v>365</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B242" t="s">
-        <v>645</v>
+        <v>76</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="B243" t="s">
-        <v>368</v>
+        <v>607</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="B244" t="s">
-        <v>76</v>
+        <v>366</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B245" t="s">
-        <v>369</v>
+        <v>150</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>1886</v>
+        <v>1888</v>
       </c>
       <c r="B246" t="s">
-        <v>77</v>
+        <v>609</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B247" t="s">
-        <v>646</v>
+        <v>367</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B248" t="s">
-        <v>370</v>
+        <v>602</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c r="B249" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B250" t="s">
-        <v>648</v>
+        <v>78</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B251" t="s">
-        <v>371</v>
+        <v>79</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B252" t="s">
-        <v>629</v>
+        <v>80</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B253" t="s">
-        <v>78</v>
+        <v>368</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B254" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B255" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c r="B256" t="s">
-        <v>81</v>
+        <v>370</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="B257" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>1890</v>
+        <v>1892</v>
       </c>
       <c r="B258" t="s">
-        <v>82</v>
+        <v>371</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>1890</v>
+        <v>1892</v>
       </c>
       <c r="B259" t="s">
         <v>83</v>
@@ -4507,34 +4459,34 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="B260" t="s">
-        <v>374</v>
+        <v>86</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="B261" t="s">
-        <v>373</v>
+        <v>87</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B262" t="s">
-        <v>375</v>
+        <v>151</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B263" t="s">
-        <v>84</v>
+        <v>547</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -4542,23 +4494,23 @@
         <v>1893</v>
       </c>
       <c r="B264" t="s">
-        <v>87</v>
+        <v>372</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="B265" t="s">
-        <v>88</v>
+        <v>548</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="B266" t="s">
-        <v>154</v>
+        <v>625</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -4566,31 +4518,31 @@
         <v>1893</v>
       </c>
       <c r="B267" t="s">
-        <v>569</v>
+        <v>610</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="B268" t="s">
-        <v>376</v>
+        <v>653</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B269" t="s">
-        <v>570</v>
+        <v>611</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B270" t="s">
-        <v>664</v>
+        <v>84</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4598,7 +4550,7 @@
         <v>1895</v>
       </c>
       <c r="B271" t="s">
-        <v>649</v>
+        <v>373</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -4606,132 +4558,132 @@
         <v>1895</v>
       </c>
       <c r="B272" t="s">
-        <v>650</v>
+        <v>541</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B273" t="s">
-        <v>85</v>
+        <v>375</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B274" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B275" t="s">
-        <v>378</v>
+        <v>85</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="B276" t="s">
-        <v>563</v>
+        <v>104</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B277" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B278" t="s">
-        <v>379</v>
+        <v>105</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>1896</v>
+        <v>1898</v>
       </c>
       <c r="B279" t="s">
-        <v>86</v>
+        <v>584</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="B280" t="s">
-        <v>105</v>
+        <v>618</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="B281" t="s">
-        <v>381</v>
+        <v>598</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="B282" t="s">
-        <v>106</v>
+        <v>378</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="B283" t="s">
-        <v>610</v>
+        <v>377</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="B284" t="s">
-        <v>657</v>
+        <v>106</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="B285" t="s">
-        <v>624</v>
+        <v>593</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="B286" t="s">
-        <v>383</v>
+        <v>594</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="B287" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="B288" t="s">
         <v>107</v>
@@ -4742,287 +4694,287 @@
         <v>1900</v>
       </c>
       <c r="B289" t="s">
-        <v>619</v>
+        <v>108</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B290" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B291" t="s">
-        <v>384</v>
+        <v>109</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="B292" t="s">
-        <v>108</v>
+        <v>380</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="B293" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="B294" t="s">
-        <v>597</v>
+        <v>381</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="B295" t="s">
-        <v>110</v>
+        <v>572</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B296" t="s">
-        <v>385</v>
+        <v>111</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>1902</v>
+        <v>1904</v>
       </c>
       <c r="B297" t="s">
-        <v>111</v>
+        <v>382</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="B298" t="s">
-        <v>386</v>
+        <v>112</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="B299" t="s">
-        <v>598</v>
+        <v>113</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="B300" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="B301" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="B302" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>1904</v>
+        <v>1906</v>
       </c>
       <c r="B303" t="s">
-        <v>114</v>
+        <v>385</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>1904</v>
+        <v>1906</v>
       </c>
       <c r="B304" t="s">
-        <v>115</v>
+        <v>384</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="B305" t="s">
-        <v>388</v>
+        <v>115</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="B306" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B307" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B308" t="s">
-        <v>389</v>
+        <v>117</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="B309" t="s">
-        <v>116</v>
+        <v>387</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="B310" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="B311" t="s">
-        <v>391</v>
+        <v>157</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="B312" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B313" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B314" t="s">
-        <v>159</v>
+        <v>388</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B315" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="B316" t="s">
-        <v>161</v>
+        <v>390</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="B317" t="s">
-        <v>394</v>
+        <v>160</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="B318" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="B319" t="s">
-        <v>162</v>
+        <v>542</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="B320" t="s">
-        <v>395</v>
+        <v>573</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="B321" t="s">
-        <v>163</v>
+        <v>392</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B322" t="s">
-        <v>396</v>
+        <v>161</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B323" t="s">
-        <v>564</v>
+        <v>162</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B324" t="s">
-        <v>599</v>
+        <v>163</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -5030,148 +4982,148 @@
         <v>1912</v>
       </c>
       <c r="B325" t="s">
-        <v>397</v>
+        <v>167</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="B326" t="s">
-        <v>164</v>
+        <v>393</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="B327" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="B328" t="s">
-        <v>166</v>
+        <v>552</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="B329" t="s">
-        <v>170</v>
+        <v>394</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="B330" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="B331" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c r="B332" t="s">
-        <v>574</v>
+        <v>396</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="B333" t="s">
-        <v>399</v>
+        <v>166</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="B334" t="s">
-        <v>400</v>
+        <v>626</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="B335" t="s">
-        <v>168</v>
+        <v>397</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="B336" t="s">
-        <v>401</v>
+        <v>168</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="B337" t="s">
-        <v>169</v>
+        <v>398</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="B338" t="s">
-        <v>665</v>
+        <v>399</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="B339" t="s">
-        <v>402</v>
+        <v>169</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="B340" t="s">
-        <v>171</v>
+        <v>581</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="B341" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="B342" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="B343" t="s">
         <v>172</v>
@@ -5179,207 +5131,207 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="B344" t="s">
-        <v>607</v>
+        <v>402</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="B345" t="s">
-        <v>405</v>
+        <v>173</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="B346" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="B347" t="s">
-        <v>175</v>
+        <v>553</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="B348" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="B349" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="B350" t="s">
-        <v>408</v>
+        <v>175</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="B351" t="s">
-        <v>575</v>
+        <v>176</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="B352" t="s">
-        <v>409</v>
+        <v>177</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="B353" t="s">
-        <v>177</v>
+        <v>406</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="B354" t="s">
-        <v>178</v>
+        <v>405</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="B355" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="B356" t="s">
-        <v>180</v>
+        <v>599</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="B357" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="B358" t="s">
-        <v>410</v>
+        <v>179</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="B359" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="B360" t="s">
-        <v>626</v>
+        <v>408</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="B361" t="s">
-        <v>412</v>
+        <v>181</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="B362" t="s">
-        <v>182</v>
+        <v>409</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="B363" t="s">
-        <v>183</v>
+        <v>554</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="B364" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="B365" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="B366" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="B367" t="s">
-        <v>576</v>
+        <v>183</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="B368" t="s">
-        <v>415</v>
+        <v>184</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="B369" t="s">
         <v>185</v>
@@ -5387,15 +5339,15 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="B370" t="s">
-        <v>416</v>
+        <v>574</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="B371" t="s">
         <v>186</v>
@@ -5403,103 +5355,103 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B372" t="s">
-        <v>187</v>
+        <v>585</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B373" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="B374" t="s">
-        <v>600</v>
+        <v>188</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="B375" t="s">
-        <v>635</v>
+        <v>189</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="B376" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="B377" t="s">
-        <v>611</v>
+        <v>412</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="B378" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="B379" t="s">
-        <v>636</v>
+        <v>192</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="B380" t="s">
-        <v>191</v>
+        <v>413</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="B381" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>1932</v>
+        <v>1935</v>
       </c>
       <c r="B382" t="s">
-        <v>193</v>
+        <v>415</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="B383" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="B384" t="s">
         <v>194</v>
@@ -5507,7 +5459,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="B385" t="s">
         <v>195</v>
@@ -5515,207 +5467,207 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="B386" t="s">
-        <v>418</v>
+        <v>196</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="B387" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="B388" t="s">
-        <v>420</v>
+        <v>200</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="B389" t="s">
-        <v>419</v>
+        <v>201</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="B390" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="B391" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="B392" t="s">
-        <v>199</v>
+        <v>416</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="B393" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="B394" t="s">
-        <v>203</v>
+        <v>417</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="B395" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>1937</v>
+        <v>1940</v>
       </c>
       <c r="B396" t="s">
-        <v>201</v>
+        <v>418</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>1937</v>
+        <v>1940</v>
       </c>
       <c r="B397" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="B398" t="s">
-        <v>421</v>
+        <v>205</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="B399" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="B400" t="s">
-        <v>422</v>
+        <v>207</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="B401" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="B402" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="B403" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="B404" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>1940</v>
-      </c>
-      <c r="B405" t="s">
-        <v>209</v>
+        <v>1942</v>
+      </c>
+      <c r="B405" s="8" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>1941</v>
-      </c>
-      <c r="B406" t="s">
-        <v>210</v>
+        <v>1943</v>
+      </c>
+      <c r="B406" s="8" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>1941</v>
-      </c>
-      <c r="B407" t="s">
-        <v>211</v>
+        <v>1943</v>
+      </c>
+      <c r="B407" s="8" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="B408" t="s">
-        <v>424</v>
+        <v>211</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>1942</v>
-      </c>
-      <c r="B409" t="s">
-        <v>212</v>
+        <v>1944</v>
+      </c>
+      <c r="B409" s="8" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="B410" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
-        <v>1942</v>
+        <v>1945</v>
       </c>
       <c r="B411" s="8" t="s">
         <v>425</v>
@@ -5723,39 +5675,39 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="B414" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>1944</v>
-      </c>
-      <c r="B415" s="8" t="s">
-        <v>428</v>
+        <v>1946</v>
+      </c>
+      <c r="B415" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>1944</v>
+        <v>1946</v>
       </c>
       <c r="B416" t="s">
         <v>215</v>
@@ -5763,55 +5715,55 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
-        <v>1945</v>
-      </c>
-      <c r="B417" s="8" t="s">
-        <v>430</v>
+        <v>1946</v>
+      </c>
+      <c r="B417" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
-        <v>1945</v>
-      </c>
-      <c r="B418" s="8" t="s">
-        <v>431</v>
+        <v>1947</v>
+      </c>
+      <c r="B418" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
-        <v>1945</v>
-      </c>
-      <c r="B419" s="8" t="s">
-        <v>429</v>
+        <v>1947</v>
+      </c>
+      <c r="B419" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="B420" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="B421" t="s">
-        <v>217</v>
+        <v>428</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="B422" t="s">
-        <v>218</v>
+        <v>543</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="B423" t="s">
         <v>219</v>
@@ -5819,151 +5771,151 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="B424" t="s">
-        <v>432</v>
+        <v>220</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="B425" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="B426" t="s">
-        <v>221</v>
+        <v>429</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>1947</v>
+        <v>1950</v>
       </c>
       <c r="B427" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="B428" t="s">
-        <v>565</v>
+        <v>222</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>1948</v>
+        <v>1951</v>
       </c>
       <c r="B429" t="s">
-        <v>222</v>
+        <v>432</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="B430" t="s">
-        <v>223</v>
+        <v>431</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="B431" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>1949</v>
+        <v>1952</v>
       </c>
       <c r="B432" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="B433" t="s">
-        <v>435</v>
+        <v>224</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>1950</v>
+        <v>1953</v>
       </c>
       <c r="B434" t="s">
-        <v>225</v>
+        <v>434</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="B435" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="B436" t="s">
-        <v>436</v>
+        <v>603</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>1951</v>
+        <v>1954</v>
       </c>
       <c r="B437" t="s">
-        <v>226</v>
+        <v>436</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="B438" t="s">
-        <v>438</v>
+        <v>226</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="B439" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="B440" t="s">
-        <v>631</v>
+        <v>590</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="B441" t="s">
-        <v>632</v>
+        <v>438</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="B442" t="s">
         <v>439</v>
@@ -5971,95 +5923,95 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="B443" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="B444" t="s">
-        <v>634</v>
+        <v>227</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="B445" t="s">
-        <v>441</v>
+        <v>228</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c r="B446" t="s">
-        <v>229</v>
+        <v>441</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c r="B447" t="s">
-        <v>228</v>
+        <v>440</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="B448" t="s">
-        <v>630</v>
+        <v>442</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="B449" t="s">
-        <v>616</v>
+        <v>229</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="B450" t="s">
-        <v>443</v>
+        <v>575</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="B451" t="s">
-        <v>444</v>
+        <v>230</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="B452" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="B453" t="s">
-        <v>230</v>
+        <v>443</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="B454" t="s">
         <v>231</v>
@@ -6067,95 +6019,95 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="B455" t="s">
-        <v>633</v>
+        <v>446</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="B456" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="B457" t="s">
-        <v>445</v>
+        <v>232</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
-        <v>1956</v>
+        <v>1959</v>
       </c>
       <c r="B458" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
-        <v>1956</v>
+        <v>1959</v>
       </c>
       <c r="B459" t="s">
-        <v>232</v>
+        <v>447</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="B460" t="s">
-        <v>601</v>
+        <v>233</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="B461" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="B462" t="s">
-        <v>449</v>
+        <v>235</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
-        <v>1957</v>
+        <v>1960</v>
       </c>
       <c r="B463" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
-        <v>1957</v>
+        <v>1960</v>
       </c>
       <c r="B464" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
-        <v>1958</v>
+        <v>1961</v>
       </c>
       <c r="B465" t="s">
-        <v>637</v>
+        <v>450</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
-        <v>1958</v>
+        <v>1961</v>
       </c>
       <c r="B466" t="s">
         <v>451</v>
@@ -6163,63 +6115,63 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
-        <v>1958</v>
+        <v>1961</v>
       </c>
       <c r="B467" t="s">
-        <v>450</v>
+        <v>237</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="B468" t="s">
-        <v>235</v>
+        <v>453</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="B469" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="B470" t="s">
-        <v>452</v>
+        <v>555</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="B471" t="s">
-        <v>236</v>
+        <v>588</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="B472" t="s">
-        <v>237</v>
+        <v>556</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
-        <v>1959</v>
+        <v>1963</v>
       </c>
       <c r="B473" t="s">
-        <v>238</v>
+        <v>589</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
-        <v>1960</v>
+        <v>1963</v>
       </c>
       <c r="B474" t="s">
         <v>454</v>
@@ -6227,351 +6179,351 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
-        <v>1960</v>
+        <v>1964</v>
       </c>
       <c r="B475" t="s">
-        <v>239</v>
+        <v>455</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
-        <v>1961</v>
+        <v>1964</v>
       </c>
       <c r="B476" t="s">
-        <v>455</v>
+        <v>238</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
-        <v>1961</v>
+        <v>1964</v>
       </c>
       <c r="B477" t="s">
-        <v>456</v>
+        <v>239</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
-        <v>1961</v>
+        <v>1965</v>
       </c>
       <c r="B478" t="s">
-        <v>240</v>
+        <v>456</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="B479" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="B480" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="B481" t="s">
-        <v>577</v>
+        <v>240</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
-        <v>1962</v>
+        <v>1966</v>
       </c>
       <c r="B482" t="s">
-        <v>614</v>
+        <v>459</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
-        <v>1962</v>
+        <v>1966</v>
       </c>
       <c r="B483" t="s">
-        <v>578</v>
+        <v>241</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="B484" t="s">
-        <v>638</v>
+        <v>557</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="B485" t="s">
-        <v>641</v>
+        <v>242</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
-        <v>1963</v>
+        <v>1967</v>
       </c>
       <c r="B486" t="s">
-        <v>615</v>
+        <v>461</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
-        <v>1963</v>
+        <v>1967</v>
       </c>
       <c r="B487" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
-        <v>1964</v>
+        <v>1967</v>
       </c>
       <c r="B488" t="s">
-        <v>639</v>
+        <v>243</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
-        <v>1964</v>
+        <v>1967</v>
       </c>
       <c r="B489" t="s">
-        <v>460</v>
+        <v>244</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
-        <v>1964</v>
+        <v>1967</v>
       </c>
       <c r="B490" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
-        <v>1964</v>
+        <v>1967</v>
       </c>
       <c r="B491" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="B492" t="s">
-        <v>461</v>
+        <v>247</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="B493" t="s">
-        <v>462</v>
+        <v>558</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
-        <v>1965</v>
+        <v>1968</v>
       </c>
       <c r="B494" t="s">
-        <v>463</v>
+        <v>604</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
-        <v>1965</v>
+        <v>1968</v>
       </c>
       <c r="B495" t="s">
-        <v>243</v>
+        <v>544</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="B496" t="s">
-        <v>640</v>
+        <v>464</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="B497" t="s">
-        <v>464</v>
+        <v>248</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="B498" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="B499" t="s">
-        <v>579</v>
+        <v>250</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
-        <v>1966</v>
+        <v>1969</v>
       </c>
       <c r="B500" t="s">
-        <v>245</v>
+        <v>612</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="B501" t="s">
-        <v>466</v>
+        <v>591</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="B502" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="B503" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="B504" t="s">
-        <v>247</v>
+        <v>559</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="B505" t="s">
-        <v>248</v>
+        <v>462</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="B506" t="s">
-        <v>249</v>
+        <v>549</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
-        <v>1967</v>
+        <v>1971</v>
       </c>
       <c r="B507" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
-        <v>1967</v>
+        <v>1971</v>
       </c>
       <c r="B508" t="s">
-        <v>580</v>
+        <v>253</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="B509" t="s">
-        <v>643</v>
+        <v>465</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="B510" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="B511" t="s">
-        <v>566</v>
+        <v>254</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
-        <v>1968</v>
+        <v>1973</v>
       </c>
       <c r="B512" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
-        <v>1968</v>
+        <v>1973</v>
       </c>
       <c r="B513" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
-        <v>1968</v>
+        <v>1973</v>
       </c>
       <c r="B514" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
-        <v>1968</v>
+        <v>1974</v>
       </c>
       <c r="B515" t="s">
-        <v>253</v>
+        <v>467</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
-        <v>1969</v>
+        <v>1974</v>
       </c>
       <c r="B516" t="s">
-        <v>651</v>
+        <v>256</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
-        <v>1969</v>
+        <v>1974</v>
       </c>
       <c r="B517" t="s">
-        <v>617</v>
+        <v>257</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
-        <v>1969</v>
+        <v>1975</v>
       </c>
       <c r="B518" t="s">
         <v>468</v>
@@ -6579,279 +6531,279 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
-        <v>1969</v>
+        <v>1975</v>
       </c>
       <c r="B519" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
-        <v>1969</v>
+        <v>1975</v>
       </c>
       <c r="B520" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
-        <v>1970</v>
+        <v>1976</v>
       </c>
       <c r="B521" t="s">
-        <v>467</v>
+        <v>592</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
-        <v>1970</v>
+        <v>1976</v>
       </c>
       <c r="B522" t="s">
-        <v>571</v>
+        <v>469</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
-        <v>1971</v>
+        <v>1976</v>
       </c>
       <c r="B523" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
-        <v>1971</v>
+        <v>1976</v>
       </c>
       <c r="B524" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="B525" t="s">
-        <v>470</v>
+        <v>260</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
-        <v>1972</v>
+        <v>1977</v>
       </c>
       <c r="B526" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
-        <v>1972</v>
+        <v>1977</v>
       </c>
       <c r="B527" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
-        <v>1973</v>
+        <v>1977</v>
       </c>
       <c r="B528" t="s">
-        <v>471</v>
+        <v>262</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
-        <v>1973</v>
+        <v>1977</v>
       </c>
       <c r="B529" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
-        <v>1973</v>
+        <v>1977</v>
       </c>
       <c r="B530" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="B531" t="s">
-        <v>472</v>
+        <v>266</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
-        <v>1974</v>
+        <v>1978</v>
       </c>
       <c r="B532" t="s">
-        <v>259</v>
+        <v>470</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
-        <v>1974</v>
+        <v>1978</v>
       </c>
       <c r="B533" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="B534" t="s">
-        <v>473</v>
+        <v>550</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="B535" t="s">
-        <v>261</v>
+        <v>471</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="B536" t="s">
-        <v>582</v>
+        <v>268</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="B537" t="s">
-        <v>618</v>
+        <v>473</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="B538" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="B539" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="B540" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
-        <v>1976</v>
+        <v>1981</v>
       </c>
       <c r="B541" t="s">
-        <v>263</v>
+        <v>475</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="B542" t="s">
-        <v>658</v>
+        <v>474</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="B543" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="B544" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
-        <v>1977</v>
+        <v>1982</v>
       </c>
       <c r="B545" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
-        <v>1977</v>
+        <v>1982</v>
       </c>
       <c r="B546" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
-        <v>1977</v>
+        <v>1982</v>
       </c>
       <c r="B547" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
-        <v>1978</v>
+        <v>1982</v>
       </c>
       <c r="B548" t="s">
-        <v>475</v>
+        <v>278</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
-        <v>1978</v>
+        <v>1983</v>
       </c>
       <c r="B549" t="s">
-        <v>270</v>
+        <v>476</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
-        <v>1979</v>
+        <v>1983</v>
       </c>
       <c r="B550" t="s">
-        <v>572</v>
+        <v>477</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
-        <v>1979</v>
+        <v>1983</v>
       </c>
       <c r="B551" t="s">
-        <v>476</v>
+        <v>628</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
-        <v>1979</v>
+        <v>1984</v>
       </c>
       <c r="B552" t="s">
-        <v>271</v>
+        <v>479</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="B553" t="s">
         <v>478</v>
@@ -6859,591 +6811,591 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="B554" t="s">
-        <v>477</v>
+        <v>279</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="B555" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
-        <v>1980</v>
+        <v>1985</v>
       </c>
       <c r="B556" t="s">
-        <v>273</v>
+        <v>576</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="B557" t="s">
-        <v>480</v>
+        <v>577</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="B558" t="s">
-        <v>479</v>
+        <v>281</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
-        <v>1981</v>
+        <v>1986</v>
       </c>
       <c r="B559" t="s">
-        <v>274</v>
+        <v>481</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
-        <v>1981</v>
+        <v>1986</v>
       </c>
       <c r="B560" t="s">
-        <v>275</v>
+        <v>480</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
-        <v>1982</v>
+        <v>1986</v>
       </c>
       <c r="B561" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
-        <v>1982</v>
+        <v>1986</v>
       </c>
       <c r="B562" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
-        <v>1982</v>
+        <v>1986</v>
       </c>
       <c r="B563" t="s">
-        <v>280</v>
+        <v>561</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
-        <v>1982</v>
+        <v>1987</v>
       </c>
       <c r="B564" t="s">
-        <v>281</v>
+        <v>482</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="B565" t="s">
-        <v>481</v>
+        <v>562</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
-        <v>1983</v>
+        <v>1988</v>
       </c>
       <c r="B566" t="s">
-        <v>482</v>
+        <v>284</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
-        <v>1983</v>
+        <v>1988</v>
       </c>
       <c r="B567" t="s">
-        <v>667</v>
+        <v>620</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="B568" t="s">
-        <v>484</v>
+        <v>285</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="B569" t="s">
-        <v>483</v>
+        <v>286</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
-        <v>1984</v>
+        <v>1989</v>
       </c>
       <c r="B570" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
-        <v>1984</v>
+        <v>1989</v>
       </c>
       <c r="B571" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="B572" t="s">
-        <v>602</v>
+        <v>289</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
-        <v>1985</v>
+        <v>1990</v>
       </c>
       <c r="B573" t="s">
-        <v>603</v>
+        <v>528</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
-        <v>1985</v>
+        <v>1990</v>
       </c>
       <c r="B574" t="s">
-        <v>284</v>
+        <v>484</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="B575" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="B576" t="s">
-        <v>485</v>
+        <v>290</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
-        <v>1986</v>
+        <v>1991</v>
       </c>
       <c r="B577" t="s">
-        <v>285</v>
+        <v>485</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
-        <v>1986</v>
+        <v>1991</v>
       </c>
       <c r="B578" t="s">
-        <v>286</v>
+        <v>486</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
-        <v>1986</v>
+        <v>1991</v>
       </c>
       <c r="B579" t="s">
-        <v>583</v>
+        <v>487</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
-        <v>1987</v>
+        <v>1992</v>
       </c>
       <c r="B580" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
-        <v>1987</v>
+        <v>1992</v>
       </c>
       <c r="B581" t="s">
-        <v>584</v>
+        <v>316</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="B582" t="s">
-        <v>287</v>
+        <v>586</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
-        <v>1988</v>
+        <v>1993</v>
       </c>
       <c r="B583" t="s">
-        <v>659</v>
+        <v>489</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
-        <v>1988</v>
+        <v>1993</v>
       </c>
       <c r="B584" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
-        <v>1988</v>
+        <v>1994</v>
       </c>
       <c r="B585" t="s">
-        <v>289</v>
+        <v>490</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
-        <v>1989</v>
+        <v>1994</v>
       </c>
       <c r="B586" t="s">
-        <v>290</v>
+        <v>600</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
-        <v>1989</v>
+        <v>1994</v>
       </c>
       <c r="B587" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
-        <v>1989</v>
+        <v>1995</v>
       </c>
       <c r="B588" t="s">
-        <v>292</v>
+        <v>493</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
-        <v>1990</v>
+        <v>1995</v>
       </c>
       <c r="B589" t="s">
-        <v>550</v>
+        <v>492</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
-        <v>1990</v>
+        <v>1995</v>
       </c>
       <c r="B590" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
-        <v>1990</v>
+        <v>1995</v>
       </c>
       <c r="B591" t="s">
-        <v>488</v>
+        <v>296</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
-        <v>1990</v>
+        <v>1996</v>
       </c>
       <c r="B592" t="s">
-        <v>293</v>
+        <v>494</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
-        <v>1991</v>
+        <v>1996</v>
       </c>
       <c r="B593" t="s">
-        <v>490</v>
+        <v>299</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="B594" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="B595" t="s">
-        <v>492</v>
+        <v>293</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
-        <v>1992</v>
+        <v>1998</v>
       </c>
       <c r="B596" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
-        <v>1992</v>
+        <v>1998</v>
       </c>
       <c r="B597" t="s">
-        <v>319</v>
+        <v>496</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
-        <v>1992</v>
+        <v>1998</v>
       </c>
       <c r="B598" t="s">
-        <v>612</v>
+        <v>294</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
-        <v>1993</v>
+        <v>1999</v>
       </c>
       <c r="B599" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
-        <v>1993</v>
+        <v>1999</v>
       </c>
       <c r="B600" t="s">
-        <v>318</v>
+        <v>498</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
-        <v>1994</v>
+        <v>1999</v>
       </c>
       <c r="B601" t="s">
-        <v>495</v>
+        <v>295</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
-        <v>1994</v>
+        <v>2000</v>
       </c>
       <c r="B602" t="s">
-        <v>627</v>
+        <v>500</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
-        <v>1994</v>
+        <v>2000</v>
       </c>
       <c r="B603" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="B604" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
-        <v>1995</v>
+        <v>2001</v>
       </c>
       <c r="B605" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
-        <v>1995</v>
+        <v>2001</v>
       </c>
       <c r="B606" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
-        <v>1995</v>
+        <v>2001</v>
       </c>
       <c r="B607" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
-        <v>1996</v>
+        <v>2002</v>
       </c>
       <c r="B608" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
-        <v>1996</v>
+        <v>2002</v>
       </c>
       <c r="B609" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
-        <v>1997</v>
+        <v>2003</v>
       </c>
       <c r="B610" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
-        <v>1997</v>
+        <v>2003</v>
       </c>
       <c r="B611" t="s">
-        <v>296</v>
+        <v>503</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="B612" t="s">
-        <v>502</v>
+        <v>301</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
-        <v>1998</v>
+        <v>2004</v>
       </c>
       <c r="B613" t="s">
-        <v>501</v>
+        <v>535</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
-        <v>1998</v>
+        <v>2004</v>
       </c>
       <c r="B614" t="s">
-        <v>297</v>
+        <v>504</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="B615" t="s">
-        <v>504</v>
+        <v>536</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="B616" t="s">
-        <v>503</v>
+        <v>545</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="B617" t="s">
-        <v>298</v>
+        <v>505</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="B618" t="s">
-        <v>505</v>
+        <v>303</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="B619" t="s">
-        <v>303</v>
+        <v>537</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="B620" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="B621" t="s">
-        <v>556</v>
+        <v>578</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="B622" t="s">
-        <v>506</v>
+        <v>304</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="B623" t="s">
-        <v>305</v>
+        <v>506</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="B624" t="s">
-        <v>507</v>
+        <v>580</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="B625" t="s">
-        <v>300</v>
+        <v>507</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="B626" t="s">
-        <v>551</v>
+        <v>305</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="B627" t="s">
         <v>508</v>
@@ -7451,23 +7403,23 @@
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="B628" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="B629" t="s">
-        <v>557</v>
+        <v>530</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="B630" t="s">
         <v>509</v>
@@ -7475,322 +7427,194 @@
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="B631" t="s">
-        <v>558</v>
+        <v>307</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="B632" t="s">
-        <v>567</v>
+        <v>539</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="B633" t="s">
-        <v>510</v>
+        <v>308</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
-        <v>2005</v>
+        <v>2013</v>
       </c>
       <c r="B634" t="s">
-        <v>306</v>
+        <v>510</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="B635" t="s">
-        <v>559</v>
+        <v>309</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="B636" t="s">
-        <v>560</v>
+        <v>511</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="B637" t="s">
-        <v>604</v>
+        <v>579</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="B638" t="s">
-        <v>307</v>
+        <v>587</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="B639" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="B640" t="s">
-        <v>606</v>
+        <v>310</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="B641" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="B642" t="s">
-        <v>308</v>
+        <v>513</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="B643" t="s">
-        <v>513</v>
+        <v>311</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="B644" t="s">
-        <v>309</v>
+        <v>532</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="B645" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="B646" t="s">
-        <v>514</v>
+        <v>312</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="B647" t="s">
-        <v>310</v>
+        <v>515</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="B648" t="s">
-        <v>561</v>
+        <v>516</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="B649" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="B650" t="s">
-        <v>515</v>
+        <v>551</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="B651" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="B652" t="s">
-        <v>516</v>
+        <v>652</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="B653" t="s">
-        <v>605</v>
+        <v>291</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="B654" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A655" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B655" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A656" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B656" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A657" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B657" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A658" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B658" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A659" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B659" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A660" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B660" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A661" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B661" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A662" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B662" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A663" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B663" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A664" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B664" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A665" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B665" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A666" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B666" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A667" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B667" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A668" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B668" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A669" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B669" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A670" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B670" t="s">
-        <v>317</v>
       </c>
     </row>
   </sheetData>
